--- a/Tabulados/TAentidadrank_delegacion.xlsx
+++ b/Tabulados/TAentidadrank_delegacion.xlsx
@@ -915,7 +915,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Tabulados/TAentidadrank_delegacion.xlsx
+++ b/Tabulados/TAentidadrank_delegacion.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arturo.carrillo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susana.galindo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D4ADE73-D24B-4A67-A827-0819B4E62276}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="ta_ febrero" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Trabajadores asegurados</t>
   </si>
@@ -210,110 +209,11 @@
   <si>
     <t>Febrero 2021 respecto a Febrero 2020</t>
   </si>
-  <si>
-    <t>2020/Feb</t>
-  </si>
-  <si>
-    <t>CIUDAD DE MÉXICO</t>
-  </si>
-  <si>
-    <t>GUERRERO</t>
-  </si>
-  <si>
-    <t>MORELOS</t>
-  </si>
-  <si>
-    <t>QUERÉTARO</t>
-  </si>
-  <si>
-    <t>AGUASCALIENTES</t>
-  </si>
-  <si>
-    <t>CHIHUAHUA</t>
-  </si>
-  <si>
-    <t>COAHUILA</t>
-  </si>
-  <si>
-    <t>DURANGO</t>
-  </si>
-  <si>
-    <t>NUEVO LEÓN</t>
-  </si>
-  <si>
-    <t>SAN LUIS POTOSÍ</t>
-  </si>
-  <si>
-    <t>TAMAULIPAS</t>
-  </si>
-  <si>
-    <t>ZACATECAS</t>
-  </si>
-  <si>
-    <t>BAJA CALIFORNIA</t>
-  </si>
-  <si>
-    <t>BAJA CALIFORNIA SUR</t>
-  </si>
-  <si>
-    <t>COLIMA</t>
-  </si>
-  <si>
-    <t>GUANAJUATO</t>
-  </si>
-  <si>
-    <t>JALISCO</t>
-  </si>
-  <si>
-    <t>MICHOACÁN</t>
-  </si>
-  <si>
-    <t>NAYARIT</t>
-  </si>
-  <si>
-    <t>SINALOA</t>
-  </si>
-  <si>
-    <t>SONORA</t>
-  </si>
-  <si>
-    <t>CAMPECHE</t>
-  </si>
-  <si>
-    <t>CHIAPAS</t>
-  </si>
-  <si>
-    <t>HIDALGO</t>
-  </si>
-  <si>
-    <t>OAXACA</t>
-  </si>
-  <si>
-    <t>PUEBLA</t>
-  </si>
-  <si>
-    <t>QUINTANA ROO</t>
-  </si>
-  <si>
-    <t>TABASCO</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>VERACRUZ</t>
-  </si>
-  <si>
-    <t>YUCATÁN</t>
-  </si>
-  <si>
-    <t>NACIONAL</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -545,7 +445,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -601,45 +501,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -658,8 +519,6 @@
     </xf>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -710,13 +569,49 @@
     <xf numFmtId="10" fontId="4" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{448FA727-B174-407C-87C4-95070233D3E3}"/>
-    <cellStyle name="Normal 7" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 7 2" xfId="5" xr:uid="{2E5296D1-9C26-449A-9AE8-6D35EDC22110}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 7" xfId="3"/>
+    <cellStyle name="Normal 7 2" xfId="5"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -994,88 +889,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCFBF75-EB47-4D89-94FD-AA4CE236970D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="5" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" customWidth="1"/>
-    <col min="13" max="14" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.08984375" customWidth="1"/>
+    <col min="2" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="18" width="9.42578125" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1091,51 +977,51 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="28" t="s">
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29" t="s">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-    </row>
-    <row r="6" spans="1:24" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+    </row>
+    <row r="6" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1160,10 +1046,10 @@
       <c r="N6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="35" t="s">
+      <c r="P6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -1172,28 +1058,25 @@
       <c r="R6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="36"/>
-      <c r="U6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="23"/>
+    </row>
+    <row r="7" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4">
         <v>328291</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="24">
         <v>321424</v>
       </c>
       <c r="D7" s="5">
         <v>338559</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="24">
         <v>328665</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="25">
         <v>330675</v>
       </c>
       <c r="G7" s="6">
@@ -1208,19 +1091,19 @@
         <f>_xlfn.RANK.EQ(G7,$G$7:$G$38)</f>
         <v>19</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="26">
         <f>_xlfn.RANK.EQ(H7,$H$7:$H$38)</f>
         <v>17</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="27">
         <f>F7-C7</f>
         <v>9251</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="28">
         <f>F7/C7-1</f>
         <v>2.8781298222908092E-2</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="27">
         <f>_xlfn.RANK.EQ(K7,$K$7:$K$38)</f>
         <v>11</v>
       </c>
@@ -1228,53 +1111,40 @@
         <f>_xlfn.RANK.EQ(L7,$L$7:$L$38)</f>
         <v>3</v>
       </c>
-      <c r="O7" s="42">
+      <c r="O7" s="29">
         <f>F7-D7</f>
         <v>-7884</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="30">
         <f>F7/D7-1</f>
         <v>-2.3286930786066806E-2</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="31">
         <f>_xlfn.RANK.EQ(O7,$O$7:$O$38)</f>
         <v>15</v>
       </c>
-      <c r="R7" s="45">
+      <c r="R7" s="32">
         <f>_xlfn.RANK.EQ(P7,$P$7:$P$38)</f>
         <v>17</v>
       </c>
-      <c r="T7" t="s">
-        <v>52</v>
-      </c>
-      <c r="U7">
-        <v>3447038</v>
-      </c>
-      <c r="W7" t="s">
-        <v>8</v>
-      </c>
-      <c r="X7">
-        <f>VLOOKUP(W7,$T$6:$U$39,2,FALSE)</f>
-        <v>338559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="4">
         <v>919138</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="24">
         <v>944174</v>
       </c>
       <c r="D8" s="5">
         <v>940382</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="24">
         <v>964088</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="25">
         <v>970897</v>
       </c>
       <c r="G8" s="5">
@@ -1289,19 +1159,19 @@
         <f t="shared" ref="I8:I38" si="2">_xlfn.RANK.EQ(G8,$G$7:$G$38)</f>
         <v>6</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="27">
         <f t="shared" ref="J8:J38" si="3">_xlfn.RANK.EQ(H8,$H$7:$H$38)</f>
         <v>15</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="27">
         <f t="shared" ref="K8:K39" si="4">F8-C8</f>
         <v>26723</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="28">
         <f t="shared" ref="L8:L39" si="5">F8/C8-1</f>
         <v>2.830304583689025E-2</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="27">
         <f t="shared" ref="M8:M38" si="6">_xlfn.RANK.EQ(K8,$K$7:$K$38)</f>
         <v>1</v>
       </c>
@@ -1309,53 +1179,40 @@
         <f t="shared" ref="N8:N38" si="7">_xlfn.RANK.EQ(L8,$L$7:$L$38)</f>
         <v>4</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="29">
         <f t="shared" ref="O8:O39" si="8">F8-D8</f>
         <v>30515</v>
       </c>
-      <c r="P8" s="43">
+      <c r="P8" s="30">
         <f t="shared" ref="P8:P39" si="9">F8/D8-1</f>
         <v>3.2449579000874085E-2</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="31">
         <f t="shared" ref="Q8:Q38" si="10">_xlfn.RANK.EQ(O8,$O$7:$O$38)</f>
         <v>1</v>
       </c>
-      <c r="R8" s="47">
+      <c r="R8" s="32">
         <f t="shared" ref="R8:R38" si="11">_xlfn.RANK.EQ(P8,$P$7:$P$38)</f>
         <v>2</v>
       </c>
-      <c r="T8" t="s">
-        <v>53</v>
-      </c>
-      <c r="U8">
-        <v>156351</v>
-      </c>
-      <c r="W8" t="s">
-        <v>9</v>
-      </c>
-      <c r="X8">
-        <f t="shared" ref="X8:X38" si="12">VLOOKUP(W8,$T$6:$U$39,2,FALSE)</f>
-        <v>940382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4">
         <v>184435</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="24">
         <v>170112</v>
       </c>
       <c r="D9" s="5">
         <v>185493</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="24">
         <v>167720</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="25">
         <v>167746</v>
       </c>
       <c r="G9" s="5">
@@ -1370,19 +1227,19 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="27">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="27">
         <f t="shared" si="4"/>
         <v>-2366</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="28">
         <f t="shared" si="5"/>
         <v>-1.3908483822422824E-2</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="27">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
@@ -1390,53 +1247,40 @@
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="O9" s="42">
+      <c r="O9" s="29">
         <f t="shared" si="8"/>
         <v>-17747</v>
       </c>
-      <c r="P9" s="43">
+      <c r="P9" s="30">
         <f t="shared" si="9"/>
         <v>-9.5674769398306103E-2</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="31">
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R9" s="32">
         <f t="shared" si="11"/>
         <v>31</v>
       </c>
-      <c r="T9" t="s">
-        <v>54</v>
-      </c>
-      <c r="U9">
-        <v>213476</v>
-      </c>
-      <c r="W9" t="s">
-        <v>10</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="12"/>
-        <v>185493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>133675</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="24">
         <v>125731</v>
       </c>
       <c r="D10" s="5">
         <v>134890</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="24">
         <v>126216</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="25">
         <v>127199</v>
       </c>
       <c r="G10" s="5">
@@ -1451,19 +1295,19 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="27">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="27">
         <f t="shared" si="4"/>
         <v>1468</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="28">
         <f t="shared" si="5"/>
         <v>1.1675720387175792E-2</v>
       </c>
-      <c r="M10" s="40">
+      <c r="M10" s="27">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
@@ -1471,53 +1315,40 @@
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="O10" s="42">
+      <c r="O10" s="29">
         <f t="shared" si="8"/>
         <v>-7691</v>
       </c>
-      <c r="P10" s="43">
+      <c r="P10" s="30">
         <f t="shared" si="9"/>
         <v>-5.7016828526947894E-2</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="31">
         <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="R10" s="47">
+      <c r="R10" s="32">
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
-      <c r="T10" t="s">
-        <v>18</v>
-      </c>
-      <c r="U10">
-        <v>1638840</v>
-      </c>
-      <c r="W10" t="s">
-        <v>11</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="12"/>
-        <v>134890</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
         <v>227505</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="24">
         <v>221463</v>
       </c>
       <c r="D11" s="5">
         <v>225972</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="24">
         <v>218863</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="25">
         <v>223027</v>
       </c>
       <c r="G11" s="5">
@@ -1532,19 +1363,19 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="27">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="27">
         <f t="shared" si="4"/>
         <v>1564</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="28">
         <f t="shared" si="5"/>
         <v>7.0621277594902221E-3</v>
       </c>
-      <c r="M11" s="40">
+      <c r="M11" s="27">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
@@ -1552,53 +1383,40 @@
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="29">
         <f t="shared" si="8"/>
         <v>-2945</v>
       </c>
-      <c r="P11" s="43">
+      <c r="P11" s="30">
         <f t="shared" si="9"/>
         <v>-1.3032588108261245E-2</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="31">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="R11" s="47">
+      <c r="R11" s="32">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="T11" t="s">
-        <v>55</v>
-      </c>
-      <c r="U11">
-        <v>615585</v>
-      </c>
-      <c r="W11" t="s">
-        <v>12</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="12"/>
-        <v>225972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4">
         <v>892899</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="24">
         <v>903594</v>
       </c>
       <c r="D12" s="5">
         <v>902039</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="24">
         <v>913562</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="25">
         <v>915962</v>
       </c>
       <c r="G12" s="5">
@@ -1613,19 +1431,19 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="27">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="27">
         <f t="shared" si="4"/>
         <v>12368</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="28">
         <f t="shared" si="5"/>
         <v>1.3687563219764609E-2</v>
       </c>
-      <c r="M12" s="40">
+      <c r="M12" s="27">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -1633,53 +1451,40 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="29">
         <f t="shared" si="8"/>
         <v>13923</v>
       </c>
-      <c r="P12" s="43">
+      <c r="P12" s="30">
         <f t="shared" si="9"/>
         <v>1.5435031079587436E-2</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="31">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="R12" s="47">
+      <c r="R12" s="32">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="T12" t="s">
-        <v>56</v>
-      </c>
-      <c r="U12">
-        <v>338559</v>
-      </c>
-      <c r="W12" t="s">
-        <v>13</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="12"/>
-        <v>902039</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="4">
         <v>3470048</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="24">
         <v>3246669</v>
       </c>
       <c r="D13" s="5">
         <v>3447038</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="24">
         <v>3217900</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="25">
         <v>3216913</v>
       </c>
       <c r="G13" s="5">
@@ -1694,19 +1499,19 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="27">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="27">
         <f t="shared" si="4"/>
         <v>-29756</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="28">
         <f t="shared" si="5"/>
         <v>-9.1650858156467896E-3</v>
       </c>
-      <c r="M13" s="40">
+      <c r="M13" s="27">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
@@ -1714,53 +1519,40 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="29">
         <f t="shared" si="8"/>
         <v>-230125</v>
       </c>
-      <c r="P13" s="43">
+      <c r="P13" s="30">
         <f t="shared" si="9"/>
         <v>-6.6760215582189697E-2</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="31">
         <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="R13" s="47">
+      <c r="R13" s="32">
         <f t="shared" si="11"/>
         <v>29</v>
       </c>
-      <c r="T13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U13">
-        <v>902039</v>
-      </c>
-      <c r="W13" t="s">
-        <v>14</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="12"/>
-        <v>3447038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="4">
         <v>776527</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="24">
         <v>757473</v>
       </c>
       <c r="D14" s="5">
         <v>780681</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="24">
         <v>763001</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="25">
         <v>766489</v>
       </c>
       <c r="G14" s="5">
@@ -1775,19 +1567,19 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="27">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="27">
         <f t="shared" si="4"/>
         <v>9016</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="28">
         <f t="shared" si="5"/>
         <v>1.1902734486905819E-2</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="27">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
@@ -1795,53 +1587,41 @@
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="29">
         <f t="shared" si="8"/>
         <v>-14192</v>
       </c>
-      <c r="P14" s="43">
+      <c r="P14" s="30">
         <f t="shared" si="9"/>
         <v>-1.8179000129374234E-2</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14" s="31">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="R14" s="47">
+      <c r="R14" s="32">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="T14" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="U14">
-        <v>780681</v>
-      </c>
-      <c r="W14" t="s">
-        <v>15</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="12"/>
-        <v>780681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T14" s="23"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4">
         <v>138790</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="24">
         <v>135945</v>
       </c>
       <c r="D15" s="5">
         <v>139287</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="24">
         <v>136513</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="25">
         <v>137020</v>
       </c>
       <c r="G15" s="5">
@@ -1856,19 +1636,19 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="27">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="27">
         <f t="shared" si="4"/>
         <v>1075</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="28">
         <f t="shared" si="5"/>
         <v>7.9076096950971841E-3</v>
       </c>
-      <c r="M15" s="40">
+      <c r="M15" s="27">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
@@ -1876,53 +1656,41 @@
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="O15" s="42">
+      <c r="O15" s="29">
         <f t="shared" si="8"/>
         <v>-2267</v>
       </c>
-      <c r="P15" s="43">
+      <c r="P15" s="30">
         <f t="shared" si="9"/>
         <v>-1.6275747198230994E-2</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="31">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="R15" s="47">
+      <c r="R15" s="32">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="T15" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="U15">
-        <v>245574</v>
-      </c>
-      <c r="W15" t="s">
-        <v>16</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="12"/>
-        <v>139287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T15" s="23"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="4">
         <v>242643</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="24">
         <v>239136</v>
       </c>
       <c r="D16" s="5">
         <v>245574</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="24">
         <v>241106</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="25">
         <v>241978</v>
       </c>
       <c r="G16" s="5">
@@ -1937,19 +1705,19 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="27">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="27">
         <f t="shared" si="4"/>
         <v>2842</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="28">
         <f t="shared" si="5"/>
         <v>1.1884450689147563E-2</v>
       </c>
-      <c r="M16" s="40">
+      <c r="M16" s="27">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
@@ -1957,53 +1725,41 @@
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="O16" s="42">
+      <c r="O16" s="29">
         <f t="shared" si="8"/>
         <v>-3596</v>
       </c>
-      <c r="P16" s="43">
+      <c r="P16" s="30">
         <f t="shared" si="9"/>
         <v>-1.4643243991627752E-2</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="31">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="R16" s="47">
+      <c r="R16" s="32">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="T16" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="U16">
-        <v>1655159</v>
-      </c>
-      <c r="W16" t="s">
-        <v>17</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="12"/>
-        <v>245574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T16" s="23"/>
+    </row>
+    <row r="17" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>1626181</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="24">
         <v>1593415</v>
       </c>
       <c r="D17" s="5">
         <v>1638840</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="24">
         <v>1594259</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="25">
         <v>1603856</v>
       </c>
       <c r="G17" s="5">
@@ -2018,19 +1774,19 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="27">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="27">
         <f t="shared" si="4"/>
         <v>10441</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="28">
         <f t="shared" si="5"/>
         <v>6.5525930156300483E-3</v>
       </c>
-      <c r="M17" s="40">
+      <c r="M17" s="27">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -2038,53 +1794,41 @@
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="29">
         <f t="shared" si="8"/>
         <v>-34984</v>
       </c>
-      <c r="P17" s="43">
+      <c r="P17" s="30">
         <f t="shared" si="9"/>
         <v>-2.1346806277610986E-2</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="31">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="R17" s="47">
+      <c r="R17" s="32">
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="T17" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="U17">
-        <v>455287</v>
-      </c>
-      <c r="W17" t="s">
-        <v>18</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="12"/>
-        <v>1638840</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T17" s="23"/>
+    </row>
+    <row r="18" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="4">
         <v>1007762</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="24">
         <v>973396</v>
       </c>
       <c r="D18" s="5">
         <v>1013555</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="24">
         <v>977981</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="25">
         <v>985130</v>
       </c>
       <c r="G18" s="5">
@@ -2099,19 +1843,19 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="27">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="27">
         <f t="shared" si="4"/>
         <v>11734</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="28">
         <f t="shared" si="5"/>
         <v>1.2054703327319949E-2</v>
       </c>
-      <c r="M18" s="40">
+      <c r="M18" s="27">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -2119,53 +1863,41 @@
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="29">
         <f t="shared" si="8"/>
         <v>-28425</v>
       </c>
-      <c r="P18" s="43">
+      <c r="P18" s="30">
         <f t="shared" si="9"/>
         <v>-2.8044852030723488E-2</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="31">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="R18" s="47">
+      <c r="R18" s="32">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
-      <c r="T18" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="U18">
-        <v>702453</v>
-      </c>
-      <c r="W18" t="s">
-        <v>19</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="12"/>
-        <v>1013555</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T18" s="23"/>
+    </row>
+    <row r="19" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="4">
         <v>159549</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="24">
         <v>146771</v>
       </c>
       <c r="D19" s="5">
         <v>156351</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="24">
         <v>142961</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="25">
         <v>143318</v>
       </c>
       <c r="G19" s="5">
@@ -2180,19 +1912,19 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="27">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="27">
         <f t="shared" si="4"/>
         <v>-3453</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="28">
         <f t="shared" si="5"/>
         <v>-2.3526445960032949E-2</v>
       </c>
-      <c r="M19" s="40">
+      <c r="M19" s="27">
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
@@ -2200,53 +1932,41 @@
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="O19" s="42">
+      <c r="O19" s="29">
         <f t="shared" si="8"/>
         <v>-13033</v>
       </c>
-      <c r="P19" s="43">
+      <c r="P19" s="30">
         <f t="shared" si="9"/>
         <v>-8.3357317829754862E-2</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="31">
         <f t="shared" si="10"/>
         <v>19</v>
       </c>
-      <c r="R19" s="47">
+      <c r="R19" s="32">
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="T19" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="U19">
-        <v>189057</v>
-      </c>
-      <c r="W19" t="s">
-        <v>20</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="12"/>
-        <v>156351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T19" s="23"/>
+    </row>
+    <row r="20" spans="1:24" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="4">
         <v>227679</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="24">
         <v>218499</v>
       </c>
       <c r="D20" s="5">
         <v>233747</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="24">
         <v>221013</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="25">
         <v>222065</v>
       </c>
       <c r="G20" s="5">
@@ -2261,19 +1981,19 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="27">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20" s="27">
         <f t="shared" si="4"/>
         <v>3566</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="28">
         <f t="shared" si="5"/>
         <v>1.6320440825816185E-2</v>
       </c>
-      <c r="M20" s="40">
+      <c r="M20" s="27">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
@@ -2281,136 +2001,116 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="29">
         <f t="shared" si="8"/>
         <v>-11682</v>
       </c>
-      <c r="P20" s="43">
+      <c r="P20" s="30">
         <f t="shared" si="9"/>
         <v>-4.9977112005715529E-2</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="31">
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="R20" s="47">
+      <c r="R20" s="32">
         <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="S20"/>
-      <c r="T20" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="U20">
-        <v>940382</v>
-      </c>
-      <c r="W20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="12"/>
-        <v>233747</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="48" t="s">
+      <c r="T20" s="23"/>
+      <c r="U20"/>
+      <c r="X20"/>
+    </row>
+    <row r="21" spans="1:24" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="34">
         <v>1812699</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="35">
         <v>1780367</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="36">
         <v>1837966</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="35">
         <v>1787122</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="37">
         <v>1800733</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="36">
         <f>F21-E21</f>
         <v>13611</v>
       </c>
-      <c r="H21" s="53">
+      <c r="H21" s="38">
         <f>F21/E21-1</f>
         <v>7.6161560318770416E-3</v>
       </c>
-      <c r="I21" s="54">
+      <c r="I21" s="39">
         <f>_xlfn.RANK.EQ(G21,$G$7:$G$38)</f>
         <v>2</v>
       </c>
-      <c r="J21" s="55">
+      <c r="J21" s="40">
         <f>_xlfn.RANK.EQ(H21,$H$7:$H$38)</f>
         <v>10</v>
       </c>
-      <c r="K21" s="55">
+      <c r="K21" s="40">
         <f t="shared" si="4"/>
         <v>20366</v>
       </c>
-      <c r="L21" s="56">
+      <c r="L21" s="41">
         <f t="shared" si="5"/>
         <v>1.1439214499032957E-2</v>
       </c>
-      <c r="M21" s="55">
+      <c r="M21" s="40">
         <f>_xlfn.RANK.EQ(K21,$K$7:$K$38)</f>
         <v>3</v>
       </c>
-      <c r="N21" s="54">
+      <c r="N21" s="39">
         <f>_xlfn.RANK.EQ(L21,$L$7:$L$38)</f>
         <v>17</v>
       </c>
-      <c r="O21" s="57">
+      <c r="O21" s="42">
         <f t="shared" si="8"/>
         <v>-37233</v>
       </c>
-      <c r="P21" s="58">
+      <c r="P21" s="43">
         <f t="shared" si="9"/>
         <v>-2.0257719674901531E-2</v>
       </c>
-      <c r="Q21" s="59">
+      <c r="Q21" s="44">
         <f>_xlfn.RANK.EQ(O21,$O$7:$O$38)</f>
         <v>29</v>
       </c>
-      <c r="R21" s="60">
+      <c r="R21" s="45">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="S21"/>
-      <c r="T21" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="U21">
-        <v>185493</v>
-      </c>
-      <c r="W21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="12"/>
-        <v>1837966</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T21" s="23"/>
+      <c r="U21"/>
+      <c r="X21"/>
+    </row>
+    <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="4">
         <v>463598</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="24">
         <v>461602</v>
       </c>
       <c r="D22" s="5">
         <v>468015</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="24">
         <v>458944</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="25">
         <v>462035</v>
       </c>
       <c r="G22" s="5">
@@ -2425,19 +2125,19 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="27">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="27">
         <f t="shared" si="4"/>
         <v>433</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="28">
         <f t="shared" si="5"/>
         <v>9.3803753016663549E-4</v>
       </c>
-      <c r="M22" s="40">
+      <c r="M22" s="27">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
@@ -2445,53 +2145,41 @@
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="O22" s="42">
+      <c r="O22" s="29">
         <f t="shared" si="8"/>
         <v>-5980</v>
       </c>
-      <c r="P22" s="43">
+      <c r="P22" s="30">
         <f t="shared" si="9"/>
         <v>-1.2777368246744247E-2</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22" s="31">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="R22" s="47">
+      <c r="R22" s="32">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="T22" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="U22">
-        <v>139287</v>
-      </c>
-      <c r="W22" t="s">
-        <v>23</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="12"/>
-        <v>468015</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T22" s="23"/>
+    </row>
+    <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="4">
         <v>211336</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="24">
         <v>205308</v>
       </c>
       <c r="D23" s="5">
         <v>213476</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="24">
         <v>205548</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="25">
         <v>206050</v>
       </c>
       <c r="G23" s="5">
@@ -2506,19 +2194,19 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="27">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="K23" s="40">
+      <c r="K23" s="27">
         <f t="shared" si="4"/>
         <v>742</v>
       </c>
-      <c r="L23" s="41">
+      <c r="L23" s="28">
         <f t="shared" si="5"/>
         <v>3.6140822569017406E-3</v>
       </c>
-      <c r="M23" s="40">
+      <c r="M23" s="27">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
@@ -2526,53 +2214,41 @@
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="O23" s="42">
+      <c r="O23" s="29">
         <f t="shared" si="8"/>
         <v>-7426</v>
       </c>
-      <c r="P23" s="43">
+      <c r="P23" s="30">
         <f t="shared" si="9"/>
         <v>-3.4786111787741936E-2</v>
       </c>
-      <c r="Q23" s="46">
+      <c r="Q23" s="31">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="R23" s="47">
+      <c r="R23" s="32">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="T23" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="U23">
-        <v>1013555</v>
-      </c>
-      <c r="W23" t="s">
-        <v>24</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="12"/>
-        <v>213476</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T23" s="23"/>
+    </row>
+    <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="4">
         <v>152317</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="24">
         <v>149477</v>
       </c>
       <c r="D24" s="5">
         <v>159617</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="24">
         <v>150458</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="25">
         <v>151811</v>
       </c>
       <c r="G24" s="5">
@@ -2587,19 +2263,19 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="27">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="27">
         <f t="shared" si="4"/>
         <v>2334</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="28">
         <f t="shared" si="5"/>
         <v>1.5614442355680103E-2</v>
       </c>
-      <c r="M24" s="40">
+      <c r="M24" s="27">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
@@ -2607,53 +2283,41 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="O24" s="42">
+      <c r="O24" s="29">
         <f t="shared" si="8"/>
         <v>-7806</v>
       </c>
-      <c r="P24" s="43">
+      <c r="P24" s="30">
         <f t="shared" si="9"/>
         <v>-4.8904565303194536E-2</v>
       </c>
-      <c r="Q24" s="46">
+      <c r="Q24" s="31">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="R24" s="47">
+      <c r="R24" s="32">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="T24" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="U24">
-        <v>1837966</v>
-      </c>
-      <c r="W24" t="s">
-        <v>25</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="12"/>
-        <v>159617</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T24" s="23"/>
+    </row>
+    <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4">
         <v>1632927</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="24">
         <v>1610359</v>
       </c>
       <c r="D25" s="5">
         <v>1655159</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="24">
         <v>1619270</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="25">
         <v>1626135</v>
       </c>
       <c r="G25" s="5">
@@ -2668,19 +2332,19 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="27">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="27">
         <f t="shared" si="4"/>
         <v>15776</v>
       </c>
-      <c r="L25" s="41">
+      <c r="L25" s="28">
         <f t="shared" si="5"/>
         <v>9.7965733106717412E-3</v>
       </c>
-      <c r="M25" s="40">
+      <c r="M25" s="27">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -2688,53 +2352,41 @@
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="O25" s="42">
+      <c r="O25" s="29">
         <f t="shared" si="8"/>
         <v>-29024</v>
       </c>
-      <c r="P25" s="43">
+      <c r="P25" s="30">
         <f t="shared" si="9"/>
         <v>-1.7535475443748894E-2</v>
       </c>
-      <c r="Q25" s="46">
+      <c r="Q25" s="31">
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="R25" s="47">
+      <c r="R25" s="32">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="T25" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="U25">
-        <v>468015</v>
-      </c>
-      <c r="W25" t="s">
-        <v>26</v>
-      </c>
-      <c r="X25">
-        <f t="shared" si="12"/>
-        <v>1655159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T25" s="23"/>
+    </row>
+    <row r="26" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="4">
         <v>212784</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="24">
         <v>208539</v>
       </c>
       <c r="D26" s="5">
         <v>216685</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="24">
         <v>207314</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="25">
         <v>208345</v>
       </c>
       <c r="G26" s="5">
@@ -2749,19 +2401,19 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="J26" s="40">
+      <c r="J26" s="27">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="K26" s="40">
+      <c r="K26" s="27">
         <f t="shared" si="4"/>
         <v>-194</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="28">
         <f t="shared" si="5"/>
         <v>-9.3028162597885711E-4</v>
       </c>
-      <c r="M26" s="40">
+      <c r="M26" s="27">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
@@ -2769,53 +2421,41 @@
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="29">
         <f t="shared" si="8"/>
         <v>-8340</v>
       </c>
-      <c r="P26" s="43">
+      <c r="P26" s="30">
         <f t="shared" si="9"/>
         <v>-3.8489050926460044E-2</v>
       </c>
-      <c r="Q26" s="46">
+      <c r="Q26" s="31">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="R26" s="47">
+      <c r="R26" s="32">
         <f t="shared" si="11"/>
         <v>22</v>
       </c>
-      <c r="T26" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="U26">
-        <v>159617</v>
-      </c>
-      <c r="W26" t="s">
-        <v>27</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="12"/>
-        <v>216685</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T26" s="23"/>
+    </row>
+    <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="4">
         <v>629401</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="24">
         <v>590229</v>
       </c>
       <c r="D27" s="5">
         <v>628017</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="24">
         <v>586200</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="25">
         <v>589535</v>
       </c>
       <c r="G27" s="5">
@@ -2830,19 +2470,19 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27" s="27">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="K27" s="40">
+      <c r="K27" s="27">
         <f t="shared" si="4"/>
         <v>-694</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="28">
         <f t="shared" si="5"/>
         <v>-1.1758148108615973E-3</v>
       </c>
-      <c r="M27" s="40">
+      <c r="M27" s="27">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
@@ -2850,53 +2490,41 @@
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="O27" s="42">
+      <c r="O27" s="29">
         <f t="shared" si="8"/>
         <v>-38482</v>
       </c>
-      <c r="P27" s="43">
+      <c r="P27" s="30">
         <f t="shared" si="9"/>
         <v>-6.1275411334406504E-2</v>
       </c>
-      <c r="Q27" s="46">
+      <c r="Q27" s="31">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="R27" s="47">
+      <c r="R27" s="32">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="T27" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="U27">
-        <v>587810</v>
-      </c>
-      <c r="W27" t="s">
-        <v>28</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="12"/>
-        <v>628017</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T27" s="23"/>
+    </row>
+    <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
         <v>607919</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="24">
         <v>595496</v>
       </c>
       <c r="D28" s="5">
         <v>615585</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="24">
         <v>600127</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="25">
         <v>606706</v>
       </c>
       <c r="G28" s="5">
@@ -2911,19 +2539,19 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J28" s="27">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K28" s="40">
+      <c r="K28" s="27">
         <f t="shared" si="4"/>
         <v>11210</v>
       </c>
-      <c r="L28" s="41">
+      <c r="L28" s="28">
         <f t="shared" si="5"/>
         <v>1.8824643658395646E-2</v>
       </c>
-      <c r="M28" s="40">
+      <c r="M28" s="27">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
@@ -2931,53 +2559,41 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="O28" s="42">
+      <c r="O28" s="29">
         <f t="shared" si="8"/>
         <v>-8879</v>
       </c>
-      <c r="P28" s="43">
+      <c r="P28" s="30">
         <f t="shared" si="9"/>
         <v>-1.442367828975688E-2</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="Q28" s="31">
         <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="R28" s="47">
+      <c r="R28" s="32">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="T28" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="U28">
-        <v>611885</v>
-      </c>
-      <c r="W28" t="s">
-        <v>29</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="12"/>
-        <v>615585</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T28" s="23"/>
+    </row>
+    <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="4">
         <v>463164</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="24">
         <v>365783</v>
       </c>
       <c r="D29" s="5">
         <v>472041</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="24">
         <v>362807</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="25">
         <v>363772</v>
       </c>
       <c r="G29" s="5">
@@ -2992,19 +2608,19 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="27">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="K29" s="40">
+      <c r="K29" s="27">
         <f t="shared" si="4"/>
         <v>-2011</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="28">
         <f t="shared" si="5"/>
         <v>-5.4977951408348158E-3</v>
       </c>
-      <c r="M29" s="40">
+      <c r="M29" s="27">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
@@ -3012,53 +2628,41 @@
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="O29" s="42">
+      <c r="O29" s="29">
         <f t="shared" si="8"/>
         <v>-108269</v>
       </c>
-      <c r="P29" s="43">
+      <c r="P29" s="30">
         <f t="shared" si="9"/>
         <v>-0.22936355104747252</v>
       </c>
-      <c r="Q29" s="46">
+      <c r="Q29" s="31">
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="R29" s="47">
+      <c r="R29" s="32">
         <f t="shared" si="11"/>
         <v>32</v>
       </c>
-      <c r="T29" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="U29">
-        <v>134890</v>
-      </c>
-      <c r="W29" t="s">
-        <v>30</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="12"/>
-        <v>472041</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T29" s="23"/>
+    </row>
+    <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="4">
         <v>447346</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="24">
         <v>440501</v>
       </c>
       <c r="D30" s="5">
         <v>455287</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="24">
         <v>444131</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="25">
         <v>447419</v>
       </c>
       <c r="G30" s="5">
@@ -3073,19 +2677,19 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="27">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30" s="27">
         <f t="shared" si="4"/>
         <v>6918</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L30" s="28">
         <f t="shared" si="5"/>
         <v>1.5704845164937087E-2</v>
       </c>
-      <c r="M30" s="40">
+      <c r="M30" s="27">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
@@ -3093,53 +2697,41 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="O30" s="42">
+      <c r="O30" s="29">
         <f t="shared" si="8"/>
         <v>-7868</v>
       </c>
-      <c r="P30" s="43">
+      <c r="P30" s="30">
         <f t="shared" si="9"/>
         <v>-1.7281407112436753E-2</v>
       </c>
-      <c r="Q30" s="46">
+      <c r="Q30" s="31">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="R30" s="47">
+      <c r="R30" s="32">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="T30" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="U30">
-        <v>225972</v>
-      </c>
-      <c r="W30" t="s">
-        <v>31</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="12"/>
-        <v>455287</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T30" s="23"/>
+    </row>
+    <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="4">
         <v>577442</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="24">
         <v>570100</v>
       </c>
       <c r="D31" s="5">
         <v>587810</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="24">
         <v>577248</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="25">
         <v>581325</v>
       </c>
       <c r="G31" s="5">
@@ -3154,19 +2746,19 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J31" s="40">
+      <c r="J31" s="27">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="27">
         <f t="shared" si="4"/>
         <v>11225</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="28">
         <f t="shared" si="5"/>
         <v>1.968952815295566E-2</v>
       </c>
-      <c r="M31" s="40">
+      <c r="M31" s="27">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -3174,53 +2766,41 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="O31" s="42">
+      <c r="O31" s="29">
         <f t="shared" si="8"/>
         <v>-6485</v>
       </c>
-      <c r="P31" s="43">
+      <c r="P31" s="30">
         <f t="shared" si="9"/>
         <v>-1.1032476480495435E-2</v>
       </c>
-      <c r="Q31" s="46">
+      <c r="Q31" s="31">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="R31" s="47">
+      <c r="R31" s="32">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="T31" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="U31">
-        <v>233747</v>
-      </c>
-      <c r="W31" t="s">
-        <v>32</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="12"/>
-        <v>587810</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T31" s="23"/>
+    </row>
+    <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="4">
         <v>586576</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="24">
         <v>575636</v>
       </c>
       <c r="D32" s="5">
         <v>611885</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="24">
         <v>583878</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="25">
         <v>597596</v>
       </c>
       <c r="G32" s="5">
@@ -3235,19 +2815,19 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J32" s="40">
+      <c r="J32" s="27">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K32" s="40">
+      <c r="K32" s="27">
         <f t="shared" si="4"/>
         <v>21960</v>
       </c>
-      <c r="L32" s="41">
+      <c r="L32" s="28">
         <f t="shared" si="5"/>
         <v>3.8149108116934949E-2</v>
       </c>
-      <c r="M32" s="40">
+      <c r="M32" s="27">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
@@ -3255,53 +2835,41 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="O32" s="42">
+      <c r="O32" s="29">
         <f t="shared" si="8"/>
         <v>-14289</v>
       </c>
-      <c r="P32" s="43">
+      <c r="P32" s="30">
         <f t="shared" si="9"/>
         <v>-2.3352427335201931E-2</v>
       </c>
-      <c r="Q32" s="46">
+      <c r="Q32" s="31">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="R32" s="47">
+      <c r="R32" s="32">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="T32" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="U32">
-        <v>216685</v>
-      </c>
-      <c r="W32" t="s">
-        <v>33</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="12"/>
-        <v>611885</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T32" s="23"/>
+    </row>
+    <row r="33" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="4">
         <v>171220</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="24">
         <v>174213</v>
       </c>
       <c r="D33" s="5">
         <v>173223</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="24">
         <v>175361</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="25">
         <v>179307</v>
       </c>
       <c r="G33" s="5">
@@ -3316,19 +2884,19 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J33" s="40">
+      <c r="J33" s="27">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K33" s="40">
+      <c r="K33" s="27">
         <f t="shared" si="4"/>
         <v>5094</v>
       </c>
-      <c r="L33" s="41">
+      <c r="L33" s="28">
         <f t="shared" si="5"/>
         <v>2.9240068192385227E-2</v>
       </c>
-      <c r="M33" s="40">
+      <c r="M33" s="27">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
@@ -3336,53 +2904,41 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="O33" s="42">
+      <c r="O33" s="29">
         <f t="shared" si="8"/>
         <v>6084</v>
       </c>
-      <c r="P33" s="43">
+      <c r="P33" s="30">
         <f t="shared" si="9"/>
         <v>3.5122356730919124E-2</v>
       </c>
-      <c r="Q33" s="46">
+      <c r="Q33" s="31">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="R33" s="47">
+      <c r="R33" s="32">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="T33" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="U33">
-        <v>628017</v>
-      </c>
-      <c r="W33" t="s">
-        <v>34</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="12"/>
-        <v>173223</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T33" s="23"/>
+    </row>
+    <row r="34" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="4">
         <v>692500</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="24">
         <v>672536</v>
       </c>
       <c r="D34" s="5">
         <v>702453</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="24">
         <v>677274</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="25">
         <v>682804</v>
       </c>
       <c r="G34" s="5">
@@ -3397,19 +2953,19 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J34" s="40">
+      <c r="J34" s="27">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K34" s="40">
+      <c r="K34" s="27">
         <f t="shared" si="4"/>
         <v>10268</v>
       </c>
-      <c r="L34" s="41">
+      <c r="L34" s="28">
         <f t="shared" si="5"/>
         <v>1.5267584188801697E-2</v>
       </c>
-      <c r="M34" s="40">
+      <c r="M34" s="27">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
@@ -3417,53 +2973,41 @@
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="O34" s="42">
+      <c r="O34" s="29">
         <f t="shared" si="8"/>
         <v>-19649</v>
       </c>
-      <c r="P34" s="43">
+      <c r="P34" s="30">
         <f t="shared" si="9"/>
         <v>-2.7971978196406067E-2</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="Q34" s="31">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="R34" s="47">
+      <c r="R34" s="32">
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
-      <c r="T34" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="U34">
-        <v>472041</v>
-      </c>
-      <c r="W34" t="s">
-        <v>35</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="12"/>
-        <v>702453</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T34" s="23"/>
+    </row>
+    <row r="35" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="4">
         <v>102273</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="24">
         <v>99057</v>
       </c>
       <c r="D35" s="5">
         <v>103111</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="24">
         <v>99545</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="25">
         <v>101686</v>
       </c>
       <c r="G35" s="5">
@@ -3478,19 +3022,19 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="J35" s="40">
+      <c r="J35" s="27">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K35" s="40">
+      <c r="K35" s="27">
         <f t="shared" si="4"/>
         <v>2629</v>
       </c>
-      <c r="L35" s="41">
+      <c r="L35" s="28">
         <f t="shared" si="5"/>
         <v>2.6540274791281737E-2</v>
       </c>
-      <c r="M35" s="40">
+      <c r="M35" s="27">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
@@ -3498,53 +3042,41 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="O35" s="42">
+      <c r="O35" s="29">
         <f t="shared" si="8"/>
         <v>-1425</v>
       </c>
-      <c r="P35" s="43">
+      <c r="P35" s="30">
         <f t="shared" si="9"/>
         <v>-1.3820057995752144E-2</v>
       </c>
-      <c r="Q35" s="46">
+      <c r="Q35" s="31">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="R35" s="47">
+      <c r="R35" s="32">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="T35" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="U35">
-        <v>173223</v>
-      </c>
-      <c r="W35" t="s">
-        <v>36</v>
-      </c>
-      <c r="X35">
-        <f t="shared" si="12"/>
-        <v>103111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T35" s="23"/>
+    </row>
+    <row r="36" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="4">
         <v>749350</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="24">
         <v>725198</v>
       </c>
       <c r="D36" s="5">
         <v>757110</v>
       </c>
-      <c r="E36" s="37">
+      <c r="E36" s="24">
         <v>721627</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="25">
         <v>723182</v>
       </c>
       <c r="G36" s="5">
@@ -3559,19 +3091,19 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="J36" s="40">
+      <c r="J36" s="27">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="K36" s="40">
+      <c r="K36" s="27">
         <f t="shared" si="4"/>
         <v>-2016</v>
       </c>
-      <c r="L36" s="41">
+      <c r="L36" s="28">
         <f t="shared" si="5"/>
         <v>-2.7799304465815355E-3</v>
       </c>
-      <c r="M36" s="40">
+      <c r="M36" s="27">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
@@ -3579,53 +3111,41 @@
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="O36" s="42">
+      <c r="O36" s="29">
         <f t="shared" si="8"/>
         <v>-33928</v>
       </c>
-      <c r="P36" s="43">
+      <c r="P36" s="30">
         <f t="shared" si="9"/>
         <v>-4.4812510731597754E-2</v>
       </c>
-      <c r="Q36" s="46">
+      <c r="Q36" s="31">
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
-      <c r="R36" s="47">
+      <c r="R36" s="32">
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="T36" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="U36">
-        <v>103111</v>
-      </c>
-      <c r="W36" t="s">
-        <v>37</v>
-      </c>
-      <c r="X36">
-        <f t="shared" si="12"/>
-        <v>757110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T36" s="23"/>
+    </row>
+    <row r="37" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="4">
         <v>384295</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="24">
         <v>364449</v>
       </c>
       <c r="D37" s="5">
         <v>384631</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="24">
         <v>364457</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="25">
         <v>368320</v>
       </c>
       <c r="G37" s="5">
@@ -3640,19 +3160,19 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="J37" s="40">
+      <c r="J37" s="27">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K37" s="40">
+      <c r="K37" s="27">
         <f t="shared" si="4"/>
         <v>3871</v>
       </c>
-      <c r="L37" s="41">
+      <c r="L37" s="28">
         <f t="shared" si="5"/>
         <v>1.0621513572543817E-2</v>
       </c>
-      <c r="M37" s="40">
+      <c r="M37" s="27">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
@@ -3660,53 +3180,41 @@
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="O37" s="42">
+      <c r="O37" s="29">
         <f t="shared" si="8"/>
         <v>-16311</v>
       </c>
-      <c r="P37" s="43">
+      <c r="P37" s="30">
         <f t="shared" si="9"/>
         <v>-4.2406878280741855E-2</v>
       </c>
-      <c r="Q37" s="46">
+      <c r="Q37" s="31">
         <f t="shared" si="10"/>
         <v>22</v>
       </c>
-      <c r="R37" s="47">
+      <c r="R37" s="32">
         <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="T37" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="U37">
-        <v>757110</v>
-      </c>
-      <c r="W37" t="s">
-        <v>38</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="12"/>
-        <v>384631</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="T37" s="23"/>
+    </row>
+    <row r="38" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="4">
         <v>189173</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="24">
         <v>187080</v>
       </c>
       <c r="D38" s="5">
         <v>189057</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="24">
         <v>186492</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="25">
         <v>187902</v>
       </c>
       <c r="G38" s="5">
@@ -3721,19 +3229,19 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="J38" s="40">
+      <c r="J38" s="27">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="K38" s="40">
+      <c r="K38" s="27">
         <f t="shared" si="4"/>
         <v>822</v>
       </c>
-      <c r="L38" s="41">
+      <c r="L38" s="28">
         <f t="shared" si="5"/>
         <v>4.3938422065425975E-3</v>
       </c>
-      <c r="M38" s="40">
+      <c r="M38" s="27">
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
@@ -3741,54 +3249,42 @@
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="O38" s="42">
+      <c r="O38" s="29">
         <f t="shared" si="8"/>
         <v>-1155</v>
       </c>
-      <c r="P38" s="43">
+      <c r="P38" s="30">
         <f t="shared" si="9"/>
         <v>-6.1092686332693269E-3</v>
       </c>
-      <c r="Q38" s="46">
+      <c r="Q38" s="31">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="R38" s="61">
+      <c r="R38" s="46">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="T38" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="U38">
-        <v>384631</v>
-      </c>
-      <c r="W38" t="s">
-        <v>39</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="12"/>
-        <v>189057</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="13" x14ac:dyDescent="0.3">
-      <c r="A39" s="62" t="s">
+      <c r="T38" s="23"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="63">
+      <c r="B39" s="48">
         <f>SUM(B7:B38)</f>
         <v>20421442</v>
       </c>
-      <c r="C39" s="64">
+      <c r="C39" s="49">
         <v>19773732</v>
       </c>
       <c r="D39" s="12">
         <v>20613536</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="49">
         <v>19821651</v>
       </c>
-      <c r="F39" s="65">
+      <c r="F39" s="50">
         <v>19936938</v>
       </c>
       <c r="G39" s="12">
@@ -3801,70 +3297,57 @@
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
-      <c r="K39" s="40">
+      <c r="K39" s="27">
         <f t="shared" si="4"/>
         <v>163206</v>
       </c>
-      <c r="L39" s="41">
+      <c r="L39" s="28">
         <f t="shared" si="5"/>
         <v>8.2536771510810514E-3</v>
       </c>
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
-      <c r="O39" s="66">
+      <c r="O39" s="51">
         <f t="shared" si="8"/>
         <v>-676598</v>
       </c>
-      <c r="P39" s="67">
+      <c r="P39" s="52">
         <f t="shared" si="9"/>
         <v>-3.2822995530703669E-2</v>
       </c>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
-      <c r="T39" t="s">
-        <v>83</v>
-      </c>
-      <c r="U39">
-        <v>20613536</v>
-      </c>
-      <c r="W39" t="s">
-        <v>40</v>
-      </c>
-      <c r="X39">
-        <f>SUM(X7:X38)</f>
-        <v>20613536</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q39" s="53"/>
+      <c r="R39" s="53"/>
+    </row>
+    <row r="40" spans="1:20" s="15" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16"/>
       <c r="D40" s="16"/>
       <c r="G40" s="16"/>
-      <c r="O40" s="69"/>
-    </row>
-    <row r="41" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="23" t="s">
+      <c r="O40" s="54"/>
+    </row>
+    <row r="41" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-      <c r="T41" s="36"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
+      <c r="T41" s="23"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>42</v>
       </c>

--- a/Tabulados/TAentidadrank_delegacion.xlsx
+++ b/Tabulados/TAentidadrank_delegacion.xlsx
@@ -569,6 +569,9 @@
     <xf numFmtId="10" fontId="4" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -600,9 +603,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -896,7 +896,7 @@
   <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -908,17 +908,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
@@ -926,17 +926,17 @@
       <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
@@ -944,17 +944,17 @@
       <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
@@ -978,51 +978,51 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="55" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56" t="s">
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
     </row>
     <row r="6" spans="1:20" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="2" t="s">
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="55" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1046,7 +1046,7 @@
       <c r="N6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="66" t="s">
+      <c r="O6" s="55" t="s">
         <v>4</v>
       </c>
       <c r="P6" s="2" t="s">
@@ -3325,26 +3325,26 @@
       <c r="O40" s="54"/>
     </row>
     <row r="41" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="57"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="58"/>
       <c r="T41" s="23"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">

--- a/Tabulados/TAentidadrank_delegacion.xlsx
+++ b/Tabulados/TAentidadrank_delegacion.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
   </bookViews>
   <sheets>
-    <sheet name="ta_junio" sheetId="1" r:id="rId1"/>
+    <sheet name="ta_julio" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,24 +47,24 @@
   </si>
   <si>
     <t>2020
-Junio</t>
-  </si>
-  <si>
-    <t>2021
-Mayo</t>
+Julio</t>
   </si>
   <si>
     <t>2021
 Junio</t>
   </si>
   <si>
-    <t>Junio 2021 respecto a Mayo 2021</t>
-  </si>
-  <si>
-    <t>Junio 2021 respecto a Diciembre 2020</t>
-  </si>
-  <si>
-    <t>Junio 2021 respecto a Junio 2020</t>
+    <t>2021
+Julio</t>
+  </si>
+  <si>
+    <t>Julio 2021 respecto a Junio 2021</t>
+  </si>
+  <si>
+    <t>Julio 2021 respecto a Diciembre 2020</t>
+  </si>
+  <si>
+    <t>Julio 2021 respecto a Julio 2020</t>
   </si>
   <si>
     <t>Variación Absoluta</t>
@@ -388,9 +388,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -401,7 +399,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -435,7 +435,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -479,10 +479,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,34 +581,46 @@
     <xf numFmtId="10" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -905,7 +917,7 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F38"/>
+      <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1039,37 +1051,37 @@
       <c r="G6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1084,61 +1096,61 @@
         <v>321424</v>
       </c>
       <c r="D7" s="20">
-        <v>322007</v>
+        <v>321750</v>
       </c>
       <c r="E7" s="19">
-        <v>331878</v>
+        <v>330146</v>
       </c>
       <c r="F7" s="21">
-        <v>330146</v>
+        <v>333223</v>
       </c>
       <c r="G7" s="22">
         <f>F7-E7</f>
-        <v>-1732</v>
+        <v>3077</v>
       </c>
       <c r="H7" s="23">
         <f>F7/E7-1</f>
-        <v>-5.2187852162541848E-3</v>
+        <v>9.3201189776643822E-3</v>
       </c>
       <c r="I7" s="24">
         <f>_xlfn.RANK.EQ(G7,$G$7:$G$38)</f>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J7" s="25">
         <f>_xlfn.RANK.EQ(H7,$H$7:$H$38)</f>
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K7" s="26">
         <f>F7-C7</f>
-        <v>8722</v>
+        <v>11799</v>
       </c>
       <c r="L7" s="27">
         <f>F7/C7-1</f>
-        <v>2.7135497038180079E-2</v>
+        <v>3.6708522076758454E-2</v>
       </c>
       <c r="M7" s="28">
         <f>_xlfn.RANK.EQ(K7,$K$7:$K$38)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N7" s="29">
         <f>_xlfn.RANK.EQ(L7,$L$7:$L$38)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7" s="30">
         <f>F7-D7</f>
-        <v>8139</v>
+        <v>11473</v>
       </c>
       <c r="P7" s="31">
         <f>F7/D7-1</f>
-        <v>2.5275848040570592E-2</v>
+        <v>3.5658119658119602E-2</v>
       </c>
       <c r="Q7" s="32">
         <f>_xlfn.RANK.EQ(O7,$O$7:$O$38)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R7" s="33">
         <f>_xlfn.RANK.EQ(P7,$P$7:$P$38)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1152,37 +1164,37 @@
         <v>944174</v>
       </c>
       <c r="D8" s="22">
-        <v>926866</v>
+        <v>934572</v>
       </c>
       <c r="E8" s="36">
-        <v>989878</v>
+        <v>989518</v>
       </c>
       <c r="F8" s="37">
-        <v>989518</v>
+        <v>1004864</v>
       </c>
       <c r="G8" s="22">
         <f t="shared" ref="G8:G39" si="0">F8-E8</f>
-        <v>-360</v>
+        <v>15346</v>
       </c>
       <c r="H8" s="23">
         <f t="shared" ref="H8:H39" si="1">F8/E8-1</f>
-        <v>-3.6368118091323343E-4</v>
+        <v>1.5508560733609622E-2</v>
       </c>
       <c r="I8" s="24">
         <f t="shared" ref="I8:I38" si="2">_xlfn.RANK.EQ(G8,$G$7:$G$38)</f>
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" ref="J8:J38" si="3">_xlfn.RANK.EQ(H8,$H$7:$H$38)</f>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="K8" s="26">
         <f t="shared" ref="K8:K39" si="4">F8-C8</f>
-        <v>45344</v>
+        <v>60690</v>
       </c>
       <c r="L8" s="27">
         <f t="shared" ref="L8:L39" si="5">F8/C8-1</f>
-        <v>4.8025046230885327E-2</v>
+        <v>6.4278406310701142E-2</v>
       </c>
       <c r="M8" s="28">
         <f t="shared" ref="M8:M38" si="6">_xlfn.RANK.EQ(K8,$K$7:$K$38)</f>
@@ -1190,15 +1202,15 @@
       </c>
       <c r="N8" s="29">
         <f t="shared" ref="N8:N38" si="7">_xlfn.RANK.EQ(L8,$L$7:$L$38)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8" s="30">
         <f t="shared" ref="O8:O39" si="8">F8-D8</f>
-        <v>62652</v>
+        <v>70292</v>
       </c>
       <c r="P8" s="31">
         <f t="shared" ref="P8:P39" si="9">F8/D8-1</f>
-        <v>6.7595531608668269E-2</v>
+        <v>7.5213038695788104E-2</v>
       </c>
       <c r="Q8" s="32">
         <f t="shared" ref="Q8:Q38" si="10">_xlfn.RANK.EQ(O8,$O$7:$O$38)</f>
@@ -1220,37 +1232,37 @@
         <v>170112</v>
       </c>
       <c r="D9" s="22">
-        <v>165340</v>
+        <v>165477</v>
       </c>
       <c r="E9" s="36">
-        <v>177308</v>
+        <v>180020</v>
       </c>
       <c r="F9" s="37">
-        <v>180020</v>
+        <v>183282</v>
       </c>
       <c r="G9" s="22">
         <f t="shared" si="0"/>
-        <v>2712</v>
+        <v>3262</v>
       </c>
       <c r="H9" s="23">
         <f t="shared" si="1"/>
-        <v>1.5295418142441397E-2</v>
+        <v>1.8120208865681553E-2</v>
       </c>
       <c r="I9" s="24">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J9" s="25">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K9" s="26">
         <f t="shared" si="4"/>
-        <v>9908</v>
+        <v>13170</v>
       </c>
       <c r="L9" s="27">
         <f t="shared" si="5"/>
-        <v>5.8243980436418319E-2</v>
+        <v>7.7419582392776576E-2</v>
       </c>
       <c r="M9" s="28">
         <f t="shared" si="6"/>
@@ -1258,23 +1270,23 @@
       </c>
       <c r="N9" s="29">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O9" s="30">
         <f t="shared" si="8"/>
-        <v>14680</v>
+        <v>17805</v>
       </c>
       <c r="P9" s="31">
         <f t="shared" si="9"/>
-        <v>8.8786742470061686E-2</v>
+        <v>0.10759803477220409</v>
       </c>
       <c r="Q9" s="32">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="R9" s="33">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1288,61 +1300,61 @@
         <v>125731</v>
       </c>
       <c r="D10" s="22">
-        <v>128074</v>
+        <v>124251</v>
       </c>
       <c r="E10" s="36">
-        <v>129262</v>
+        <v>128911</v>
       </c>
       <c r="F10" s="37">
-        <v>128911</v>
+        <v>131962</v>
       </c>
       <c r="G10" s="22">
         <f t="shared" si="0"/>
-        <v>-351</v>
+        <v>3051</v>
       </c>
       <c r="H10" s="23">
         <f t="shared" si="1"/>
-        <v>-2.7154152032305978E-3</v>
+        <v>2.3667491525160678E-2</v>
       </c>
       <c r="I10" s="24">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J10" s="25">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="K10" s="26">
         <f t="shared" si="4"/>
-        <v>3180</v>
+        <v>6231</v>
       </c>
       <c r="L10" s="27">
         <f t="shared" si="5"/>
-        <v>2.5292091846879527E-2</v>
+        <v>4.95581837414798E-2</v>
       </c>
       <c r="M10" s="28">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N10" s="29">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="O10" s="30">
         <f t="shared" si="8"/>
-        <v>837</v>
+        <v>7711</v>
       </c>
       <c r="P10" s="31">
         <f t="shared" si="9"/>
-        <v>6.5352842887704821E-3</v>
+        <v>6.2059862697282142E-2</v>
       </c>
       <c r="Q10" s="32">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R10" s="33">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1356,61 +1368,61 @@
         <v>221463</v>
       </c>
       <c r="D11" s="22">
-        <v>219852</v>
+        <v>220197</v>
       </c>
       <c r="E11" s="36">
-        <v>223454</v>
+        <v>225406</v>
       </c>
       <c r="F11" s="37">
-        <v>225406</v>
+        <v>229159</v>
       </c>
       <c r="G11" s="22">
         <f>F11-E11</f>
-        <v>1952</v>
+        <v>3753</v>
       </c>
       <c r="H11" s="23">
         <f>F11/E11-1</f>
-        <v>8.7355786873359875E-3</v>
+        <v>1.664995607925257E-2</v>
       </c>
       <c r="I11" s="24">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J11" s="25">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26">
         <f t="shared" si="4"/>
-        <v>3943</v>
+        <v>7696</v>
       </c>
       <c r="L11" s="27">
         <f t="shared" si="5"/>
-        <v>1.7804328488280285E-2</v>
+        <v>3.4750725854883147E-2</v>
       </c>
       <c r="M11" s="28">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" s="29">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="O11" s="30">
         <f t="shared" si="8"/>
-        <v>5554</v>
+        <v>8962</v>
       </c>
       <c r="P11" s="31">
         <f t="shared" si="9"/>
-        <v>2.5262449284063848E-2</v>
+        <v>4.0699918709155902E-2</v>
       </c>
       <c r="Q11" s="32">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R11" s="33">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1424,61 +1436,61 @@
         <v>903594</v>
       </c>
       <c r="D12" s="22">
-        <v>875288</v>
+        <v>889248</v>
       </c>
       <c r="E12" s="36">
-        <v>928687</v>
+        <v>931191</v>
       </c>
       <c r="F12" s="37">
-        <v>931191</v>
+        <v>932271</v>
       </c>
       <c r="G12" s="22">
         <f t="shared" si="0"/>
-        <v>2504</v>
+        <v>1080</v>
       </c>
       <c r="H12" s="23">
         <f t="shared" si="1"/>
-        <v>2.6962798014831257E-3</v>
+        <v>1.1598050238887936E-3</v>
       </c>
       <c r="I12" s="24">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J12" s="25">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K12" s="26">
         <f t="shared" si="4"/>
-        <v>27597</v>
+        <v>28677</v>
       </c>
       <c r="L12" s="27">
         <f t="shared" si="5"/>
-        <v>3.0541371456649813E-2</v>
+        <v>3.1736598516590497E-2</v>
       </c>
       <c r="M12" s="28">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N12" s="29">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O12" s="30">
         <f t="shared" si="8"/>
-        <v>55903</v>
+        <v>43023</v>
       </c>
       <c r="P12" s="31">
         <f t="shared" si="9"/>
-        <v>6.38681211212766E-2</v>
+        <v>4.8381328943106983E-2</v>
       </c>
       <c r="Q12" s="32">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R12" s="33">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1492,37 +1504,37 @@
         <v>3246669</v>
       </c>
       <c r="D13" s="22">
-        <v>3263299</v>
+        <v>3257082</v>
       </c>
       <c r="E13" s="36">
-        <v>3236212</v>
+        <v>3230475</v>
       </c>
       <c r="F13" s="37">
-        <v>3230475</v>
+        <v>3240746</v>
       </c>
       <c r="G13" s="22">
         <f t="shared" si="0"/>
-        <v>-5737</v>
+        <v>10271</v>
       </c>
       <c r="H13" s="23">
         <f t="shared" si="1"/>
-        <v>-1.7727515997097987E-3</v>
+        <v>3.1794086009022671E-3</v>
       </c>
       <c r="I13" s="24">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="J13" s="25">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K13" s="26">
         <f t="shared" si="4"/>
-        <v>-16194</v>
+        <v>-5923</v>
       </c>
       <c r="L13" s="27">
         <f t="shared" si="5"/>
-        <v>-4.9878814255471804E-3</v>
+        <v>-1.8243313377495074E-3</v>
       </c>
       <c r="M13" s="28">
         <f t="shared" si="6"/>
@@ -1534,11 +1546,11 @@
       </c>
       <c r="O13" s="30">
         <f t="shared" si="8"/>
-        <v>-32824</v>
+        <v>-16336</v>
       </c>
       <c r="P13" s="31">
         <f t="shared" si="9"/>
-        <v>-1.0058532791509478E-2</v>
+        <v>-5.0155323077527569E-3</v>
       </c>
       <c r="Q13" s="32">
         <f t="shared" si="10"/>
@@ -1560,53 +1572,53 @@
         <v>757473</v>
       </c>
       <c r="D14" s="22">
-        <v>737734</v>
+        <v>744379</v>
       </c>
       <c r="E14" s="36">
-        <v>771742</v>
+        <v>779285</v>
       </c>
       <c r="F14" s="37">
-        <v>779285</v>
+        <v>786210</v>
       </c>
       <c r="G14" s="22">
         <f t="shared" si="0"/>
-        <v>7543</v>
+        <v>6925</v>
       </c>
       <c r="H14" s="23">
         <f t="shared" si="1"/>
-        <v>9.7739918262840231E-3</v>
+        <v>8.8863509499093052E-3</v>
       </c>
       <c r="I14" s="24">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J14" s="25">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K14" s="26">
         <f t="shared" si="4"/>
-        <v>21812</v>
+        <v>28737</v>
       </c>
       <c r="L14" s="27">
         <f t="shared" si="5"/>
-        <v>2.8795745854967691E-2</v>
+        <v>3.7937985908408578E-2</v>
       </c>
       <c r="M14" s="28">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N14" s="29">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O14" s="30">
         <f t="shared" si="8"/>
-        <v>41551</v>
+        <v>41831</v>
       </c>
       <c r="P14" s="31">
         <f t="shared" si="9"/>
-        <v>5.6322468532018277E-2</v>
+        <v>5.6195835723468868E-2</v>
       </c>
       <c r="Q14" s="32">
         <f t="shared" si="10"/>
@@ -1628,61 +1640,61 @@
         <v>135945</v>
       </c>
       <c r="D15" s="22">
-        <v>134719</v>
+        <v>134809</v>
       </c>
       <c r="E15" s="36">
-        <v>137819</v>
+        <v>139861</v>
       </c>
       <c r="F15" s="37">
-        <v>139861</v>
+        <v>139826</v>
       </c>
       <c r="G15" s="22">
         <f t="shared" si="0"/>
-        <v>2042</v>
+        <v>-35</v>
       </c>
       <c r="H15" s="23">
         <f t="shared" si="1"/>
-        <v>1.4816534730334618E-2</v>
+        <v>-2.5024846097199127E-4</v>
       </c>
       <c r="I15" s="24">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J15" s="25">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K15" s="26">
         <f t="shared" si="4"/>
-        <v>3916</v>
+        <v>3881</v>
       </c>
       <c r="L15" s="27">
         <f t="shared" si="5"/>
-        <v>2.8805767038140528E-2</v>
+        <v>2.8548309978300157E-2</v>
       </c>
       <c r="M15" s="28">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N15" s="29">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O15" s="30">
         <f t="shared" si="8"/>
-        <v>5142</v>
+        <v>5017</v>
       </c>
       <c r="P15" s="31">
         <f t="shared" si="9"/>
-        <v>3.8168335572562162E-2</v>
+        <v>3.7215616168059906E-2</v>
       </c>
       <c r="Q15" s="32">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R15" s="33">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1696,37 +1708,37 @@
         <v>239136</v>
       </c>
       <c r="D16" s="22">
-        <v>237252</v>
+        <v>236303</v>
       </c>
       <c r="E16" s="36">
-        <v>243336</v>
+        <v>243680</v>
       </c>
       <c r="F16" s="37">
-        <v>243680</v>
+        <v>248024</v>
       </c>
       <c r="G16" s="22">
         <f t="shared" si="0"/>
-        <v>344</v>
+        <v>4344</v>
       </c>
       <c r="H16" s="23">
         <f t="shared" si="1"/>
-        <v>1.4136831377189463E-3</v>
+        <v>1.7826657912015653E-2</v>
       </c>
       <c r="I16" s="24">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J16" s="25">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K16" s="26">
         <f t="shared" si="4"/>
-        <v>4544</v>
+        <v>8888</v>
       </c>
       <c r="L16" s="27">
         <f t="shared" si="5"/>
-        <v>1.9001739595878586E-2</v>
+        <v>3.7167135019403164E-2</v>
       </c>
       <c r="M16" s="28">
         <f t="shared" si="6"/>
@@ -1734,23 +1746,23 @@
       </c>
       <c r="N16" s="29">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O16" s="30">
         <f t="shared" si="8"/>
-        <v>6428</v>
+        <v>11721</v>
       </c>
       <c r="P16" s="31">
         <f t="shared" si="9"/>
-        <v>2.70935545327331E-2</v>
+        <v>4.9601570864525657E-2</v>
       </c>
       <c r="Q16" s="32">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R16" s="33">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -1764,61 +1776,61 @@
         <v>1593415</v>
       </c>
       <c r="D17" s="22">
-        <v>1580456</v>
+        <v>1579438</v>
       </c>
       <c r="E17" s="36">
-        <v>1620929</v>
+        <v>1622778</v>
       </c>
       <c r="F17" s="37">
-        <v>1622778</v>
+        <v>1611607</v>
       </c>
       <c r="G17" s="22">
         <f t="shared" si="0"/>
-        <v>1849</v>
+        <v>-11171</v>
       </c>
       <c r="H17" s="23">
         <f t="shared" si="1"/>
-        <v>1.1407038803057379E-3</v>
+        <v>-6.8838744424684073E-3</v>
       </c>
       <c r="I17" s="24">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J17" s="25">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K17" s="26">
         <f t="shared" si="4"/>
-        <v>29363</v>
+        <v>18192</v>
       </c>
       <c r="L17" s="27">
         <f t="shared" si="5"/>
-        <v>1.8427716571012498E-2</v>
+        <v>1.1416988041407894E-2</v>
       </c>
       <c r="M17" s="28">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N17" s="29">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O17" s="30">
         <f t="shared" si="8"/>
-        <v>42322</v>
+        <v>32169</v>
       </c>
       <c r="P17" s="31">
         <f t="shared" si="9"/>
-        <v>2.6778347514894385E-2</v>
+        <v>2.0367371178862337E-2</v>
       </c>
       <c r="Q17" s="32">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R17" s="33">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -1832,41 +1844,41 @@
         <v>973396</v>
       </c>
       <c r="D18" s="22">
-        <v>962664</v>
+        <v>966243</v>
       </c>
       <c r="E18" s="36">
-        <v>989630</v>
+        <v>996819</v>
       </c>
       <c r="F18" s="37">
-        <v>996819</v>
+        <v>1003954</v>
       </c>
       <c r="G18" s="22">
         <f t="shared" si="0"/>
-        <v>7189</v>
+        <v>7135</v>
       </c>
       <c r="H18" s="23">
         <f t="shared" si="1"/>
-        <v>7.2643311136484368E-3</v>
+        <v>7.1577688627524338E-3</v>
       </c>
       <c r="I18" s="24">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J18" s="25">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K18" s="26">
         <f t="shared" si="4"/>
-        <v>23423</v>
+        <v>30558</v>
       </c>
       <c r="L18" s="27">
         <f t="shared" si="5"/>
-        <v>2.4063176754373305E-2</v>
+        <v>3.1393184274437047E-2</v>
       </c>
       <c r="M18" s="28">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N18" s="29">
         <f t="shared" si="7"/>
@@ -1874,19 +1886,19 @@
       </c>
       <c r="O18" s="30">
         <f t="shared" si="8"/>
-        <v>34155</v>
+        <v>37711</v>
       </c>
       <c r="P18" s="31">
         <f t="shared" si="9"/>
-        <v>3.5479668918750429E-2</v>
+        <v>3.9028484553057519E-2</v>
       </c>
       <c r="Q18" s="32">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R18" s="33">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -1900,61 +1912,61 @@
         <v>146771</v>
       </c>
       <c r="D19" s="22">
-        <v>142800</v>
+        <v>143693</v>
       </c>
       <c r="E19" s="36">
-        <v>147900</v>
+        <v>148621</v>
       </c>
       <c r="F19" s="37">
-        <v>148621</v>
+        <v>151226</v>
       </c>
       <c r="G19" s="22">
         <f t="shared" si="0"/>
-        <v>721</v>
+        <v>2605</v>
       </c>
       <c r="H19" s="23">
         <f t="shared" si="1"/>
-        <v>4.8749154834346609E-3</v>
+        <v>1.752780562639189E-2</v>
       </c>
       <c r="I19" s="24">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" s="25">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K19" s="26">
         <f t="shared" si="4"/>
-        <v>1850</v>
+        <v>4455</v>
       </c>
       <c r="L19" s="27">
         <f t="shared" si="5"/>
-        <v>1.2604669859849649E-2</v>
+        <v>3.0353407689529988E-2</v>
       </c>
       <c r="M19" s="28">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N19" s="29">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="O19" s="30">
         <f t="shared" si="8"/>
-        <v>5821</v>
+        <v>7533</v>
       </c>
       <c r="P19" s="31">
         <f t="shared" si="9"/>
-        <v>4.0763305322128796E-2</v>
+        <v>5.2424265621846544E-2</v>
       </c>
       <c r="Q19" s="32">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R19" s="33">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -1968,25 +1980,25 @@
         <v>218499</v>
       </c>
       <c r="D20" s="22">
-        <v>220195</v>
+        <v>217327</v>
       </c>
       <c r="E20" s="36">
-        <v>224565</v>
+        <v>226457</v>
       </c>
       <c r="F20" s="37">
-        <v>226457</v>
+        <v>229304</v>
       </c>
       <c r="G20" s="22">
         <f t="shared" si="0"/>
-        <v>1892</v>
+        <v>2847</v>
       </c>
       <c r="H20" s="23">
         <f t="shared" si="1"/>
-        <v>8.4251775655155292E-3</v>
+        <v>1.2571923146557529E-2</v>
       </c>
       <c r="I20" s="24">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J20" s="25">
         <f t="shared" si="3"/>
@@ -1994,35 +2006,35 @@
       </c>
       <c r="K20" s="26">
         <f t="shared" si="4"/>
-        <v>7958</v>
+        <v>10805</v>
       </c>
       <c r="L20" s="27">
         <f t="shared" si="5"/>
-        <v>3.6421219319081599E-2</v>
+        <v>4.945102723582262E-2</v>
       </c>
       <c r="M20" s="28">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N20" s="29">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O20" s="30">
         <f t="shared" si="8"/>
-        <v>6262</v>
+        <v>11977</v>
       </c>
       <c r="P20" s="31">
         <f t="shared" si="9"/>
-        <v>2.843842957378695E-2</v>
+        <v>5.5110501686398861E-2</v>
       </c>
       <c r="Q20" s="32">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R20" s="33">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="S20"/>
     </row>
@@ -2037,37 +2049,37 @@
         <v>1780367</v>
       </c>
       <c r="D21" s="42">
-        <v>1755765</v>
+        <v>1742635</v>
       </c>
       <c r="E21" s="41">
-        <v>1815607</v>
+        <v>1820785</v>
       </c>
       <c r="F21" s="43">
-        <v>1820785</v>
+        <v>1826575</v>
       </c>
       <c r="G21" s="42">
         <f>F21-E21</f>
-        <v>5178</v>
+        <v>5790</v>
       </c>
       <c r="H21" s="44">
         <f>F21/E21-1</f>
-        <v>2.8519387730934209E-3</v>
+        <v>3.1799471107241128E-3</v>
       </c>
       <c r="I21" s="45">
         <f>_xlfn.RANK.EQ(G21,$G$7:$G$38)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J21" s="46">
         <f>_xlfn.RANK.EQ(H21,$H$7:$H$38)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K21" s="47">
         <f t="shared" si="4"/>
-        <v>40418</v>
+        <v>46208</v>
       </c>
       <c r="L21" s="48">
         <f t="shared" si="5"/>
-        <v>2.2702060867225704E-2</v>
+        <v>2.5954199330812111E-2</v>
       </c>
       <c r="M21" s="49">
         <f>_xlfn.RANK.EQ(K21,$K$7:$K$38)</f>
@@ -2075,15 +2087,15 @@
       </c>
       <c r="N21" s="50">
         <f>_xlfn.RANK.EQ(L21,$L$7:$L$38)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O21" s="51">
         <f t="shared" si="8"/>
-        <v>65020</v>
+        <v>83940</v>
       </c>
       <c r="P21" s="52">
         <f t="shared" si="9"/>
-        <v>3.703229076784198E-2</v>
+        <v>4.8168434583260478E-2</v>
       </c>
       <c r="Q21" s="53">
         <f>_xlfn.RANK.EQ(O21,$O$7:$O$38)</f>
@@ -2106,61 +2118,61 @@
         <v>461602</v>
       </c>
       <c r="D22" s="22">
-        <v>450498</v>
+        <v>447862</v>
       </c>
       <c r="E22" s="36">
-        <v>458518</v>
+        <v>460645</v>
       </c>
       <c r="F22" s="37">
-        <v>460645</v>
+        <v>459348</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" si="0"/>
-        <v>2127</v>
+        <v>-1297</v>
       </c>
       <c r="H22" s="23">
         <f t="shared" si="1"/>
-        <v>4.6388582345731066E-3</v>
+        <v>-2.8156172323590134E-3</v>
       </c>
       <c r="I22" s="24">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J22" s="25">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K22" s="26">
         <f t="shared" si="4"/>
-        <v>-957</v>
+        <v>-2254</v>
       </c>
       <c r="L22" s="27">
         <f t="shared" si="5"/>
-        <v>-2.0732145874584607E-3</v>
+        <v>-4.8829944410986315E-3</v>
       </c>
       <c r="M22" s="28">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N22" s="29">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O22" s="30">
         <f t="shared" si="8"/>
-        <v>10147</v>
+        <v>11486</v>
       </c>
       <c r="P22" s="31">
         <f t="shared" si="9"/>
-        <v>2.2523962370532224E-2</v>
+        <v>2.5646292831273954E-2</v>
       </c>
       <c r="Q22" s="32">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R22" s="33">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2174,53 +2186,53 @@
         <v>205308</v>
       </c>
       <c r="D23" s="22">
-        <v>203862</v>
+        <v>200339</v>
       </c>
       <c r="E23" s="36">
-        <v>204820</v>
+        <v>203488</v>
       </c>
       <c r="F23" s="37">
-        <v>203488</v>
+        <v>205282</v>
       </c>
       <c r="G23" s="22">
         <f t="shared" si="0"/>
-        <v>-1332</v>
+        <v>1794</v>
       </c>
       <c r="H23" s="23">
         <f t="shared" si="1"/>
-        <v>-6.5032711649253283E-3</v>
+        <v>8.8162446925617033E-3</v>
       </c>
       <c r="I23" s="24">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J23" s="25">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="K23" s="26">
         <f t="shared" si="4"/>
-        <v>-1820</v>
+        <v>-26</v>
       </c>
       <c r="L23" s="27">
         <f t="shared" si="5"/>
-        <v>-8.8647300640988247E-3</v>
+        <v>-1.2663900091569591E-4</v>
       </c>
       <c r="M23" s="28">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N23" s="29">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O23" s="30">
         <f t="shared" si="8"/>
-        <v>-374</v>
+        <v>4943</v>
       </c>
       <c r="P23" s="31">
         <f t="shared" si="9"/>
-        <v>-1.8345743689358596E-3</v>
+        <v>2.4673178961659881E-2</v>
       </c>
       <c r="Q23" s="32">
         <f t="shared" si="10"/>
@@ -2228,7 +2240,7 @@
       </c>
       <c r="R23" s="33">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -2242,61 +2254,61 @@
         <v>149477</v>
       </c>
       <c r="D24" s="22">
-        <v>144319</v>
+        <v>145580</v>
       </c>
       <c r="E24" s="36">
-        <v>156933</v>
+        <v>159031</v>
       </c>
       <c r="F24" s="37">
-        <v>159031</v>
+        <v>158791</v>
       </c>
       <c r="G24" s="22">
         <f t="shared" si="0"/>
-        <v>2098</v>
+        <v>-240</v>
       </c>
       <c r="H24" s="23">
         <f t="shared" si="1"/>
-        <v>1.3368762465510775E-2</v>
+        <v>-1.5091397274744622E-3</v>
       </c>
       <c r="I24" s="24">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J24" s="25">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="K24" s="26">
         <f t="shared" si="4"/>
-        <v>9554</v>
+        <v>9314</v>
       </c>
       <c r="L24" s="27">
         <f t="shared" si="5"/>
-        <v>6.3916187774707867E-2</v>
+        <v>6.2310589589033683E-2</v>
       </c>
       <c r="M24" s="28">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N24" s="29">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O24" s="30">
         <f t="shared" si="8"/>
-        <v>14712</v>
+        <v>13211</v>
       </c>
       <c r="P24" s="31">
         <f t="shared" si="9"/>
-        <v>0.10194083939051679</v>
+        <v>9.0747355405962349E-2</v>
       </c>
       <c r="Q24" s="32">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R24" s="33">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -2310,21 +2322,21 @@
         <v>1610359</v>
       </c>
       <c r="D25" s="22">
-        <v>1569434</v>
+        <v>1573657</v>
       </c>
       <c r="E25" s="36">
-        <v>1651843</v>
+        <v>1663165</v>
       </c>
       <c r="F25" s="37">
-        <v>1663165</v>
+        <v>1679338</v>
       </c>
       <c r="G25" s="22">
         <f t="shared" si="0"/>
-        <v>11322</v>
+        <v>16173</v>
       </c>
       <c r="H25" s="23">
         <f t="shared" si="1"/>
-        <v>6.8541622902418275E-3</v>
+        <v>9.7242306085085772E-3</v>
       </c>
       <c r="I25" s="24">
         <f t="shared" si="2"/>
@@ -2332,15 +2344,15 @@
       </c>
       <c r="J25" s="25">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K25" s="26">
         <f t="shared" si="4"/>
-        <v>52806</v>
+        <v>68979</v>
       </c>
       <c r="L25" s="27">
         <f t="shared" si="5"/>
-        <v>3.2791445882563997E-2</v>
+        <v>4.2834548072820944E-2</v>
       </c>
       <c r="M25" s="28">
         <f t="shared" si="6"/>
@@ -2348,15 +2360,15 @@
       </c>
       <c r="N25" s="29">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O25" s="30">
         <f t="shared" si="8"/>
-        <v>93731</v>
+        <v>105681</v>
       </c>
       <c r="P25" s="31">
         <f t="shared" si="9"/>
-        <v>5.972280452698242E-2</v>
+        <v>6.7156311699436477E-2</v>
       </c>
       <c r="Q25" s="32">
         <f t="shared" si="10"/>
@@ -2378,37 +2390,37 @@
         <v>208539</v>
       </c>
       <c r="D26" s="22">
-        <v>205143</v>
+        <v>202951</v>
       </c>
       <c r="E26" s="36">
-        <v>207266</v>
+        <v>208994</v>
       </c>
       <c r="F26" s="37">
-        <v>208994</v>
+        <v>210228</v>
       </c>
       <c r="G26" s="22">
         <f t="shared" si="0"/>
-        <v>1728</v>
+        <v>1234</v>
       </c>
       <c r="H26" s="23">
         <f t="shared" si="1"/>
-        <v>8.3371126957629826E-3</v>
+        <v>5.9044757265758196E-3</v>
       </c>
       <c r="I26" s="24">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J26" s="25">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K26" s="26">
         <f t="shared" si="4"/>
-        <v>455</v>
+        <v>1689</v>
       </c>
       <c r="L26" s="27">
         <f t="shared" si="5"/>
-        <v>2.1818460815483665E-3</v>
+        <v>8.0992044653518391E-3</v>
       </c>
       <c r="M26" s="28">
         <f t="shared" si="6"/>
@@ -2420,11 +2432,11 @@
       </c>
       <c r="O26" s="30">
         <f t="shared" si="8"/>
-        <v>3851</v>
+        <v>7277</v>
       </c>
       <c r="P26" s="31">
         <f t="shared" si="9"/>
-        <v>1.8772271049950495E-2</v>
+        <v>3.585594552379634E-2</v>
       </c>
       <c r="Q26" s="32">
         <f t="shared" si="10"/>
@@ -2432,7 +2444,7 @@
       </c>
       <c r="R26" s="33">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -2446,61 +2458,61 @@
         <v>590229</v>
       </c>
       <c r="D27" s="22">
-        <v>586976</v>
+        <v>587165</v>
       </c>
       <c r="E27" s="36">
-        <v>590768</v>
+        <v>594915</v>
       </c>
       <c r="F27" s="37">
-        <v>594915</v>
+        <v>599636</v>
       </c>
       <c r="G27" s="22">
         <f t="shared" si="0"/>
-        <v>4147</v>
+        <v>4721</v>
       </c>
       <c r="H27" s="23">
         <f t="shared" si="1"/>
-        <v>7.0196760826584104E-3</v>
+        <v>7.935587436860736E-3</v>
       </c>
       <c r="I27" s="24">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J27" s="25">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K27" s="26">
         <f t="shared" si="4"/>
-        <v>4686</v>
+        <v>9407</v>
       </c>
       <c r="L27" s="27">
         <f t="shared" si="5"/>
-        <v>7.9392913597942094E-3</v>
+        <v>1.5937881737427384E-2</v>
       </c>
       <c r="M27" s="28">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N27" s="29">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O27" s="30">
         <f t="shared" si="8"/>
-        <v>7939</v>
+        <v>12471</v>
       </c>
       <c r="P27" s="31">
         <f t="shared" si="9"/>
-        <v>1.3525254865616398E-2</v>
+        <v>2.123934498820601E-2</v>
       </c>
       <c r="Q27" s="32">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R27" s="33">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -2514,37 +2526,37 @@
         <v>595496</v>
       </c>
       <c r="D28" s="22">
-        <v>581410</v>
+        <v>580949</v>
       </c>
       <c r="E28" s="36">
-        <v>615626</v>
+        <v>618558</v>
       </c>
       <c r="F28" s="37">
-        <v>618558</v>
+        <v>622860</v>
       </c>
       <c r="G28" s="22">
         <f t="shared" si="0"/>
-        <v>2932</v>
+        <v>4302</v>
       </c>
       <c r="H28" s="23">
         <f t="shared" si="1"/>
-        <v>4.7626318576539095E-3</v>
+        <v>6.9548853947407618E-3</v>
       </c>
       <c r="I28" s="24">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J28" s="25">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K28" s="26">
         <f t="shared" si="4"/>
-        <v>23062</v>
+        <v>27364</v>
       </c>
       <c r="L28" s="27">
         <f t="shared" si="5"/>
-        <v>3.8727380200706651E-2</v>
+        <v>4.5951610086381711E-2</v>
       </c>
       <c r="M28" s="28">
         <f t="shared" si="6"/>
@@ -2552,19 +2564,19 @@
       </c>
       <c r="N28" s="29">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O28" s="30">
         <f t="shared" si="8"/>
-        <v>37148</v>
+        <v>41911</v>
       </c>
       <c r="P28" s="31">
         <f t="shared" si="9"/>
-        <v>6.3892949897662588E-2</v>
+        <v>7.2142305090464154E-2</v>
       </c>
       <c r="Q28" s="32">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R28" s="33">
         <f t="shared" si="11"/>
@@ -2582,37 +2594,37 @@
         <v>365783</v>
       </c>
       <c r="D29" s="22">
-        <v>358969</v>
+        <v>356370</v>
       </c>
       <c r="E29" s="36">
-        <v>396775</v>
+        <v>406636</v>
       </c>
       <c r="F29" s="37">
-        <v>406636</v>
+        <v>417457</v>
       </c>
       <c r="G29" s="22">
         <f t="shared" si="0"/>
-        <v>9861</v>
+        <v>10821</v>
       </c>
       <c r="H29" s="23">
         <f t="shared" si="1"/>
-        <v>2.4852876315291983E-2</v>
+        <v>2.6611023126334121E-2</v>
       </c>
       <c r="I29" s="24">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29" s="25">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" s="26">
         <f t="shared" si="4"/>
-        <v>40853</v>
+        <v>51674</v>
       </c>
       <c r="L29" s="27">
         <f t="shared" si="5"/>
-        <v>0.11168643704054038</v>
+        <v>0.14126955052585832</v>
       </c>
       <c r="M29" s="28">
         <f t="shared" si="6"/>
@@ -2624,15 +2636,15 @@
       </c>
       <c r="O29" s="30">
         <f t="shared" si="8"/>
-        <v>47667</v>
+        <v>61087</v>
       </c>
       <c r="P29" s="31">
         <f t="shared" si="9"/>
-        <v>0.13278862520161905</v>
+        <v>0.1714145410668686</v>
       </c>
       <c r="Q29" s="32">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R29" s="33">
         <f t="shared" si="11"/>
@@ -2650,37 +2662,37 @@
         <v>440501</v>
       </c>
       <c r="D30" s="22">
-        <v>432676</v>
+        <v>432699</v>
       </c>
       <c r="E30" s="36">
-        <v>445758</v>
+        <v>450346</v>
       </c>
       <c r="F30" s="37">
-        <v>450346</v>
+        <v>453368</v>
       </c>
       <c r="G30" s="22">
         <f t="shared" si="0"/>
-        <v>4588</v>
+        <v>3022</v>
       </c>
       <c r="H30" s="23">
         <f t="shared" si="1"/>
-        <v>1.0292580278985497E-2</v>
+        <v>6.7103960066259294E-3</v>
       </c>
       <c r="I30" s="24">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J30" s="25">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K30" s="26">
         <f t="shared" si="4"/>
-        <v>9845</v>
+        <v>12867</v>
       </c>
       <c r="L30" s="27">
         <f t="shared" si="5"/>
-        <v>2.2349551987396188E-2</v>
+        <v>2.920992233842834E-2</v>
       </c>
       <c r="M30" s="28">
         <f t="shared" si="6"/>
@@ -2692,19 +2704,19 @@
       </c>
       <c r="O30" s="30">
         <f t="shared" si="8"/>
-        <v>17670</v>
+        <v>20669</v>
       </c>
       <c r="P30" s="31">
         <f t="shared" si="9"/>
-        <v>4.0838872505061463E-2</v>
+        <v>4.7767616749749831E-2</v>
       </c>
       <c r="Q30" s="32">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R30" s="33">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -2718,37 +2730,37 @@
         <v>570100</v>
       </c>
       <c r="D31" s="22">
-        <v>529005</v>
+        <v>529928</v>
       </c>
       <c r="E31" s="36">
-        <v>569723</v>
+        <v>559597</v>
       </c>
       <c r="F31" s="37">
-        <v>559597</v>
+        <v>566809</v>
       </c>
       <c r="G31" s="22">
         <f t="shared" si="0"/>
-        <v>-10126</v>
+        <v>7212</v>
       </c>
       <c r="H31" s="23">
         <f t="shared" si="1"/>
-        <v>-1.7773549602175143E-2</v>
+        <v>1.288784607494331E-2</v>
       </c>
       <c r="I31" s="24">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="J31" s="25">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K31" s="26">
         <f t="shared" si="4"/>
-        <v>-10503</v>
+        <v>-3291</v>
       </c>
       <c r="L31" s="27">
         <f t="shared" si="5"/>
-        <v>-1.8423083669531715E-2</v>
+        <v>-5.7726714611471275E-3</v>
       </c>
       <c r="M31" s="28">
         <f t="shared" si="6"/>
@@ -2760,19 +2772,19 @@
       </c>
       <c r="O31" s="30">
         <f t="shared" si="8"/>
-        <v>30592</v>
+        <v>36881</v>
       </c>
       <c r="P31" s="31">
         <f t="shared" si="9"/>
-        <v>5.7829321083921803E-2</v>
+        <v>6.959624703733347E-2</v>
       </c>
       <c r="Q31" s="32">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R31" s="33">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -2786,61 +2798,61 @@
         <v>575636</v>
       </c>
       <c r="D32" s="22">
-        <v>577424</v>
+        <v>575672</v>
       </c>
       <c r="E32" s="36">
-        <v>595612</v>
+        <v>595916</v>
       </c>
       <c r="F32" s="37">
-        <v>595916</v>
+        <v>592379</v>
       </c>
       <c r="G32" s="22">
         <f t="shared" si="0"/>
-        <v>304</v>
+        <v>-3537</v>
       </c>
       <c r="H32" s="23">
         <f t="shared" si="1"/>
-        <v>5.1039938752084346E-4</v>
+        <v>-5.9354002913162285E-3</v>
       </c>
       <c r="I32" s="24">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J32" s="25">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K32" s="26">
         <f t="shared" si="4"/>
-        <v>20280</v>
+        <v>16743</v>
       </c>
       <c r="L32" s="27">
         <f t="shared" si="5"/>
-        <v>3.5230597113453666E-2</v>
+        <v>2.9086089125766934E-2</v>
       </c>
       <c r="M32" s="28">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N32" s="29">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O32" s="30">
         <f t="shared" si="8"/>
-        <v>18492</v>
+        <v>16707</v>
       </c>
       <c r="P32" s="31">
         <f t="shared" si="9"/>
-        <v>3.2024993765413345E-2</v>
+        <v>2.9021734598868809E-2</v>
       </c>
       <c r="Q32" s="32">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R32" s="33">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -2854,41 +2866,41 @@
         <v>174213</v>
       </c>
       <c r="D33" s="22">
-        <v>168470</v>
+        <v>169301</v>
       </c>
       <c r="E33" s="36">
-        <v>193049</v>
+        <v>194993</v>
       </c>
       <c r="F33" s="37">
-        <v>194993</v>
+        <v>200421</v>
       </c>
       <c r="G33" s="22">
         <f t="shared" si="0"/>
-        <v>1944</v>
+        <v>5428</v>
       </c>
       <c r="H33" s="23">
         <f t="shared" si="1"/>
-        <v>1.0069982232490116E-2</v>
+        <v>2.7836896709112713E-2</v>
       </c>
       <c r="I33" s="24">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J33" s="25">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K33" s="26">
         <f t="shared" si="4"/>
-        <v>20780</v>
+        <v>26208</v>
       </c>
       <c r="L33" s="27">
         <f t="shared" si="5"/>
-        <v>0.11927927307376596</v>
+        <v>0.15043653458697115</v>
       </c>
       <c r="M33" s="28">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N33" s="29">
         <f t="shared" si="7"/>
@@ -2896,11 +2908,11 @@
       </c>
       <c r="O33" s="30">
         <f t="shared" si="8"/>
-        <v>26523</v>
+        <v>31120</v>
       </c>
       <c r="P33" s="31">
         <f t="shared" si="9"/>
-        <v>0.15743455808155749</v>
+        <v>0.18381462602111043</v>
       </c>
       <c r="Q33" s="32">
         <f t="shared" si="10"/>
@@ -2922,53 +2934,53 @@
         <v>672536</v>
       </c>
       <c r="D34" s="22">
-        <v>667936</v>
+        <v>672303</v>
       </c>
       <c r="E34" s="36">
-        <v>680062</v>
+        <v>684207</v>
       </c>
       <c r="F34" s="37">
-        <v>684207</v>
+        <v>690314</v>
       </c>
       <c r="G34" s="22">
         <f t="shared" si="0"/>
-        <v>4145</v>
+        <v>6107</v>
       </c>
       <c r="H34" s="23">
         <f t="shared" si="1"/>
-        <v>6.0950325117414828E-3</v>
+        <v>8.9256613861010692E-3</v>
       </c>
       <c r="I34" s="24">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J34" s="25">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K34" s="26">
         <f t="shared" si="4"/>
-        <v>11671</v>
+        <v>17778</v>
       </c>
       <c r="L34" s="27">
         <f t="shared" si="5"/>
-        <v>1.7353717867891083E-2</v>
+        <v>2.6434272663470759E-2</v>
       </c>
       <c r="M34" s="28">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N34" s="29">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O34" s="30">
         <f t="shared" si="8"/>
-        <v>16271</v>
+        <v>18011</v>
       </c>
       <c r="P34" s="31">
         <f t="shared" si="9"/>
-        <v>2.436011833469065E-2</v>
+        <v>2.6790003911926652E-2</v>
       </c>
       <c r="Q34" s="32">
         <f t="shared" si="10"/>
@@ -2976,7 +2988,7 @@
       </c>
       <c r="R34" s="33">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2990,21 +3002,21 @@
         <v>99057</v>
       </c>
       <c r="D35" s="22">
-        <v>99274</v>
+        <v>99092</v>
       </c>
       <c r="E35" s="36">
-        <v>103141</v>
+        <v>103302</v>
       </c>
       <c r="F35" s="37">
-        <v>103302</v>
+        <v>104407</v>
       </c>
       <c r="G35" s="22">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>1105</v>
       </c>
       <c r="H35" s="23">
         <f t="shared" si="1"/>
-        <v>1.5609699343617223E-3</v>
+        <v>1.0696791930456362E-2</v>
       </c>
       <c r="I35" s="24">
         <f t="shared" si="2"/>
@@ -3012,39 +3024,39 @@
       </c>
       <c r="J35" s="25">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K35" s="26">
         <f t="shared" si="4"/>
-        <v>4245</v>
+        <v>5350</v>
       </c>
       <c r="L35" s="27">
         <f t="shared" si="5"/>
-        <v>4.2854114297828483E-2</v>
+        <v>5.4009307772292736E-2</v>
       </c>
       <c r="M35" s="28">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N35" s="29">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O35" s="30">
         <f t="shared" si="8"/>
-        <v>4028</v>
+        <v>5315</v>
       </c>
       <c r="P35" s="31">
         <f t="shared" si="9"/>
-        <v>4.0574571388278802E-2</v>
+        <v>5.3637024179550297E-2</v>
       </c>
       <c r="Q35" s="32">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R35" s="33">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -3058,37 +3070,37 @@
         <v>725198</v>
       </c>
       <c r="D36" s="22">
-        <v>704683</v>
+        <v>701109</v>
       </c>
       <c r="E36" s="36">
-        <v>706384</v>
+        <v>707079</v>
       </c>
       <c r="F36" s="37">
-        <v>707079</v>
+        <v>709293</v>
       </c>
       <c r="G36" s="22">
         <f t="shared" si="0"/>
-        <v>695</v>
+        <v>2214</v>
       </c>
       <c r="H36" s="23">
         <f t="shared" si="1"/>
-        <v>9.8388411968564071E-4</v>
+        <v>3.1311918470213751E-3</v>
       </c>
       <c r="I36" s="24">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J36" s="25">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K36" s="26">
         <f t="shared" si="4"/>
-        <v>-18119</v>
+        <v>-15905</v>
       </c>
       <c r="L36" s="27">
         <f t="shared" si="5"/>
-        <v>-2.4984900675401711E-2</v>
+        <v>-2.1931941345673889E-2</v>
       </c>
       <c r="M36" s="28">
         <f t="shared" si="6"/>
@@ -3100,19 +3112,19 @@
       </c>
       <c r="O36" s="30">
         <f t="shared" si="8"/>
-        <v>2396</v>
+        <v>8184</v>
       </c>
       <c r="P36" s="31">
         <f t="shared" si="9"/>
-        <v>3.4001104042526986E-3</v>
+        <v>1.1672935306778154E-2</v>
       </c>
       <c r="Q36" s="32">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R36" s="33">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -3126,105 +3138,105 @@
         <v>364449</v>
       </c>
       <c r="D37" s="22">
-        <v>365288</v>
+        <v>360408</v>
       </c>
       <c r="E37" s="36">
-        <v>375061</v>
+        <v>380707</v>
       </c>
       <c r="F37" s="37">
-        <v>380707</v>
+        <v>378786</v>
       </c>
       <c r="G37" s="22">
         <f t="shared" si="0"/>
-        <v>5646</v>
+        <v>-1921</v>
       </c>
       <c r="H37" s="23">
         <f t="shared" si="1"/>
-        <v>1.5053551288990219E-2</v>
+        <v>-5.0458751743466257E-3</v>
       </c>
       <c r="I37" s="24">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J37" s="25">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="K37" s="26">
         <f t="shared" si="4"/>
-        <v>16258</v>
+        <v>14337</v>
       </c>
       <c r="L37" s="27">
         <f t="shared" si="5"/>
-        <v>4.4609808231055759E-2</v>
+        <v>3.9338837532823412E-2</v>
       </c>
       <c r="M37" s="28">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N37" s="29">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O37" s="30">
         <f t="shared" si="8"/>
-        <v>15419</v>
+        <v>18378</v>
       </c>
       <c r="P37" s="31">
         <f t="shared" si="9"/>
-        <v>4.2210529773767602E-2</v>
+        <v>5.099220882999278E-2</v>
       </c>
       <c r="Q37" s="32">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R37" s="33">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38" s="55">
         <v>189173</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="56">
         <v>187080</v>
       </c>
-      <c r="D38" s="22">
-        <v>182181</v>
-      </c>
-      <c r="E38" s="36">
-        <v>189898</v>
-      </c>
-      <c r="F38" s="37">
+      <c r="D38" s="57">
+        <v>183163</v>
+      </c>
+      <c r="E38" s="56">
         <v>189848</v>
+      </c>
+      <c r="F38" s="58">
+        <v>190973</v>
       </c>
       <c r="G38" s="22">
         <f t="shared" si="0"/>
-        <v>-50</v>
+        <v>1125</v>
       </c>
       <c r="H38" s="23">
         <f t="shared" si="1"/>
-        <v>-2.6329924485779532E-4</v>
+        <v>5.9257932661918034E-3</v>
       </c>
       <c r="I38" s="24">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J38" s="25">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K38" s="26">
         <f t="shared" si="4"/>
-        <v>2768</v>
+        <v>3893</v>
       </c>
       <c r="L38" s="27">
         <f t="shared" si="5"/>
-        <v>1.4795809279452676E-2</v>
+        <v>2.0809279452640661E-2</v>
       </c>
       <c r="M38" s="28">
         <f t="shared" si="6"/>
@@ -3236,109 +3248,109 @@
       </c>
       <c r="O38" s="30">
         <f t="shared" si="8"/>
-        <v>7667</v>
+        <v>7810</v>
       </c>
       <c r="P38" s="31">
         <f t="shared" si="9"/>
-        <v>4.2084520339662257E-2</v>
+        <v>4.2639616079666709E-2</v>
       </c>
       <c r="Q38" s="32">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R38" s="33">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="56">
+      <c r="B39" s="60">
         <f>SUM(B7:B38)</f>
         <v>20421442</v>
       </c>
-      <c r="C39" s="57">
+      <c r="C39" s="61">
         <v>19773732</v>
       </c>
-      <c r="D39" s="58">
-        <v>19499859</v>
-      </c>
-      <c r="E39" s="57">
-        <v>20109444</v>
-      </c>
-      <c r="F39" s="59">
+      <c r="D39" s="62">
+        <v>19495952</v>
+      </c>
+      <c r="E39" s="61">
         <v>20175380</v>
       </c>
-      <c r="G39" s="58">
+      <c r="F39" s="63">
+        <v>20291923</v>
+      </c>
+      <c r="G39" s="62">
         <f t="shared" si="0"/>
-        <v>65936</v>
-      </c>
-      <c r="H39" s="60">
+        <v>116543</v>
+      </c>
+      <c r="H39" s="64">
         <f t="shared" si="1"/>
-        <v>3.2788574363369349E-3</v>
-      </c>
-      <c r="I39" s="61"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="63">
+        <v>5.7764959073880462E-3</v>
+      </c>
+      <c r="I39" s="65"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="67">
         <f t="shared" si="4"/>
-        <v>401648</v>
-      </c>
-      <c r="L39" s="64">
+        <v>518191</v>
+      </c>
+      <c r="L39" s="68">
         <f t="shared" si="5"/>
-        <v>2.0312200043977491E-2</v>
-      </c>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="65">
+        <v>2.6206029291789834E-2</v>
+      </c>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="69">
         <f t="shared" si="8"/>
-        <v>675521</v>
-      </c>
-      <c r="P39" s="66">
+        <v>795971</v>
+      </c>
+      <c r="P39" s="70">
         <f t="shared" si="9"/>
-        <v>3.4642353054963104E-2</v>
-      </c>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="62"/>
-    </row>
-    <row r="40" spans="1:18" s="67" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="O40" s="69"/>
+        <v>4.0827501011492018E-2</v>
+      </c>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="66"/>
+    </row>
+    <row r="40" spans="1:18" s="71" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="O40" s="73"/>
     </row>
     <row r="41" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="70"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="70"/>
-      <c r="R41" s="70"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/Tabulados/TAentidadrank_delegacion.xlsx
+++ b/Tabulados/TAentidadrank_delegacion.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400"/>
   </bookViews>
   <sheets>
-    <sheet name="ta_febrero" sheetId="1" r:id="rId1"/>
+    <sheet name="ta_marzo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,24 +47,24 @@
   </si>
   <si>
     <t>2021
-Febrero</t>
-  </si>
-  <si>
-    <t>2022
-Enero</t>
+Marzo</t>
   </si>
   <si>
     <t>2022
 Febrero</t>
   </si>
   <si>
-    <t>Febrero 2022 respecto a Enero 2022</t>
-  </si>
-  <si>
-    <t>Febrero 2022 respecto a Diciembre 2021</t>
-  </si>
-  <si>
-    <t>Febrero 2022 respecto a Febrero2021</t>
+    <t>2022
+Marzo</t>
+  </si>
+  <si>
+    <t>Marzo 2022 respecto a Febrero 2022</t>
+  </si>
+  <si>
+    <t>Marzo 2022 respecto a Diciembre 2021</t>
+  </si>
+  <si>
+    <t>Marzo 2022 respecto a Marzo 2021</t>
   </si>
   <si>
     <t>Variación Absoluta</t>
@@ -419,7 +419,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -539,6 +539,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -857,7 +858,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -873,57 +874,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -943,50 +944,50 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="48" t="s">
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49" t="s">
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
     </row>
     <row r="6" spans="1:18" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1035,61 +1036,61 @@
         <v>335529</v>
       </c>
       <c r="D7" s="8">
-        <v>330675</v>
+        <v>331624</v>
       </c>
       <c r="E7" s="8">
-        <v>338642</v>
+        <v>340944</v>
       </c>
       <c r="F7" s="8">
-        <v>340944</v>
+        <v>341250</v>
       </c>
       <c r="G7" s="9">
         <f>F7-E7</f>
-        <v>2302</v>
+        <v>306</v>
       </c>
       <c r="H7" s="10">
         <f>F7/E7-1</f>
-        <v>6.7977392054145991E-3</v>
+        <v>8.9750809517097352E-4</v>
       </c>
       <c r="I7" s="8">
         <f>_xlfn.RANK.EQ(G7,$G$7:$G$38)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J7" s="11">
         <f>_xlfn.RANK.EQ(H7,$H$7:$H$38)</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K7" s="12">
         <f>F7-C7</f>
-        <v>5415</v>
+        <v>5721</v>
       </c>
       <c r="L7" s="10">
         <f>F7/C7-1</f>
-        <v>1.6138694419856492E-2</v>
+        <v>1.7050687123914665E-2</v>
       </c>
       <c r="M7" s="13">
         <f>_xlfn.RANK.EQ(K7,$K$7:$K$38)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N7" s="14">
         <f>_xlfn.RANK.EQ(L7,$L$7:$L$38)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O7" s="15">
         <f>F7-D7</f>
-        <v>10269</v>
+        <v>9626</v>
       </c>
       <c r="P7" s="16">
         <f>F7/D7-1</f>
-        <v>3.1054660920843746E-2</v>
+        <v>2.9026849685185541E-2</v>
       </c>
       <c r="Q7" s="17">
         <f>_xlfn.RANK.EQ(O7,$O$7:$O$38)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R7" s="18">
         <f>_xlfn.RANK.EQ(P7,$P$7:$P$38)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1103,53 +1104,53 @@
         <v>1004354</v>
       </c>
       <c r="D8" s="8">
-        <v>970897</v>
+        <v>983129</v>
       </c>
       <c r="E8" s="8">
-        <v>1024758</v>
+        <v>1029980</v>
       </c>
       <c r="F8" s="8">
-        <v>1029980</v>
+        <v>1036470</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" ref="G8:G39" si="0">F8-E8</f>
-        <v>5222</v>
+        <v>6490</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" ref="H8:H39" si="1">F8/E8-1</f>
-        <v>5.0958372610898639E-3</v>
+        <v>6.3010932251110763E-3</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" ref="I8:I38" si="2">_xlfn.RANK.EQ(G8,$G$7:$G$38)</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" ref="J8:J38" si="3">_xlfn.RANK.EQ(H8,$H$7:$H$38)</f>
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" ref="K8:K39" si="4">F8-C8</f>
-        <v>25626</v>
+        <v>32116</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" ref="L8:L39" si="5">F8/C8-1</f>
-        <v>2.5514908090175314E-2</v>
+        <v>3.1976773129792857E-2</v>
       </c>
       <c r="M8" s="13">
         <f t="shared" ref="M8:M38" si="6">_xlfn.RANK.EQ(K8,$K$7:$K$38)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" s="14">
         <f t="shared" ref="N8:N38" si="7">_xlfn.RANK.EQ(L8,$L$7:$L$38)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" s="15">
         <f t="shared" ref="O8:O39" si="8">F8-D8</f>
-        <v>59083</v>
+        <v>53341</v>
       </c>
       <c r="P8" s="16">
         <f t="shared" ref="P8:P39" si="9">F8/D8-1</f>
-        <v>6.085403498002373E-2</v>
+        <v>5.4256359033249879E-2</v>
       </c>
       <c r="Q8" s="17">
         <f t="shared" ref="Q8:Q38" si="10">_xlfn.RANK.EQ(O8,$O$7:$O$38)</f>
@@ -1157,7 +1158,7 @@
       </c>
       <c r="R8" s="18">
         <f t="shared" ref="R8:R38" si="11">_xlfn.RANK.EQ(P8,$P$7:$P$38)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1171,53 +1172,53 @@
         <v>190885</v>
       </c>
       <c r="D9" s="8">
-        <v>167746</v>
+        <v>170091</v>
       </c>
       <c r="E9" s="8">
-        <v>192789</v>
+        <v>195448</v>
       </c>
       <c r="F9" s="8">
-        <v>195448</v>
+        <v>198190</v>
       </c>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
-        <v>2659</v>
+        <v>2742</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="1"/>
-        <v>1.3792280679914226E-2</v>
+        <v>1.4029307027956239E-2</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J9" s="11">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="4"/>
-        <v>4563</v>
+        <v>7305</v>
       </c>
       <c r="L9" s="10">
         <f t="shared" si="5"/>
-        <v>2.3904445084736992E-2</v>
+        <v>3.8269114912119928E-2</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N9" s="14">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="8"/>
-        <v>27702</v>
+        <v>28099</v>
       </c>
       <c r="P9" s="16">
         <f t="shared" si="9"/>
-        <v>0.16514253693083591</v>
+        <v>0.16519980481036622</v>
       </c>
       <c r="Q9" s="17">
         <f t="shared" si="10"/>
@@ -1239,37 +1240,37 @@
         <v>131218</v>
       </c>
       <c r="D10" s="8">
-        <v>127199</v>
+        <v>127450</v>
       </c>
       <c r="E10" s="8">
-        <v>131690</v>
+        <v>132523</v>
       </c>
       <c r="F10" s="8">
-        <v>132523</v>
+        <v>133197</v>
       </c>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
-        <v>833</v>
+        <v>674</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="1"/>
-        <v>6.3254613106538127E-3</v>
+        <v>5.0859096156894434E-3</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J10" s="11">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="4"/>
-        <v>1305</v>
+        <v>1979</v>
       </c>
       <c r="L10" s="10">
         <f t="shared" si="5"/>
-        <v>9.9452818973007062E-3</v>
+        <v>1.5081772317822262E-2</v>
       </c>
       <c r="M10" s="13">
         <f t="shared" si="6"/>
@@ -1281,19 +1282,19 @@
       </c>
       <c r="O10" s="15">
         <f>F10-D10</f>
-        <v>5324</v>
+        <v>5747</v>
       </c>
       <c r="P10" s="16">
         <f t="shared" si="9"/>
-        <v>4.185567496599818E-2</v>
+        <v>4.5092193016869286E-2</v>
       </c>
       <c r="Q10" s="17">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R10" s="18">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1307,61 +1308,61 @@
         <v>235059</v>
       </c>
       <c r="D11" s="8">
-        <v>223027</v>
+        <v>226046</v>
       </c>
       <c r="E11" s="8">
-        <v>231464</v>
+        <v>234202</v>
       </c>
       <c r="F11" s="8">
-        <v>234202</v>
+        <v>236234</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v>2738</v>
+        <v>2032</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="1"/>
-        <v>1.1829053330107531E-2</v>
+        <v>8.6762709114354131E-3</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J11" s="11">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K11" s="12">
         <f t="shared" si="4"/>
-        <v>-857</v>
+        <v>1175</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="5"/>
-        <v>-3.6458931587388665E-3</v>
+        <v>4.998744995937221E-3</v>
       </c>
       <c r="M11" s="13">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N11" s="14">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O11" s="15">
         <f>F11-D11</f>
-        <v>11175</v>
+        <v>10188</v>
       </c>
       <c r="P11" s="16">
         <f t="shared" si="9"/>
-        <v>5.0106040972617727E-2</v>
+        <v>4.5070472381727678E-2</v>
       </c>
       <c r="Q11" s="17">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R11" s="18">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1375,37 +1376,37 @@
         <v>930477</v>
       </c>
       <c r="D12" s="8">
-        <v>915962</v>
+        <v>920933</v>
       </c>
       <c r="E12" s="8">
-        <v>945569</v>
+        <v>955326</v>
       </c>
       <c r="F12" s="8">
-        <v>955326</v>
+        <v>960620</v>
       </c>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
-        <v>9757</v>
+        <v>5294</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" si="1"/>
-        <v>1.0318654693628915E-2</v>
+        <v>5.5415638221927299E-3</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="11">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="4"/>
-        <v>24849</v>
+        <v>30143</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" si="5"/>
-        <v>2.6705657420871276E-2</v>
+        <v>3.2395212348075297E-2</v>
       </c>
       <c r="M12" s="13">
         <f t="shared" si="6"/>
@@ -1413,15 +1414,15 @@
       </c>
       <c r="N12" s="14">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O12" s="15">
         <f t="shared" si="8"/>
-        <v>39364</v>
+        <v>39687</v>
       </c>
       <c r="P12" s="16">
         <f t="shared" si="9"/>
-        <v>4.2975581956456788E-2</v>
+        <v>4.3094340196300873E-2</v>
       </c>
       <c r="Q12" s="17">
         <f t="shared" si="10"/>
@@ -1443,37 +1444,37 @@
         <v>3312592</v>
       </c>
       <c r="D13" s="8">
-        <v>3216913</v>
+        <v>3213626</v>
       </c>
       <c r="E13" s="8">
-        <v>3301167</v>
+        <v>3321460</v>
       </c>
       <c r="F13" s="8">
-        <v>3321460</v>
+        <v>3323522</v>
       </c>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
-        <v>20293</v>
+        <v>2062</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="1"/>
-        <v>6.1472200588459369E-3</v>
+        <v>6.2081132995728261E-4</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J13" s="11">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" si="4"/>
-        <v>8868</v>
+        <v>10930</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="5"/>
-        <v>2.6770577239816351E-3</v>
+        <v>3.2995310017049917E-3</v>
       </c>
       <c r="M13" s="13">
         <f t="shared" si="6"/>
@@ -1481,23 +1482,23 @@
       </c>
       <c r="N13" s="14">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O13" s="15">
         <f t="shared" si="8"/>
-        <v>104547</v>
+        <v>109896</v>
       </c>
       <c r="P13" s="16">
         <f t="shared" si="9"/>
-        <v>3.249916923460483E-2</v>
+        <v>3.4196885387409726E-2</v>
       </c>
       <c r="Q13" s="17">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R13" s="18">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1511,53 +1512,53 @@
         <v>789468</v>
       </c>
       <c r="D14" s="8">
-        <v>766489</v>
+        <v>768194</v>
       </c>
       <c r="E14" s="8">
-        <v>799551</v>
+        <v>807915</v>
       </c>
       <c r="F14" s="8">
-        <v>807915</v>
+        <v>814164</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>8364</v>
+        <v>6249</v>
       </c>
       <c r="H14" s="10">
         <f t="shared" si="1"/>
-        <v>1.0460871163940677E-2</v>
+        <v>7.7347245687975352E-3</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J14" s="11">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K14" s="12">
         <f t="shared" si="4"/>
-        <v>18447</v>
+        <v>24696</v>
       </c>
       <c r="L14" s="10">
         <f t="shared" si="5"/>
-        <v>2.336636823785132E-2</v>
+        <v>3.128182522914158E-2</v>
       </c>
       <c r="M14" s="13">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O14" s="15">
         <f t="shared" si="8"/>
-        <v>41426</v>
+        <v>45970</v>
       </c>
       <c r="P14" s="16">
         <f t="shared" si="9"/>
-        <v>5.404643771795814E-2</v>
+        <v>5.9841654582045711E-2</v>
       </c>
       <c r="Q14" s="17">
         <f t="shared" si="10"/>
@@ -1565,7 +1566,7 @@
       </c>
       <c r="R14" s="18">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1579,61 +1580,61 @@
         <v>140370</v>
       </c>
       <c r="D15" s="8">
-        <v>137020</v>
+        <v>138595</v>
       </c>
       <c r="E15" s="8">
-        <v>142113</v>
+        <v>142691</v>
       </c>
       <c r="F15" s="8">
-        <v>142691</v>
+        <v>142922</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
-        <v>578</v>
+        <v>231</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" si="1"/>
-        <v>4.0671859717267278E-3</v>
+        <v>1.6188827606506973E-3</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J15" s="11">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" si="4"/>
-        <v>2321</v>
+        <v>2552</v>
       </c>
       <c r="L15" s="10">
         <f t="shared" si="5"/>
-        <v>1.6534872123673106E-2</v>
+        <v>1.8180522903754381E-2</v>
       </c>
       <c r="M15" s="13">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N15" s="14">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O15" s="15">
         <f t="shared" si="8"/>
-        <v>5671</v>
+        <v>4327</v>
       </c>
       <c r="P15" s="16">
         <f t="shared" si="9"/>
-        <v>4.1388118522843298E-2</v>
+        <v>3.1220462498647183E-2</v>
       </c>
       <c r="Q15" s="17">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R15" s="18">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1647,41 +1648,41 @@
         <v>254204</v>
       </c>
       <c r="D16" s="8">
-        <v>241978</v>
+        <v>241968</v>
       </c>
       <c r="E16" s="8">
-        <v>256588</v>
+        <v>257932</v>
       </c>
       <c r="F16" s="8">
-        <v>257932</v>
+        <v>259036</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
-        <v>1344</v>
+        <v>1104</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="1"/>
-        <v>5.237969039861623E-3</v>
+        <v>4.2801978816122688E-3</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="4"/>
-        <v>3728</v>
+        <v>4832</v>
       </c>
       <c r="L16" s="10">
         <f t="shared" si="5"/>
-        <v>1.466538685465224E-2</v>
+        <v>1.9008355494012585E-2</v>
       </c>
       <c r="M16" s="13">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N16" s="14">
         <f t="shared" si="7"/>
@@ -1689,15 +1690,15 @@
       </c>
       <c r="O16" s="15">
         <f t="shared" si="8"/>
-        <v>15954</v>
+        <v>17068</v>
       </c>
       <c r="P16" s="16">
         <f t="shared" si="9"/>
-        <v>6.5931613617767004E-2</v>
+        <v>7.0538252992131234E-2</v>
       </c>
       <c r="Q16" s="17">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R16" s="18">
         <f>_xlfn.RANK.EQ(P16,$P$7:$P$38)</f>
@@ -1715,37 +1716,37 @@
         <v>1650381</v>
       </c>
       <c r="D17" s="8">
-        <v>1603856</v>
+        <v>1606884</v>
       </c>
       <c r="E17" s="8">
-        <v>1659857</v>
+        <v>1670417</v>
       </c>
       <c r="F17" s="8">
-        <v>1670417</v>
+        <v>1674576</v>
       </c>
       <c r="G17" s="9">
         <f t="shared" si="0"/>
-        <v>10560</v>
+        <v>4159</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="1"/>
-        <v>6.361993834408608E-3</v>
+        <v>2.4897974577604565E-3</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="4"/>
-        <v>20036</v>
+        <v>24195</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="5"/>
-        <v>1.2140227014246996E-2</v>
+        <v>1.4660251178364225E-2</v>
       </c>
       <c r="M17" s="13">
         <f t="shared" si="6"/>
@@ -1753,15 +1754,15 @@
       </c>
       <c r="N17" s="14">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O17" s="15">
         <f t="shared" si="8"/>
-        <v>66561</v>
+        <v>67692</v>
       </c>
       <c r="P17" s="16">
         <f t="shared" si="9"/>
-        <v>4.1500608533434402E-2</v>
+        <v>4.2126251801623438E-2</v>
       </c>
       <c r="Q17" s="17">
         <f t="shared" si="10"/>
@@ -1769,7 +1770,7 @@
       </c>
       <c r="R17" s="18">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -1783,25 +1784,25 @@
         <v>1014873</v>
       </c>
       <c r="D18" s="8">
-        <v>985130</v>
+        <v>986585</v>
       </c>
       <c r="E18" s="8">
-        <v>1023139</v>
+        <v>1031913</v>
       </c>
       <c r="F18" s="8">
-        <v>1031913</v>
+        <v>1036387</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" si="0"/>
-        <v>8774</v>
+        <v>4474</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" si="1"/>
-        <v>8.575569888353396E-3</v>
+        <v>4.335636822096367E-3</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" s="11">
         <f t="shared" si="3"/>
@@ -1809,15 +1810,15 @@
       </c>
       <c r="K18" s="12">
         <f t="shared" si="4"/>
-        <v>17040</v>
+        <v>21514</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="5"/>
-        <v>1.679027819244383E-2</v>
+        <v>2.1198711562924633E-2</v>
       </c>
       <c r="M18" s="13">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N18" s="14">
         <f t="shared" si="7"/>
@@ -1825,11 +1826,11 @@
       </c>
       <c r="O18" s="15">
         <f t="shared" si="8"/>
-        <v>46783</v>
+        <v>49802</v>
       </c>
       <c r="P18" s="16">
         <f t="shared" si="9"/>
-        <v>4.7489163866697881E-2</v>
+        <v>5.0479178175220518E-2</v>
       </c>
       <c r="Q18" s="17">
         <f t="shared" si="10"/>
@@ -1837,7 +1838,7 @@
       </c>
       <c r="R18" s="18">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -1851,37 +1852,37 @@
         <v>153546</v>
       </c>
       <c r="D19" s="8">
-        <v>143318</v>
+        <v>147015</v>
       </c>
       <c r="E19" s="8">
-        <v>147486</v>
+        <v>149507</v>
       </c>
       <c r="F19" s="8">
-        <v>149507</v>
+        <v>150643</v>
       </c>
       <c r="G19" s="9">
         <f t="shared" si="0"/>
-        <v>2021</v>
+        <v>1136</v>
       </c>
       <c r="H19" s="10">
         <f t="shared" si="1"/>
-        <v>1.3702995538559692E-2</v>
+        <v>7.5983064338125406E-3</v>
       </c>
       <c r="I19" s="8">
         <f>_xlfn.RANK.EQ(G19,$G$7:$G$38)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" s="11">
         <f>_xlfn.RANK.EQ(H19,$H$7:$H$38)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K19" s="12">
         <f t="shared" si="4"/>
-        <v>-4039</v>
+        <v>-2903</v>
       </c>
       <c r="L19" s="10">
         <f t="shared" si="5"/>
-        <v>-2.6304820705195797E-2</v>
+        <v>-1.8906386359787919E-2</v>
       </c>
       <c r="M19" s="13">
         <f t="shared" si="6"/>
@@ -1893,19 +1894,19 @@
       </c>
       <c r="O19" s="15">
         <f t="shared" si="8"/>
-        <v>6189</v>
+        <v>3628</v>
       </c>
       <c r="P19" s="16">
         <f t="shared" si="9"/>
-        <v>4.3183689417937821E-2</v>
+        <v>2.467775397068328E-2</v>
       </c>
       <c r="Q19" s="17">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="R19" s="18">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1919,37 +1920,37 @@
         <v>240431</v>
       </c>
       <c r="D20" s="8">
-        <v>222065</v>
+        <v>222938</v>
       </c>
       <c r="E20" s="8">
-        <v>244265</v>
+        <v>247384</v>
       </c>
       <c r="F20" s="8">
-        <v>247384</v>
+        <v>248308</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" si="0"/>
-        <v>3119</v>
+        <v>924</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" si="1"/>
-        <v>1.2768919001903578E-2</v>
+        <v>3.7350839181191642E-3</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K20" s="12">
         <f t="shared" si="4"/>
-        <v>6953</v>
+        <v>7877</v>
       </c>
       <c r="L20" s="10">
         <f t="shared" si="5"/>
-        <v>2.8918899809092791E-2</v>
+        <v>3.2761998244818624E-2</v>
       </c>
       <c r="M20" s="13">
         <f t="shared" si="6"/>
@@ -1957,19 +1958,19 @@
       </c>
       <c r="N20" s="14">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O20" s="15">
         <f t="shared" si="8"/>
-        <v>25319</v>
+        <v>25370</v>
       </c>
       <c r="P20" s="16">
         <f t="shared" si="9"/>
-        <v>0.11401616643775481</v>
+        <v>0.11379845517587839</v>
       </c>
       <c r="Q20" s="17">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R20" s="18">
         <f t="shared" si="11"/>
@@ -1987,61 +1988,61 @@
         <v>1849999</v>
       </c>
       <c r="D21" s="21">
-        <v>1800733</v>
+        <v>1803619</v>
       </c>
       <c r="E21" s="21">
-        <v>1861159</v>
+        <v>1874622</v>
       </c>
       <c r="F21" s="21">
-        <v>1874622</v>
+        <v>1886776</v>
       </c>
       <c r="G21" s="22">
         <f>F21-E21</f>
-        <v>13463</v>
+        <v>12154</v>
       </c>
       <c r="H21" s="23">
         <f>F21/E21-1</f>
-        <v>7.2336646143613681E-3</v>
+        <v>6.483440394916995E-3</v>
       </c>
       <c r="I21" s="21">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" s="24">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K21" s="25">
         <f>F21-C21</f>
-        <v>24623</v>
+        <v>36777</v>
       </c>
       <c r="L21" s="23">
         <f>F21/C21-1</f>
-        <v>1.3309736924182136E-2</v>
+        <v>1.9879470205119043E-2</v>
       </c>
       <c r="M21" s="26">
         <f>_xlfn.RANK.EQ(K21,$K$7:$K$38)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N21" s="27">
         <f>_xlfn.RANK.EQ(L21,$L$7:$L$38)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O21" s="28">
         <f>F21-D21</f>
-        <v>73889</v>
+        <v>83157</v>
       </c>
       <c r="P21" s="29">
         <f>F21/D21-1</f>
-        <v>4.1032735002912712E-2</v>
+        <v>4.6105635391953559E-2</v>
       </c>
       <c r="Q21" s="30">
         <f>_xlfn.RANK.EQ(O21,$O$7:$O$38)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R21" s="31">
         <f>_xlfn.RANK.EQ(P21,$P$7:$P$38)</f>
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -2055,57 +2056,57 @@
         <v>465270</v>
       </c>
       <c r="D22" s="8">
-        <v>462035</v>
+        <v>462309</v>
       </c>
       <c r="E22" s="8">
-        <v>465152</v>
+        <v>467596</v>
       </c>
       <c r="F22" s="8">
-        <v>467596</v>
+        <v>468910</v>
       </c>
       <c r="G22" s="9">
         <f t="shared" si="0"/>
-        <v>2444</v>
+        <v>1314</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" si="1"/>
-        <v>5.2541964777104155E-3</v>
+        <v>2.8101181361688266E-3</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" s="11">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K22" s="12">
         <f t="shared" si="4"/>
-        <v>2326</v>
+        <v>3640</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="5"/>
-        <v>4.9992477486191511E-3</v>
+        <v>7.8234143615534268E-3</v>
       </c>
       <c r="M22" s="13">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N22" s="14">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O22" s="15">
         <f t="shared" si="8"/>
-        <v>5561</v>
+        <v>6601</v>
       </c>
       <c r="P22" s="16">
         <f t="shared" si="9"/>
-        <v>1.2035884727347401E-2</v>
+        <v>1.4278328996407241E-2</v>
       </c>
       <c r="Q22" s="17">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R22" s="18">
         <f t="shared" si="11"/>
@@ -2123,61 +2124,61 @@
         <v>213192</v>
       </c>
       <c r="D23" s="8">
-        <v>206050</v>
+        <v>205760</v>
       </c>
       <c r="E23" s="8">
-        <v>212020</v>
+        <v>213831</v>
       </c>
       <c r="F23" s="8">
-        <v>213831</v>
+        <v>214140</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" si="0"/>
-        <v>1811</v>
+        <v>309</v>
       </c>
       <c r="H23" s="10">
         <f t="shared" si="1"/>
-        <v>8.5416470144326073E-3</v>
+        <v>1.4450664309664241E-3</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J23" s="11">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K23" s="12">
         <f t="shared" si="4"/>
-        <v>639</v>
+        <v>948</v>
       </c>
       <c r="L23" s="10">
         <f t="shared" si="5"/>
-        <v>2.9972982100641143E-3</v>
+        <v>4.4466959360576208E-3</v>
       </c>
       <c r="M23" s="13">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N23" s="14">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O23" s="15">
         <f t="shared" si="8"/>
-        <v>7781</v>
+        <v>8380</v>
       </c>
       <c r="P23" s="16">
         <f t="shared" si="9"/>
-        <v>3.7762678961417162E-2</v>
+        <v>4.0727060653188207E-2</v>
       </c>
       <c r="Q23" s="17">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R23" s="18">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -2191,41 +2192,41 @@
         <v>160665</v>
       </c>
       <c r="D24" s="8">
-        <v>151811</v>
+        <v>152744</v>
       </c>
       <c r="E24" s="8">
-        <v>166107</v>
+        <v>167280</v>
       </c>
       <c r="F24" s="8">
-        <v>167280</v>
+        <v>167333</v>
       </c>
       <c r="G24" s="9">
         <f t="shared" si="0"/>
-        <v>1173</v>
+        <v>53</v>
       </c>
       <c r="H24" s="10">
         <f t="shared" si="1"/>
-        <v>7.061713233036615E-3</v>
+        <v>3.16834050693382E-4</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J24" s="11">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K24" s="12">
         <f t="shared" si="4"/>
-        <v>6615</v>
+        <v>6668</v>
       </c>
       <c r="L24" s="10">
         <f t="shared" si="5"/>
-        <v>4.1172626272056867E-2</v>
+        <v>4.1502505212709595E-2</v>
       </c>
       <c r="M24" s="13">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N24" s="14">
         <f t="shared" si="7"/>
@@ -2233,15 +2234,15 @@
       </c>
       <c r="O24" s="15">
         <f t="shared" si="8"/>
-        <v>15469</v>
+        <v>14589</v>
       </c>
       <c r="P24" s="16">
         <f t="shared" si="9"/>
-        <v>0.10189643701708051</v>
+        <v>9.5512753365107672E-2</v>
       </c>
       <c r="Q24" s="17">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R24" s="18">
         <f t="shared" si="11"/>
@@ -2259,37 +2260,37 @@
         <v>1696729</v>
       </c>
       <c r="D25" s="8">
-        <v>1626135</v>
+        <v>1638861</v>
       </c>
       <c r="E25" s="8">
-        <v>1711561</v>
+        <v>1733062</v>
       </c>
       <c r="F25" s="8">
-        <v>1733062</v>
+        <v>1742010</v>
       </c>
       <c r="G25" s="9">
         <f t="shared" si="0"/>
-        <v>21501</v>
+        <v>8948</v>
       </c>
       <c r="H25" s="10">
         <f t="shared" si="1"/>
-        <v>1.2562216596428533E-2</v>
+        <v>5.1631159185303588E-3</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K25" s="12">
         <f t="shared" si="4"/>
-        <v>36333</v>
+        <v>45281</v>
       </c>
       <c r="L25" s="10">
         <f t="shared" si="5"/>
-        <v>2.1413555140508578E-2</v>
+        <v>2.6687231726457261E-2</v>
       </c>
       <c r="M25" s="13">
         <f t="shared" si="6"/>
@@ -2297,19 +2298,19 @@
       </c>
       <c r="N25" s="14">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O25" s="15">
         <f t="shared" si="8"/>
-        <v>106927</v>
+        <v>103149</v>
       </c>
       <c r="P25" s="16">
         <f t="shared" si="9"/>
-        <v>6.5755303218982375E-2</v>
+        <v>6.2939443918672788E-2</v>
       </c>
       <c r="Q25" s="17">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25" s="18">
         <f>_xlfn.RANK.EQ(P25,$P$7:$P$38)</f>
@@ -2327,57 +2328,57 @@
         <v>211048</v>
       </c>
       <c r="D26" s="8">
-        <v>208345</v>
+        <v>208202</v>
       </c>
       <c r="E26" s="8">
-        <v>209969</v>
+        <v>211119</v>
       </c>
       <c r="F26" s="8">
-        <v>211119</v>
+        <v>212666</v>
       </c>
       <c r="G26" s="9">
         <f t="shared" si="0"/>
-        <v>1150</v>
+        <v>1547</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="1"/>
-        <v>5.4769989855645296E-3</v>
+        <v>7.3276209152184357E-3</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J26" s="11">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="K26" s="12">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>1618</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="5"/>
-        <v>3.3641636025927291E-4</v>
+        <v>7.6665024070352583E-3</v>
       </c>
       <c r="M26" s="13">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N26" s="14">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O26" s="15">
         <f t="shared" si="8"/>
-        <v>2774</v>
+        <v>4464</v>
       </c>
       <c r="P26" s="16">
         <f t="shared" si="9"/>
-        <v>1.331445439055412E-2</v>
+        <v>2.1440716227509871E-2</v>
       </c>
       <c r="Q26" s="17">
         <f>_xlfn.RANK.EQ(O26,$O$7:$O$38)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R26" s="18">
         <f t="shared" si="11"/>
@@ -2395,37 +2396,37 @@
         <v>611779</v>
       </c>
       <c r="D27" s="8">
-        <v>589535</v>
+        <v>592445</v>
       </c>
       <c r="E27" s="8">
-        <v>608463</v>
+        <v>612514</v>
       </c>
       <c r="F27" s="8">
-        <v>612514</v>
+        <v>613712</v>
       </c>
       <c r="G27" s="9">
         <f t="shared" si="0"/>
-        <v>4051</v>
+        <v>1198</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="1"/>
-        <v>6.6577589763059386E-3</v>
+        <v>1.9558736616631656E-3</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J27" s="11">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K27" s="12">
         <f t="shared" si="4"/>
-        <v>735</v>
+        <v>1933</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="5"/>
-        <v>1.2014142361866931E-3</v>
+        <v>3.1596377123110919E-3</v>
       </c>
       <c r="M27" s="13">
         <f t="shared" si="6"/>
@@ -2433,23 +2434,23 @@
       </c>
       <c r="N27" s="14">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O27" s="15">
         <f t="shared" si="8"/>
-        <v>22979</v>
+        <v>21267</v>
       </c>
       <c r="P27" s="16">
         <f t="shared" si="9"/>
-        <v>3.8978177716335827E-2</v>
+        <v>3.5897003097334013E-2</v>
       </c>
       <c r="Q27" s="17">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R27" s="18">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -2463,21 +2464,21 @@
         <v>628676</v>
       </c>
       <c r="D28" s="8">
-        <v>606706</v>
+        <v>611101</v>
       </c>
       <c r="E28" s="8">
-        <v>633157</v>
+        <v>641638</v>
       </c>
       <c r="F28" s="8">
-        <v>641638</v>
+        <v>645716</v>
       </c>
       <c r="G28" s="9">
         <f t="shared" si="0"/>
-        <v>8481</v>
+        <v>4078</v>
       </c>
       <c r="H28" s="10">
         <f t="shared" si="1"/>
-        <v>1.3394782020889062E-2</v>
+        <v>6.3556086142029233E-3</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="2"/>
@@ -2485,31 +2486,31 @@
       </c>
       <c r="J28" s="11">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K28" s="12">
         <f t="shared" si="4"/>
-        <v>12962</v>
+        <v>17040</v>
       </c>
       <c r="L28" s="10">
         <f t="shared" si="5"/>
-        <v>2.0617933561962065E-2</v>
+        <v>2.7104581692318552E-2</v>
       </c>
       <c r="M28" s="13">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N28" s="14">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O28" s="15">
         <f t="shared" si="8"/>
-        <v>34932</v>
+        <v>34615</v>
       </c>
       <c r="P28" s="16">
         <f t="shared" si="9"/>
-        <v>5.757648679920746E-2</v>
+        <v>5.6643664467902921E-2</v>
       </c>
       <c r="Q28" s="17">
         <f t="shared" si="10"/>
@@ -2531,61 +2532,61 @@
         <v>432986</v>
       </c>
       <c r="D29" s="8">
-        <v>363772</v>
+        <v>377825</v>
       </c>
       <c r="E29" s="8">
-        <v>443448</v>
+        <v>448714</v>
       </c>
       <c r="F29" s="8">
-        <v>448714</v>
+        <v>445823</v>
       </c>
       <c r="G29" s="9">
         <f t="shared" si="0"/>
-        <v>5266</v>
+        <v>-2891</v>
       </c>
       <c r="H29" s="10">
         <f t="shared" si="1"/>
-        <v>1.1875124028071005E-2</v>
+        <v>-6.4428566971389545E-3</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J29" s="11">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="K29" s="12">
         <f t="shared" si="4"/>
-        <v>15728</v>
+        <v>12837</v>
       </c>
       <c r="L29" s="10">
         <f t="shared" si="5"/>
-        <v>3.6324500099310431E-2</v>
+        <v>2.9647609853436396E-2</v>
       </c>
       <c r="M29" s="13">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N29" s="14">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O29" s="15">
         <f t="shared" si="8"/>
-        <v>84942</v>
+        <v>67998</v>
       </c>
       <c r="P29" s="16">
         <f t="shared" si="9"/>
-        <v>0.23350340323059493</v>
+        <v>0.17997220935618352</v>
       </c>
       <c r="Q29" s="17">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R29" s="18">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -2599,37 +2600,37 @@
         <v>451010</v>
       </c>
       <c r="D30" s="8">
-        <v>447419</v>
+        <v>447825</v>
       </c>
       <c r="E30" s="8">
-        <v>454608</v>
+        <v>456461</v>
       </c>
       <c r="F30" s="8">
-        <v>456461</v>
+        <v>458029</v>
       </c>
       <c r="G30" s="9">
         <f t="shared" si="0"/>
-        <v>1853</v>
+        <v>1568</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" si="1"/>
-        <v>4.0760391370147087E-3</v>
+        <v>3.4351237016962965E-3</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J30" s="11">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K30" s="12">
         <f t="shared" si="4"/>
-        <v>5451</v>
+        <v>7019</v>
       </c>
       <c r="L30" s="10">
         <f t="shared" si="5"/>
-        <v>1.208620651426795E-2</v>
+        <v>1.5562847830425053E-2</v>
       </c>
       <c r="M30" s="13">
         <f t="shared" si="6"/>
@@ -2641,19 +2642,19 @@
       </c>
       <c r="O30" s="15">
         <f t="shared" si="8"/>
-        <v>9042</v>
+        <v>10204</v>
       </c>
       <c r="P30" s="16">
         <f t="shared" si="9"/>
-        <v>2.0209244578348162E-2</v>
+        <v>2.2785686373025138E-2</v>
       </c>
       <c r="Q30" s="17">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R30" s="18">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -2667,21 +2668,21 @@
         <v>586281</v>
       </c>
       <c r="D31" s="8">
-        <v>581325</v>
+        <v>586460</v>
       </c>
       <c r="E31" s="8">
-        <v>607529</v>
+        <v>607676</v>
       </c>
       <c r="F31" s="8">
-        <v>607676</v>
+        <v>599919</v>
       </c>
       <c r="G31" s="9">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>-7757</v>
       </c>
       <c r="H31" s="10">
         <f t="shared" si="1"/>
-        <v>2.4196375810858761E-4</v>
+        <v>-1.2765026099434529E-2</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="2"/>
@@ -2693,35 +2694,35 @@
       </c>
       <c r="K31" s="12">
         <f t="shared" si="4"/>
-        <v>21395</v>
+        <v>13638</v>
       </c>
       <c r="L31" s="10">
         <f t="shared" si="5"/>
-        <v>3.6492739829535603E-2</v>
+        <v>2.3261882953737212E-2</v>
       </c>
       <c r="M31" s="13">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N31" s="14">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="O31" s="15">
         <f t="shared" si="8"/>
-        <v>26351</v>
+        <v>13459</v>
       </c>
       <c r="P31" s="16">
         <f t="shared" si="9"/>
-        <v>4.5329204833784997E-2</v>
+        <v>2.2949561777444227E-2</v>
       </c>
       <c r="Q31" s="17">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="R31" s="18">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -2735,53 +2736,53 @@
         <v>596602</v>
       </c>
       <c r="D32" s="8">
-        <v>597596</v>
+        <v>603862</v>
       </c>
       <c r="E32" s="8">
-        <v>605219</v>
+        <v>621977</v>
       </c>
       <c r="F32" s="8">
-        <v>621977</v>
+        <v>623828</v>
       </c>
       <c r="G32" s="9">
         <f t="shared" si="0"/>
-        <v>16758</v>
+        <v>1851</v>
       </c>
       <c r="H32" s="10">
         <f t="shared" si="1"/>
-        <v>2.7689150538895868E-2</v>
+        <v>2.9759942891778302E-3</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J32" s="11">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K32" s="12">
         <f t="shared" si="4"/>
-        <v>25375</v>
+        <v>27226</v>
       </c>
       <c r="L32" s="10">
         <f t="shared" si="5"/>
-        <v>4.2532542633112236E-2</v>
+        <v>4.5635113526270477E-2</v>
       </c>
       <c r="M32" s="13">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32" s="14">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32" s="15">
         <f t="shared" si="8"/>
-        <v>24381</v>
+        <v>19966</v>
       </c>
       <c r="P32" s="16">
         <f t="shared" si="9"/>
-        <v>4.0798465853185029E-2</v>
+        <v>3.3063845713093398E-2</v>
       </c>
       <c r="Q32" s="17">
         <f t="shared" si="10"/>
@@ -2803,37 +2804,37 @@
         <v>209338</v>
       </c>
       <c r="D33" s="8">
-        <v>179307</v>
+        <v>185038</v>
       </c>
       <c r="E33" s="8">
-        <v>213100</v>
+        <v>218065</v>
       </c>
       <c r="F33" s="8">
-        <v>218065</v>
+        <v>219759</v>
       </c>
       <c r="G33" s="9">
         <f t="shared" si="0"/>
-        <v>4965</v>
+        <v>1694</v>
       </c>
       <c r="H33" s="10">
         <f t="shared" si="1"/>
-        <v>2.3298920694509562E-2</v>
+        <v>7.7683259578567032E-3</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J33" s="11">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K33" s="12">
         <f t="shared" si="4"/>
-        <v>8727</v>
+        <v>10421</v>
       </c>
       <c r="L33" s="10">
         <f t="shared" si="5"/>
-        <v>4.1688561083033093E-2</v>
+        <v>4.9780737372096873E-2</v>
       </c>
       <c r="M33" s="13">
         <f t="shared" si="6"/>
@@ -2841,15 +2842,15 @@
       </c>
       <c r="N33" s="14">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33" s="15">
         <f t="shared" si="8"/>
-        <v>38758</v>
+        <v>34721</v>
       </c>
       <c r="P33" s="16">
         <f t="shared" si="9"/>
-        <v>0.21615441672661961</v>
+        <v>0.18764253828943245</v>
       </c>
       <c r="Q33" s="17">
         <f t="shared" si="10"/>
@@ -2857,7 +2858,7 @@
       </c>
       <c r="R33" s="18">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -2871,61 +2872,61 @@
         <v>696086</v>
       </c>
       <c r="D34" s="8">
-        <v>682804</v>
+        <v>683659</v>
       </c>
       <c r="E34" s="8">
-        <v>703393</v>
+        <v>711135</v>
       </c>
       <c r="F34" s="8">
-        <v>711135</v>
+        <v>714063</v>
       </c>
       <c r="G34" s="9">
         <f t="shared" si="0"/>
-        <v>7742</v>
+        <v>2928</v>
       </c>
       <c r="H34" s="10">
         <f t="shared" si="1"/>
-        <v>1.1006649198954221E-2</v>
+        <v>4.1173616823810821E-3</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J34" s="11">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K34" s="12">
         <f t="shared" si="4"/>
-        <v>15049</v>
+        <v>17977</v>
       </c>
       <c r="L34" s="10">
         <f t="shared" si="5"/>
-        <v>2.1619455067333648E-2</v>
+        <v>2.5825831865602833E-2</v>
       </c>
       <c r="M34" s="13">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N34" s="14">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O34" s="15">
         <f t="shared" si="8"/>
-        <v>28331</v>
+        <v>30404</v>
       </c>
       <c r="P34" s="16">
         <f t="shared" si="9"/>
-        <v>4.1492141229401147E-2</v>
+        <v>4.4472463611244795E-2</v>
       </c>
       <c r="Q34" s="17">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34" s="18">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2939,53 +2940,53 @@
         <v>103100</v>
       </c>
       <c r="D35" s="8">
-        <v>101686</v>
+        <v>102821</v>
       </c>
       <c r="E35" s="8">
-        <v>102229</v>
+        <v>103766</v>
       </c>
       <c r="F35" s="8">
-        <v>103766</v>
+        <v>105153</v>
       </c>
       <c r="G35" s="9">
         <f t="shared" si="0"/>
-        <v>1537</v>
+        <v>1387</v>
       </c>
       <c r="H35" s="10">
         <f t="shared" si="1"/>
-        <v>1.5034872687789136E-2</v>
+        <v>1.3366613341556866E-2</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J35" s="11">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K35" s="12">
         <f t="shared" si="4"/>
-        <v>666</v>
+        <v>2053</v>
       </c>
       <c r="L35" s="10">
         <f t="shared" si="5"/>
-        <v>6.4597478176526835E-3</v>
+        <v>1.9912706110572165E-2</v>
       </c>
       <c r="M35" s="13">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N35" s="14">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O35" s="15">
         <f t="shared" si="8"/>
-        <v>2080</v>
+        <v>2332</v>
       </c>
       <c r="P35" s="16">
         <f t="shared" si="9"/>
-        <v>2.0455126566095716E-2</v>
+        <v>2.268019178961489E-2</v>
       </c>
       <c r="Q35" s="17">
         <f t="shared" si="10"/>
@@ -2993,7 +2994,7 @@
       </c>
       <c r="R35" s="18">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -3007,61 +3008,61 @@
         <v>734685</v>
       </c>
       <c r="D36" s="8">
-        <v>723182</v>
+        <v>717938</v>
       </c>
       <c r="E36" s="8">
-        <v>735231</v>
+        <v>739461</v>
       </c>
       <c r="F36" s="8">
-        <v>739461</v>
+        <v>735745</v>
       </c>
       <c r="G36" s="9">
         <f t="shared" si="0"/>
-        <v>4230</v>
+        <v>-3716</v>
       </c>
       <c r="H36" s="10">
         <f t="shared" si="1"/>
-        <v>5.7532938627451458E-3</v>
+        <v>-5.0252819283235217E-3</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J36" s="11">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K36" s="12">
         <f t="shared" si="4"/>
-        <v>4776</v>
+        <v>1060</v>
       </c>
       <c r="L36" s="10">
         <f t="shared" si="5"/>
-        <v>6.5007452173380109E-3</v>
+        <v>1.4427952115532161E-3</v>
       </c>
       <c r="M36" s="13">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N36" s="14">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="O36" s="15">
         <f t="shared" si="8"/>
-        <v>16279</v>
+        <v>17807</v>
       </c>
       <c r="P36" s="16">
         <f t="shared" si="9"/>
-        <v>2.2510239469455851E-2</v>
+        <v>2.4802977415877114E-2</v>
       </c>
       <c r="Q36" s="17">
         <f>_xlfn.RANK.EQ(O36,$O$7:$O$38)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R36" s="18">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -3075,25 +3076,25 @@
         <v>393339</v>
       </c>
       <c r="D37" s="8">
-        <v>368320</v>
+        <v>371003</v>
       </c>
       <c r="E37" s="8">
-        <v>395682</v>
+        <v>398497</v>
       </c>
       <c r="F37" s="8">
-        <v>398497</v>
+        <v>400048</v>
       </c>
       <c r="G37" s="9">
         <f t="shared" si="0"/>
-        <v>2815</v>
+        <v>1551</v>
       </c>
       <c r="H37" s="10">
         <f t="shared" si="1"/>
-        <v>7.1142988561521125E-3</v>
+        <v>3.8921246584040503E-3</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J37" s="11">
         <f t="shared" si="3"/>
@@ -3101,15 +3102,15 @@
       </c>
       <c r="K37" s="12">
         <f t="shared" si="4"/>
-        <v>5158</v>
+        <v>6709</v>
       </c>
       <c r="L37" s="10">
         <f t="shared" si="5"/>
-        <v>1.3113370400595903E-2</v>
+        <v>1.7056533931290918E-2</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N37" s="14">
         <f t="shared" si="7"/>
@@ -3117,15 +3118,15 @@
       </c>
       <c r="O37" s="15">
         <f t="shared" si="8"/>
-        <v>30177</v>
+        <v>29045</v>
       </c>
       <c r="P37" s="16">
         <f t="shared" si="9"/>
-        <v>8.1931472632493563E-2</v>
+        <v>7.8287776648706453E-2</v>
       </c>
       <c r="Q37" s="17">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R37" s="18">
         <f t="shared" si="11"/>
@@ -3143,41 +3144,41 @@
         <v>195976</v>
       </c>
       <c r="D38" s="8">
-        <v>187902</v>
+        <v>189159</v>
       </c>
       <c r="E38" s="8">
-        <v>195314</v>
+        <v>196230</v>
       </c>
       <c r="F38" s="8">
-        <v>196230</v>
+        <v>196703</v>
       </c>
       <c r="G38" s="9">
         <f t="shared" si="0"/>
-        <v>916</v>
+        <v>473</v>
       </c>
       <c r="H38" s="10">
         <f t="shared" si="1"/>
-        <v>4.6898839816911231E-3</v>
+        <v>2.4104367324058185E-3</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J38" s="11">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K38" s="12">
         <f t="shared" si="4"/>
-        <v>254</v>
+        <v>727</v>
       </c>
       <c r="L38" s="10">
         <f t="shared" si="5"/>
-        <v>1.2960770706618163E-3</v>
+        <v>3.7096379148466863E-3</v>
       </c>
       <c r="M38" s="13">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N38" s="14">
         <f t="shared" si="7"/>
@@ -3185,19 +3186,19 @@
       </c>
       <c r="O38" s="15">
         <f t="shared" si="8"/>
-        <v>8328</v>
+        <v>7544</v>
       </c>
       <c r="P38" s="16">
         <f t="shared" si="9"/>
-        <v>4.4320975827825126E-2</v>
+        <v>3.9881792566042407E-2</v>
       </c>
       <c r="Q38" s="17">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R38" s="18">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -3213,72 +3214,72 @@
         <v>20620148</v>
       </c>
       <c r="D39" s="34">
-        <v>19936938</v>
+        <v>20025709</v>
       </c>
       <c r="E39" s="34">
-        <f>SUM(E7:E38)</f>
-        <v>20762419</v>
+        <v>20941286</v>
       </c>
       <c r="F39" s="34">
-        <v>20941286</v>
+        <v>21005852</v>
       </c>
       <c r="G39" s="35">
         <f t="shared" si="0"/>
-        <v>178867</v>
+        <v>64566</v>
       </c>
       <c r="H39" s="36">
         <f t="shared" si="1"/>
-        <v>8.6149402918802576E-3</v>
+        <v>3.0831917390363728E-3</v>
       </c>
       <c r="I39" s="34"/>
       <c r="J39" s="37"/>
       <c r="K39" s="38">
         <f t="shared" si="4"/>
-        <v>321138</v>
+        <v>385704</v>
       </c>
       <c r="L39" s="36">
         <f t="shared" si="5"/>
-        <v>1.5573991030520151E-2</v>
+        <v>1.870520037004586E-2</v>
       </c>
       <c r="M39" s="36"/>
       <c r="N39" s="39"/>
       <c r="O39" s="40">
         <f t="shared" si="8"/>
-        <v>1004348</v>
+        <v>980143</v>
       </c>
       <c r="P39" s="41">
         <f t="shared" si="9"/>
-        <v>5.0376241326526738E-2</v>
+        <v>4.8944234633590211E-2</v>
       </c>
       <c r="Q39" s="39"/>
       <c r="R39" s="42"/>
     </row>
     <row r="40" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="K40" s="46"/>
     </row>
     <row r="41" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="N42" s="47"/>
+      <c r="N42" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/Tabulados/TAentidadrank_delegacion.xlsx
+++ b/Tabulados/TAentidadrank_delegacion.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10596"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="12512"/>
   </bookViews>
   <sheets>
-    <sheet name="ta_junio" sheetId="1" r:id="rId1"/>
+    <sheet name="ta_julio" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,24 +47,24 @@
   </si>
   <si>
     <t>2021
-Junio</t>
-  </si>
-  <si>
-    <t>2022
-Mayo</t>
+Julio</t>
   </si>
   <si>
     <t>2022
 Junio</t>
   </si>
   <si>
-    <t>Junio 2022 respecto a Mayo 2022</t>
-  </si>
-  <si>
-    <t>Junio 2022 respecto a Diciembre 2021</t>
-  </si>
-  <si>
-    <t>Junio 2022 respecto a Junio 2021</t>
+    <t>2022
+Julio</t>
+  </si>
+  <si>
+    <t>Julio 2022 respecto a Junio 2022</t>
+  </si>
+  <si>
+    <t>Julio 2022 respecto a Diciembre 2021</t>
+  </si>
+  <si>
+    <t>Julio 2022 respecto a Julio 2021</t>
   </si>
   <si>
     <t>Variación Absoluta</t>
@@ -860,8 +860,8 @@
   </sheetPr>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -1039,61 +1039,61 @@
         <v>335529</v>
       </c>
       <c r="D7" s="11">
-        <v>330146</v>
+        <v>333223</v>
       </c>
       <c r="E7" s="11">
-        <v>340347</v>
+        <v>341163</v>
       </c>
       <c r="F7" s="11">
-        <v>341163</v>
+        <v>340196</v>
       </c>
       <c r="G7" s="12">
         <f>F7-E7</f>
-        <v>816</v>
+        <v>-967</v>
       </c>
       <c r="H7" s="13">
         <f>F7/E7-1</f>
-        <v>2.3975530855273597E-3</v>
+        <v>-2.8344222556373477E-3</v>
       </c>
       <c r="I7" s="11">
         <f>_xlfn.RANK.EQ(G7,$G$7:$G$38)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J7" s="14">
         <f>_xlfn.RANK.EQ(H7,$H$7:$H$38)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K7" s="15">
         <f>F7-C7</f>
-        <v>5634</v>
+        <v>4667</v>
       </c>
       <c r="L7" s="13">
         <f>F7/C7-1</f>
-        <v>1.679139508060401E-2</v>
+        <v>1.3909378921047155E-2</v>
       </c>
       <c r="M7" s="16">
         <f>_xlfn.RANK.EQ(K7,$K$7:$K$38)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N7" s="17">
         <f>_xlfn.RANK.EQ(L7,$L$7:$L$38)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O7" s="18">
         <f>F7-D7</f>
-        <v>11017</v>
+        <v>6973</v>
       </c>
       <c r="P7" s="19">
         <f>F7/D7-1</f>
-        <v>3.3370084750383056E-2</v>
+        <v>2.0925926481665469E-2</v>
       </c>
       <c r="Q7" s="20">
         <f>_xlfn.RANK.EQ(O7,$O$7:$O$38)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R7" s="21">
         <f>_xlfn.RANK.EQ(P7,$P$7:$P$38)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1107,37 +1107,37 @@
         <v>1004354</v>
       </c>
       <c r="D8" s="11">
-        <v>989518</v>
+        <v>1004864</v>
       </c>
       <c r="E8" s="11">
-        <v>1036044</v>
+        <v>1044677</v>
       </c>
       <c r="F8" s="11">
-        <v>1044677</v>
+        <v>1044894</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ref="G8:G39" si="0">F8-E8</f>
-        <v>8633</v>
+        <v>217</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" ref="H8:H39" si="1">F8/E8-1</f>
-        <v>8.3326576863531621E-3</v>
+        <v>2.0771970666522144E-4</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" ref="I8:I38" si="2">_xlfn.RANK.EQ(G8,$G$7:$G$38)</f>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" ref="J8:J38" si="3">_xlfn.RANK.EQ(H8,$H$7:$H$38)</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" ref="K8:K39" si="4">F8-C8</f>
-        <v>40323</v>
+        <v>40540</v>
       </c>
       <c r="L8" s="13">
         <f t="shared" ref="L8:L39" si="5">F8/C8-1</f>
-        <v>4.0148194760014855E-2</v>
+        <v>4.036425403791899E-2</v>
       </c>
       <c r="M8" s="16">
         <f t="shared" ref="M8:M38" si="6">_xlfn.RANK.EQ(K8,$K$7:$K$38)</f>
@@ -1149,11 +1149,11 @@
       </c>
       <c r="O8" s="18">
         <f t="shared" ref="O8:O39" si="8">F8-D8</f>
-        <v>55159</v>
+        <v>40030</v>
       </c>
       <c r="P8" s="19">
         <f t="shared" ref="P8:P39" si="9">F8/D8-1</f>
-        <v>5.5743301284059577E-2</v>
+        <v>3.9836236545442993E-2</v>
       </c>
       <c r="Q8" s="20">
         <f t="shared" ref="Q8:Q38" si="10">_xlfn.RANK.EQ(O8,$O$7:$O$38)</f>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="R8" s="21">
         <f t="shared" ref="R8:R38" si="11">_xlfn.RANK.EQ(P8,$P$7:$P$38)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1175,37 +1175,37 @@
         <v>190885</v>
       </c>
       <c r="D9" s="11">
-        <v>180020</v>
+        <v>183282</v>
       </c>
       <c r="E9" s="11">
-        <v>205155</v>
+        <v>208042</v>
       </c>
       <c r="F9" s="11">
-        <v>208042</v>
+        <v>206475</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>2887</v>
+        <v>-1567</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" si="1"/>
-        <v>1.4072286807535805E-2</v>
+        <v>-7.5321329346959009E-3</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="4"/>
-        <v>17157</v>
+        <v>15590</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="5"/>
-        <v>8.9881342169368938E-2</v>
+        <v>8.1672211017104646E-2</v>
       </c>
       <c r="M9" s="16">
         <f t="shared" si="6"/>
@@ -1213,19 +1213,19 @@
       </c>
       <c r="N9" s="17">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" s="18">
         <f t="shared" si="8"/>
-        <v>28022</v>
+        <v>23193</v>
       </c>
       <c r="P9" s="19">
         <f t="shared" si="9"/>
-        <v>0.15566048216864803</v>
+        <v>0.1265427046845844</v>
       </c>
       <c r="Q9" s="20">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R9" s="21">
         <f t="shared" si="11"/>
@@ -1243,61 +1243,61 @@
         <v>131218</v>
       </c>
       <c r="D10" s="11">
-        <v>128911</v>
+        <v>131962</v>
       </c>
       <c r="E10" s="11">
-        <v>133768</v>
+        <v>133445</v>
       </c>
       <c r="F10" s="11">
-        <v>133445</v>
+        <v>133997</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
-        <v>-323</v>
+        <v>552</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" si="1"/>
-        <v>-2.4146283117038037E-3</v>
+        <v>4.1365356513920482E-3</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="4"/>
-        <v>2227</v>
+        <v>2779</v>
       </c>
       <c r="L10" s="13">
         <f t="shared" si="5"/>
-        <v>1.6971756923592762E-2</v>
+        <v>2.1178496852565898E-2</v>
       </c>
       <c r="M10" s="16">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N10" s="17">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O10" s="18">
         <f>F10-D10</f>
-        <v>4534</v>
+        <v>2035</v>
       </c>
       <c r="P10" s="19">
         <f t="shared" si="9"/>
-        <v>3.5171552466430223E-2</v>
+        <v>1.5421106075991675E-2</v>
       </c>
       <c r="Q10" s="20">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R10" s="21">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1311,61 +1311,61 @@
         <v>235059</v>
       </c>
       <c r="D11" s="11">
-        <v>225406</v>
+        <v>229159</v>
       </c>
       <c r="E11" s="11">
-        <v>237487</v>
+        <v>237565</v>
       </c>
       <c r="F11" s="11">
-        <v>237565</v>
+        <v>235689</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>-1876</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" si="1"/>
-        <v>3.2843903034684985E-4</v>
+        <v>-7.89678614273992E-3</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="4"/>
-        <v>2506</v>
+        <v>630</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="5"/>
-        <v>1.0661153157292436E-2</v>
+        <v>2.6801781680343417E-3</v>
       </c>
       <c r="M11" s="16">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N11" s="17">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O11" s="18">
         <f>F11-D11</f>
-        <v>12159</v>
+        <v>6530</v>
       </c>
       <c r="P11" s="19">
         <f t="shared" si="9"/>
-        <v>5.3942663460599949E-2</v>
+        <v>2.849549875850399E-2</v>
       </c>
       <c r="Q11" s="20">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R11" s="21">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1379,61 +1379,61 @@
         <v>930477</v>
       </c>
       <c r="D12" s="11">
-        <v>931191</v>
+        <v>932271</v>
       </c>
       <c r="E12" s="11">
-        <v>958691</v>
+        <v>960072</v>
       </c>
       <c r="F12" s="11">
-        <v>960072</v>
+        <v>959639</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>1381</v>
+        <v>-433</v>
       </c>
       <c r="H12" s="13">
         <f t="shared" si="1"/>
-        <v>1.4405058564230799E-3</v>
+        <v>-4.5100784107854341E-4</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>29595</v>
+        <v>29162</v>
       </c>
       <c r="L12" s="13">
         <f t="shared" si="5"/>
-        <v>3.1806267108160702E-2</v>
+        <v>3.1340914391220887E-2</v>
       </c>
       <c r="M12" s="16">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N12" s="17">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O12" s="18">
         <f t="shared" si="8"/>
-        <v>28881</v>
+        <v>27368</v>
       </c>
       <c r="P12" s="19">
         <f t="shared" si="9"/>
-        <v>3.1015119347158615E-2</v>
+        <v>2.9356270869736356E-2</v>
       </c>
       <c r="Q12" s="20">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R12" s="21">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1447,21 +1447,21 @@
         <v>3312592</v>
       </c>
       <c r="D13" s="11">
-        <v>3230475</v>
+        <v>3240746</v>
       </c>
       <c r="E13" s="11">
-        <v>3326061</v>
+        <v>3337399</v>
       </c>
       <c r="F13" s="11">
-        <v>3337399</v>
+        <v>3347891</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
-        <v>11338</v>
+        <v>10492</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="1"/>
-        <v>3.4088370598133189E-3</v>
+        <v>3.1437655491597383E-3</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" si="2"/>
@@ -1469,31 +1469,31 @@
       </c>
       <c r="J13" s="14">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="4"/>
-        <v>24807</v>
+        <v>35299</v>
       </c>
       <c r="L13" s="13">
         <f t="shared" si="5"/>
-        <v>7.4886976723966825E-3</v>
+        <v>1.0656005931307E-2</v>
       </c>
       <c r="M13" s="16">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N13" s="17">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O13" s="18">
         <f t="shared" si="8"/>
-        <v>106924</v>
+        <v>107145</v>
       </c>
       <c r="P13" s="19">
         <f t="shared" si="9"/>
-        <v>3.3098538140675871E-2</v>
+        <v>3.3061832059655405E-2</v>
       </c>
       <c r="Q13" s="20">
         <f t="shared" si="10"/>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="R13" s="21">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1515,37 +1515,37 @@
         <v>789468</v>
       </c>
       <c r="D14" s="11">
-        <v>779285</v>
+        <v>786210</v>
       </c>
       <c r="E14" s="11">
-        <v>814132</v>
+        <v>814614</v>
       </c>
       <c r="F14" s="11">
-        <v>814614</v>
+        <v>817847</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>482</v>
+        <v>3233</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" si="1"/>
-        <v>5.9204158539394314E-4</v>
+        <v>3.968750843958091E-3</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="4"/>
-        <v>25146</v>
+        <v>28379</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="5"/>
-        <v>3.18518293331711E-2</v>
+        <v>3.5946992151676849E-2</v>
       </c>
       <c r="M14" s="16">
         <f t="shared" si="6"/>
@@ -1553,15 +1553,15 @@
       </c>
       <c r="N14" s="17">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O14" s="18">
         <f t="shared" si="8"/>
-        <v>35329</v>
+        <v>31637</v>
       </c>
       <c r="P14" s="19">
         <f t="shared" si="9"/>
-        <v>4.5335146961637873E-2</v>
+        <v>4.023988501799769E-2</v>
       </c>
       <c r="Q14" s="20">
         <f t="shared" si="10"/>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="R14" s="21">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1583,37 +1583,37 @@
         <v>140370</v>
       </c>
       <c r="D15" s="11">
-        <v>139861</v>
+        <v>139826</v>
       </c>
       <c r="E15" s="11">
-        <v>141632</v>
+        <v>142704</v>
       </c>
       <c r="F15" s="11">
-        <v>142704</v>
+        <v>142839</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="0"/>
-        <v>1072</v>
+        <v>135</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" si="1"/>
-        <v>7.5689109805694432E-3</v>
+        <v>9.4601412714423461E-4</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="4"/>
-        <v>2334</v>
+        <v>2469</v>
       </c>
       <c r="L15" s="13">
         <f t="shared" si="5"/>
-        <v>1.6627484505236101E-2</v>
+        <v>1.7589228467621343E-2</v>
       </c>
       <c r="M15" s="16">
         <f t="shared" si="6"/>
@@ -1621,23 +1621,23 @@
       </c>
       <c r="N15" s="17">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O15" s="18">
         <f t="shared" si="8"/>
-        <v>2843</v>
+        <v>3013</v>
       </c>
       <c r="P15" s="19">
         <f t="shared" si="9"/>
-        <v>2.0327324986951334E-2</v>
+        <v>2.1548209918041072E-2</v>
       </c>
       <c r="Q15" s="20">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R15" s="21">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1651,61 +1651,61 @@
         <v>254204</v>
       </c>
       <c r="D16" s="11">
-        <v>243680</v>
+        <v>248024</v>
       </c>
       <c r="E16" s="11">
-        <v>258276</v>
+        <v>257638</v>
       </c>
       <c r="F16" s="11">
-        <v>257638</v>
+        <v>256989</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="0"/>
-        <v>-638</v>
+        <v>-649</v>
       </c>
       <c r="H16" s="13">
         <f t="shared" si="1"/>
-        <v>-2.4702256500797048E-3</v>
+        <v>-2.5190383406175076E-3</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="4"/>
-        <v>3434</v>
+        <v>2785</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="5"/>
-        <v>1.3508835423518217E-2</v>
+        <v>1.0955767808531691E-2</v>
       </c>
       <c r="M16" s="16">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="17">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O16" s="18">
         <f t="shared" si="8"/>
-        <v>13958</v>
+        <v>8965</v>
       </c>
       <c r="P16" s="19">
         <f t="shared" si="9"/>
-        <v>5.7280039395929183E-2</v>
+        <v>3.6145695577847414E-2</v>
       </c>
       <c r="Q16" s="20">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R16" s="21">
         <f>_xlfn.RANK.EQ(P16,$P$7:$P$38)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -1719,61 +1719,61 @@
         <v>1650381</v>
       </c>
       <c r="D17" s="11">
-        <v>1622778</v>
+        <v>1611607</v>
       </c>
       <c r="E17" s="11">
-        <v>1686619</v>
+        <v>1693231</v>
       </c>
       <c r="F17" s="11">
-        <v>1693231</v>
+        <v>1701100</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="0"/>
-        <v>6612</v>
+        <v>7869</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="1"/>
-        <v>3.9202688929746987E-3</v>
+        <v>4.6473280964027808E-3</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K17" s="15">
         <f t="shared" si="4"/>
-        <v>42850</v>
+        <v>50719</v>
       </c>
       <c r="L17" s="13">
         <f t="shared" si="5"/>
-        <v>2.5963701714937448E-2</v>
+        <v>3.0731691651806559E-2</v>
       </c>
       <c r="M17" s="16">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" s="17">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O17" s="18">
         <f t="shared" si="8"/>
-        <v>70453</v>
+        <v>89493</v>
       </c>
       <c r="P17" s="19">
         <f t="shared" si="9"/>
-        <v>4.3415057389242451E-2</v>
+        <v>5.5530287470828776E-2</v>
       </c>
       <c r="Q17" s="20">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R17" s="21">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -1787,21 +1787,21 @@
         <v>1014873</v>
       </c>
       <c r="D18" s="11">
-        <v>996819</v>
+        <v>1003954</v>
       </c>
       <c r="E18" s="11">
-        <v>1035758</v>
+        <v>1039974</v>
       </c>
       <c r="F18" s="11">
-        <v>1039974</v>
+        <v>1041159</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="0"/>
-        <v>4216</v>
+        <v>1185</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="1"/>
-        <v>4.0704488886400547E-3</v>
+        <v>1.1394515632121571E-3</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="2"/>
@@ -1809,31 +1809,31 @@
       </c>
       <c r="J18" s="14">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="4"/>
-        <v>25101</v>
+        <v>26286</v>
       </c>
       <c r="L18" s="13">
         <f t="shared" si="5"/>
-        <v>2.4733143950031122E-2</v>
+        <v>2.5900777732780433E-2</v>
       </c>
       <c r="M18" s="16">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O18" s="18">
         <f t="shared" si="8"/>
-        <v>43155</v>
+        <v>37205</v>
       </c>
       <c r="P18" s="19">
         <f t="shared" si="9"/>
-        <v>4.3292714123627229E-2</v>
+        <v>3.7058470806431432E-2</v>
       </c>
       <c r="Q18" s="20">
         <f t="shared" si="10"/>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="R18" s="21">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -1855,57 +1855,57 @@
         <v>153546</v>
       </c>
       <c r="D19" s="11">
-        <v>148621</v>
+        <v>151226</v>
       </c>
       <c r="E19" s="11">
-        <v>150869</v>
+        <v>151181</v>
       </c>
       <c r="F19" s="11">
-        <v>151181</v>
+        <v>152967</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>1786</v>
       </c>
       <c r="H19" s="13">
         <f t="shared" si="1"/>
-        <v>2.0680192750002213E-3</v>
+        <v>1.1813653832161375E-2</v>
       </c>
       <c r="I19" s="11">
         <f>_xlfn.RANK.EQ(G19,$G$7:$G$38)</f>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J19" s="14">
         <f>_xlfn.RANK.EQ(H19,$H$7:$H$38)</f>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="4"/>
-        <v>-2365</v>
+        <v>-579</v>
       </c>
       <c r="L19" s="13">
         <f t="shared" si="5"/>
-        <v>-1.5402550375783197E-2</v>
+        <v>-3.7708569418936078E-3</v>
       </c>
       <c r="M19" s="16">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N19" s="17">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O19" s="18">
         <f t="shared" si="8"/>
-        <v>2560</v>
+        <v>1741</v>
       </c>
       <c r="P19" s="19">
         <f t="shared" si="9"/>
-        <v>1.7225022035916915E-2</v>
+        <v>1.1512570589713444E-2</v>
       </c>
       <c r="Q19" s="20">
         <f t="shared" si="10"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R19" s="21">
         <f t="shared" si="11"/>
@@ -1923,57 +1923,57 @@
         <v>240431</v>
       </c>
       <c r="D20" s="11">
-        <v>226457</v>
+        <v>229304</v>
       </c>
       <c r="E20" s="11">
-        <v>250837</v>
+        <v>253120</v>
       </c>
       <c r="F20" s="11">
-        <v>253120</v>
+        <v>254315</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" si="0"/>
-        <v>2283</v>
+        <v>1195</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="1"/>
-        <v>9.101528083974797E-3</v>
+        <v>4.7210809102402607E-3</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J20" s="14">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" si="4"/>
-        <v>12689</v>
+        <v>13884</v>
       </c>
       <c r="L20" s="13">
         <f t="shared" si="5"/>
-        <v>5.2776056332170196E-2</v>
+        <v>5.7746297274477998E-2</v>
       </c>
       <c r="M20" s="16">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N20" s="17">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O20" s="18">
         <f t="shared" si="8"/>
-        <v>26663</v>
+        <v>25011</v>
       </c>
       <c r="P20" s="19">
         <f t="shared" si="9"/>
-        <v>0.11773979166022697</v>
+        <v>0.10907354429054883</v>
       </c>
       <c r="Q20" s="20">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R20" s="21">
         <f t="shared" si="11"/>
@@ -1991,41 +1991,41 @@
         <v>1849999</v>
       </c>
       <c r="D21" s="24">
-        <v>1820785</v>
+        <v>1826575</v>
       </c>
       <c r="E21" s="24">
-        <v>1888232</v>
+        <v>1896755</v>
       </c>
       <c r="F21" s="24">
-        <v>1896755</v>
+        <v>1896517</v>
       </c>
       <c r="G21" s="25">
         <f>F21-E21</f>
-        <v>8523</v>
+        <v>-238</v>
       </c>
       <c r="H21" s="26">
         <f>F21/E21-1</f>
-        <v>4.5137461922051259E-3</v>
+        <v>-1.2547746018853889E-4</v>
       </c>
       <c r="I21" s="24">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J21" s="27">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K21" s="28">
         <f>F21-C21</f>
-        <v>46756</v>
+        <v>46518</v>
       </c>
       <c r="L21" s="26">
         <f>F21/C21-1</f>
-        <v>2.5273527174879629E-2</v>
+        <v>2.5144878456691E-2</v>
       </c>
       <c r="M21" s="29">
         <f>_xlfn.RANK.EQ(K21,$K$7:$K$38)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N21" s="30">
         <f>_xlfn.RANK.EQ(L21,$L$7:$L$38)</f>
@@ -2033,19 +2033,19 @@
       </c>
       <c r="O21" s="31">
         <f>F21-D21</f>
-        <v>75970</v>
+        <v>69942</v>
       </c>
       <c r="P21" s="32">
         <f>F21/D21-1</f>
-        <v>4.1723762003751164E-2</v>
+        <v>3.8291337612745169E-2</v>
       </c>
       <c r="Q21" s="33">
         <f>_xlfn.RANK.EQ(O21,$O$7:$O$38)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R21" s="34">
         <f>_xlfn.RANK.EQ(P21,$P$7:$P$38)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -2059,41 +2059,41 @@
         <v>465270</v>
       </c>
       <c r="D22" s="11">
-        <v>460645</v>
+        <v>459348</v>
       </c>
       <c r="E22" s="11">
-        <v>464925</v>
+        <v>464051</v>
       </c>
       <c r="F22" s="11">
-        <v>464051</v>
+        <v>462669</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="0"/>
-        <v>-874</v>
+        <v>-1382</v>
       </c>
       <c r="H22" s="13">
         <f t="shared" si="1"/>
-        <v>-1.8798730978114575E-3</v>
+        <v>-2.9781209392932828E-3</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="4"/>
-        <v>-1219</v>
+        <v>-2601</v>
       </c>
       <c r="L22" s="13">
         <f t="shared" si="5"/>
-        <v>-2.6199840952565445E-3</v>
+        <v>-5.590302405055092E-3</v>
       </c>
       <c r="M22" s="16">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N22" s="17">
         <f t="shared" si="7"/>
@@ -2101,19 +2101,19 @@
       </c>
       <c r="O22" s="18">
         <f t="shared" si="8"/>
-        <v>3406</v>
+        <v>3321</v>
       </c>
       <c r="P22" s="19">
         <f t="shared" si="9"/>
-        <v>7.393980179964954E-3</v>
+        <v>7.229812691031734E-3</v>
       </c>
       <c r="Q22" s="20">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R22" s="21">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -2127,37 +2127,37 @@
         <v>213192</v>
       </c>
       <c r="D23" s="11">
-        <v>203488</v>
+        <v>205282</v>
       </c>
       <c r="E23" s="11">
-        <v>212927</v>
+        <v>213611</v>
       </c>
       <c r="F23" s="11">
-        <v>213611</v>
+        <v>213012</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="0"/>
-        <v>684</v>
+        <v>-599</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="1"/>
-        <v>3.2123685582383654E-3</v>
+        <v>-2.8041627069766983E-3</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J23" s="14">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="4"/>
-        <v>419</v>
+        <v>-180</v>
       </c>
       <c r="L23" s="13">
         <f t="shared" si="5"/>
-        <v>1.9653645540169684E-3</v>
+        <v>-8.4430935494761439E-4</v>
       </c>
       <c r="M23" s="16">
         <f t="shared" si="6"/>
@@ -2169,19 +2169,19 @@
       </c>
       <c r="O23" s="18">
         <f t="shared" si="8"/>
-        <v>10123</v>
+        <v>7730</v>
       </c>
       <c r="P23" s="19">
         <f t="shared" si="9"/>
-        <v>4.9747405252398069E-2</v>
+        <v>3.7655517775547764E-2</v>
       </c>
       <c r="Q23" s="20">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R23" s="21">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -2195,21 +2195,21 @@
         <v>160665</v>
       </c>
       <c r="D24" s="11">
-        <v>159031</v>
+        <v>158791</v>
       </c>
       <c r="E24" s="11">
-        <v>168876</v>
+        <v>168878</v>
       </c>
       <c r="F24" s="11">
-        <v>168878</v>
+        <v>168161</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>-717</v>
       </c>
       <c r="H24" s="13">
         <f t="shared" si="1"/>
-        <v>1.1843009071643706E-5</v>
+        <v>-4.2456684707303793E-3</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="2"/>
@@ -2217,39 +2217,39 @@
       </c>
       <c r="J24" s="14">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="4"/>
-        <v>8213</v>
+        <v>7496</v>
       </c>
       <c r="L24" s="13">
         <f t="shared" si="5"/>
-        <v>5.1118787539289778E-2</v>
+        <v>4.6656085644041889E-2</v>
       </c>
       <c r="M24" s="16">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N24" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O24" s="18">
         <f t="shared" si="8"/>
-        <v>9847</v>
+        <v>9370</v>
       </c>
       <c r="P24" s="19">
         <f t="shared" si="9"/>
-        <v>6.1918745401839947E-2</v>
+        <v>5.9008382087146094E-2</v>
       </c>
       <c r="Q24" s="20">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R24" s="21">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -2263,37 +2263,37 @@
         <v>1696729</v>
       </c>
       <c r="D25" s="11">
-        <v>1663165</v>
+        <v>1679338</v>
       </c>
       <c r="E25" s="11">
-        <v>1742394</v>
+        <v>1752958</v>
       </c>
       <c r="F25" s="11">
-        <v>1752958</v>
+        <v>1753892</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="0"/>
-        <v>10564</v>
+        <v>934</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" si="1"/>
-        <v>6.0629226225525912E-3</v>
+        <v>5.3281367836532922E-4</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>56229</v>
+        <v>57163</v>
       </c>
       <c r="L25" s="13">
         <f t="shared" si="5"/>
-        <v>3.3139646932421218E-2</v>
+        <v>3.3690117867968272E-2</v>
       </c>
       <c r="M25" s="16">
         <f t="shared" si="6"/>
@@ -2301,19 +2301,19 @@
       </c>
       <c r="N25" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O25" s="18">
         <f t="shared" si="8"/>
-        <v>89793</v>
+        <v>74554</v>
       </c>
       <c r="P25" s="19">
         <f t="shared" si="9"/>
-        <v>5.3989231375119129E-2</v>
+        <v>4.4394874647033511E-2</v>
       </c>
       <c r="Q25" s="20">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R25" s="21">
         <f>_xlfn.RANK.EQ(P25,$P$7:$P$38)</f>
@@ -2331,61 +2331,61 @@
         <v>211048</v>
       </c>
       <c r="D26" s="11">
-        <v>208994</v>
+        <v>210228</v>
       </c>
       <c r="E26" s="11">
-        <v>212844</v>
+        <v>214206</v>
       </c>
       <c r="F26" s="11">
-        <v>214206</v>
+        <v>213887</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="0"/>
-        <v>1362</v>
+        <v>-319</v>
       </c>
       <c r="H26" s="13">
         <f t="shared" si="1"/>
-        <v>6.3990528274229241E-3</v>
+        <v>-1.4892206567509447E-3</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>3158</v>
+        <v>2839</v>
       </c>
       <c r="L26" s="13">
         <f t="shared" si="5"/>
-        <v>1.4963420643645087E-2</v>
+        <v>1.3451916151775878E-2</v>
       </c>
       <c r="M26" s="16">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N26" s="17">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O26" s="18">
         <f t="shared" si="8"/>
-        <v>5212</v>
+        <v>3659</v>
       </c>
       <c r="P26" s="19">
         <f t="shared" si="9"/>
-        <v>2.4938514981291293E-2</v>
+        <v>1.7404912761382896E-2</v>
       </c>
       <c r="Q26" s="20">
         <f>_xlfn.RANK.EQ(O26,$O$7:$O$38)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R26" s="21">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -2399,53 +2399,53 @@
         <v>611779</v>
       </c>
       <c r="D27" s="11">
-        <v>594915</v>
+        <v>599636</v>
       </c>
       <c r="E27" s="11">
-        <v>616137</v>
+        <v>619282</v>
       </c>
       <c r="F27" s="11">
-        <v>619282</v>
+        <v>621244</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="0"/>
-        <v>3145</v>
+        <v>1962</v>
       </c>
       <c r="H27" s="13">
         <f t="shared" si="1"/>
-        <v>5.1043842522036087E-3</v>
+        <v>3.168185091767528E-3</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="4"/>
-        <v>7503</v>
+        <v>9465</v>
       </c>
       <c r="L27" s="13">
         <f t="shared" si="5"/>
-        <v>1.2264232672255737E-2</v>
+        <v>1.5471273123137674E-2</v>
       </c>
       <c r="M27" s="16">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N27" s="17">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O27" s="18">
         <f t="shared" si="8"/>
-        <v>24367</v>
+        <v>21608</v>
       </c>
       <c r="P27" s="19">
         <f t="shared" si="9"/>
-        <v>4.0958792432532309E-2</v>
+        <v>3.6035194684775451E-2</v>
       </c>
       <c r="Q27" s="20">
         <f t="shared" si="10"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="R27" s="21">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -2467,41 +2467,41 @@
         <v>628676</v>
       </c>
       <c r="D28" s="11">
-        <v>618558</v>
+        <v>622860</v>
       </c>
       <c r="E28" s="11">
-        <v>651828</v>
+        <v>655295</v>
       </c>
       <c r="F28" s="11">
-        <v>655295</v>
+        <v>655196</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="0"/>
-        <v>3467</v>
+        <v>-99</v>
       </c>
       <c r="H28" s="13">
         <f t="shared" si="1"/>
-        <v>5.3188878047583099E-3</v>
+        <v>-1.5107699585681367E-4</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K28" s="15">
         <f t="shared" si="4"/>
-        <v>26619</v>
+        <v>26520</v>
       </c>
       <c r="L28" s="13">
         <f t="shared" si="5"/>
-        <v>4.2341365027454447E-2</v>
+        <v>4.2183891225368919E-2</v>
       </c>
       <c r="M28" s="16">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N28" s="17">
         <f t="shared" si="7"/>
@@ -2509,11 +2509,11 @@
       </c>
       <c r="O28" s="18">
         <f t="shared" si="8"/>
-        <v>36737</v>
+        <v>32336</v>
       </c>
       <c r="P28" s="19">
         <f t="shared" si="9"/>
-        <v>5.9391358611480261E-2</v>
+        <v>5.1915358186430227E-2</v>
       </c>
       <c r="Q28" s="20">
         <f t="shared" si="10"/>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="R28" s="21">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -2535,41 +2535,41 @@
         <v>432986</v>
       </c>
       <c r="D29" s="11">
-        <v>406636</v>
+        <v>417457</v>
       </c>
       <c r="E29" s="11">
-        <v>457405</v>
+        <v>462635</v>
       </c>
       <c r="F29" s="11">
-        <v>462635</v>
+        <v>463704</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="0"/>
-        <v>5230</v>
+        <v>1069</v>
       </c>
       <c r="H29" s="13">
         <f t="shared" si="1"/>
-        <v>1.1434068276472642E-2</v>
+        <v>2.3106768835041702E-3</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="4"/>
-        <v>29649</v>
+        <v>30718</v>
       </c>
       <c r="L29" s="13">
         <f t="shared" si="5"/>
-        <v>6.8475655102012478E-2</v>
+        <v>7.0944557098843841E-2</v>
       </c>
       <c r="M29" s="16">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N29" s="17">
         <f t="shared" si="7"/>
@@ -2577,11 +2577,11 @@
       </c>
       <c r="O29" s="18">
         <f t="shared" si="8"/>
-        <v>55999</v>
+        <v>46247</v>
       </c>
       <c r="P29" s="19">
         <f t="shared" si="9"/>
-        <v>0.13771284391937755</v>
+        <v>0.11078266743640652</v>
       </c>
       <c r="Q29" s="20">
         <f t="shared" si="10"/>
@@ -2603,37 +2603,37 @@
         <v>451010</v>
       </c>
       <c r="D30" s="11">
-        <v>450346</v>
+        <v>453368</v>
       </c>
       <c r="E30" s="11">
-        <v>458088</v>
+        <v>457458</v>
       </c>
       <c r="F30" s="11">
-        <v>457458</v>
+        <v>457802</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="0"/>
-        <v>-630</v>
+        <v>344</v>
       </c>
       <c r="H30" s="13">
         <f t="shared" si="1"/>
-        <v>-1.375281605281109E-3</v>
+        <v>7.5198160268263869E-4</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J30" s="14">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="4"/>
-        <v>6448</v>
+        <v>6792</v>
       </c>
       <c r="L30" s="13">
         <f t="shared" si="5"/>
-        <v>1.4296800514401076E-2</v>
+        <v>1.5059533048047635E-2</v>
       </c>
       <c r="M30" s="16">
         <f t="shared" si="6"/>
@@ -2641,19 +2641,19 @@
       </c>
       <c r="N30" s="17">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O30" s="18">
         <f t="shared" si="8"/>
-        <v>7112</v>
+        <v>4434</v>
       </c>
       <c r="P30" s="19">
         <f t="shared" si="9"/>
-        <v>1.5792301918968965E-2</v>
+        <v>9.7801344603059004E-3</v>
       </c>
       <c r="Q30" s="20">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R30" s="21">
         <f t="shared" si="11"/>
@@ -2671,37 +2671,37 @@
         <v>586281</v>
       </c>
       <c r="D31" s="11">
-        <v>559597</v>
+        <v>566809</v>
       </c>
       <c r="E31" s="11">
-        <v>573993</v>
+        <v>566170</v>
       </c>
       <c r="F31" s="11">
-        <v>566170</v>
+        <v>563344</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="0"/>
-        <v>-7823</v>
+        <v>-2826</v>
       </c>
       <c r="H31" s="13">
         <f t="shared" si="1"/>
-        <v>-1.3629086068993823E-2</v>
+        <v>-4.9914336683328786E-3</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J31" s="14">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K31" s="15">
         <f t="shared" si="4"/>
-        <v>-20111</v>
+        <v>-22937</v>
       </c>
       <c r="L31" s="13">
         <f t="shared" si="5"/>
-        <v>-3.4302663739742556E-2</v>
+        <v>-3.9122877937371348E-2</v>
       </c>
       <c r="M31" s="16">
         <f t="shared" si="6"/>
@@ -2713,19 +2713,19 @@
       </c>
       <c r="O31" s="18">
         <f t="shared" si="8"/>
-        <v>6573</v>
+        <v>-3465</v>
       </c>
       <c r="P31" s="19">
         <f t="shared" si="9"/>
-        <v>1.1745952891098366E-2</v>
+        <v>-6.1131703977883589E-3</v>
       </c>
       <c r="Q31" s="20">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R31" s="21">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -2739,61 +2739,61 @@
         <v>596602</v>
       </c>
       <c r="D32" s="11">
-        <v>595916</v>
+        <v>592379</v>
       </c>
       <c r="E32" s="11">
-        <v>617199</v>
+        <v>616196</v>
       </c>
       <c r="F32" s="11">
-        <v>616196</v>
+        <v>612140</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="0"/>
-        <v>-1003</v>
+        <v>-4056</v>
       </c>
       <c r="H32" s="13">
         <f t="shared" si="1"/>
-        <v>-1.6250836440110383E-3</v>
+        <v>-6.5823212094853201E-3</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J32" s="14">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="4"/>
-        <v>19594</v>
+        <v>15538</v>
       </c>
       <c r="L32" s="13">
         <f t="shared" si="5"/>
-        <v>3.2842665629682743E-2</v>
+        <v>2.6044163445647195E-2</v>
       </c>
       <c r="M32" s="16">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N32" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O32" s="18">
         <f t="shared" si="8"/>
-        <v>20280</v>
+        <v>19761</v>
       </c>
       <c r="P32" s="19">
         <f t="shared" si="9"/>
-        <v>3.4031642043509391E-2</v>
+        <v>3.3358711230479177E-2</v>
       </c>
       <c r="Q32" s="20">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R32" s="21">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -2807,57 +2807,57 @@
         <v>209338</v>
       </c>
       <c r="D33" s="11">
-        <v>194993</v>
+        <v>200421</v>
       </c>
       <c r="E33" s="11">
-        <v>224698</v>
+        <v>225937</v>
       </c>
       <c r="F33" s="11">
-        <v>225937</v>
+        <v>226845</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="0"/>
-        <v>1239</v>
+        <v>908</v>
       </c>
       <c r="H33" s="13">
         <f t="shared" si="1"/>
-        <v>5.5140677709637487E-3</v>
+        <v>4.0188194054093795E-3</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J33" s="14">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="4"/>
-        <v>16599</v>
+        <v>17507</v>
       </c>
       <c r="L33" s="13">
         <f t="shared" si="5"/>
-        <v>7.9292818312967528E-2</v>
+        <v>8.3630301235322779E-2</v>
       </c>
       <c r="M33" s="16">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N33" s="17">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33" s="18">
         <f t="shared" si="8"/>
-        <v>30944</v>
+        <v>26424</v>
       </c>
       <c r="P33" s="19">
         <f t="shared" si="9"/>
-        <v>0.15869287615452854</v>
+        <v>0.13184247159728768</v>
       </c>
       <c r="Q33" s="20">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R33" s="21">
         <f t="shared" si="11"/>
@@ -2875,61 +2875,61 @@
         <v>696086</v>
       </c>
       <c r="D34" s="11">
-        <v>684207</v>
+        <v>690314</v>
       </c>
       <c r="E34" s="11">
-        <v>710335</v>
+        <v>710126</v>
       </c>
       <c r="F34" s="11">
-        <v>710126</v>
+        <v>707767</v>
       </c>
       <c r="G34" s="12">
         <f t="shared" si="0"/>
-        <v>-209</v>
+        <v>-2359</v>
       </c>
       <c r="H34" s="13">
         <f t="shared" si="1"/>
-        <v>-2.9422737159223722E-4</v>
+        <v>-3.3219456828788019E-3</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J34" s="14">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K34" s="15">
         <f t="shared" si="4"/>
-        <v>14040</v>
+        <v>11681</v>
       </c>
       <c r="L34" s="13">
         <f t="shared" si="5"/>
-        <v>2.0169921532684265E-2</v>
+        <v>1.6780972466045929E-2</v>
       </c>
       <c r="M34" s="16">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N34" s="17">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O34" s="18">
         <f t="shared" si="8"/>
-        <v>25919</v>
+        <v>17453</v>
       </c>
       <c r="P34" s="19">
         <f t="shared" si="9"/>
-        <v>3.7881810621639422E-2</v>
+        <v>2.528269743913647E-2</v>
       </c>
       <c r="Q34" s="20">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R34" s="21">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2943,25 +2943,25 @@
         <v>103100</v>
       </c>
       <c r="D35" s="11">
-        <v>103302</v>
+        <v>104407</v>
       </c>
       <c r="E35" s="11">
-        <v>106877</v>
+        <v>108344</v>
       </c>
       <c r="F35" s="11">
-        <v>108344</v>
+        <v>109130</v>
       </c>
       <c r="G35" s="12">
         <f t="shared" si="0"/>
-        <v>1467</v>
+        <v>786</v>
       </c>
       <c r="H35" s="13">
         <f t="shared" si="1"/>
-        <v>1.3726058927552298E-2</v>
+        <v>7.2546703093849807E-3</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J35" s="14">
         <f t="shared" si="3"/>
@@ -2969,35 +2969,35 @@
       </c>
       <c r="K35" s="15">
         <f t="shared" si="4"/>
-        <v>5244</v>
+        <v>6030</v>
       </c>
       <c r="L35" s="13">
         <f t="shared" si="5"/>
-        <v>5.0863239573229801E-2</v>
+        <v>5.8486905916585785E-2</v>
       </c>
       <c r="M35" s="16">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N35" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O35" s="18">
         <f t="shared" si="8"/>
-        <v>5042</v>
+        <v>4723</v>
       </c>
       <c r="P35" s="19">
         <f t="shared" si="9"/>
-        <v>4.8808348337883167E-2</v>
+        <v>4.523643050753301E-2</v>
       </c>
       <c r="Q35" s="20">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R35" s="21">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -3011,37 +3011,37 @@
         <v>734685</v>
       </c>
       <c r="D36" s="11">
-        <v>707079</v>
+        <v>709293</v>
       </c>
       <c r="E36" s="11">
-        <v>728027</v>
+        <v>722269</v>
       </c>
       <c r="F36" s="11">
-        <v>722269</v>
+        <v>722437</v>
       </c>
       <c r="G36" s="12">
         <f t="shared" si="0"/>
-        <v>-5758</v>
+        <v>168</v>
       </c>
       <c r="H36" s="13">
         <f t="shared" si="1"/>
-        <v>-7.9090473292886543E-3</v>
+        <v>2.3260031927163638E-4</v>
       </c>
       <c r="I36" s="11">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="J36" s="14">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="4"/>
-        <v>-12416</v>
+        <v>-12248</v>
       </c>
       <c r="L36" s="13">
         <f t="shared" si="5"/>
-        <v>-1.6899759760986011E-2</v>
+        <v>-1.6671090331230376E-2</v>
       </c>
       <c r="M36" s="16">
         <f t="shared" si="6"/>
@@ -3053,11 +3053,11 @@
       </c>
       <c r="O36" s="18">
         <f t="shared" si="8"/>
-        <v>15190</v>
+        <v>13144</v>
       </c>
       <c r="P36" s="19">
         <f t="shared" si="9"/>
-        <v>2.1482748038055055E-2</v>
+        <v>1.8531128884678116E-2</v>
       </c>
       <c r="Q36" s="20">
         <f>_xlfn.RANK.EQ(O36,$O$7:$O$38)</f>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="R36" s="21">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -3079,61 +3079,61 @@
         <v>393339</v>
       </c>
       <c r="D37" s="11">
-        <v>380707</v>
+        <v>378786</v>
       </c>
       <c r="E37" s="11">
-        <v>402221</v>
+        <v>404191</v>
       </c>
       <c r="F37" s="11">
-        <v>404191</v>
+        <v>401249</v>
       </c>
       <c r="G37" s="12">
         <f t="shared" si="0"/>
-        <v>1970</v>
+        <v>-2942</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" si="1"/>
-        <v>4.8978049380812294E-3</v>
+        <v>-7.2787370327395129E-3</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J37" s="14">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="4"/>
-        <v>10852</v>
+        <v>7910</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="5"/>
-        <v>2.7589433033591959E-2</v>
+        <v>2.0109879772918449E-2</v>
       </c>
       <c r="M37" s="16">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N37" s="17">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O37" s="18">
         <f t="shared" si="8"/>
-        <v>23484</v>
+        <v>22463</v>
       </c>
       <c r="P37" s="19">
         <f t="shared" si="9"/>
-        <v>6.1685233000706496E-2</v>
+        <v>5.9302614140966048E-2</v>
       </c>
       <c r="Q37" s="20">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R37" s="21">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -3147,21 +3147,21 @@
         <v>195976</v>
       </c>
       <c r="D38" s="11">
-        <v>189848</v>
+        <v>190973</v>
       </c>
       <c r="E38" s="11">
-        <v>195805</v>
+        <v>195521</v>
       </c>
       <c r="F38" s="11">
-        <v>195521</v>
+        <v>194441</v>
       </c>
       <c r="G38" s="12">
         <f t="shared" si="0"/>
-        <v>-284</v>
+        <v>-1080</v>
       </c>
       <c r="H38" s="13">
         <f t="shared" si="1"/>
-        <v>-1.4504226143357002E-3</v>
+        <v>-5.5237033362145471E-3</v>
       </c>
       <c r="I38" s="11">
         <f t="shared" si="2"/>
@@ -3169,39 +3169,39 @@
       </c>
       <c r="J38" s="14">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K38" s="15">
         <f t="shared" si="4"/>
-        <v>-455</v>
+        <v>-1535</v>
       </c>
       <c r="L38" s="13">
         <f t="shared" si="5"/>
-        <v>-2.3217128627994743E-3</v>
+        <v>-7.8325917459280969E-3</v>
       </c>
       <c r="M38" s="16">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N38" s="17">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O38" s="18">
         <f t="shared" si="8"/>
-        <v>5673</v>
+        <v>3468</v>
       </c>
       <c r="P38" s="19">
         <f t="shared" si="9"/>
-        <v>2.9881800176983608E-2</v>
+        <v>1.815963513166774E-2</v>
       </c>
       <c r="Q38" s="20">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R38" s="21">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="46" customFormat="1" ht="13.6" x14ac:dyDescent="0.25">
@@ -3218,43 +3218,43 @@
       </c>
       <c r="D39" s="37">
         <f>SUM(D7:D38)</f>
-        <v>20175380</v>
+        <v>20291923</v>
       </c>
       <c r="E39" s="37">
         <f>SUM(E7:E38)</f>
-        <v>21008487</v>
+        <v>21068708</v>
       </c>
       <c r="F39" s="37">
         <f>SUM(F7:F38)</f>
-        <v>21068708</v>
+        <v>21079434</v>
       </c>
       <c r="G39" s="38">
         <f t="shared" si="0"/>
-        <v>60221</v>
+        <v>10726</v>
       </c>
       <c r="H39" s="39">
         <f t="shared" si="1"/>
-        <v>2.8665081878576082E-3</v>
+        <v>5.0909623883921284E-4</v>
       </c>
       <c r="I39" s="37"/>
       <c r="J39" s="40"/>
       <c r="K39" s="41">
         <f t="shared" si="4"/>
-        <v>448560</v>
+        <v>459286</v>
       </c>
       <c r="L39" s="39">
         <f t="shared" si="5"/>
-        <v>2.1753481109834993E-2</v>
+        <v>2.2273651964088703E-2</v>
       </c>
       <c r="M39" s="39"/>
       <c r="N39" s="42"/>
       <c r="O39" s="43">
         <f t="shared" si="8"/>
-        <v>893328</v>
+        <v>787511</v>
       </c>
       <c r="P39" s="44">
         <f t="shared" si="9"/>
-        <v>4.4278125120815526E-2</v>
+        <v>3.8809086748456512E-2</v>
       </c>
       <c r="Q39" s="42"/>
       <c r="R39" s="45"/>

--- a/Tabulados/TAentidadrank_delegacion.xlsx
+++ b/Tabulados/TAentidadrank_delegacion.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="12512"/>
   </bookViews>
   <sheets>
-    <sheet name="ta_agosto" sheetId="1" r:id="rId1"/>
+    <sheet name="ta_septiembre" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,24 +47,24 @@
   </si>
   <si>
     <t>2021
-Agosto</t>
-  </si>
-  <si>
-    <t>2022
-Julio</t>
+Septiembre</t>
   </si>
   <si>
     <t>2022
 Agosto</t>
   </si>
   <si>
-    <t>Agosto 2022 respecto a Julio 2022</t>
-  </si>
-  <si>
-    <t>Agosto 2022 respecto a Diciembre 2021</t>
-  </si>
-  <si>
-    <t>Agosto 2022 respecto a Agosto 2021</t>
+    <t>2022
+Septiembre</t>
+  </si>
+  <si>
+    <t>Septiembre 2022 respecto a Agosto 2022</t>
+  </si>
+  <si>
+    <t>Septiembre 2022 respecto a Diciembre 2021</t>
+  </si>
+  <si>
+    <t>Septiembre 2022 respecto a Septiembre 2021</t>
   </si>
   <si>
     <t>Variación Absoluta</t>
@@ -874,7 +874,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -1052,53 +1052,53 @@
         <v>335529</v>
       </c>
       <c r="D7" s="17">
-        <v>336344</v>
+        <v>338890</v>
       </c>
       <c r="E7" s="17">
-        <v>340196</v>
+        <v>341234</v>
       </c>
       <c r="F7" s="17">
-        <v>341234</v>
+        <v>344149</v>
       </c>
       <c r="G7" s="18">
         <f>F7-E7</f>
-        <v>1038</v>
+        <v>2915</v>
       </c>
       <c r="H7" s="19">
         <f>F7/E7-1</f>
-        <v>3.0511822596386295E-3</v>
+        <v>8.5425250707724665E-3</v>
       </c>
       <c r="I7" s="17">
         <f>_xlfn.RANK.EQ(G7,$G$7:$G$38)</f>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J7" s="20">
         <f>_xlfn.RANK.EQ(H7,$H$7:$H$38)</f>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="K7" s="21">
         <f>F7-C7</f>
-        <v>5705</v>
+        <v>8620</v>
       </c>
       <c r="L7" s="19">
         <f>F7/C7-1</f>
-        <v>1.7003001230892156E-2</v>
+        <v>2.5690774865957833E-2</v>
       </c>
       <c r="M7" s="22">
         <f>_xlfn.RANK.EQ(K7,$K$7:$K$38)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" s="23">
         <f>_xlfn.RANK.EQ(L7,$L$7:$L$38)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O7" s="24">
         <f>F7-D7</f>
-        <v>4890</v>
+        <v>5259</v>
       </c>
       <c r="P7" s="25">
         <f>F7/D7-1</f>
-        <v>1.4538686582784344E-2</v>
+        <v>1.5518309776033412E-2</v>
       </c>
       <c r="Q7" s="26">
         <f>_xlfn.RANK.EQ(O7,$O$7:$O$38)</f>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="R7" s="27">
         <f>_xlfn.RANK.EQ(P7,$P$7:$P$38)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1120,37 +1120,37 @@
         <v>1004354</v>
       </c>
       <c r="D8" s="17">
-        <v>1016064</v>
+        <v>1026466</v>
       </c>
       <c r="E8" s="17">
-        <v>1044894</v>
+        <v>1052097</v>
       </c>
       <c r="F8" s="17">
-        <v>1052097</v>
+        <v>1062439</v>
       </c>
       <c r="G8" s="18">
         <f t="shared" ref="G8:G39" si="0">F8-E8</f>
-        <v>7203</v>
+        <v>10342</v>
       </c>
       <c r="H8" s="19">
         <f t="shared" ref="H8:H39" si="1">F8/E8-1</f>
-        <v>6.8935222137365137E-3</v>
+        <v>9.8298921107085047E-3</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" ref="I8:I38" si="2">_xlfn.RANK.EQ(G8,$G$7:$G$38)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8" s="20">
         <f t="shared" ref="J8:J38" si="3">_xlfn.RANK.EQ(H8,$H$7:$H$38)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" ref="K8:K39" si="4">F8-C8</f>
-        <v>47743</v>
+        <v>58085</v>
       </c>
       <c r="L8" s="19">
         <f t="shared" ref="L8:L39" si="5">F8/C8-1</f>
-        <v>4.7536028133506658E-2</v>
+        <v>5.7833194272139066E-2</v>
       </c>
       <c r="M8" s="22">
         <f t="shared" ref="M8:M38" si="6">_xlfn.RANK.EQ(K8,$K$7:$K$38)</f>
@@ -1158,15 +1158,15 @@
       </c>
       <c r="N8" s="23">
         <f t="shared" ref="N8:N38" si="7">_xlfn.RANK.EQ(L8,$L$7:$L$38)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" s="24">
         <f t="shared" ref="O8:O39" si="8">F8-D8</f>
-        <v>36033</v>
+        <v>35973</v>
       </c>
       <c r="P8" s="25">
         <f t="shared" ref="P8:P39" si="9">F8/D8-1</f>
-        <v>3.546331727135299E-2</v>
+        <v>3.5045486163204576E-2</v>
       </c>
       <c r="Q8" s="26">
         <f t="shared" ref="Q8:Q38" si="10">_xlfn.RANK.EQ(O8,$O$7:$O$38)</f>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="R8" s="27">
         <f t="shared" ref="R8:R38" si="11">_xlfn.RANK.EQ(P8,$P$7:$P$38)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1188,25 +1188,25 @@
         <v>190885</v>
       </c>
       <c r="D9" s="17">
-        <v>184930</v>
+        <v>191774</v>
       </c>
       <c r="E9" s="17">
-        <v>206475</v>
+        <v>210154</v>
       </c>
       <c r="F9" s="17">
-        <v>210154</v>
+        <v>215340</v>
       </c>
       <c r="G9" s="18">
         <f t="shared" si="0"/>
-        <v>3679</v>
+        <v>5186</v>
       </c>
       <c r="H9" s="19">
         <f t="shared" si="1"/>
-        <v>1.7818137789078481E-2</v>
+        <v>2.4677141524786617E-2</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J9" s="20">
         <f t="shared" si="3"/>
@@ -1214,11 +1214,11 @@
       </c>
       <c r="K9" s="21">
         <f t="shared" si="4"/>
-        <v>19269</v>
+        <v>24455</v>
       </c>
       <c r="L9" s="19">
         <f t="shared" si="5"/>
-        <v>0.10094559551562465</v>
+        <v>0.12811378578725408</v>
       </c>
       <c r="M9" s="22">
         <f t="shared" si="6"/>
@@ -1230,11 +1230,11 @@
       </c>
       <c r="O9" s="24">
         <f t="shared" si="8"/>
-        <v>25224</v>
+        <v>23566</v>
       </c>
       <c r="P9" s="25">
         <f t="shared" si="9"/>
-        <v>0.13639755583193636</v>
+        <v>0.12288422831040702</v>
       </c>
       <c r="Q9" s="26">
         <f t="shared" si="10"/>
@@ -1242,10 +1242,10 @@
       </c>
       <c r="R9" s="27">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
@@ -1256,37 +1256,37 @@
         <v>131218</v>
       </c>
       <c r="D10" s="17">
-        <v>132574</v>
+        <v>131815</v>
       </c>
       <c r="E10" s="17">
-        <v>133997</v>
+        <v>134517</v>
       </c>
       <c r="F10" s="17">
-        <v>134517</v>
+        <v>135641</v>
       </c>
       <c r="G10" s="18">
         <f t="shared" si="0"/>
-        <v>520</v>
+        <v>1124</v>
       </c>
       <c r="H10" s="19">
         <f t="shared" si="1"/>
-        <v>3.8806838959080103E-3</v>
+        <v>8.3558211973207008E-3</v>
       </c>
       <c r="I10" s="17">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="20">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="4"/>
-        <v>3299</v>
+        <v>4423</v>
       </c>
       <c r="L10" s="19">
         <f t="shared" si="5"/>
-        <v>2.5141367800149306E-2</v>
+        <v>3.3707265771464323E-2</v>
       </c>
       <c r="M10" s="22">
         <f t="shared" si="6"/>
@@ -1294,23 +1294,23 @@
       </c>
       <c r="N10" s="23">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O10" s="24">
         <f>F10-D10</f>
-        <v>1943</v>
+        <v>3826</v>
       </c>
       <c r="P10" s="25">
         <f t="shared" si="9"/>
-        <v>1.4655965724802655E-2</v>
+        <v>2.9025528202404782E-2</v>
       </c>
       <c r="Q10" s="26">
         <f t="shared" si="10"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R10" s="27">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1324,37 +1324,37 @@
         <v>235059</v>
       </c>
       <c r="D11" s="17">
-        <v>231028</v>
+        <v>231748</v>
       </c>
       <c r="E11" s="17">
-        <v>235689</v>
+        <v>237944</v>
       </c>
       <c r="F11" s="17">
-        <v>237944</v>
+        <v>238994</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" si="0"/>
-        <v>2255</v>
+        <v>1050</v>
       </c>
       <c r="H11" s="19">
         <f t="shared" si="1"/>
-        <v>9.5676930191905818E-3</v>
+        <v>4.4128030124734874E-3</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J11" s="20">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="4"/>
-        <v>2885</v>
+        <v>3935</v>
       </c>
       <c r="L11" s="19">
         <f t="shared" si="5"/>
-        <v>1.227351430917345E-2</v>
+        <v>1.6740477922564168E-2</v>
       </c>
       <c r="M11" s="22">
         <f t="shared" si="6"/>
@@ -1366,11 +1366,11 @@
       </c>
       <c r="O11" s="24">
         <f>F11-D11</f>
-        <v>6916</v>
+        <v>7246</v>
       </c>
       <c r="P11" s="25">
         <f t="shared" si="9"/>
-        <v>2.9935765361774225E-2</v>
+        <v>3.1266720748399202E-2</v>
       </c>
       <c r="Q11" s="26">
         <f t="shared" si="10"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="R11" s="27">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1392,57 +1392,57 @@
         <v>930477</v>
       </c>
       <c r="D12" s="17">
-        <v>933227</v>
+        <v>939840</v>
       </c>
       <c r="E12" s="17">
-        <v>959639</v>
+        <v>968430</v>
       </c>
       <c r="F12" s="17">
-        <v>968430</v>
+        <v>973906</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" si="0"/>
-        <v>8791</v>
+        <v>5476</v>
       </c>
       <c r="H12" s="19">
         <f t="shared" si="1"/>
-        <v>9.1607364852825945E-3</v>
+        <v>5.6545129746083944E-3</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J12" s="20">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K12" s="21">
         <f t="shared" si="4"/>
-        <v>37953</v>
+        <v>43429</v>
       </c>
       <c r="L12" s="19">
         <f t="shared" si="5"/>
-        <v>4.078875673444915E-2</v>
+        <v>4.6673910263230534E-2</v>
       </c>
       <c r="M12" s="22">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N12" s="23">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O12" s="24">
         <f t="shared" si="8"/>
-        <v>35203</v>
+        <v>34066</v>
       </c>
       <c r="P12" s="25">
         <f t="shared" si="9"/>
-        <v>3.7721797590511308E-2</v>
+        <v>3.624659516513451E-2</v>
       </c>
       <c r="Q12" s="26">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R12" s="27">
         <f t="shared" si="11"/>
@@ -1460,21 +1460,21 @@
         <v>3312592</v>
       </c>
       <c r="D13" s="17">
-        <v>3262318</v>
+        <v>3285182</v>
       </c>
       <c r="E13" s="17">
-        <v>3347891</v>
+        <v>3367457</v>
       </c>
       <c r="F13" s="17">
-        <v>3367457</v>
+        <v>3397330</v>
       </c>
       <c r="G13" s="18">
         <f t="shared" si="0"/>
-        <v>19566</v>
+        <v>29873</v>
       </c>
       <c r="H13" s="19">
         <f t="shared" si="1"/>
-        <v>5.8442762921493419E-3</v>
+        <v>8.8710858074803056E-3</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="2"/>
@@ -1482,31 +1482,31 @@
       </c>
       <c r="J13" s="20">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K13" s="21">
         <f t="shared" si="4"/>
-        <v>54865</v>
+        <v>84738</v>
       </c>
       <c r="L13" s="19">
         <f t="shared" si="5"/>
-        <v>1.6562558866289656E-2</v>
+        <v>2.5580572554664061E-2</v>
       </c>
       <c r="M13" s="22">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N13" s="23">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O13" s="24">
         <f t="shared" si="8"/>
-        <v>105139</v>
+        <v>112148</v>
       </c>
       <c r="P13" s="25">
         <f t="shared" si="9"/>
-        <v>3.2228311280506627E-2</v>
+        <v>3.4137530279905404E-2</v>
       </c>
       <c r="Q13" s="26">
         <f t="shared" si="10"/>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="R13" s="27">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1528,61 +1528,61 @@
         <v>789468</v>
       </c>
       <c r="D14" s="17">
-        <v>793592</v>
+        <v>798128</v>
       </c>
       <c r="E14" s="17">
-        <v>817847</v>
+        <v>827318</v>
       </c>
       <c r="F14" s="17">
-        <v>827318</v>
+        <v>833383</v>
       </c>
       <c r="G14" s="18">
         <f t="shared" si="0"/>
-        <v>9471</v>
+        <v>6065</v>
       </c>
       <c r="H14" s="19">
         <f t="shared" si="1"/>
-        <v>1.1580405625991164E-2</v>
+        <v>7.3309174948448241E-3</v>
       </c>
       <c r="I14" s="17">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J14" s="20">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K14" s="21">
         <f t="shared" si="4"/>
-        <v>37850</v>
+        <v>43915</v>
       </c>
       <c r="L14" s="19">
         <f t="shared" si="5"/>
-        <v>4.7943678527818667E-2</v>
+        <v>5.5626067174350258E-2</v>
       </c>
       <c r="M14" s="22">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N14" s="23">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O14" s="24">
         <f t="shared" si="8"/>
-        <v>33726</v>
+        <v>35255</v>
       </c>
       <c r="P14" s="25">
         <f t="shared" si="9"/>
-        <v>4.2497908245042737E-2</v>
+        <v>4.4172112743820602E-2</v>
       </c>
       <c r="Q14" s="26">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R14" s="27">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1596,41 +1596,41 @@
         <v>140370</v>
       </c>
       <c r="D15" s="17">
-        <v>141031</v>
+        <v>142090</v>
       </c>
       <c r="E15" s="17">
-        <v>142839</v>
+        <v>144538</v>
       </c>
       <c r="F15" s="17">
-        <v>144538</v>
+        <v>145810</v>
       </c>
       <c r="G15" s="18">
         <f t="shared" si="0"/>
-        <v>1699</v>
+        <v>1272</v>
       </c>
       <c r="H15" s="19">
         <f t="shared" si="1"/>
-        <v>1.189451060284652E-2</v>
+        <v>8.8004538598847049E-3</v>
       </c>
       <c r="I15" s="17">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J15" s="20">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K15" s="21">
         <f t="shared" si="4"/>
-        <v>4168</v>
+        <v>5440</v>
       </c>
       <c r="L15" s="19">
         <f t="shared" si="5"/>
-        <v>2.9692954334971766E-2</v>
+        <v>3.8754719669445103E-2</v>
       </c>
       <c r="M15" s="22">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="23">
         <f t="shared" si="7"/>
@@ -1638,15 +1638,15 @@
       </c>
       <c r="O15" s="24">
         <f t="shared" si="8"/>
-        <v>3507</v>
+        <v>3720</v>
       </c>
       <c r="P15" s="25">
         <f t="shared" si="9"/>
-        <v>2.4866873240634968E-2</v>
+        <v>2.6180589767049067E-2</v>
       </c>
       <c r="Q15" s="26">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R15" s="27">
         <f t="shared" si="11"/>
@@ -1664,41 +1664,41 @@
         <v>254204</v>
       </c>
       <c r="D16" s="17">
-        <v>251748</v>
+        <v>253375</v>
       </c>
       <c r="E16" s="17">
-        <v>256989</v>
+        <v>257495</v>
       </c>
       <c r="F16" s="17">
-        <v>257495</v>
+        <v>258835</v>
       </c>
       <c r="G16" s="18">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>1340</v>
       </c>
       <c r="H16" s="19">
         <f t="shared" si="1"/>
-        <v>1.968955869706468E-3</v>
+        <v>5.2039845433891063E-3</v>
       </c>
       <c r="I16" s="17">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J16" s="20">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K16" s="21">
         <f t="shared" si="4"/>
-        <v>3291</v>
+        <v>4631</v>
       </c>
       <c r="L16" s="19">
         <f t="shared" si="5"/>
-        <v>1.294629510157197E-2</v>
+        <v>1.8217651964563819E-2</v>
       </c>
       <c r="M16" s="22">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N16" s="23">
         <f t="shared" si="7"/>
@@ -1706,15 +1706,15 @@
       </c>
       <c r="O16" s="24">
         <f t="shared" si="8"/>
-        <v>5747</v>
+        <v>5460</v>
       </c>
       <c r="P16" s="25">
         <f t="shared" si="9"/>
-        <v>2.2828383939495156E-2</v>
+        <v>2.154908732116434E-2</v>
       </c>
       <c r="Q16" s="26">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R16" s="27">
         <f>_xlfn.RANK.EQ(P16,$P$7:$P$38)</f>
@@ -1732,21 +1732,21 @@
         <v>1650381</v>
       </c>
       <c r="D17" s="17">
-        <v>1626856</v>
+        <v>1644896</v>
       </c>
       <c r="E17" s="17">
-        <v>1701100</v>
+        <v>1711288</v>
       </c>
       <c r="F17" s="17">
-        <v>1711288</v>
+        <v>1724144</v>
       </c>
       <c r="G17" s="18">
         <f t="shared" si="0"/>
-        <v>10188</v>
+        <v>12856</v>
       </c>
       <c r="H17" s="19">
         <f t="shared" si="1"/>
-        <v>5.9890658985362055E-3</v>
+        <v>7.5124701394504445E-3</v>
       </c>
       <c r="I17" s="17">
         <f t="shared" si="2"/>
@@ -1754,39 +1754,39 @@
       </c>
       <c r="J17" s="20">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K17" s="21">
         <f t="shared" si="4"/>
-        <v>60907</v>
+        <v>73763</v>
       </c>
       <c r="L17" s="19">
         <f t="shared" si="5"/>
-        <v>3.6904811676818916E-2</v>
+        <v>4.4694528111993481E-2</v>
       </c>
       <c r="M17" s="22">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" s="23">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O17" s="24">
         <f t="shared" si="8"/>
-        <v>84432</v>
+        <v>79248</v>
       </c>
       <c r="P17" s="25">
         <f t="shared" si="9"/>
-        <v>5.1898877343784511E-2</v>
+        <v>4.8178121899500104E-2</v>
       </c>
       <c r="Q17" s="26">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R17" s="27">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -1800,37 +1800,37 @@
         <v>1014873</v>
       </c>
       <c r="D18" s="17">
-        <v>1006011</v>
+        <v>1015502</v>
       </c>
       <c r="E18" s="17">
-        <v>1041159</v>
+        <v>1043826</v>
       </c>
       <c r="F18" s="17">
-        <v>1043826</v>
+        <v>1050754</v>
       </c>
       <c r="G18" s="18">
         <f t="shared" si="0"/>
-        <v>2667</v>
+        <v>6928</v>
       </c>
       <c r="H18" s="19">
         <f t="shared" si="1"/>
-        <v>2.5615684059783206E-3</v>
+        <v>6.6371215125893279E-3</v>
       </c>
       <c r="I18" s="17">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J18" s="20">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K18" s="21">
         <f t="shared" si="4"/>
-        <v>28953</v>
+        <v>35881</v>
       </c>
       <c r="L18" s="19">
         <f t="shared" si="5"/>
-        <v>2.8528692752689322E-2</v>
+        <v>3.5355162665673401E-2</v>
       </c>
       <c r="M18" s="22">
         <f t="shared" si="6"/>
@@ -1842,19 +1842,19 @@
       </c>
       <c r="O18" s="24">
         <f t="shared" si="8"/>
-        <v>37815</v>
+        <v>35252</v>
       </c>
       <c r="P18" s="25">
         <f t="shared" si="9"/>
-        <v>3.7589052207182672E-2</v>
+        <v>3.4713865654621978E-2</v>
       </c>
       <c r="Q18" s="26">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R18" s="27">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -1868,61 +1868,61 @@
         <v>153546</v>
       </c>
       <c r="D19" s="17">
-        <v>148278</v>
+        <v>146786</v>
       </c>
       <c r="E19" s="17">
-        <v>152967</v>
+        <v>152213</v>
       </c>
       <c r="F19" s="17">
-        <v>152213</v>
+        <v>153337</v>
       </c>
       <c r="G19" s="18">
         <f t="shared" si="0"/>
-        <v>-754</v>
+        <v>1124</v>
       </c>
       <c r="H19" s="19">
         <f t="shared" si="1"/>
-        <v>-4.929167728987327E-3</v>
+        <v>7.3843889812301722E-3</v>
       </c>
       <c r="I19" s="17">
         <f>_xlfn.RANK.EQ(G19,$G$7:$G$38)</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J19" s="20">
         <f>_xlfn.RANK.EQ(H19,$H$7:$H$38)</f>
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="K19" s="21">
         <f t="shared" si="4"/>
-        <v>-1333</v>
+        <v>-209</v>
       </c>
       <c r="L19" s="19">
         <f t="shared" si="5"/>
-        <v>-8.6814374845323172E-3</v>
+        <v>-1.3611556146040371E-3</v>
       </c>
       <c r="M19" s="22">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N19" s="23">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O19" s="24">
         <f t="shared" si="8"/>
-        <v>3935</v>
+        <v>6551</v>
       </c>
       <c r="P19" s="25">
         <f t="shared" si="9"/>
-        <v>2.6537989452245059E-2</v>
+        <v>4.4629596828035467E-2</v>
       </c>
       <c r="Q19" s="26">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="R19" s="27">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -1936,37 +1936,37 @@
         <v>240431</v>
       </c>
       <c r="D20" s="17">
-        <v>235746</v>
+        <v>238463</v>
       </c>
       <c r="E20" s="17">
-        <v>254315</v>
+        <v>257088</v>
       </c>
       <c r="F20" s="17">
-        <v>257088</v>
+        <v>258240</v>
       </c>
       <c r="G20" s="18">
         <f t="shared" si="0"/>
-        <v>2773</v>
+        <v>1152</v>
       </c>
       <c r="H20" s="19">
         <f t="shared" si="1"/>
-        <v>1.0903800405009489E-2</v>
+        <v>4.4809559372667174E-3</v>
       </c>
       <c r="I20" s="17">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J20" s="20">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="K20" s="21">
         <f t="shared" si="4"/>
-        <v>16657</v>
+        <v>17809</v>
       </c>
       <c r="L20" s="19">
         <f t="shared" si="5"/>
-        <v>6.9279751779096621E-2</v>
+        <v>7.4071147231430157E-2</v>
       </c>
       <c r="M20" s="22">
         <f t="shared" si="6"/>
@@ -1974,15 +1974,15 @@
       </c>
       <c r="N20" s="23">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O20" s="24">
         <f t="shared" si="8"/>
-        <v>21342</v>
+        <v>19777</v>
       </c>
       <c r="P20" s="25">
         <f t="shared" si="9"/>
-        <v>9.0529637830546461E-2</v>
+        <v>8.2935298138495206E-2</v>
       </c>
       <c r="Q20" s="26">
         <f t="shared" si="10"/>
@@ -2004,37 +2004,37 @@
         <v>1849999</v>
       </c>
       <c r="D21" s="30">
-        <v>1837975</v>
+        <v>1847731</v>
       </c>
       <c r="E21" s="30">
-        <v>1896517</v>
+        <v>1910627</v>
       </c>
       <c r="F21" s="30">
-        <v>1910627</v>
+        <v>1927647</v>
       </c>
       <c r="G21" s="31">
         <f>F21-E21</f>
-        <v>14110</v>
+        <v>17020</v>
       </c>
       <c r="H21" s="32">
         <f>F21/E21-1</f>
-        <v>7.4399544006196194E-3</v>
+        <v>8.9080704920425635E-3</v>
       </c>
       <c r="I21" s="30">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" s="33">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K21" s="34">
         <f>F21-C21</f>
-        <v>60628</v>
+        <v>77648</v>
       </c>
       <c r="L21" s="32">
         <f>F21/C21-1</f>
-        <v>3.277190960643761E-2</v>
+        <v>4.1971914579413294E-2</v>
       </c>
       <c r="M21" s="35">
         <f>_xlfn.RANK.EQ(K21,$K$7:$K$38)</f>
@@ -2042,19 +2042,19 @@
       </c>
       <c r="N21" s="36">
         <f>_xlfn.RANK.EQ(L21,$L$7:$L$38)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O21" s="37">
         <f>F21-D21</f>
-        <v>72652</v>
+        <v>79916</v>
       </c>
       <c r="P21" s="38">
         <f>F21/D21-1</f>
-        <v>3.9528285205185032E-2</v>
+        <v>4.3250884463160499E-2</v>
       </c>
       <c r="Q21" s="39">
         <f>_xlfn.RANK.EQ(O21,$O$7:$O$38)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R21" s="40">
         <f>_xlfn.RANK.EQ(P21,$P$7:$P$38)</f>
@@ -2072,41 +2072,41 @@
         <v>465270</v>
       </c>
       <c r="D22" s="17">
-        <v>461649</v>
+        <v>464742</v>
       </c>
       <c r="E22" s="17">
-        <v>462669</v>
+        <v>468793</v>
       </c>
       <c r="F22" s="17">
-        <v>468793</v>
+        <v>469527</v>
       </c>
       <c r="G22" s="18">
         <f t="shared" si="0"/>
-        <v>6124</v>
+        <v>734</v>
       </c>
       <c r="H22" s="19">
         <f t="shared" si="1"/>
-        <v>1.3236244485798743E-2</v>
+        <v>1.5657230376733278E-3</v>
       </c>
       <c r="I22" s="17">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J22" s="20">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="K22" s="21">
         <f t="shared" si="4"/>
-        <v>3523</v>
+        <v>4257</v>
       </c>
       <c r="L22" s="19">
         <f t="shared" si="5"/>
-        <v>7.571947471360696E-3</v>
+        <v>9.1495260816301105E-3</v>
       </c>
       <c r="M22" s="22">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N22" s="23">
         <f t="shared" si="7"/>
@@ -2114,19 +2114,19 @@
       </c>
       <c r="O22" s="24">
         <f t="shared" si="8"/>
-        <v>7144</v>
+        <v>4785</v>
       </c>
       <c r="P22" s="25">
         <f t="shared" si="9"/>
-        <v>1.5474960413647487E-2</v>
+        <v>1.0296035219541144E-2</v>
       </c>
       <c r="Q22" s="26">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="R22" s="27">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -2140,37 +2140,37 @@
         <v>213192</v>
       </c>
       <c r="D23" s="17">
-        <v>207421</v>
+        <v>210063</v>
       </c>
       <c r="E23" s="17">
-        <v>213012</v>
+        <v>212013</v>
       </c>
       <c r="F23" s="17">
-        <v>212013</v>
+        <v>213316</v>
       </c>
       <c r="G23" s="18">
         <f t="shared" si="0"/>
-        <v>-999</v>
+        <v>1303</v>
       </c>
       <c r="H23" s="19">
         <f t="shared" si="1"/>
-        <v>-4.6898766266688652E-3</v>
+        <v>6.1458495469617347E-3</v>
       </c>
       <c r="I23" s="17">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J23" s="20">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K23" s="21">
         <f t="shared" si="4"/>
-        <v>-1179</v>
+        <v>124</v>
       </c>
       <c r="L23" s="19">
         <f t="shared" si="5"/>
-        <v>-5.5302262749071796E-3</v>
+        <v>5.8163533340849227E-4</v>
       </c>
       <c r="M23" s="22">
         <f t="shared" si="6"/>
@@ -2182,19 +2182,19 @@
       </c>
       <c r="O23" s="24">
         <f t="shared" si="8"/>
-        <v>4592</v>
+        <v>3253</v>
       </c>
       <c r="P23" s="25">
         <f t="shared" si="9"/>
-        <v>2.2138549134369301E-2</v>
+        <v>1.5485830441343884E-2</v>
       </c>
       <c r="Q23" s="26">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R23" s="27">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -2208,37 +2208,37 @@
         <v>160665</v>
       </c>
       <c r="D24" s="17">
-        <v>158588</v>
+        <v>160256</v>
       </c>
       <c r="E24" s="17">
-        <v>168161</v>
+        <v>168864</v>
       </c>
       <c r="F24" s="17">
-        <v>168864</v>
+        <v>170874</v>
       </c>
       <c r="G24" s="18">
         <f t="shared" si="0"/>
-        <v>703</v>
+        <v>2010</v>
       </c>
       <c r="H24" s="19">
         <f t="shared" si="1"/>
-        <v>4.180517480271817E-3</v>
+        <v>1.1903069926094467E-2</v>
       </c>
       <c r="I24" s="17">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J24" s="20">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="K24" s="21">
         <f t="shared" si="4"/>
-        <v>8199</v>
+        <v>10209</v>
       </c>
       <c r="L24" s="19">
         <f t="shared" si="5"/>
-        <v>5.1031649705909787E-2</v>
+        <v>6.3542152926897577E-2</v>
       </c>
       <c r="M24" s="22">
         <f t="shared" si="6"/>
@@ -2246,15 +2246,15 @@
       </c>
       <c r="N24" s="23">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O24" s="24">
         <f t="shared" si="8"/>
-        <v>10276</v>
+        <v>10618</v>
       </c>
       <c r="P24" s="25">
         <f t="shared" si="9"/>
-        <v>6.4796832042777419E-2</v>
+        <v>6.6256489616613345E-2</v>
       </c>
       <c r="Q24" s="26">
         <f t="shared" si="10"/>
@@ -2276,37 +2276,37 @@
         <v>1696729</v>
       </c>
       <c r="D25" s="17">
-        <v>1688614</v>
+        <v>1705536</v>
       </c>
       <c r="E25" s="17">
-        <v>1753892</v>
+        <v>1772243</v>
       </c>
       <c r="F25" s="17">
-        <v>1772243</v>
+        <v>1785486</v>
       </c>
       <c r="G25" s="18">
         <f t="shared" si="0"/>
-        <v>18351</v>
+        <v>13243</v>
       </c>
       <c r="H25" s="19">
         <f t="shared" si="1"/>
-        <v>1.0463015966775568E-2</v>
+        <v>7.4724515769000188E-3</v>
       </c>
       <c r="I25" s="17">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" s="20">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K25" s="21">
         <f t="shared" si="4"/>
-        <v>75514</v>
+        <v>88757</v>
       </c>
       <c r="L25" s="19">
         <f t="shared" si="5"/>
-        <v>4.450563407591912E-2</v>
+        <v>5.2310651848350487E-2</v>
       </c>
       <c r="M25" s="22">
         <f t="shared" si="6"/>
@@ -2318,15 +2318,15 @@
       </c>
       <c r="O25" s="24">
         <f t="shared" si="8"/>
-        <v>83629</v>
+        <v>79950</v>
       </c>
       <c r="P25" s="25">
         <f t="shared" si="9"/>
-        <v>4.9525231935776848E-2</v>
+        <v>4.687675897782273E-2</v>
       </c>
       <c r="Q25" s="26">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" s="27">
         <f>_xlfn.RANK.EQ(P25,$P$7:$P$38)</f>
@@ -2344,61 +2344,61 @@
         <v>211048</v>
       </c>
       <c r="D26" s="17">
-        <v>208258</v>
+        <v>209202</v>
       </c>
       <c r="E26" s="17">
-        <v>213887</v>
+        <v>214692</v>
       </c>
       <c r="F26" s="17">
-        <v>214692</v>
+        <v>216605</v>
       </c>
       <c r="G26" s="18">
         <f t="shared" si="0"/>
-        <v>805</v>
+        <v>1913</v>
       </c>
       <c r="H26" s="19">
         <f t="shared" si="1"/>
-        <v>3.7636696012379733E-3</v>
+        <v>8.9104391407224259E-3</v>
       </c>
       <c r="I26" s="17">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J26" s="20">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="K26" s="21">
         <f t="shared" si="4"/>
-        <v>3644</v>
+        <v>5557</v>
       </c>
       <c r="L26" s="19">
         <f t="shared" si="5"/>
-        <v>1.7266214320912798E-2</v>
+        <v>2.6330503013532569E-2</v>
       </c>
       <c r="M26" s="22">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N26" s="23">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O26" s="24">
         <f t="shared" si="8"/>
-        <v>6434</v>
+        <v>7403</v>
       </c>
       <c r="P26" s="25">
         <f t="shared" si="9"/>
-        <v>3.0894371404699861E-2</v>
+        <v>3.5386850986128149E-2</v>
       </c>
       <c r="Q26" s="26">
         <f>_xlfn.RANK.EQ(O26,$O$7:$O$38)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R26" s="27">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -2412,61 +2412,61 @@
         <v>611779</v>
       </c>
       <c r="D27" s="17">
-        <v>601686</v>
+        <v>605406</v>
       </c>
       <c r="E27" s="17">
-        <v>621244</v>
+        <v>625520</v>
       </c>
       <c r="F27" s="17">
-        <v>625520</v>
+        <v>627290</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="0"/>
-        <v>4276</v>
+        <v>1770</v>
       </c>
       <c r="H27" s="19">
         <f t="shared" si="1"/>
-        <v>6.8829638596106246E-3</v>
+        <v>2.8296457347487536E-3</v>
       </c>
       <c r="I27" s="17">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J27" s="20">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K27" s="21">
         <f t="shared" si="4"/>
-        <v>13741</v>
+        <v>15511</v>
       </c>
       <c r="L27" s="19">
         <f t="shared" si="5"/>
-        <v>2.2460725196516984E-2</v>
+        <v>2.5353926826517492E-2</v>
       </c>
       <c r="M27" s="22">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N27" s="23">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O27" s="24">
         <f t="shared" si="8"/>
-        <v>23834</v>
+        <v>21884</v>
       </c>
       <c r="P27" s="25">
         <f t="shared" si="9"/>
-        <v>3.9612023547165753E-2</v>
+        <v>3.614764306927909E-2</v>
       </c>
       <c r="Q27" s="26">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R27" s="27">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -2480,25 +2480,25 @@
         <v>628676</v>
       </c>
       <c r="D28" s="17">
-        <v>626975</v>
+        <v>629751</v>
       </c>
       <c r="E28" s="17">
-        <v>655196</v>
+        <v>661205</v>
       </c>
       <c r="F28" s="17">
-        <v>661205</v>
+        <v>666303</v>
       </c>
       <c r="G28" s="18">
         <f t="shared" si="0"/>
-        <v>6009</v>
+        <v>5098</v>
       </c>
       <c r="H28" s="19">
         <f t="shared" si="1"/>
-        <v>9.1713014120964331E-3</v>
+        <v>7.7101655311135886E-3</v>
       </c>
       <c r="I28" s="17">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J28" s="20">
         <f t="shared" si="3"/>
@@ -2506,11 +2506,11 @@
       </c>
       <c r="K28" s="21">
         <f t="shared" si="4"/>
-        <v>32529</v>
+        <v>37627</v>
       </c>
       <c r="L28" s="19">
         <f t="shared" si="5"/>
-        <v>5.1742073818628276E-2</v>
+        <v>5.985117930380679E-2</v>
       </c>
       <c r="M28" s="22">
         <f t="shared" si="6"/>
@@ -2518,23 +2518,23 @@
       </c>
       <c r="N28" s="23">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O28" s="24">
         <f t="shared" si="8"/>
-        <v>34230</v>
+        <v>36552</v>
       </c>
       <c r="P28" s="25">
         <f t="shared" si="9"/>
-        <v>5.4595478288608001E-2</v>
+        <v>5.8041988023838087E-2</v>
       </c>
       <c r="Q28" s="26">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R28" s="27">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -2548,37 +2548,37 @@
         <v>432986</v>
       </c>
       <c r="D29" s="17">
-        <v>424006</v>
+        <v>421962</v>
       </c>
       <c r="E29" s="17">
-        <v>463704</v>
+        <v>469458</v>
       </c>
       <c r="F29" s="17">
-        <v>469458</v>
+        <v>472163</v>
       </c>
       <c r="G29" s="18">
         <f t="shared" si="0"/>
-        <v>5754</v>
+        <v>2705</v>
       </c>
       <c r="H29" s="19">
         <f t="shared" si="1"/>
-        <v>1.240877801356044E-2</v>
+        <v>5.7619637965482529E-3</v>
       </c>
       <c r="I29" s="17">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J29" s="20">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K29" s="21">
         <f t="shared" si="4"/>
-        <v>36472</v>
+        <v>39177</v>
       </c>
       <c r="L29" s="19">
         <f t="shared" si="5"/>
-        <v>8.4233670372714231E-2</v>
+        <v>9.0480985528400559E-2</v>
       </c>
       <c r="M29" s="22">
         <f t="shared" si="6"/>
@@ -2590,11 +2590,11 @@
       </c>
       <c r="O29" s="24">
         <f t="shared" si="8"/>
-        <v>45452</v>
+        <v>50201</v>
       </c>
       <c r="P29" s="25">
         <f t="shared" si="9"/>
-        <v>0.10719659627458111</v>
+        <v>0.11897042861679497</v>
       </c>
       <c r="Q29" s="26">
         <f t="shared" si="10"/>
@@ -2616,37 +2616,37 @@
         <v>451010</v>
       </c>
       <c r="D30" s="17">
-        <v>454927</v>
+        <v>456972</v>
       </c>
       <c r="E30" s="17">
-        <v>457802</v>
+        <v>460713</v>
       </c>
       <c r="F30" s="17">
-        <v>460713</v>
+        <v>462755</v>
       </c>
       <c r="G30" s="18">
         <f t="shared" si="0"/>
-        <v>2911</v>
+        <v>2042</v>
       </c>
       <c r="H30" s="19">
         <f t="shared" si="1"/>
-        <v>6.3586441299949836E-3</v>
+        <v>4.4322604311144431E-3</v>
       </c>
       <c r="I30" s="17">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J30" s="20">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K30" s="21">
         <f t="shared" si="4"/>
-        <v>9703</v>
+        <v>11745</v>
       </c>
       <c r="L30" s="19">
         <f t="shared" si="5"/>
-        <v>2.1513935389459116E-2</v>
+        <v>2.6041551185117751E-2</v>
       </c>
       <c r="M30" s="22">
         <f t="shared" si="6"/>
@@ -2658,19 +2658,19 @@
       </c>
       <c r="O30" s="24">
         <f t="shared" si="8"/>
-        <v>5786</v>
+        <v>5783</v>
       </c>
       <c r="P30" s="25">
         <f t="shared" si="9"/>
-        <v>1.271852407089491E-2</v>
+        <v>1.2655042322067933E-2</v>
       </c>
       <c r="Q30" s="26">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R30" s="27">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -2684,37 +2684,37 @@
         <v>586281</v>
       </c>
       <c r="D31" s="17">
-        <v>562948</v>
+        <v>575501</v>
       </c>
       <c r="E31" s="17">
-        <v>563344</v>
+        <v>567002</v>
       </c>
       <c r="F31" s="17">
-        <v>567002</v>
+        <v>576819</v>
       </c>
       <c r="G31" s="18">
         <f t="shared" si="0"/>
-        <v>3658</v>
+        <v>9817</v>
       </c>
       <c r="H31" s="19">
         <f t="shared" si="1"/>
-        <v>6.493368172910241E-3</v>
+        <v>1.7313871908741119E-2</v>
       </c>
       <c r="I31" s="17">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J31" s="20">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K31" s="21">
         <f t="shared" si="4"/>
-        <v>-19279</v>
+        <v>-9462</v>
       </c>
       <c r="L31" s="19">
         <f t="shared" si="5"/>
-        <v>-3.288354901489221E-2</v>
+        <v>-1.6139018661699756E-2</v>
       </c>
       <c r="M31" s="22">
         <f t="shared" si="6"/>
@@ -2726,15 +2726,15 @@
       </c>
       <c r="O31" s="24">
         <f t="shared" si="8"/>
-        <v>4054</v>
+        <v>1318</v>
       </c>
       <c r="P31" s="25">
         <f t="shared" si="9"/>
-        <v>7.2013756155098196E-3</v>
+        <v>2.2901784705846584E-3</v>
       </c>
       <c r="Q31" s="26">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R31" s="27">
         <f t="shared" si="11"/>
@@ -2752,61 +2752,61 @@
         <v>596602</v>
       </c>
       <c r="D32" s="17">
-        <v>597269</v>
+        <v>607439</v>
       </c>
       <c r="E32" s="17">
-        <v>612140</v>
+        <v>615817</v>
       </c>
       <c r="F32" s="17">
-        <v>615817</v>
+        <v>626821</v>
       </c>
       <c r="G32" s="18">
         <f t="shared" si="0"/>
-        <v>3677</v>
+        <v>11004</v>
       </c>
       <c r="H32" s="19">
         <f t="shared" si="1"/>
-        <v>6.0067958310190406E-3</v>
+        <v>1.7868944832637013E-2</v>
       </c>
       <c r="I32" s="17">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J32" s="20">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="K32" s="21">
         <f t="shared" si="4"/>
-        <v>19215</v>
+        <v>30219</v>
       </c>
       <c r="L32" s="19">
         <f t="shared" si="5"/>
-        <v>3.2207401249073841E-2</v>
+        <v>5.0651858357833257E-2</v>
       </c>
       <c r="M32" s="22">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N32" s="23">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O32" s="24">
         <f t="shared" si="8"/>
-        <v>18548</v>
+        <v>19382</v>
       </c>
       <c r="P32" s="25">
         <f t="shared" si="9"/>
-        <v>3.1054683902898006E-2</v>
+        <v>3.1907730652789734E-2</v>
       </c>
       <c r="Q32" s="26">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R32" s="27">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -2820,41 +2820,41 @@
         <v>209338</v>
       </c>
       <c r="D33" s="17">
-        <v>201725</v>
+        <v>205088</v>
       </c>
       <c r="E33" s="17">
-        <v>226845</v>
+        <v>228940</v>
       </c>
       <c r="F33" s="17">
-        <v>228940</v>
+        <v>232764</v>
       </c>
       <c r="G33" s="18">
         <f t="shared" si="0"/>
-        <v>2095</v>
+        <v>3824</v>
       </c>
       <c r="H33" s="19">
         <f t="shared" si="1"/>
-        <v>9.235380987017594E-3</v>
+        <v>1.670306630558227E-2</v>
       </c>
       <c r="I33" s="17">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J33" s="20">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K33" s="21">
         <f t="shared" si="4"/>
-        <v>19602</v>
+        <v>23426</v>
       </c>
       <c r="L33" s="19">
         <f t="shared" si="5"/>
-        <v>9.3638039916307703E-2</v>
+        <v>0.11190514861133671</v>
       </c>
       <c r="M33" s="22">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N33" s="23">
         <f t="shared" si="7"/>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="O33" s="24">
         <f t="shared" si="8"/>
-        <v>27215</v>
+        <v>27676</v>
       </c>
       <c r="P33" s="25">
         <f t="shared" si="9"/>
-        <v>0.13491138926756729</v>
+        <v>0.13494694960212206</v>
       </c>
       <c r="Q33" s="26">
         <f t="shared" si="10"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="R33" s="27">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -2888,37 +2888,37 @@
         <v>696086</v>
       </c>
       <c r="D34" s="17">
-        <v>695001</v>
+        <v>703988</v>
       </c>
       <c r="E34" s="17">
-        <v>707767</v>
+        <v>714983</v>
       </c>
       <c r="F34" s="17">
-        <v>714983</v>
+        <v>718840</v>
       </c>
       <c r="G34" s="18">
         <f t="shared" si="0"/>
-        <v>7216</v>
+        <v>3857</v>
       </c>
       <c r="H34" s="19">
         <f t="shared" si="1"/>
-        <v>1.0195445676331349E-2</v>
+        <v>5.3945338560497103E-3</v>
       </c>
       <c r="I34" s="17">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J34" s="20">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K34" s="21">
         <f t="shared" si="4"/>
-        <v>18897</v>
+        <v>22754</v>
       </c>
       <c r="L34" s="19">
         <f t="shared" si="5"/>
-        <v>2.7147507635550738E-2</v>
+        <v>3.2688489640647855E-2</v>
       </c>
       <c r="M34" s="22">
         <f t="shared" si="6"/>
@@ -2926,23 +2926,23 @@
       </c>
       <c r="N34" s="23">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O34" s="24">
         <f t="shared" si="8"/>
-        <v>19982</v>
+        <v>14852</v>
       </c>
       <c r="P34" s="25">
         <f t="shared" si="9"/>
-        <v>2.875103776829091E-2</v>
+        <v>2.1096950516201973E-2</v>
       </c>
       <c r="Q34" s="26">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R34" s="27">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2956,61 +2956,61 @@
         <v>103100</v>
       </c>
       <c r="D35" s="17">
-        <v>104983</v>
+        <v>104775</v>
       </c>
       <c r="E35" s="17">
-        <v>109130</v>
+        <v>110420</v>
       </c>
       <c r="F35" s="17">
-        <v>110420</v>
+        <v>110724</v>
       </c>
       <c r="G35" s="18">
         <f t="shared" si="0"/>
-        <v>1290</v>
+        <v>304</v>
       </c>
       <c r="H35" s="19">
         <f t="shared" si="1"/>
-        <v>1.1820764226152303E-2</v>
+        <v>2.7531244339793481E-3</v>
       </c>
       <c r="I35" s="17">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J35" s="20">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="K35" s="21">
         <f t="shared" si="4"/>
-        <v>7320</v>
+        <v>7624</v>
       </c>
       <c r="L35" s="19">
         <f t="shared" si="5"/>
-        <v>7.0999030067895319E-2</v>
+        <v>7.3947623666343443E-2</v>
       </c>
       <c r="M35" s="22">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N35" s="23">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O35" s="24">
         <f t="shared" si="8"/>
-        <v>5437</v>
+        <v>5949</v>
       </c>
       <c r="P35" s="25">
         <f t="shared" si="9"/>
-        <v>5.1789337321280549E-2</v>
+        <v>5.6778811739441659E-2</v>
       </c>
       <c r="Q35" s="26">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R35" s="27">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -3024,37 +3024,37 @@
         <v>734685</v>
       </c>
       <c r="D36" s="17">
-        <v>715040</v>
+        <v>719657</v>
       </c>
       <c r="E36" s="17">
-        <v>722437</v>
+        <v>729311</v>
       </c>
       <c r="F36" s="17">
-        <v>729311</v>
+        <v>733404</v>
       </c>
       <c r="G36" s="18">
         <f t="shared" si="0"/>
-        <v>6874</v>
+        <v>4093</v>
       </c>
       <c r="H36" s="19">
         <f t="shared" si="1"/>
-        <v>9.5150165343136361E-3</v>
+        <v>5.6121462585920767E-3</v>
       </c>
       <c r="I36" s="17">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J36" s="20">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K36" s="21">
         <f t="shared" si="4"/>
-        <v>-5374</v>
+        <v>-1281</v>
       </c>
       <c r="L36" s="19">
         <f t="shared" si="5"/>
-        <v>-7.314699497063315E-3</v>
+        <v>-1.7436044018864783E-3</v>
       </c>
       <c r="M36" s="22">
         <f t="shared" si="6"/>
@@ -3066,11 +3066,11 @@
       </c>
       <c r="O36" s="24">
         <f t="shared" si="8"/>
-        <v>14271</v>
+        <v>13747</v>
       </c>
       <c r="P36" s="25">
         <f t="shared" si="9"/>
-        <v>1.9958324009845541E-2</v>
+        <v>1.91021556102422E-2</v>
       </c>
       <c r="Q36" s="26">
         <f>_xlfn.RANK.EQ(O36,$O$7:$O$38)</f>
@@ -3092,21 +3092,21 @@
         <v>393339</v>
       </c>
       <c r="D37" s="17">
-        <v>381893</v>
+        <v>388454</v>
       </c>
       <c r="E37" s="17">
-        <v>401249</v>
+        <v>405906</v>
       </c>
       <c r="F37" s="17">
-        <v>405906</v>
+        <v>410282</v>
       </c>
       <c r="G37" s="18">
         <f t="shared" si="0"/>
-        <v>4657</v>
+        <v>4376</v>
       </c>
       <c r="H37" s="19">
         <f t="shared" si="1"/>
-        <v>1.1606259454852275E-2</v>
+        <v>1.0780821175345956E-2</v>
       </c>
       <c r="I37" s="17">
         <f t="shared" si="2"/>
@@ -3118,35 +3118,35 @@
       </c>
       <c r="K37" s="21">
         <f t="shared" si="4"/>
-        <v>12567</v>
+        <v>16943</v>
       </c>
       <c r="L37" s="19">
         <f t="shared" si="5"/>
-        <v>3.1949539710021124E-2</v>
+        <v>4.3074803159615538E-2</v>
       </c>
       <c r="M37" s="22">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N37" s="23">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O37" s="24">
         <f t="shared" si="8"/>
-        <v>24013</v>
+        <v>21828</v>
       </c>
       <c r="P37" s="25">
         <f t="shared" si="9"/>
-        <v>6.2878869212056765E-2</v>
+        <v>5.61919815473646E-2</v>
       </c>
       <c r="Q37" s="26">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R37" s="27">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -3160,53 +3160,53 @@
         <v>195976</v>
       </c>
       <c r="D38" s="17">
-        <v>192118</v>
+        <v>193441</v>
       </c>
       <c r="E38" s="17">
-        <v>194441</v>
+        <v>194760</v>
       </c>
       <c r="F38" s="17">
-        <v>194760</v>
+        <v>195436</v>
       </c>
       <c r="G38" s="18">
         <f t="shared" si="0"/>
-        <v>319</v>
+        <v>676</v>
       </c>
       <c r="H38" s="19">
         <f t="shared" si="1"/>
-        <v>1.6406004906373006E-3</v>
+        <v>3.4709385910864921E-3</v>
       </c>
       <c r="I38" s="17">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J38" s="20">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K38" s="21">
         <f t="shared" si="4"/>
-        <v>-1216</v>
+        <v>-540</v>
       </c>
       <c r="L38" s="19">
         <f t="shared" si="5"/>
-        <v>-6.2048414091521176E-3</v>
+        <v>-2.7554394415643113E-3</v>
       </c>
       <c r="M38" s="22">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N38" s="23">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O38" s="24">
         <f t="shared" si="8"/>
-        <v>2642</v>
+        <v>1995</v>
       </c>
       <c r="P38" s="25">
         <f t="shared" si="9"/>
-        <v>1.3751964938214956E-2</v>
+        <v>1.0313222119405996E-2</v>
       </c>
       <c r="Q38" s="26">
         <f t="shared" si="10"/>
@@ -3231,43 +3231,43 @@
       </c>
       <c r="D39" s="43">
         <f>SUM(D7:D38)</f>
-        <v>20420823</v>
+        <v>20594919</v>
       </c>
       <c r="E39" s="43">
         <f>SUM(E7:E38)</f>
-        <v>21079434</v>
+        <v>21236866</v>
       </c>
       <c r="F39" s="43">
         <f>SUM(F7:F38)</f>
-        <v>21236866</v>
+        <v>21409358</v>
       </c>
       <c r="G39" s="44">
         <f t="shared" si="0"/>
-        <v>157432</v>
+        <v>172492</v>
       </c>
       <c r="H39" s="45">
         <f t="shared" si="1"/>
-        <v>7.4685117256942934E-3</v>
+        <v>8.1222907372491271E-3</v>
       </c>
       <c r="I39" s="43"/>
       <c r="J39" s="46"/>
       <c r="K39" s="47">
         <f t="shared" si="4"/>
-        <v>616718</v>
+        <v>789210</v>
       </c>
       <c r="L39" s="45">
         <f t="shared" si="5"/>
-        <v>2.9908514720650814E-2</v>
+        <v>3.8273731109980336E-2</v>
       </c>
       <c r="M39" s="45"/>
       <c r="N39" s="48"/>
       <c r="O39" s="49">
         <f t="shared" si="8"/>
-        <v>816043</v>
+        <v>814439</v>
       </c>
       <c r="P39" s="50">
         <f t="shared" si="9"/>
-        <v>3.9961317915541361E-2</v>
+        <v>3.9545627734685507E-2</v>
       </c>
       <c r="Q39" s="48"/>
       <c r="R39" s="51"/>

--- a/Tabulados/TAentidadrank_delegacion.xlsx
+++ b/Tabulados/TAentidadrank_delegacion.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="12512"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10596"/>
   </bookViews>
   <sheets>
-    <sheet name="ta_octubre" sheetId="1" r:id="rId1"/>
+    <sheet name="ta_noviembre" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,24 +47,24 @@
   </si>
   <si>
     <t>2021
-Octubre</t>
-  </si>
-  <si>
-    <t>2022
-Septiembre</t>
+Noviembre</t>
   </si>
   <si>
     <t>2022
 Octubre</t>
   </si>
   <si>
-    <t>Octubre 2022 respecto a Septiembre 2022</t>
-  </si>
-  <si>
-    <t>Octubre 2022 respecto a Diciembre 2021</t>
-  </si>
-  <si>
-    <t>Octubre 2022 respecto a Octubre 2021</t>
+    <t>2022
+Noviembre</t>
+  </si>
+  <si>
+    <t>Noviembre 2022 respecto a Octubre 2022</t>
+  </si>
+  <si>
+    <t>Noviembre 2022 respecto a Diciembre 2021</t>
+  </si>
+  <si>
+    <t>Noviembre 2022 respecto a Noviembre 2021</t>
   </si>
   <si>
     <t>Variación Absoluta</t>
@@ -874,7 +874,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
@@ -1052,61 +1052,61 @@
         <v>335529</v>
       </c>
       <c r="D7" s="11">
-        <v>339787</v>
+        <v>340465</v>
       </c>
       <c r="E7" s="11">
-        <v>344149</v>
+        <v>345189</v>
       </c>
       <c r="F7" s="11">
-        <v>345189</v>
+        <v>347069</v>
       </c>
       <c r="G7" s="12">
         <f>F7-E7</f>
-        <v>1040</v>
+        <v>1880</v>
       </c>
       <c r="H7" s="13">
         <f>F7/E7-1</f>
-        <v>3.0219468892833667E-3</v>
+        <v>5.4462917416255863E-3</v>
       </c>
       <c r="I7" s="11">
         <f>_xlfn.RANK.EQ(G7,$G$7:$G$38)</f>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J7" s="14">
         <f>_xlfn.RANK.EQ(H7,$H$7:$H$38)</f>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K7" s="15">
         <f>F7-C7</f>
-        <v>9660</v>
+        <v>11540</v>
       </c>
       <c r="L7" s="13">
         <f>F7/C7-1</f>
-        <v>2.8790357912430897E-2</v>
+        <v>3.4393450342593335E-2</v>
       </c>
       <c r="M7" s="16">
         <f>_xlfn.RANK.EQ(K7,$K$7:$K$38)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N7" s="17">
         <f>_xlfn.RANK.EQ(L7,$L$7:$L$38)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O7" s="18">
         <f>F7-D7</f>
-        <v>5402</v>
+        <v>6604</v>
       </c>
       <c r="P7" s="19">
         <f>F7/D7-1</f>
-        <v>1.5898195045719765E-2</v>
+        <v>1.9397001160178062E-2</v>
       </c>
       <c r="Q7" s="20">
         <f>_xlfn.RANK.EQ(O7,$O$7:$O$38)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R7" s="21">
         <f>_xlfn.RANK.EQ(P7,$P$7:$P$38)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1120,37 +1120,37 @@
         <v>1004354</v>
       </c>
       <c r="D8" s="11">
-        <v>1029815</v>
+        <v>1034409</v>
       </c>
       <c r="E8" s="11">
-        <v>1062439</v>
+        <v>1069522</v>
       </c>
       <c r="F8" s="11">
-        <v>1069522</v>
+        <v>1071648</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ref="G8:G38" si="0">F8-E8</f>
-        <v>7083</v>
+        <v>2126</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" ref="H8:H39" si="1">F8/E8-1</f>
-        <v>6.6667356902372354E-3</v>
+        <v>1.9878038974421308E-3</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" ref="I8:I38" si="2">_xlfn.RANK.EQ(G8,$G$7:$G$38)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" ref="J8:J38" si="3">_xlfn.RANK.EQ(H8,$H$7:$H$38)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" ref="K8:K39" si="4">F8-C8</f>
-        <v>65168</v>
+        <v>67294</v>
       </c>
       <c r="L8" s="13">
         <f t="shared" ref="L8:L39" si="5">F8/C8-1</f>
-        <v>6.4885488582710815E-2</v>
+        <v>6.7002272107244965E-2</v>
       </c>
       <c r="M8" s="16">
         <f t="shared" ref="M8:M38" si="6">_xlfn.RANK.EQ(K8,$K$7:$K$38)</f>
@@ -1158,15 +1158,15 @@
       </c>
       <c r="N8" s="17">
         <f t="shared" ref="N8:N38" si="7">_xlfn.RANK.EQ(L8,$L$7:$L$38)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O8" s="18">
         <f t="shared" ref="O8:O39" si="8">F8-D8</f>
-        <v>39707</v>
+        <v>37239</v>
       </c>
       <c r="P8" s="19">
         <f t="shared" ref="P8:P39" si="9">F8/D8-1</f>
-        <v>3.8557410797084968E-2</v>
+        <v>3.600026681902424E-2</v>
       </c>
       <c r="Q8" s="20">
         <f t="shared" ref="Q8:Q38" si="10">_xlfn.RANK.EQ(O8,$O$7:$O$38)</f>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="R8" s="21">
         <f t="shared" ref="R8:R38" si="11">_xlfn.RANK.EQ(P8,$P$7:$P$38)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1188,37 +1188,37 @@
         <v>190885</v>
       </c>
       <c r="D9" s="11">
-        <v>197205</v>
+        <v>199392</v>
       </c>
       <c r="E9" s="11">
-        <v>215340</v>
+        <v>219019</v>
       </c>
       <c r="F9" s="11">
-        <v>219019</v>
+        <v>220382</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>3679</v>
+        <v>1363</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" si="1"/>
-        <v>1.7084610383579557E-2</v>
+        <v>6.223204379528724E-3</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="4"/>
-        <v>28134</v>
+        <v>29497</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="5"/>
-        <v>0.14738717028577408</v>
+        <v>0.15452759514891157</v>
       </c>
       <c r="M9" s="16">
         <f t="shared" si="6"/>
@@ -1230,19 +1230,19 @@
       </c>
       <c r="O9" s="18">
         <f t="shared" si="8"/>
-        <v>21814</v>
+        <v>20990</v>
       </c>
       <c r="P9" s="19">
         <f t="shared" si="9"/>
-        <v>0.1106158565959281</v>
+        <v>0.10527002086342474</v>
       </c>
       <c r="Q9" s="20">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R9" s="21">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="14.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1256,37 +1256,37 @@
         <v>131218</v>
       </c>
       <c r="D10" s="11">
-        <v>132469</v>
+        <v>134083</v>
       </c>
       <c r="E10" s="11">
-        <v>135641</v>
+        <v>138094</v>
       </c>
       <c r="F10" s="11">
-        <v>138094</v>
+        <v>139994</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
-        <v>2453</v>
+        <v>1900</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" si="1"/>
-        <v>1.8084502473440844E-2</v>
+        <v>1.3758744043912197E-2</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K10" s="15">
         <f t="shared" si="4"/>
-        <v>6876</v>
+        <v>8776</v>
       </c>
       <c r="L10" s="13">
         <f t="shared" si="5"/>
-        <v>5.2401347376122231E-2</v>
+        <v>6.6881068146138478E-2</v>
       </c>
       <c r="M10" s="16">
         <f t="shared" si="6"/>
@@ -1294,19 +1294,19 @@
       </c>
       <c r="N10" s="17">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O10" s="18">
         <f>F10-D10</f>
-        <v>5625</v>
+        <v>5911</v>
       </c>
       <c r="P10" s="19">
         <f t="shared" si="9"/>
-        <v>4.2462764873291148E-2</v>
+        <v>4.4084634144522461E-2</v>
       </c>
       <c r="Q10" s="20">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R10" s="21">
         <f t="shared" si="11"/>
@@ -1324,41 +1324,41 @@
         <v>235059</v>
       </c>
       <c r="D11" s="11">
-        <v>233795</v>
+        <v>236364</v>
       </c>
       <c r="E11" s="11">
-        <v>238994</v>
+        <v>240323</v>
       </c>
       <c r="F11" s="11">
-        <v>240323</v>
+        <v>242308</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>1329</v>
+        <v>1985</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" si="1"/>
-        <v>5.5608090579679637E-3</v>
+        <v>8.2597171306948436E-3</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="K11" s="15">
         <f t="shared" si="4"/>
-        <v>5264</v>
+        <v>7249</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="5"/>
-        <v>2.2394377581798519E-2</v>
+        <v>3.08390659366371E-2</v>
       </c>
       <c r="M11" s="16">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N11" s="17">
         <f t="shared" si="7"/>
@@ -1366,15 +1366,15 @@
       </c>
       <c r="O11" s="18">
         <f>F11-D11</f>
-        <v>6528</v>
+        <v>5944</v>
       </c>
       <c r="P11" s="19">
         <f t="shared" si="9"/>
-        <v>2.7921897388738071E-2</v>
+        <v>2.5147653618994514E-2</v>
       </c>
       <c r="Q11" s="20">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R11" s="21">
         <f t="shared" si="11"/>
@@ -1392,37 +1392,37 @@
         <v>930477</v>
       </c>
       <c r="D12" s="11">
-        <v>944986</v>
+        <v>947984</v>
       </c>
       <c r="E12" s="11">
-        <v>973906</v>
+        <v>980619</v>
       </c>
       <c r="F12" s="11">
-        <v>980619</v>
+        <v>982033</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>6713</v>
+        <v>1414</v>
       </c>
       <c r="H12" s="13">
         <f t="shared" si="1"/>
-        <v>6.8928623501651742E-3</v>
+        <v>1.4419463624506523E-3</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="4"/>
-        <v>50142</v>
+        <v>51556</v>
       </c>
       <c r="L12" s="13">
         <f t="shared" si="5"/>
-        <v>5.3888489452184274E-2</v>
+        <v>5.54081401259785E-2</v>
       </c>
       <c r="M12" s="16">
         <f t="shared" si="6"/>
@@ -1430,15 +1430,15 @@
       </c>
       <c r="N12" s="17">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O12" s="18">
         <f t="shared" si="8"/>
-        <v>35633</v>
+        <v>34049</v>
       </c>
       <c r="P12" s="19">
         <f t="shared" si="9"/>
-        <v>3.7707436935573657E-2</v>
+        <v>3.5917272865364724E-2</v>
       </c>
       <c r="Q12" s="20">
         <f t="shared" si="10"/>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="R12" s="21">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1460,21 +1460,21 @@
         <v>3312592</v>
       </c>
       <c r="D13" s="11">
-        <v>3311635</v>
+        <v>3348570</v>
       </c>
       <c r="E13" s="11">
-        <v>3397330</v>
+        <v>3427062</v>
       </c>
       <c r="F13" s="11">
-        <v>3427062</v>
+        <v>3441069</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
-        <v>29732</v>
+        <v>14007</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="1"/>
-        <v>8.751578445426178E-3</v>
+        <v>4.0871743785202419E-3</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" si="2"/>
@@ -1482,15 +1482,15 @@
       </c>
       <c r="J13" s="14">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K13" s="15">
         <f t="shared" si="4"/>
-        <v>114470</v>
+        <v>128477</v>
       </c>
       <c r="L13" s="13">
         <f t="shared" si="5"/>
-        <v>3.4556021387481373E-2</v>
+        <v>3.8784432251240064E-2</v>
       </c>
       <c r="M13" s="16">
         <f t="shared" si="6"/>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="O13" s="18">
         <f t="shared" si="8"/>
-        <v>115427</v>
+        <v>92499</v>
       </c>
       <c r="P13" s="19">
         <f t="shared" si="9"/>
-        <v>3.4854988547952992E-2</v>
+        <v>2.7623433286447563E-2</v>
       </c>
       <c r="Q13" s="20">
         <f t="shared" si="10"/>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="R13" s="21">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1528,37 +1528,37 @@
         <v>789468</v>
       </c>
       <c r="D14" s="11">
-        <v>800104</v>
+        <v>803412</v>
       </c>
       <c r="E14" s="11">
-        <v>833383</v>
+        <v>839890</v>
       </c>
       <c r="F14" s="11">
-        <v>839890</v>
+        <v>841521</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>6507</v>
+        <v>1631</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" si="1"/>
-        <v>7.8079346470949496E-3</v>
+        <v>1.9419209658406711E-3</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K14" s="15">
         <f t="shared" si="4"/>
-        <v>50422</v>
+        <v>52053</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="5"/>
-        <v>6.3868326518617513E-2</v>
+        <v>6.5934274726777931E-2</v>
       </c>
       <c r="M14" s="16">
         <f t="shared" si="6"/>
@@ -1566,15 +1566,15 @@
       </c>
       <c r="N14" s="17">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O14" s="18">
         <f t="shared" si="8"/>
-        <v>39786</v>
+        <v>38109</v>
       </c>
       <c r="P14" s="19">
         <f t="shared" si="9"/>
-        <v>4.9726035615369923E-2</v>
+        <v>4.7433944227868174E-2</v>
       </c>
       <c r="Q14" s="20">
         <f t="shared" si="10"/>
@@ -1596,53 +1596,53 @@
         <v>140370</v>
       </c>
       <c r="D15" s="11">
-        <v>141776</v>
+        <v>142842</v>
       </c>
       <c r="E15" s="11">
-        <v>145810</v>
+        <v>146515</v>
       </c>
       <c r="F15" s="11">
-        <v>146515</v>
+        <v>147733</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>1218</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" si="1"/>
-        <v>4.8350593237775907E-3</v>
+        <v>8.3131419991127053E-3</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K15" s="15">
         <f t="shared" si="4"/>
-        <v>6145</v>
+        <v>7363</v>
       </c>
       <c r="L15" s="13">
         <f t="shared" si="5"/>
-        <v>4.3777160361900602E-2</v>
+        <v>5.2454228111419754E-2</v>
       </c>
       <c r="M15" s="16">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N15" s="17">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O15" s="18">
         <f t="shared" si="8"/>
-        <v>4739</v>
+        <v>4891</v>
       </c>
       <c r="P15" s="19">
         <f t="shared" si="9"/>
-        <v>3.3425967723733185E-2</v>
+        <v>3.4240629506727682E-2</v>
       </c>
       <c r="Q15" s="20">
         <f t="shared" si="10"/>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="R15" s="21">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1664,41 +1664,41 @@
         <v>254204</v>
       </c>
       <c r="D16" s="11">
-        <v>255635</v>
+        <v>258213</v>
       </c>
       <c r="E16" s="11">
-        <v>258835</v>
+        <v>261238</v>
       </c>
       <c r="F16" s="11">
-        <v>261238</v>
+        <v>262234</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="0"/>
-        <v>2403</v>
+        <v>996</v>
       </c>
       <c r="H16" s="13">
         <f t="shared" si="1"/>
-        <v>9.2839067359515859E-3</v>
+        <v>3.8126153163016152E-3</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K16" s="15">
         <f t="shared" si="4"/>
-        <v>7034</v>
+        <v>8030</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="5"/>
-        <v>2.7670689682302463E-2</v>
+        <v>3.1588802693899298E-2</v>
       </c>
       <c r="M16" s="16">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N16" s="17">
         <f t="shared" si="7"/>
@@ -1706,19 +1706,19 @@
       </c>
       <c r="O16" s="18">
         <f t="shared" si="8"/>
-        <v>5603</v>
+        <v>4021</v>
       </c>
       <c r="P16" s="19">
         <f t="shared" si="9"/>
-        <v>2.1917968979208613E-2</v>
+        <v>1.557241502170692E-2</v>
       </c>
       <c r="Q16" s="20">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="R16" s="21">
         <f>_xlfn.RANK.EQ(P16,$P$7:$P$38)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -1732,21 +1732,21 @@
         <v>1650381</v>
       </c>
       <c r="D17" s="11">
-        <v>1667919</v>
+        <v>1681296</v>
       </c>
       <c r="E17" s="11">
-        <v>1724144</v>
+        <v>1747660</v>
       </c>
       <c r="F17" s="11">
-        <v>1747660</v>
+        <v>1760793</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="0"/>
-        <v>23516</v>
+        <v>13133</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="1"/>
-        <v>1.3639231989903466E-2</v>
+        <v>7.5146195484248057E-3</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="2"/>
@@ -1754,35 +1754,35 @@
       </c>
       <c r="J17" s="14">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K17" s="15">
         <f t="shared" si="4"/>
-        <v>97279</v>
+        <v>110412</v>
       </c>
       <c r="L17" s="13">
         <f t="shared" si="5"/>
-        <v>5.8943359139495666E-2</v>
+        <v>6.6900915606759925E-2</v>
       </c>
       <c r="M17" s="16">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" s="17">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O17" s="18">
         <f t="shared" si="8"/>
-        <v>79741</v>
+        <v>79497</v>
       </c>
       <c r="P17" s="19">
         <f t="shared" si="9"/>
-        <v>4.7808676560432417E-2</v>
+        <v>4.7283167270962378E-2</v>
       </c>
       <c r="Q17" s="20">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17" s="21">
         <f t="shared" si="11"/>
@@ -1800,41 +1800,41 @@
         <v>1014873</v>
       </c>
       <c r="D18" s="11">
-        <v>1024800</v>
+        <v>1031331</v>
       </c>
       <c r="E18" s="11">
-        <v>1050754</v>
+        <v>1057217</v>
       </c>
       <c r="F18" s="11">
-        <v>1057217</v>
+        <v>1062318</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="0"/>
-        <v>6463</v>
+        <v>5101</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="1"/>
-        <v>6.15082121980981E-3</v>
+        <v>4.8249318730213542E-3</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K18" s="15">
         <f t="shared" si="4"/>
-        <v>42344</v>
+        <v>47445</v>
       </c>
       <c r="L18" s="13">
         <f t="shared" si="5"/>
-        <v>4.1723447170237016E-2</v>
+        <v>4.6749691833362306E-2</v>
       </c>
       <c r="M18" s="16">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N18" s="17">
         <f t="shared" si="7"/>
@@ -1842,11 +1842,11 @@
       </c>
       <c r="O18" s="18">
         <f t="shared" si="8"/>
-        <v>32417</v>
+        <v>30987</v>
       </c>
       <c r="P18" s="19">
         <f t="shared" si="9"/>
-        <v>3.1632513661202122E-2</v>
+        <v>3.0045640051544975E-2</v>
       </c>
       <c r="Q18" s="20">
         <f t="shared" si="10"/>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="R18" s="21">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -1868,37 +1868,37 @@
         <v>153546</v>
       </c>
       <c r="D19" s="11">
-        <v>149637</v>
+        <v>150690</v>
       </c>
       <c r="E19" s="11">
-        <v>153337</v>
+        <v>156353</v>
       </c>
       <c r="F19" s="11">
-        <v>156353</v>
+        <v>158615</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="0"/>
-        <v>3016</v>
+        <v>2262</v>
       </c>
       <c r="H19" s="13">
         <f t="shared" si="1"/>
-        <v>1.9669094869470438E-2</v>
+        <v>1.4467263180111711E-2</v>
       </c>
       <c r="I19" s="11">
         <f>_xlfn.RANK.EQ(G19,$G$7:$G$38)</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J19" s="14">
         <f>_xlfn.RANK.EQ(H19,$H$7:$H$38)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K19" s="15">
         <f t="shared" si="4"/>
-        <v>2807</v>
+        <v>5069</v>
       </c>
       <c r="L19" s="13">
         <f t="shared" si="5"/>
-        <v>1.8281166555950579E-2</v>
+        <v>3.3012908183866818E-2</v>
       </c>
       <c r="M19" s="16">
         <f t="shared" si="6"/>
@@ -1906,23 +1906,23 @@
       </c>
       <c r="N19" s="17">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O19" s="18">
         <f t="shared" si="8"/>
-        <v>6716</v>
+        <v>7925</v>
       </c>
       <c r="P19" s="19">
         <f t="shared" si="9"/>
-        <v>4.4881947646638221E-2</v>
+        <v>5.259141283429547E-2</v>
       </c>
       <c r="Q19" s="20">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R19" s="21">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -1936,61 +1936,61 @@
         <v>240431</v>
       </c>
       <c r="D20" s="11">
-        <v>241477</v>
+        <v>244466</v>
       </c>
       <c r="E20" s="11">
-        <v>258240</v>
+        <v>260883</v>
       </c>
       <c r="F20" s="11">
-        <v>260883</v>
+        <v>261803</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" si="0"/>
-        <v>2643</v>
+        <v>920</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="1"/>
-        <v>1.0234665427509393E-2</v>
+        <v>3.5264850526863789E-3</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J20" s="14">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K20" s="15">
         <f t="shared" si="4"/>
-        <v>20452</v>
+        <v>21372</v>
       </c>
       <c r="L20" s="13">
         <f t="shared" si="5"/>
-        <v>8.506390606868508E-2</v>
+        <v>8.8890367714645757E-2</v>
       </c>
       <c r="M20" s="16">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N20" s="17">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O20" s="18">
         <f t="shared" si="8"/>
-        <v>19406</v>
+        <v>17337</v>
       </c>
       <c r="P20" s="19">
         <f t="shared" si="9"/>
-        <v>8.036376135201273E-2</v>
+        <v>7.0917837245261017E-2</v>
       </c>
       <c r="Q20" s="20">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R20" s="21">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -2004,53 +2004,53 @@
         <v>1849999</v>
       </c>
       <c r="D21" s="24">
-        <v>1858235</v>
+        <v>1873476</v>
       </c>
       <c r="E21" s="24">
-        <v>1927647</v>
+        <v>1950941</v>
       </c>
       <c r="F21" s="24">
-        <v>1950941</v>
+        <v>1960510</v>
       </c>
       <c r="G21" s="25">
         <f>F21-E21</f>
-        <v>23294</v>
+        <v>9569</v>
       </c>
       <c r="H21" s="26">
         <f>F21/E21-1</f>
-        <v>1.2084162712363788E-2</v>
+        <v>4.9048126006885351E-3</v>
       </c>
       <c r="I21" s="24">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21" s="27">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K21" s="28">
         <f>F21-C21</f>
-        <v>100942</v>
+        <v>110511</v>
       </c>
       <c r="L21" s="26">
         <f>F21/C21-1</f>
-        <v>5.4563272736904089E-2</v>
+        <v>5.9735707965247631E-2</v>
       </c>
       <c r="M21" s="29">
         <f>_xlfn.RANK.EQ(K21,$K$7:$K$38)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" s="30">
         <f>_xlfn.RANK.EQ(L21,$L$7:$L$38)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O21" s="31">
         <f>F21-D21</f>
-        <v>92706</v>
+        <v>87034</v>
       </c>
       <c r="P21" s="32">
         <f>F21/D21-1</f>
-        <v>4.9889276652307135E-2</v>
+        <v>4.6455892682905953E-2</v>
       </c>
       <c r="Q21" s="33">
         <f>_xlfn.RANK.EQ(O21,$O$7:$O$38)</f>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="R21" s="34">
         <f>_xlfn.RANK.EQ(P21,$P$7:$P$38)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -2072,41 +2072,41 @@
         <v>465270</v>
       </c>
       <c r="D22" s="11">
-        <v>466916</v>
+        <v>470114</v>
       </c>
       <c r="E22" s="11">
-        <v>469527</v>
+        <v>477361</v>
       </c>
       <c r="F22" s="11">
-        <v>477361</v>
+        <v>479689</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="0"/>
-        <v>7834</v>
+        <v>2328</v>
       </c>
       <c r="H22" s="13">
         <f t="shared" si="1"/>
-        <v>1.6684876482076616E-2</v>
+        <v>4.876812307666567E-3</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K22" s="15">
         <f t="shared" si="4"/>
-        <v>12091</v>
+        <v>14419</v>
       </c>
       <c r="L22" s="13">
         <f t="shared" si="5"/>
-        <v>2.598706127624828E-2</v>
+        <v>3.0990607604186815E-2</v>
       </c>
       <c r="M22" s="16">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N22" s="17">
         <f t="shared" si="7"/>
@@ -2114,19 +2114,19 @@
       </c>
       <c r="O22" s="18">
         <f t="shared" si="8"/>
-        <v>10445</v>
+        <v>9575</v>
       </c>
       <c r="P22" s="19">
         <f t="shared" si="9"/>
-        <v>2.2370190783781219E-2</v>
+        <v>2.0367400247599532E-2</v>
       </c>
       <c r="Q22" s="20">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R22" s="21">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -2140,37 +2140,37 @@
         <v>213192</v>
       </c>
       <c r="D23" s="11">
-        <v>212465</v>
+        <v>215678</v>
       </c>
       <c r="E23" s="11">
-        <v>213316</v>
+        <v>215111</v>
       </c>
       <c r="F23" s="11">
-        <v>215111</v>
+        <v>217207</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="0"/>
-        <v>1795</v>
+        <v>2096</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="1"/>
-        <v>8.4147461981285421E-3</v>
+        <v>9.74380668585062E-3</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J23" s="14">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K23" s="15">
         <f t="shared" si="4"/>
-        <v>1919</v>
+        <v>4015</v>
       </c>
       <c r="L23" s="13">
         <f t="shared" si="5"/>
-        <v>9.0012758452475694E-3</v>
+        <v>1.8832789222860136E-2</v>
       </c>
       <c r="M23" s="16">
         <f t="shared" si="6"/>
@@ -2178,15 +2178,15 @@
       </c>
       <c r="N23" s="17">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" si="8"/>
-        <v>2646</v>
+        <v>1529</v>
       </c>
       <c r="P23" s="19">
         <f t="shared" si="9"/>
-        <v>1.2453815922622624E-2</v>
+        <v>7.089271970251998E-3</v>
       </c>
       <c r="Q23" s="20">
         <f t="shared" si="10"/>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="R23" s="21">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -2208,37 +2208,37 @@
         <v>160665</v>
       </c>
       <c r="D24" s="11">
-        <v>162065</v>
+        <v>164103</v>
       </c>
       <c r="E24" s="11">
-        <v>170874</v>
+        <v>173150</v>
       </c>
       <c r="F24" s="11">
-        <v>173150</v>
+        <v>175959</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="0"/>
-        <v>2276</v>
+        <v>2809</v>
       </c>
       <c r="H24" s="13">
         <f t="shared" si="1"/>
-        <v>1.3319756077577738E-2</v>
+        <v>1.6222928097025635E-2</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="4"/>
-        <v>12485</v>
+        <v>15294</v>
       </c>
       <c r="L24" s="13">
         <f t="shared" si="5"/>
-        <v>7.7708274982105641E-2</v>
+        <v>9.5191858836709997E-2</v>
       </c>
       <c r="M24" s="16">
         <f t="shared" si="6"/>
@@ -2246,23 +2246,23 @@
       </c>
       <c r="N24" s="17">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O24" s="18">
         <f t="shared" si="8"/>
-        <v>11085</v>
+        <v>11856</v>
       </c>
       <c r="P24" s="19">
         <f t="shared" si="9"/>
-        <v>6.8398482090519241E-2</v>
+        <v>7.2247308093087881E-2</v>
       </c>
       <c r="Q24" s="20">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R24" s="21">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -2276,61 +2276,61 @@
         <v>1696729</v>
       </c>
       <c r="D25" s="11">
-        <v>1720364</v>
+        <v>1730346</v>
       </c>
       <c r="E25" s="11">
-        <v>1785486</v>
+        <v>1800347</v>
       </c>
       <c r="F25" s="11">
-        <v>1800347</v>
+        <v>1806827</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="0"/>
-        <v>14861</v>
+        <v>6480</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" si="1"/>
-        <v>8.3232240409614189E-3</v>
+        <v>3.5993061337620258E-3</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>103618</v>
+        <v>110098</v>
       </c>
       <c r="L25" s="13">
         <f t="shared" si="5"/>
-        <v>6.1069269164374607E-2</v>
+        <v>6.4888382293224245E-2</v>
       </c>
       <c r="M25" s="16">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N25" s="17">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O25" s="18">
         <f t="shared" si="8"/>
-        <v>79983</v>
+        <v>76481</v>
       </c>
       <c r="P25" s="19">
         <f t="shared" si="9"/>
-        <v>4.6491905201457406E-2</v>
+        <v>4.4199830554120467E-2</v>
       </c>
       <c r="Q25" s="20">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R25" s="21">
         <f>_xlfn.RANK.EQ(P25,$P$7:$P$38)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -2344,53 +2344,53 @@
         <v>211048</v>
       </c>
       <c r="D26" s="11">
-        <v>210691</v>
+        <v>213743</v>
       </c>
       <c r="E26" s="11">
-        <v>216605</v>
+        <v>219178</v>
       </c>
       <c r="F26" s="11">
-        <v>219178</v>
+        <v>221168</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="0"/>
-        <v>2573</v>
+        <v>1990</v>
       </c>
       <c r="H26" s="13">
         <f t="shared" si="1"/>
-        <v>1.1878765494794719E-2</v>
+        <v>9.0793784047669135E-3</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>8130</v>
+        <v>10120</v>
       </c>
       <c r="L26" s="13">
         <f t="shared" si="5"/>
-        <v>3.8522042378984933E-2</v>
+        <v>4.7951176983435095E-2</v>
       </c>
       <c r="M26" s="16">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N26" s="17">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O26" s="18">
         <f t="shared" si="8"/>
-        <v>8487</v>
+        <v>7425</v>
       </c>
       <c r="P26" s="19">
         <f t="shared" si="9"/>
-        <v>4.0281739609190792E-2</v>
+        <v>3.4737979723312495E-2</v>
       </c>
       <c r="Q26" s="20">
         <f>_xlfn.RANK.EQ(O26,$O$7:$O$38)</f>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="R26" s="21">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -2412,41 +2412,41 @@
         <v>611779</v>
       </c>
       <c r="D27" s="11">
-        <v>608050</v>
+        <v>615837</v>
       </c>
       <c r="E27" s="11">
-        <v>627290</v>
+        <v>631105</v>
       </c>
       <c r="F27" s="11">
-        <v>631105</v>
+        <v>632568</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="0"/>
-        <v>3815</v>
+        <v>1463</v>
       </c>
       <c r="H27" s="13">
         <f t="shared" si="1"/>
-        <v>6.081716590412789E-3</v>
+        <v>2.3181562497525121E-3</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K27" s="15">
         <f t="shared" si="4"/>
-        <v>19326</v>
+        <v>20789</v>
       </c>
       <c r="L27" s="13">
         <f t="shared" si="5"/>
-        <v>3.1589838814343185E-2</v>
+        <v>3.3981225246371594E-2</v>
       </c>
       <c r="M27" s="16">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N27" s="17">
         <f t="shared" si="7"/>
@@ -2454,19 +2454,19 @@
       </c>
       <c r="O27" s="18">
         <f t="shared" si="8"/>
-        <v>23055</v>
+        <v>16731</v>
       </c>
       <c r="P27" s="19">
         <f t="shared" si="9"/>
-        <v>3.7916289778801016E-2</v>
+        <v>2.7167903195163712E-2</v>
       </c>
       <c r="Q27" s="20">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R27" s="21">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -2480,41 +2480,41 @@
         <v>628676</v>
       </c>
       <c r="D28" s="11">
-        <v>634086</v>
+        <v>639432</v>
       </c>
       <c r="E28" s="11">
-        <v>666303</v>
+        <v>673467</v>
       </c>
       <c r="F28" s="11">
-        <v>673467</v>
+        <v>675067</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="0"/>
-        <v>7164</v>
+        <v>1600</v>
       </c>
       <c r="H28" s="13">
         <f t="shared" si="1"/>
-        <v>1.0751865142435202E-2</v>
+        <v>2.375765998927859E-3</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K28" s="15">
         <f t="shared" si="4"/>
-        <v>44791</v>
+        <v>46391</v>
       </c>
       <c r="L28" s="13">
         <f t="shared" si="5"/>
-        <v>7.1246556254732196E-2</v>
+        <v>7.3791587399550718E-2</v>
       </c>
       <c r="M28" s="16">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N28" s="17">
         <f t="shared" si="7"/>
@@ -2522,11 +2522,11 @@
       </c>
       <c r="O28" s="18">
         <f t="shared" si="8"/>
-        <v>39381</v>
+        <v>35635</v>
       </c>
       <c r="P28" s="19">
         <f t="shared" si="9"/>
-        <v>6.2106717385338905E-2</v>
+        <v>5.5729147118067202E-2</v>
       </c>
       <c r="Q28" s="20">
         <f t="shared" si="10"/>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="R28" s="21">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -2548,37 +2548,37 @@
         <v>432986</v>
       </c>
       <c r="D29" s="11">
-        <v>431755</v>
+        <v>442048</v>
       </c>
       <c r="E29" s="11">
-        <v>472163</v>
+        <v>480149</v>
       </c>
       <c r="F29" s="11">
-        <v>480149</v>
+        <v>484025</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="0"/>
-        <v>7986</v>
+        <v>3876</v>
       </c>
       <c r="H29" s="13">
         <f t="shared" si="1"/>
-        <v>1.6913650582531803E-2</v>
+        <v>8.0724941632701608E-3</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="4"/>
-        <v>47163</v>
+        <v>51039</v>
       </c>
       <c r="L29" s="13">
         <f t="shared" si="5"/>
-        <v>0.10892499988452276</v>
+        <v>0.11787679047359489</v>
       </c>
       <c r="M29" s="16">
         <f t="shared" si="6"/>
@@ -2590,11 +2590,11 @@
       </c>
       <c r="O29" s="18">
         <f t="shared" si="8"/>
-        <v>48394</v>
+        <v>41977</v>
       </c>
       <c r="P29" s="19">
         <f t="shared" si="9"/>
-        <v>0.11208671584579211</v>
+        <v>9.4960275807152161E-2</v>
       </c>
       <c r="Q29" s="20">
         <f t="shared" si="10"/>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="R29" s="21">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -2616,61 +2616,61 @@
         <v>451010</v>
       </c>
       <c r="D30" s="11">
-        <v>455226</v>
+        <v>458236</v>
       </c>
       <c r="E30" s="11">
-        <v>462755</v>
+        <v>465172</v>
       </c>
       <c r="F30" s="11">
-        <v>465172</v>
+        <v>465586</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="0"/>
-        <v>2417</v>
+        <v>414</v>
       </c>
       <c r="H30" s="13">
         <f t="shared" si="1"/>
-        <v>5.2230662013377227E-3</v>
+        <v>8.8999337879314133E-4</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J30" s="14">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="4"/>
-        <v>14162</v>
+        <v>14576</v>
       </c>
       <c r="L30" s="13">
         <f t="shared" si="5"/>
-        <v>3.140063413228078E-2</v>
+        <v>3.2318573867541778E-2</v>
       </c>
       <c r="M30" s="16">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N30" s="17">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O30" s="18">
         <f t="shared" si="8"/>
-        <v>9946</v>
+        <v>7350</v>
       </c>
       <c r="P30" s="19">
         <f t="shared" si="9"/>
-        <v>2.1848488443102942E-2</v>
+        <v>1.6039769900226153E-2</v>
       </c>
       <c r="Q30" s="20">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R30" s="21">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -2684,25 +2684,25 @@
         <v>586281</v>
       </c>
       <c r="D31" s="11">
-        <v>584987</v>
+        <v>587453</v>
       </c>
       <c r="E31" s="11">
-        <v>576819</v>
+        <v>589565</v>
       </c>
       <c r="F31" s="11">
-        <v>589565</v>
+        <v>602189</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="0"/>
-        <v>12746</v>
+        <v>12624</v>
       </c>
       <c r="H31" s="13">
         <f t="shared" si="1"/>
-        <v>2.209705297502329E-2</v>
+        <v>2.1412397275957673E-2</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J31" s="14">
         <f t="shared" si="3"/>
@@ -2710,35 +2710,35 @@
       </c>
       <c r="K31" s="15">
         <f t="shared" si="4"/>
-        <v>3284</v>
+        <v>15908</v>
       </c>
       <c r="L31" s="13">
         <f t="shared" si="5"/>
-        <v>5.6014095629910443E-3</v>
+        <v>2.7133746445817009E-2</v>
       </c>
       <c r="M31" s="16">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N31" s="17">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O31" s="18">
         <f t="shared" si="8"/>
-        <v>4578</v>
+        <v>14736</v>
       </c>
       <c r="P31" s="19">
         <f t="shared" si="9"/>
-        <v>7.8258149326395632E-3</v>
+        <v>2.508455995628589E-2</v>
       </c>
       <c r="Q31" s="20">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="R31" s="21">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -2752,21 +2752,21 @@
         <v>596602</v>
       </c>
       <c r="D32" s="11">
-        <v>613932</v>
+        <v>613497</v>
       </c>
       <c r="E32" s="11">
-        <v>626821</v>
+        <v>625182</v>
       </c>
       <c r="F32" s="11">
-        <v>625182</v>
+        <v>620455</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="0"/>
-        <v>-1639</v>
+        <v>-4727</v>
       </c>
       <c r="H32" s="13">
         <f t="shared" si="1"/>
-        <v>-2.6147815724105739E-3</v>
+        <v>-7.5609982373132656E-3</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" si="2"/>
@@ -2778,35 +2778,35 @@
       </c>
       <c r="K32" s="15">
         <f t="shared" si="4"/>
-        <v>28580</v>
+        <v>23853</v>
       </c>
       <c r="L32" s="13">
         <f t="shared" si="5"/>
-        <v>4.7904633239580052E-2</v>
+        <v>3.9981428154783227E-2</v>
       </c>
       <c r="M32" s="16">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N32" s="17">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O32" s="18">
         <f t="shared" si="8"/>
-        <v>11250</v>
+        <v>6958</v>
       </c>
       <c r="P32" s="19">
         <f t="shared" si="9"/>
-        <v>1.8324504994038371E-2</v>
+        <v>1.1341538752430713E-2</v>
       </c>
       <c r="Q32" s="20">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R32" s="21">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
@@ -2820,41 +2820,41 @@
         <v>209338</v>
       </c>
       <c r="D33" s="11">
-        <v>208396</v>
+        <v>213110</v>
       </c>
       <c r="E33" s="11">
-        <v>232764</v>
+        <v>236883</v>
       </c>
       <c r="F33" s="11">
-        <v>236883</v>
+        <v>240519</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="0"/>
-        <v>4119</v>
+        <v>3636</v>
       </c>
       <c r="H33" s="13">
         <f t="shared" si="1"/>
-        <v>1.769603546940246E-2</v>
+        <v>1.5349349678955404E-2</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J33" s="14">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="4"/>
-        <v>27545</v>
+        <v>31181</v>
       </c>
       <c r="L33" s="13">
         <f t="shared" si="5"/>
-        <v>0.13158146155977413</v>
+        <v>0.14895050110347863</v>
       </c>
       <c r="M33" s="16">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N33" s="17">
         <f t="shared" si="7"/>
@@ -2862,11 +2862,11 @@
       </c>
       <c r="O33" s="18">
         <f t="shared" si="8"/>
-        <v>28487</v>
+        <v>27409</v>
       </c>
       <c r="P33" s="19">
         <f t="shared" si="9"/>
-        <v>0.13669648169830517</v>
+        <v>0.12861433062737548</v>
       </c>
       <c r="Q33" s="20">
         <f t="shared" si="10"/>
@@ -2888,25 +2888,25 @@
         <v>696086</v>
       </c>
       <c r="D34" s="11">
-        <v>706964</v>
+        <v>709875</v>
       </c>
       <c r="E34" s="11">
-        <v>718840</v>
+        <v>719585</v>
       </c>
       <c r="F34" s="11">
-        <v>719585</v>
+        <v>715753</v>
       </c>
       <c r="G34" s="12">
         <f t="shared" si="0"/>
-        <v>745</v>
+        <v>-3832</v>
       </c>
       <c r="H34" s="13">
         <f t="shared" si="1"/>
-        <v>1.036391964832184E-3</v>
+        <v>-5.3252916611657986E-3</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J34" s="14">
         <f t="shared" si="3"/>
@@ -2914,35 +2914,35 @@
       </c>
       <c r="K34" s="15">
         <f t="shared" si="4"/>
-        <v>23499</v>
+        <v>19667</v>
       </c>
       <c r="L34" s="13">
         <f t="shared" si="5"/>
-        <v>3.3758759693486073E-2</v>
+        <v>2.8253692790833229E-2</v>
       </c>
       <c r="M34" s="16">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N34" s="17">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="O34" s="18">
         <f t="shared" si="8"/>
-        <v>12621</v>
+        <v>5878</v>
       </c>
       <c r="P34" s="19">
         <f t="shared" si="9"/>
-        <v>1.7852394181316233E-2</v>
+        <v>8.2803310441978972E-3</v>
       </c>
       <c r="Q34" s="20">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="R34" s="21">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
@@ -2956,41 +2956,41 @@
         <v>103100</v>
       </c>
       <c r="D35" s="11">
-        <v>105205</v>
+        <v>105292</v>
       </c>
       <c r="E35" s="11">
-        <v>110724</v>
+        <v>112637</v>
       </c>
       <c r="F35" s="11">
-        <v>112637</v>
+        <v>113585</v>
       </c>
       <c r="G35" s="12">
         <f t="shared" si="0"/>
-        <v>1913</v>
+        <v>948</v>
       </c>
       <c r="H35" s="13">
         <f t="shared" si="1"/>
-        <v>1.7277193743000518E-2</v>
+        <v>8.4164173406606757E-3</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J35" s="14">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K35" s="15">
         <f t="shared" si="4"/>
-        <v>9537</v>
+        <v>10485</v>
       </c>
       <c r="L35" s="13">
         <f t="shared" si="5"/>
-        <v>9.2502424830261942E-2</v>
+        <v>0.10169738118331706</v>
       </c>
       <c r="M35" s="16">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N35" s="17">
         <f t="shared" si="7"/>
@@ -2998,19 +2998,19 @@
       </c>
       <c r="O35" s="18">
         <f t="shared" si="8"/>
-        <v>7432</v>
+        <v>8293</v>
       </c>
       <c r="P35" s="19">
         <f t="shared" si="9"/>
-        <v>7.064303027422647E-2</v>
+        <v>7.8761919234129785E-2</v>
       </c>
       <c r="Q35" s="20">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R35" s="21">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
@@ -3024,61 +3024,61 @@
         <v>734685</v>
       </c>
       <c r="D36" s="11">
-        <v>726153</v>
+        <v>732809</v>
       </c>
       <c r="E36" s="11">
-        <v>733404</v>
+        <v>743311</v>
       </c>
       <c r="F36" s="11">
-        <v>743311</v>
+        <v>749926</v>
       </c>
       <c r="G36" s="12">
         <f t="shared" si="0"/>
-        <v>9907</v>
+        <v>6615</v>
       </c>
       <c r="H36" s="13">
         <f t="shared" si="1"/>
-        <v>1.3508243751056748E-2</v>
+        <v>8.8993705192039751E-3</v>
       </c>
       <c r="I36" s="11">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J36" s="14">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="4"/>
-        <v>8626</v>
+        <v>15241</v>
       </c>
       <c r="L36" s="13">
         <f t="shared" si="5"/>
-        <v>1.1741086315904203E-2</v>
+        <v>2.0744945112531221E-2</v>
       </c>
       <c r="M36" s="16">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N36" s="17">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O36" s="18">
         <f t="shared" si="8"/>
-        <v>17158</v>
+        <v>17117</v>
       </c>
       <c r="P36" s="19">
         <f t="shared" si="9"/>
-        <v>2.3628629228275688E-2</v>
+        <v>2.335806465259016E-2</v>
       </c>
       <c r="Q36" s="20">
         <f>_xlfn.RANK.EQ(O36,$O$7:$O$38)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R36" s="21">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -3092,53 +3092,53 @@
         <v>393339</v>
       </c>
       <c r="D37" s="11">
-        <v>394110</v>
+        <v>397354</v>
       </c>
       <c r="E37" s="11">
-        <v>410282</v>
+        <v>418066</v>
       </c>
       <c r="F37" s="11">
-        <v>418066</v>
+        <v>420862</v>
       </c>
       <c r="G37" s="12">
         <f t="shared" si="0"/>
-        <v>7784</v>
+        <v>2796</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" si="1"/>
-        <v>1.8972316601751915E-2</v>
+        <v>6.687939224907069E-3</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J37" s="14">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="4"/>
-        <v>24727</v>
+        <v>27523</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="5"/>
-        <v>6.2864348564469763E-2</v>
+        <v>6.9972720731989346E-2</v>
       </c>
       <c r="M37" s="16">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N37" s="17">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O37" s="18">
         <f t="shared" si="8"/>
-        <v>23956</v>
+        <v>23508</v>
       </c>
       <c r="P37" s="19">
         <f t="shared" si="9"/>
-        <v>6.0785060008627045E-2</v>
+        <v>5.9161352345767249E-2</v>
       </c>
       <c r="Q37" s="20">
         <f t="shared" si="10"/>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="R37" s="21">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -3160,37 +3160,37 @@
         <v>195976</v>
       </c>
       <c r="D38" s="11">
-        <v>196947</v>
+        <v>197130</v>
       </c>
       <c r="E38" s="11">
-        <v>195436</v>
+        <v>196532</v>
       </c>
       <c r="F38" s="11">
-        <v>196532</v>
+        <v>197186</v>
       </c>
       <c r="G38" s="12">
         <f t="shared" si="0"/>
-        <v>1096</v>
+        <v>654</v>
       </c>
       <c r="H38" s="13">
         <f t="shared" si="1"/>
-        <v>5.6079739659018468E-3</v>
+        <v>3.3277023589033394E-3</v>
       </c>
       <c r="I38" s="11">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J38" s="14">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K38" s="15">
         <f t="shared" si="4"/>
-        <v>556</v>
+        <v>1210</v>
       </c>
       <c r="L38" s="13">
         <f t="shared" si="5"/>
-        <v>2.8370820916847617E-3</v>
+        <v>6.1742254153569487E-3</v>
       </c>
       <c r="M38" s="16">
         <f t="shared" si="6"/>
@@ -3202,11 +3202,11 @@
       </c>
       <c r="O38" s="18">
         <f t="shared" si="8"/>
-        <v>-415</v>
+        <v>56</v>
       </c>
       <c r="P38" s="19">
         <f t="shared" si="9"/>
-        <v>-2.1071658872691135E-3</v>
+        <v>2.8407649774253585E-4</v>
       </c>
       <c r="Q38" s="20">
         <f t="shared" si="10"/>
@@ -3231,43 +3231,43 @@
       </c>
       <c r="D39" s="37">
         <f>SUM(D7:D38)</f>
-        <v>20767587</v>
+        <v>20933050</v>
       </c>
       <c r="E39" s="37">
         <f>SUM(E7:E38)</f>
-        <v>21409358</v>
+        <v>21617326</v>
       </c>
       <c r="F39" s="37">
         <f>SUM(F7:F38)</f>
-        <v>21617326</v>
+        <v>21718601</v>
       </c>
       <c r="G39" s="38">
         <f>F39-E39</f>
-        <v>207968</v>
+        <v>101275</v>
       </c>
       <c r="H39" s="39">
         <f t="shared" si="1"/>
-        <v>9.713883059921713E-3</v>
+        <v>4.6848995106980595E-3</v>
       </c>
       <c r="I39" s="37"/>
       <c r="J39" s="40"/>
       <c r="K39" s="41">
         <f t="shared" si="4"/>
-        <v>997178</v>
+        <v>1098453</v>
       </c>
       <c r="L39" s="39">
         <f t="shared" si="5"/>
-        <v>4.8359400718171353E-2</v>
+        <v>5.3270859161631545E-2</v>
       </c>
       <c r="M39" s="39"/>
       <c r="N39" s="42"/>
       <c r="O39" s="43">
         <f t="shared" si="8"/>
-        <v>849739</v>
+        <v>785551</v>
       </c>
       <c r="P39" s="44">
         <f t="shared" si="9"/>
-        <v>4.0916597580643366E-2</v>
+        <v>3.7526829582884558E-2</v>
       </c>
       <c r="Q39" s="42"/>
       <c r="R39" s="45"/>

--- a/Tabulados/TAentidadrank_delegacion.xlsx
+++ b/Tabulados/TAentidadrank_delegacion.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
-    <sheet name="ta_marzo" sheetId="1" r:id="rId1"/>
+    <sheet name="ta_abril" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,24 +47,24 @@
   </si>
   <si>
     <t>2022
-Marzo</t>
-  </si>
-  <si>
-    <t>2022
-Febrero</t>
+Abril</t>
   </si>
   <si>
     <t>2023
 Marzo</t>
   </si>
   <si>
-    <t>Marzo 2023 respecto a Febrero 2023</t>
-  </si>
-  <si>
-    <t>Marzo 2023 respecto a Diciembre 2022</t>
-  </si>
-  <si>
-    <t>Marzo 2023 respecto a Marzo 2022</t>
+    <t>2023
+Abril</t>
+  </si>
+  <si>
+    <t>Abril 2023 respecto a Marzo 2023</t>
+  </si>
+  <si>
+    <t>Abril 2023 respecto a Diciembre 2022</t>
+  </si>
+  <si>
+    <t>Abril 2023 respecto a Abril 2022</t>
   </si>
   <si>
     <t>Variación Absoluta</t>
@@ -846,7 +846,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:R41"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1044,61 +1044,61 @@
         <v>342215</v>
       </c>
       <c r="D7" s="11">
-        <v>341250</v>
+        <v>341747</v>
       </c>
       <c r="E7" s="11">
-        <v>348017</v>
+        <v>352010</v>
       </c>
       <c r="F7" s="11">
-        <v>352010</v>
+        <v>350248</v>
       </c>
       <c r="G7" s="12">
         <f>F7-E7</f>
-        <v>3993</v>
+        <v>-1762</v>
       </c>
       <c r="H7" s="13">
         <f>F7/E7-1</f>
-        <v>1.1473577440182625E-2</v>
+        <v>-5.0055396153518839E-3</v>
       </c>
       <c r="I7" s="11">
         <f>_xlfn.RANK.EQ(G7,$G$7:$G$38)</f>
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J7" s="14">
         <f>_xlfn.RANK.EQ(H7,$H$7:$H$38)</f>
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" ref="K7:K39" si="0">F7-C7</f>
-        <v>9795</v>
+        <v>8033</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" ref="L7:L39" si="1">F7/C7-1</f>
-        <v>2.8622357290007727E-2</v>
+        <v>2.3473547331356093E-2</v>
       </c>
       <c r="M7" s="11">
         <f>_xlfn.RANK.EQ(K7,$K$7:$K$38)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N7" s="14">
         <f>_xlfn.RANK.EQ(L7,$L$7:$L$38)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O7" s="15">
         <f>F7-D7</f>
-        <v>10760</v>
+        <v>8501</v>
       </c>
       <c r="P7" s="13">
         <f>F7/D7-1</f>
-        <v>3.1531135531135623E-2</v>
+        <v>2.4875126921377611E-2</v>
       </c>
       <c r="Q7" s="16">
         <f>_xlfn.RANK.EQ(O7,$O$7:$O$38)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R7" s="17">
         <f>_xlfn.RANK.EQ(P7,$P$7:$P$38)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1112,37 +1112,37 @@
         <v>1042740</v>
       </c>
       <c r="D8" s="11">
-        <v>1036470</v>
+        <v>1035016</v>
       </c>
       <c r="E8" s="11">
-        <v>1067777</v>
+        <v>1074408</v>
       </c>
       <c r="F8" s="11">
-        <v>1074408</v>
+        <v>1075081</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ref="G8:G39" si="2">F8-E8</f>
-        <v>6631</v>
+        <v>673</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" ref="H8:H39" si="3">F8/E8-1</f>
-        <v>6.210098175930101E-3</v>
+        <v>6.2639146395038203E-4</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" ref="I8:I38" si="4">_xlfn.RANK.EQ(G8,$G$7:$G$38)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" ref="J8:J38" si="5">_xlfn.RANK.EQ(H8,$H$7:$H$38)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" si="0"/>
-        <v>31668</v>
+        <v>32341</v>
       </c>
       <c r="L8" s="13">
         <f t="shared" si="1"/>
-        <v>3.0369986765636625E-2</v>
+        <v>3.1015401730057457E-2</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" ref="M8:M38" si="6">_xlfn.RANK.EQ(K8,$K$7:$K$38)</f>
@@ -1150,23 +1150,23 @@
       </c>
       <c r="N8" s="14">
         <f t="shared" ref="N8:N38" si="7">_xlfn.RANK.EQ(L8,$L$7:$L$38)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O8" s="15">
         <f t="shared" ref="O8:O37" si="8">F8-D8</f>
-        <v>37938</v>
+        <v>40065</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" ref="P8:P37" si="9">F8/D8-1</f>
-        <v>3.6603085472806773E-2</v>
+        <v>3.8709546519087645E-2</v>
       </c>
       <c r="Q8" s="16">
         <f t="shared" ref="Q8:Q38" si="10">_xlfn.RANK.EQ(O8,$O$7:$O$38)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R8" s="17">
         <f t="shared" ref="R8:R38" si="11">_xlfn.RANK.EQ(P8,$P$7:$P$38)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1180,41 +1180,41 @@
         <v>210207</v>
       </c>
       <c r="D9" s="11">
-        <v>198190</v>
+        <v>201108</v>
       </c>
       <c r="E9" s="11">
-        <v>215851</v>
+        <v>218251</v>
       </c>
       <c r="F9" s="11">
-        <v>218251</v>
+        <v>218895</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="2"/>
-        <v>2400</v>
+        <v>644</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" si="3"/>
-        <v>1.1118781010975187E-2</v>
+        <v>2.9507310390330943E-3</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="0"/>
-        <v>8044</v>
+        <v>8688</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="1"/>
-        <v>3.8267041535248625E-2</v>
+        <v>4.1330688321511655E-2</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N9" s="14">
         <f t="shared" si="7"/>
@@ -1222,15 +1222,15 @@
       </c>
       <c r="O9" s="15">
         <f t="shared" si="8"/>
-        <v>20061</v>
+        <v>17787</v>
       </c>
       <c r="P9" s="13">
         <f t="shared" si="9"/>
-        <v>0.10122105050708918</v>
+        <v>8.8445014619010776E-2</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R9" s="17">
         <f t="shared" si="11"/>
@@ -1248,61 +1248,61 @@
         <v>137105</v>
       </c>
       <c r="D10" s="11">
-        <v>133197</v>
+        <v>133270</v>
       </c>
       <c r="E10" s="11">
-        <v>139410</v>
+        <v>139841</v>
       </c>
       <c r="F10" s="11">
-        <v>139841</v>
+        <v>140182</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="2"/>
-        <v>431</v>
+        <v>341</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" si="3"/>
-        <v>3.0916003156158389E-3</v>
+        <v>2.4384837064952425E-3</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" si="5"/>
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="0"/>
-        <v>2736</v>
+        <v>3077</v>
       </c>
       <c r="L10" s="13">
         <f t="shared" si="1"/>
-        <v>1.9955508551839918E-2</v>
+        <v>2.2442653440793547E-2</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N10" s="14">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" si="8"/>
-        <v>6644</v>
+        <v>6912</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" si="9"/>
-        <v>4.988100332590073E-2</v>
+        <v>5.1864635701958539E-2</v>
       </c>
       <c r="Q10" s="16">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R10" s="17">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1316,57 +1316,57 @@
         <v>241142</v>
       </c>
       <c r="D11" s="11">
-        <v>236234</v>
+        <v>237801</v>
       </c>
       <c r="E11" s="11">
-        <v>241547</v>
+        <v>243734</v>
       </c>
       <c r="F11" s="11">
-        <v>243734</v>
+        <v>245920</v>
       </c>
       <c r="G11" s="12">
         <f>F11-E11</f>
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" si="3"/>
-        <v>9.0541385320455081E-3</v>
+        <v>8.9687938490321528E-3</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K11" s="12">
         <f t="shared" si="0"/>
-        <v>2592</v>
+        <v>4778</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="1"/>
-        <v>1.0748853372701594E-2</v>
+        <v>1.9814051471746863E-2</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N11" s="14">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O11" s="15">
         <f t="shared" si="8"/>
-        <v>7500</v>
+        <v>8119</v>
       </c>
       <c r="P11" s="13">
         <f t="shared" si="9"/>
-        <v>3.1748181887450544E-2</v>
+        <v>3.4141992674547206E-2</v>
       </c>
       <c r="Q11" s="16">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R11" s="17">
         <f t="shared" si="11"/>
@@ -1384,41 +1384,41 @@
         <v>962905</v>
       </c>
       <c r="D12" s="11">
-        <v>960620</v>
+        <v>959575</v>
       </c>
       <c r="E12" s="11">
-        <v>981673</v>
+        <v>987450</v>
       </c>
       <c r="F12" s="11">
-        <v>987450</v>
+        <v>986550</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="2"/>
-        <v>5777</v>
+        <v>-900</v>
       </c>
       <c r="H12" s="13">
         <f t="shared" si="3"/>
-        <v>5.8848516766785153E-3</v>
+        <v>-9.114385538507852E-4</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="0"/>
-        <v>24545</v>
+        <v>23645</v>
       </c>
       <c r="L12" s="13">
         <f t="shared" si="1"/>
-        <v>2.5490572797939537E-2</v>
+        <v>2.455590115328099E-2</v>
       </c>
       <c r="M12" s="11">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N12" s="14">
         <f t="shared" si="7"/>
@@ -1426,11 +1426,11 @@
       </c>
       <c r="O12" s="15">
         <f t="shared" si="8"/>
-        <v>26830</v>
+        <v>26975</v>
       </c>
       <c r="P12" s="13">
         <f t="shared" si="9"/>
-        <v>2.7929878620057913E-2</v>
+        <v>2.8111403485918229E-2</v>
       </c>
       <c r="Q12" s="16">
         <f t="shared" si="10"/>
@@ -1452,21 +1452,21 @@
         <v>3394982</v>
       </c>
       <c r="D13" s="11">
-        <v>3323522</v>
+        <v>3326256</v>
       </c>
       <c r="E13" s="11">
-        <v>3397269</v>
+        <v>3411513</v>
       </c>
       <c r="F13" s="11">
-        <v>3411513</v>
+        <v>3421435</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="2"/>
-        <v>14244</v>
+        <v>9922</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="3"/>
-        <v>4.1927795532235024E-3</v>
+        <v>2.9083869825499153E-3</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" si="4"/>
@@ -1474,31 +1474,31 @@
       </c>
       <c r="J13" s="14">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" si="0"/>
-        <v>16531</v>
+        <v>26453</v>
       </c>
       <c r="L13" s="13">
         <f t="shared" si="1"/>
-        <v>4.8692452566758693E-3</v>
+        <v>7.7917938887452909E-3</v>
       </c>
       <c r="M13" s="11">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N13" s="14">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O13" s="15">
         <f t="shared" si="8"/>
-        <v>87991</v>
+        <v>95179</v>
       </c>
       <c r="P13" s="13">
         <f t="shared" si="9"/>
-        <v>2.6475227183692551E-2</v>
+        <v>2.8614454209176854E-2</v>
       </c>
       <c r="Q13" s="16">
         <f t="shared" si="10"/>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="R13" s="17">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1520,37 +1520,37 @@
         <v>825159</v>
       </c>
       <c r="D14" s="11">
-        <v>814164</v>
+        <v>814500</v>
       </c>
       <c r="E14" s="11">
-        <v>840249</v>
+        <v>846629</v>
       </c>
       <c r="F14" s="11">
-        <v>846629</v>
+        <v>850911</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="2"/>
-        <v>6380</v>
+        <v>4282</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" si="3"/>
-        <v>7.5929873168549822E-3</v>
+        <v>5.0577053231108948E-3</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="5"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K14" s="12">
         <f t="shared" si="0"/>
-        <v>21470</v>
+        <v>25752</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="1"/>
-        <v>2.6019227809428225E-2</v>
+        <v>3.1208530719534E-2</v>
       </c>
       <c r="M14" s="11">
         <f t="shared" si="6"/>
@@ -1558,23 +1558,23 @@
       </c>
       <c r="N14" s="14">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="O14" s="15">
         <f t="shared" si="8"/>
-        <v>32465</v>
+        <v>36411</v>
       </c>
       <c r="P14" s="13">
         <f t="shared" si="9"/>
-        <v>3.9875258547418024E-2</v>
+        <v>4.470349907918969E-2</v>
       </c>
       <c r="Q14" s="16">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R14" s="17">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1588,61 +1588,61 @@
         <v>147281</v>
       </c>
       <c r="D15" s="11">
-        <v>142922</v>
+        <v>142884</v>
       </c>
       <c r="E15" s="11">
-        <v>148842</v>
+        <v>149432</v>
       </c>
       <c r="F15" s="11">
-        <v>149432</v>
+        <v>149935</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="2"/>
-        <v>590</v>
+        <v>503</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" si="3"/>
-        <v>3.9639349108451238E-3</v>
+        <v>3.3660795545800148E-3</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" si="0"/>
-        <v>2151</v>
+        <v>2654</v>
       </c>
       <c r="L15" s="13">
         <f t="shared" si="1"/>
-        <v>1.4604735166110938E-2</v>
+        <v>1.8019975421133649E-2</v>
       </c>
       <c r="M15" s="11">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N15" s="14">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O15" s="15">
         <f t="shared" si="8"/>
-        <v>6510</v>
+        <v>7051</v>
       </c>
       <c r="P15" s="13">
         <f t="shared" si="9"/>
-        <v>4.5549320608443855E-2</v>
+        <v>4.9347722628146018E-2</v>
       </c>
       <c r="Q15" s="16">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R15" s="17">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1656,37 +1656,37 @@
         <v>256778</v>
       </c>
       <c r="D16" s="11">
-        <v>259036</v>
+        <v>258662</v>
       </c>
       <c r="E16" s="11">
-        <v>260506</v>
+        <v>260331</v>
       </c>
       <c r="F16" s="11">
-        <v>260331</v>
+        <v>260824</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="2"/>
-        <v>-175</v>
+        <v>493</v>
       </c>
       <c r="H16" s="13">
         <f t="shared" si="3"/>
-        <v>-6.7176955617143097E-4</v>
+        <v>1.8937429656860072E-3</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="0"/>
-        <v>3553</v>
+        <v>4046</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="1"/>
-        <v>1.3836855182297603E-2</v>
+        <v>1.5756801595152137E-2</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="6"/>
@@ -1694,19 +1694,19 @@
       </c>
       <c r="N16" s="14">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O16" s="15">
         <f t="shared" si="8"/>
-        <v>1295</v>
+        <v>2162</v>
       </c>
       <c r="P16" s="13">
         <f t="shared" si="9"/>
-        <v>4.999305115891195E-3</v>
+        <v>8.3583982185244654E-3</v>
       </c>
       <c r="Q16" s="16">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R16" s="17">
         <f t="shared" si="11"/>
@@ -1724,41 +1724,41 @@
         <v>1732700</v>
       </c>
       <c r="D17" s="11">
-        <v>1674576</v>
+        <v>1679022</v>
       </c>
       <c r="E17" s="11">
-        <v>1737289</v>
+        <v>1751101</v>
       </c>
       <c r="F17" s="11">
-        <v>1751101</v>
+        <v>1755514</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="2"/>
-        <v>13812</v>
+        <v>4413</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="3"/>
-        <v>7.950317995451428E-3</v>
+        <v>2.520128764702978E-3</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="0"/>
-        <v>18401</v>
+        <v>22814</v>
       </c>
       <c r="L17" s="13">
         <f t="shared" si="1"/>
-        <v>1.0619841865296964E-2</v>
+        <v>1.3166733998961178E-2</v>
       </c>
       <c r="M17" s="11">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N17" s="14">
         <f t="shared" si="7"/>
@@ -1766,11 +1766,11 @@
       </c>
       <c r="O17" s="15">
         <f t="shared" si="8"/>
-        <v>76525</v>
+        <v>76492</v>
       </c>
       <c r="P17" s="13">
         <f t="shared" si="9"/>
-        <v>4.5698134930872047E-2</v>
+        <v>4.5557473338645904E-2</v>
       </c>
       <c r="Q17" s="16">
         <f t="shared" si="10"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="R17" s="17">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1792,37 +1792,37 @@
         <v>1041993</v>
       </c>
       <c r="D18" s="11">
-        <v>1036387</v>
+        <v>1035474</v>
       </c>
       <c r="E18" s="11">
-        <v>1060696</v>
+        <v>1069292</v>
       </c>
       <c r="F18" s="11">
-        <v>1069292</v>
+        <v>1072930</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="2"/>
-        <v>8596</v>
+        <v>3638</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="3"/>
-        <v>8.1041127712369043E-3</v>
+        <v>3.4022512092113377E-3</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" si="0"/>
-        <v>27299</v>
+        <v>30937</v>
       </c>
       <c r="L18" s="13">
         <f t="shared" si="1"/>
-        <v>2.6198832429776386E-2</v>
+        <v>2.9690218648301903E-2</v>
       </c>
       <c r="M18" s="11">
         <f t="shared" si="6"/>
@@ -1830,23 +1830,23 @@
       </c>
       <c r="N18" s="14">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O18" s="15">
         <f t="shared" si="8"/>
-        <v>32905</v>
+        <v>37456</v>
       </c>
       <c r="P18" s="13">
         <f t="shared" si="9"/>
-        <v>3.1749722835195726E-2</v>
+        <v>3.617280588406846E-2</v>
       </c>
       <c r="Q18" s="16">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R18" s="17">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1860,41 +1860,41 @@
         <v>159520</v>
       </c>
       <c r="D19" s="11">
-        <v>150643</v>
+        <v>150848</v>
       </c>
       <c r="E19" s="11">
-        <v>157749</v>
+        <v>158225</v>
       </c>
       <c r="F19" s="11">
-        <v>158225</v>
+        <v>158324</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="2"/>
-        <v>476</v>
+        <v>99</v>
       </c>
       <c r="H19" s="13">
         <f t="shared" si="3"/>
-        <v>3.0174517746546226E-3</v>
+        <v>6.25691262442718E-4</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="5"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K19" s="12">
         <f t="shared" si="0"/>
-        <v>-1295</v>
+        <v>-1196</v>
       </c>
       <c r="L19" s="13">
         <f t="shared" si="1"/>
-        <v>-8.1181043129388009E-3</v>
+        <v>-7.4974924774322549E-3</v>
       </c>
       <c r="M19" s="11">
         <f>_xlfn.RANK.EQ(K19,$K$7:$K$38)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N19" s="14">
         <f t="shared" si="7"/>
@@ -1902,19 +1902,19 @@
       </c>
       <c r="O19" s="15">
         <f t="shared" si="8"/>
-        <v>7582</v>
+        <v>7476</v>
       </c>
       <c r="P19" s="13">
         <f t="shared" si="9"/>
-        <v>5.0330914811839822E-2</v>
+        <v>4.9559821807382276E-2</v>
       </c>
       <c r="Q19" s="16">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R19" s="17">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -1928,37 +1928,37 @@
         <v>256643</v>
       </c>
       <c r="D20" s="11">
-        <v>248308</v>
+        <v>249917</v>
       </c>
       <c r="E20" s="11">
-        <v>260429</v>
+        <v>261584</v>
       </c>
       <c r="F20" s="11">
-        <v>261584</v>
+        <v>263144</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" si="2"/>
-        <v>1155</v>
+        <v>1560</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="3"/>
-        <v>4.4349899588755903E-3</v>
+        <v>5.9636675025995789E-3</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J20" s="14">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="K20" s="12">
         <f t="shared" si="0"/>
-        <v>4941</v>
+        <v>6501</v>
       </c>
       <c r="L20" s="13">
         <f t="shared" si="1"/>
-        <v>1.9252424574214055E-2</v>
+        <v>2.5330907135592939E-2</v>
       </c>
       <c r="M20" s="11">
         <f t="shared" si="6"/>
@@ -1966,23 +1966,23 @@
       </c>
       <c r="N20" s="14">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O20" s="15">
         <f t="shared" si="8"/>
-        <v>13276</v>
+        <v>13227</v>
       </c>
       <c r="P20" s="13">
         <f t="shared" si="9"/>
-        <v>5.3465856919632015E-2</v>
+        <v>5.2925571289668127E-2</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R20" s="17">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -1996,37 +1996,37 @@
         <v>1932962</v>
       </c>
       <c r="D21" s="20">
-        <v>1886776</v>
+        <v>1884715</v>
       </c>
       <c r="E21" s="20">
-        <v>1964519</v>
+        <v>1972715</v>
       </c>
       <c r="F21" s="20">
-        <v>1972715</v>
+        <v>1973202</v>
       </c>
       <c r="G21" s="21">
         <f t="shared" si="2"/>
-        <v>8196</v>
+        <v>487</v>
       </c>
       <c r="H21" s="22">
         <f t="shared" si="3"/>
-        <v>4.1720136074021585E-3</v>
+        <v>2.4686789526118247E-4</v>
       </c>
       <c r="I21" s="20">
         <f>_xlfn.RANK.EQ(G21,$G$7:$G$38)</f>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J21" s="23">
         <f>_xlfn.RANK.EQ(H21,$H$7:$H$38)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K21" s="21">
         <f t="shared" si="0"/>
-        <v>39753</v>
+        <v>40240</v>
       </c>
       <c r="L21" s="22">
         <f t="shared" si="1"/>
-        <v>2.0565846612607963E-2</v>
+        <v>2.0817791555136633E-2</v>
       </c>
       <c r="M21" s="20">
         <f>_xlfn.RANK.EQ(K21,$K$7:$K$38)</f>
@@ -2034,23 +2034,23 @@
       </c>
       <c r="N21" s="23">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O21" s="24">
         <f>F21-D21</f>
-        <v>85939</v>
+        <v>88487</v>
       </c>
       <c r="P21" s="22">
         <f t="shared" si="9"/>
-        <v>4.5548067179145724E-2</v>
+        <v>4.6949804081784174E-2</v>
       </c>
       <c r="Q21" s="25">
         <f>_xlfn.RANK.EQ(O21,$O$7:$O$38)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" s="26">
         <f>_xlfn.RANK.EQ(P21,$P$7:$P$38)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2064,61 +2064,61 @@
         <v>474615</v>
       </c>
       <c r="D22" s="11">
-        <v>468910</v>
+        <v>466191</v>
       </c>
       <c r="E22" s="11">
-        <v>479469</v>
+        <v>482835</v>
       </c>
       <c r="F22" s="11">
-        <v>482835</v>
+        <v>481144</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="2"/>
-        <v>3366</v>
+        <v>-1691</v>
       </c>
       <c r="H22" s="13">
         <f t="shared" si="3"/>
-        <v>7.0202661694500623E-3</v>
+        <v>-3.5022316112129914E-3</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K22" s="12">
         <f t="shared" si="0"/>
-        <v>8220</v>
+        <v>6529</v>
       </c>
       <c r="L22" s="13">
         <f t="shared" si="1"/>
-        <v>1.7319300907050916E-2</v>
+        <v>1.3756413092717246E-2</v>
       </c>
       <c r="M22" s="11">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N22" s="14">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O22" s="15">
         <f t="shared" si="8"/>
-        <v>13925</v>
+        <v>14953</v>
       </c>
       <c r="P22" s="13">
         <f t="shared" si="9"/>
-        <v>2.9696530251007713E-2</v>
+        <v>3.2074836279550656E-2</v>
       </c>
       <c r="Q22" s="16">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R22" s="17">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2132,61 +2132,61 @@
         <v>215779</v>
       </c>
       <c r="D23" s="11">
-        <v>214140</v>
+        <v>214838</v>
       </c>
       <c r="E23" s="11">
-        <v>217018</v>
+        <v>217395</v>
       </c>
       <c r="F23" s="11">
-        <v>217395</v>
+        <v>216611</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="2"/>
-        <v>377</v>
+        <v>-784</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="3"/>
-        <v>1.7371830908035069E-3</v>
+        <v>-3.6063386922422502E-3</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J23" s="14">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K23" s="12">
         <f t="shared" si="0"/>
-        <v>1616</v>
+        <v>832</v>
       </c>
       <c r="L23" s="13">
         <f t="shared" si="1"/>
-        <v>7.4891439852813324E-3</v>
+        <v>3.8557969033130579E-3</v>
       </c>
       <c r="M23" s="11">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N23" s="14">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O23" s="15">
         <f t="shared" si="8"/>
-        <v>3255</v>
+        <v>1773</v>
       </c>
       <c r="P23" s="13">
         <f t="shared" si="9"/>
-        <v>1.520033622863548E-2</v>
+        <v>8.2527299639727492E-3</v>
       </c>
       <c r="Q23" s="16">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R23" s="17">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2200,57 +2200,57 @@
         <v>172495</v>
       </c>
       <c r="D24" s="11">
-        <v>167333</v>
+        <v>168519</v>
       </c>
       <c r="E24" s="11">
-        <v>178399</v>
+        <v>178378</v>
       </c>
       <c r="F24" s="11">
-        <v>178378</v>
+        <v>179172</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="2"/>
-        <v>-21</v>
+        <v>794</v>
       </c>
       <c r="H24" s="13">
         <f t="shared" si="3"/>
-        <v>-1.1771366431423402E-4</v>
+        <v>4.4512215631973273E-3</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K24" s="12">
         <f t="shared" si="0"/>
-        <v>5883</v>
+        <v>6677</v>
       </c>
       <c r="L24" s="13">
         <f t="shared" si="1"/>
-        <v>3.4105336386561991E-2</v>
+        <v>3.870836835850322E-2</v>
       </c>
       <c r="M24" s="11">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N24" s="14">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O24" s="15">
         <f t="shared" si="8"/>
-        <v>11045</v>
+        <v>10653</v>
       </c>
       <c r="P24" s="13">
         <f t="shared" si="9"/>
-        <v>6.600610758188763E-2</v>
+        <v>6.3215423780107916E-2</v>
       </c>
       <c r="Q24" s="16">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R24" s="17">
         <f t="shared" si="11"/>
@@ -2268,37 +2268,37 @@
         <v>1773136</v>
       </c>
       <c r="D25" s="11">
-        <v>1742010</v>
+        <v>1735354</v>
       </c>
       <c r="E25" s="11">
-        <v>1807183</v>
+        <v>1820676</v>
       </c>
       <c r="F25" s="11">
-        <v>1820676</v>
+        <v>1826292</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="2"/>
-        <v>13493</v>
+        <v>5616</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" si="3"/>
-        <v>7.4663163608776895E-3</v>
+        <v>3.0845685888098995E-3</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K25" s="12">
         <f t="shared" si="0"/>
-        <v>47540</v>
+        <v>53156</v>
       </c>
       <c r="L25" s="13">
         <f t="shared" si="1"/>
-        <v>2.6811254184676114E-2</v>
+        <v>2.9978523925970668E-2</v>
       </c>
       <c r="M25" s="11">
         <f t="shared" si="6"/>
@@ -2306,23 +2306,23 @@
       </c>
       <c r="N25" s="14">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O25" s="15">
         <f t="shared" si="8"/>
-        <v>78666</v>
+        <v>90938</v>
       </c>
       <c r="P25" s="13">
         <f t="shared" si="9"/>
-        <v>4.5158179344550353E-2</v>
+        <v>5.2403140800090453E-2</v>
       </c>
       <c r="Q25" s="16">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" s="17">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2336,53 +2336,53 @@
         <v>218200</v>
       </c>
       <c r="D26" s="11">
-        <v>212666</v>
+        <v>212798</v>
       </c>
       <c r="E26" s="11">
-        <v>220988</v>
+        <v>222998</v>
       </c>
       <c r="F26" s="11">
-        <v>222998</v>
+        <v>221299</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="2"/>
-        <v>2010</v>
+        <v>-1699</v>
       </c>
       <c r="H26" s="13">
         <f t="shared" si="3"/>
-        <v>9.0955164986334935E-3</v>
+        <v>-7.618902411680839E-3</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="K26" s="12">
         <f t="shared" si="0"/>
-        <v>4798</v>
+        <v>3099</v>
       </c>
       <c r="L26" s="13">
         <f t="shared" si="1"/>
-        <v>2.1989000916590173E-2</v>
+        <v>1.4202566452795606E-2</v>
       </c>
       <c r="M26" s="11">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N26" s="14">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="O26" s="15">
         <f t="shared" si="8"/>
-        <v>10332</v>
+        <v>8501</v>
       </c>
       <c r="P26" s="13">
         <f t="shared" si="9"/>
-        <v>4.8583224398822678E-2</v>
+        <v>3.9948683728230572E-2</v>
       </c>
       <c r="Q26" s="16">
         <f t="shared" si="10"/>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="R26" s="17">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2404,61 +2404,61 @@
         <v>628792</v>
       </c>
       <c r="D27" s="11">
-        <v>613712</v>
+        <v>616226</v>
       </c>
       <c r="E27" s="11">
-        <v>634127</v>
+        <v>637925</v>
       </c>
       <c r="F27" s="11">
-        <v>637925</v>
+        <v>637791</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="2"/>
-        <v>3798</v>
+        <v>-134</v>
       </c>
       <c r="H27" s="13">
         <f t="shared" si="3"/>
-        <v>5.9893365209178206E-3</v>
+        <v>-2.1005604107060538E-4</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K27" s="12">
         <f t="shared" si="0"/>
-        <v>9133</v>
+        <v>8999</v>
       </c>
       <c r="L27" s="13">
         <f t="shared" si="1"/>
-        <v>1.4524675886461669E-2</v>
+        <v>1.4311568849476375E-2</v>
       </c>
       <c r="M27" s="11">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N27" s="14">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O27" s="15">
         <f t="shared" si="8"/>
-        <v>24213</v>
+        <v>21565</v>
       </c>
       <c r="P27" s="13">
         <f t="shared" si="9"/>
-        <v>3.9453359230388285E-2</v>
+        <v>3.4995277706555639E-2</v>
       </c>
       <c r="Q27" s="16">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R27" s="17">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2472,57 +2472,57 @@
         <v>662609</v>
       </c>
       <c r="D28" s="11">
-        <v>645716</v>
+        <v>646893</v>
       </c>
       <c r="E28" s="11">
-        <v>676216</v>
+        <v>681441</v>
       </c>
       <c r="F28" s="11">
-        <v>681441</v>
+        <v>682969</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="2"/>
-        <v>5225</v>
+        <v>1528</v>
       </c>
       <c r="H28" s="13">
         <f t="shared" si="3"/>
-        <v>7.7268210157701578E-3</v>
+        <v>2.2423071109605175E-3</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K28" s="12">
         <f t="shared" si="0"/>
-        <v>18832</v>
+        <v>20360</v>
       </c>
       <c r="L28" s="13">
         <f t="shared" si="1"/>
-        <v>2.8420984321070097E-2</v>
+        <v>3.0727020007274231E-2</v>
       </c>
       <c r="M28" s="11">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N28" s="14">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O28" s="15">
         <f t="shared" si="8"/>
-        <v>35725</v>
+        <v>36076</v>
       </c>
       <c r="P28" s="13">
         <f t="shared" si="9"/>
-        <v>5.5326180549963189E-2</v>
+        <v>5.5768110027469842E-2</v>
       </c>
       <c r="Q28" s="16">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R28" s="17">
         <f t="shared" si="11"/>
@@ -2540,41 +2540,41 @@
         <v>468732</v>
       </c>
       <c r="D29" s="11">
-        <v>445823</v>
+        <v>453929</v>
       </c>
       <c r="E29" s="11">
-        <v>487185</v>
+        <v>490183</v>
       </c>
       <c r="F29" s="11">
-        <v>490183</v>
+        <v>491986</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="2"/>
-        <v>2998</v>
+        <v>1803</v>
       </c>
       <c r="H29" s="13">
         <f t="shared" si="3"/>
-        <v>6.1537198394860937E-3</v>
+        <v>3.6782181348598009E-3</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K29" s="12">
         <f t="shared" si="0"/>
-        <v>21451</v>
+        <v>23254</v>
       </c>
       <c r="L29" s="13">
         <f t="shared" si="1"/>
-        <v>4.576389066673503E-2</v>
+        <v>4.9610438374166899E-2</v>
       </c>
       <c r="M29" s="11">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N29" s="14">
         <f t="shared" si="7"/>
@@ -2582,15 +2582,15 @@
       </c>
       <c r="O29" s="15">
         <f t="shared" si="8"/>
-        <v>44360</v>
+        <v>38057</v>
       </c>
       <c r="P29" s="13">
         <f t="shared" si="9"/>
-        <v>9.9501371620575929E-2</v>
+        <v>8.3839102590933745E-2</v>
       </c>
       <c r="Q29" s="16">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R29" s="17">
         <f t="shared" si="11"/>
@@ -2608,41 +2608,41 @@
         <v>461059</v>
       </c>
       <c r="D30" s="11">
-        <v>458029</v>
+        <v>458772</v>
       </c>
       <c r="E30" s="11">
-        <v>464403</v>
+        <v>471834</v>
       </c>
       <c r="F30" s="11">
-        <v>471834</v>
+        <v>472317</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="2"/>
-        <v>7431</v>
+        <v>483</v>
       </c>
       <c r="H30" s="13">
         <f t="shared" si="3"/>
-        <v>1.6001188622812412E-2</v>
+        <v>1.0236651025572474E-3</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J30" s="14">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K30" s="12">
         <f t="shared" si="0"/>
-        <v>10775</v>
+        <v>11258</v>
       </c>
       <c r="L30" s="13">
         <f t="shared" si="1"/>
-        <v>2.3370110983626846E-2</v>
+        <v>2.4417699253240999E-2</v>
       </c>
       <c r="M30" s="11">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N30" s="14">
         <f t="shared" si="7"/>
@@ -2650,15 +2650,15 @@
       </c>
       <c r="O30" s="15">
         <f t="shared" si="8"/>
-        <v>13805</v>
+        <v>13545</v>
       </c>
       <c r="P30" s="13">
         <f t="shared" si="9"/>
-        <v>3.014001296861113E-2</v>
+        <v>2.9524469671209141E-2</v>
       </c>
       <c r="Q30" s="16">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R30" s="17">
         <f t="shared" si="11"/>
@@ -2676,61 +2676,61 @@
         <v>598307</v>
       </c>
       <c r="D31" s="11">
-        <v>599919</v>
+        <v>593724</v>
       </c>
       <c r="E31" s="11">
-        <v>610874</v>
+        <v>619013</v>
       </c>
       <c r="F31" s="11">
-        <v>619013</v>
+        <v>615722</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="2"/>
-        <v>8139</v>
+        <v>-3291</v>
       </c>
       <c r="H31" s="13">
         <f t="shared" si="3"/>
-        <v>1.332353316723256E-2</v>
+        <v>-5.3165280858398223E-3</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="J31" s="14">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="K31" s="12">
         <f t="shared" si="0"/>
-        <v>20706</v>
+        <v>17415</v>
       </c>
       <c r="L31" s="13">
         <f t="shared" si="1"/>
-        <v>3.4607651255960548E-2</v>
+        <v>2.9107130620233512E-2</v>
       </c>
       <c r="M31" s="11">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N31" s="14">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O31" s="15">
         <f t="shared" si="8"/>
-        <v>19094</v>
+        <v>21998</v>
       </c>
       <c r="P31" s="13">
         <f t="shared" si="9"/>
-        <v>3.1827630063391954E-2</v>
+        <v>3.7050885596674465E-2</v>
       </c>
       <c r="Q31" s="16">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="R31" s="17">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2744,41 +2744,41 @@
         <v>607801</v>
       </c>
       <c r="D32" s="11">
-        <v>623828</v>
+        <v>622731</v>
       </c>
       <c r="E32" s="11">
-        <v>628318</v>
+        <v>634084</v>
       </c>
       <c r="F32" s="11">
-        <v>634084</v>
+        <v>633871</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="2"/>
-        <v>5766</v>
+        <v>-213</v>
       </c>
       <c r="H32" s="13">
         <f t="shared" si="3"/>
-        <v>9.1768817700590422E-3</v>
+        <v>-3.3591763867246716E-4</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J32" s="14">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K32" s="12">
         <f t="shared" si="0"/>
-        <v>26283</v>
+        <v>26070</v>
       </c>
       <c r="L32" s="13">
         <f t="shared" si="1"/>
-        <v>4.3242771894090426E-2</v>
+        <v>4.2892328245593525E-2</v>
       </c>
       <c r="M32" s="11">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N32" s="14">
         <f t="shared" si="7"/>
@@ -2786,19 +2786,19 @@
       </c>
       <c r="O32" s="15">
         <f t="shared" si="8"/>
-        <v>10256</v>
+        <v>11140</v>
       </c>
       <c r="P32" s="13">
         <f t="shared" si="9"/>
-        <v>1.6440429092634545E-2</v>
+        <v>1.7888944022378839E-2</v>
       </c>
       <c r="Q32" s="16">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R32" s="17">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2812,57 +2812,57 @@
         <v>236579</v>
       </c>
       <c r="D33" s="11">
-        <v>219759</v>
+        <v>220036</v>
       </c>
       <c r="E33" s="11">
-        <v>240999</v>
+        <v>243760</v>
       </c>
       <c r="F33" s="11">
-        <v>243760</v>
+        <v>244054</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="2"/>
-        <v>2761</v>
+        <v>294</v>
       </c>
       <c r="H33" s="13">
         <f t="shared" si="3"/>
-        <v>1.1456479072527337E-2</v>
+        <v>1.2061043649491676E-3</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J33" s="14">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K33" s="12">
         <f t="shared" si="0"/>
-        <v>7181</v>
+        <v>7475</v>
       </c>
       <c r="L33" s="13">
         <f t="shared" si="1"/>
-        <v>3.035349714048996E-2</v>
+        <v>3.1596210990831874E-2</v>
       </c>
       <c r="M33" s="11">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N33" s="14">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O33" s="15">
         <f t="shared" si="8"/>
-        <v>24001</v>
+        <v>24018</v>
       </c>
       <c r="P33" s="13">
         <f t="shared" si="9"/>
-        <v>0.10921509471739488</v>
+        <v>0.10915486556745257</v>
       </c>
       <c r="Q33" s="16">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R33" s="17">
         <f t="shared" si="11"/>
@@ -2880,53 +2880,53 @@
         <v>700924</v>
       </c>
       <c r="D34" s="11">
-        <v>714063</v>
+        <v>711335</v>
       </c>
       <c r="E34" s="11">
-        <v>711372</v>
+        <v>714071</v>
       </c>
       <c r="F34" s="11">
-        <v>714071</v>
+        <v>711835</v>
       </c>
       <c r="G34" s="12">
         <f t="shared" si="2"/>
-        <v>2699</v>
+        <v>-2236</v>
       </c>
       <c r="H34" s="13">
         <f t="shared" si="3"/>
-        <v>3.7940767980746415E-3</v>
+        <v>-3.1313412811890817E-3</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J34" s="14">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K34" s="12">
         <f t="shared" si="0"/>
-        <v>13147</v>
+        <v>10911</v>
       </c>
       <c r="L34" s="13">
         <f t="shared" si="1"/>
-        <v>1.8756669767335588E-2</v>
+        <v>1.5566594951806456E-2</v>
       </c>
       <c r="M34" s="11">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N34" s="14">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O34" s="15">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="P34" s="13">
         <f t="shared" si="9"/>
-        <v>1.1203493249123397E-5</v>
+        <v>7.0290369516468054E-4</v>
       </c>
       <c r="Q34" s="16">
         <f t="shared" si="10"/>
@@ -2948,37 +2948,37 @@
         <v>109884</v>
       </c>
       <c r="D35" s="11">
-        <v>105153</v>
+        <v>105946</v>
       </c>
       <c r="E35" s="11">
-        <v>112119</v>
+        <v>113139</v>
       </c>
       <c r="F35" s="11">
-        <v>113139</v>
+        <v>113760</v>
       </c>
       <c r="G35" s="12">
         <f t="shared" si="2"/>
-        <v>1020</v>
+        <v>621</v>
       </c>
       <c r="H35" s="13">
         <f t="shared" si="3"/>
-        <v>9.097476788055614E-3</v>
+        <v>5.4888234826186988E-3</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J35" s="14">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K35" s="12">
         <f t="shared" si="0"/>
-        <v>3255</v>
+        <v>3876</v>
       </c>
       <c r="L35" s="13">
         <f t="shared" si="1"/>
-        <v>2.9622146991372666E-2</v>
+        <v>3.5273561210003246E-2</v>
       </c>
       <c r="M35" s="11">
         <f t="shared" si="6"/>
@@ -2986,19 +2986,19 @@
       </c>
       <c r="N35" s="14">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O35" s="15">
         <f t="shared" si="8"/>
-        <v>7986</v>
+        <v>7814</v>
       </c>
       <c r="P35" s="13">
         <f t="shared" si="9"/>
-        <v>7.5946477989215611E-2</v>
+        <v>7.3754554206860057E-2</v>
       </c>
       <c r="Q35" s="16">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R35" s="17">
         <f t="shared" si="11"/>
@@ -3016,21 +3016,21 @@
         <v>750470</v>
       </c>
       <c r="D36" s="11">
-        <v>735745</v>
+        <v>735652</v>
       </c>
       <c r="E36" s="11">
-        <v>753421</v>
+        <v>753205</v>
       </c>
       <c r="F36" s="11">
-        <v>753205</v>
+        <v>748704</v>
       </c>
       <c r="G36" s="12">
         <f t="shared" si="2"/>
-        <v>-216</v>
+        <v>-4501</v>
       </c>
       <c r="H36" s="13">
         <f t="shared" si="3"/>
-        <v>-2.8669230085176522E-4</v>
+        <v>-5.9757967618377927E-3</v>
       </c>
       <c r="I36" s="11">
         <f t="shared" si="4"/>
@@ -3042,15 +3042,15 @@
       </c>
       <c r="K36" s="12">
         <f t="shared" si="0"/>
-        <v>2735</v>
+        <v>-1766</v>
       </c>
       <c r="L36" s="13">
         <f t="shared" si="1"/>
-        <v>3.6443828534118428E-3</v>
+        <v>-2.3531919996802042E-3</v>
       </c>
       <c r="M36" s="11">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N36" s="14">
         <f t="shared" si="7"/>
@@ -3058,19 +3058,19 @@
       </c>
       <c r="O36" s="15">
         <f t="shared" si="8"/>
-        <v>17460</v>
+        <v>13052</v>
       </c>
       <c r="P36" s="13">
         <f t="shared" si="9"/>
-        <v>2.3731048121292009E-2</v>
+        <v>1.774208457259685E-2</v>
       </c>
       <c r="Q36" s="16">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R36" s="17">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -3084,37 +3084,37 @@
         <v>414439</v>
       </c>
       <c r="D37" s="11">
-        <v>400048</v>
+        <v>401534</v>
       </c>
       <c r="E37" s="11">
-        <v>420905</v>
+        <v>421696</v>
       </c>
       <c r="F37" s="11">
-        <v>421696</v>
+        <v>421816</v>
       </c>
       <c r="G37" s="12">
         <f t="shared" si="2"/>
-        <v>791</v>
+        <v>120</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" si="3"/>
-        <v>1.8792839239258896E-3</v>
+        <v>2.8456518439834433E-4</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J37" s="14">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K37" s="12">
         <f t="shared" si="0"/>
-        <v>7257</v>
+        <v>7377</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="1"/>
-        <v>1.7510417697176095E-2</v>
+        <v>1.7799965736815304E-2</v>
       </c>
       <c r="M37" s="11">
         <f t="shared" si="6"/>
@@ -3126,19 +3126,19 @@
       </c>
       <c r="O37" s="15">
         <f t="shared" si="8"/>
-        <v>21648</v>
+        <v>20282</v>
       </c>
       <c r="P37" s="13">
         <f t="shared" si="9"/>
-        <v>5.41135063792344E-2</v>
+        <v>5.0511289205895427E-2</v>
       </c>
       <c r="Q37" s="16">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R37" s="17">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -3152,61 +3152,61 @@
         <v>194743</v>
       </c>
       <c r="D38" s="11">
-        <v>196703</v>
+        <v>196069</v>
       </c>
       <c r="E38" s="11">
-        <v>195650</v>
+        <v>197131</v>
       </c>
       <c r="F38" s="11">
-        <v>197131</v>
+        <v>197853</v>
       </c>
       <c r="G38" s="12">
         <f t="shared" si="2"/>
-        <v>1481</v>
+        <v>722</v>
       </c>
       <c r="H38" s="13">
         <f t="shared" si="3"/>
-        <v>7.5696396626629969E-3</v>
+        <v>3.6625391237299354E-3</v>
       </c>
       <c r="I38" s="11">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J38" s="14">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K38" s="12">
         <f t="shared" si="0"/>
-        <v>2388</v>
+        <v>3110</v>
       </c>
       <c r="L38" s="13">
         <f t="shared" si="1"/>
-        <v>1.2262314948419117E-2</v>
+        <v>1.5969765280395176E-2</v>
       </c>
       <c r="M38" s="11">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N38" s="14">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O38" s="15">
         <f>F38-D38</f>
-        <v>428</v>
+        <v>1784</v>
       </c>
       <c r="P38" s="13">
         <f>F38/D38-1</f>
-        <v>2.1758692038249539E-3</v>
+        <v>9.0988376540912519E-3</v>
       </c>
       <c r="Q38" s="16">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R38" s="17">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -3223,43 +3223,43 @@
       </c>
       <c r="D39" s="29">
         <f>SUM(D7:D38)</f>
-        <v>21005852</v>
+        <v>21011342</v>
       </c>
       <c r="E39" s="29">
         <f>SUM(E7:E38)</f>
-        <v>21660469</v>
+        <v>21796280</v>
       </c>
       <c r="F39" s="29">
         <f>SUM(F7:F38)</f>
-        <v>21796280</v>
+        <v>21820291</v>
       </c>
       <c r="G39" s="30">
         <f t="shared" si="2"/>
-        <v>135811</v>
+        <v>24011</v>
       </c>
       <c r="H39" s="31">
         <f t="shared" si="3"/>
-        <v>6.2699935075274382E-3</v>
+        <v>1.1016099995044826E-3</v>
       </c>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
       <c r="K39" s="30">
         <f t="shared" si="0"/>
-        <v>423384</v>
+        <v>447395</v>
       </c>
       <c r="L39" s="31">
         <f t="shared" si="1"/>
-        <v>1.9809388489047119E-2</v>
+        <v>2.0932820708995159E-2</v>
       </c>
       <c r="M39" s="32"/>
       <c r="N39" s="33"/>
       <c r="O39" s="34">
         <f>F39-D39</f>
-        <v>790428</v>
+        <v>808949</v>
       </c>
       <c r="P39" s="31">
         <f>F39/D39-1</f>
-        <v>3.7628942639412966E-2</v>
+        <v>3.8500586968695183E-2</v>
       </c>
       <c r="Q39" s="35"/>
       <c r="R39" s="36"/>

--- a/Tabulados/TAentidadrank_delegacion.xlsx
+++ b/Tabulados/TAentidadrank_delegacion.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iieg\OneDrive\Escritorio\Susana\Actualizaciones pagina\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F398B61-A7A8-4893-9E7C-7C889D9797BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="8520" xr2:uid="{47DF7B05-4717-40F8-8C0D-8FC4D7D67CE4}"/>
   </bookViews>
   <sheets>
-    <sheet name="ta_abril" sheetId="1" r:id="rId1"/>
+    <sheet name="ta_mayo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,24 +57,24 @@
   </si>
   <si>
     <t>2022
-Abril</t>
-  </si>
-  <si>
-    <t>2023
-Marzo</t>
+Mayo</t>
   </si>
   <si>
     <t>2023
 Abril</t>
   </si>
   <si>
-    <t>Abril 2023 respecto a Marzo 2023</t>
-  </si>
-  <si>
-    <t>Abril 2023 respecto a Diciembre 2022</t>
-  </si>
-  <si>
-    <t>Abril 2023 respecto a Abril 2022</t>
+    <t>2023
+Mayo</t>
+  </si>
+  <si>
+    <t>Mayo 2023 respecto a Abril 2023</t>
+  </si>
+  <si>
+    <t>Mayo 2023 respecto a Diciembre 2022</t>
+  </si>
+  <si>
+    <t>Mayo 2023 respecto a Mayo 2022</t>
   </si>
   <si>
     <t>Variación Absoluta</t>
@@ -213,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -437,14 +447,14 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -463,7 +473,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,20 +485,19 @@
     <xf numFmtId="3" fontId="6" fillId="4" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,16 +509,16 @@
     <xf numFmtId="3" fontId="4" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -528,14 +537,12 @@
     <xf numFmtId="10" fontId="6" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -543,7 +550,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,7 +568,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{017573E4-DB52-44F5-A140-85942021D26F}"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -594,7 +601,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -606,7 +613,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -653,6 +660,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -688,6 +712,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -839,33 +880,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2C411D-B800-4C78-83F4-72375986C668}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
-    <col min="11" max="12" width="11.77734375" customWidth="1"/>
-    <col min="13" max="14" width="14.88671875" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" customWidth="1"/>
-    <col min="16" max="16" width="9.88671875" customWidth="1"/>
-    <col min="17" max="18" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="18" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,7 +928,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -909,7 +950,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -931,7 +972,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -951,51 +992,51 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46" t="s">
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-    </row>
-    <row r="6" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+    </row>
+    <row r="6" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1033,7 +1074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -1044,64 +1085,64 @@
         <v>342215</v>
       </c>
       <c r="D7" s="11">
-        <v>341747</v>
+        <v>340347</v>
       </c>
       <c r="E7" s="11">
-        <v>352010</v>
+        <v>350248</v>
       </c>
       <c r="F7" s="11">
-        <v>350248</v>
+        <v>351682</v>
       </c>
       <c r="G7" s="12">
         <f>F7-E7</f>
-        <v>-1762</v>
+        <v>1434</v>
       </c>
       <c r="H7" s="13">
         <f>F7/E7-1</f>
-        <v>-5.0055396153518839E-3</v>
+        <v>4.0942417943856668E-3</v>
       </c>
       <c r="I7" s="11">
         <f>_xlfn.RANK.EQ(G7,$G$7:$G$38)</f>
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J7" s="14">
         <f>_xlfn.RANK.EQ(H7,$H$7:$H$38)</f>
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K7" s="12">
-        <f t="shared" ref="K7:K39" si="0">F7-C7</f>
-        <v>8033</v>
+        <f>F7-C7</f>
+        <v>9467</v>
       </c>
       <c r="L7" s="13">
-        <f t="shared" ref="L7:L39" si="1">F7/C7-1</f>
-        <v>2.3473547331356093E-2</v>
+        <f t="shared" ref="L7:L39" si="0">F7/C7-1</f>
+        <v>2.7663895504288272E-2</v>
       </c>
       <c r="M7" s="11">
         <f>_xlfn.RANK.EQ(K7,$K$7:$K$38)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N7" s="14">
         <f>_xlfn.RANK.EQ(L7,$L$7:$L$38)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O7" s="15">
         <f>F7-D7</f>
-        <v>8501</v>
+        <v>11335</v>
       </c>
       <c r="P7" s="13">
         <f>F7/D7-1</f>
-        <v>2.4875126921377611E-2</v>
+        <v>3.3304245373104502E-2</v>
       </c>
       <c r="Q7" s="16">
         <f>_xlfn.RANK.EQ(O7,$O$7:$O$38)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R7" s="17">
         <f>_xlfn.RANK.EQ(P7,$P$7:$P$38)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1112,64 +1153,64 @@
         <v>1042740</v>
       </c>
       <c r="D8" s="11">
-        <v>1035016</v>
+        <v>1036044</v>
       </c>
       <c r="E8" s="11">
-        <v>1074408</v>
+        <v>1075081</v>
       </c>
       <c r="F8" s="11">
-        <v>1075081</v>
+        <v>1075051</v>
       </c>
       <c r="G8" s="12">
-        <f t="shared" ref="G8:G39" si="2">F8-E8</f>
-        <v>673</v>
+        <f t="shared" ref="G8:G39" si="1">F8-E8</f>
+        <v>-30</v>
       </c>
       <c r="H8" s="13">
-        <f t="shared" ref="H8:H39" si="3">F8/E8-1</f>
-        <v>6.2639146395038203E-4</v>
+        <f t="shared" ref="H8:H39" si="2">F8/E8-1</f>
+        <v>-2.7904874144391023E-5</v>
       </c>
       <c r="I8" s="11">
-        <f t="shared" ref="I8:I38" si="4">_xlfn.RANK.EQ(G8,$G$7:$G$38)</f>
-        <v>12</v>
+        <f t="shared" ref="I8:I38" si="3">_xlfn.RANK.EQ(G8,$G$7:$G$38)</f>
+        <v>22</v>
       </c>
       <c r="J8" s="14">
-        <f t="shared" ref="J8:J38" si="5">_xlfn.RANK.EQ(H8,$H$7:$H$38)</f>
-        <v>19</v>
+        <f t="shared" ref="J8:J38" si="4">_xlfn.RANK.EQ(H8,$H$7:$H$38)</f>
+        <v>22</v>
       </c>
       <c r="K8" s="12">
+        <f t="shared" ref="K8:K39" si="5">F8-C8</f>
+        <v>32311</v>
+      </c>
+      <c r="L8" s="13">
         <f t="shared" si="0"/>
-        <v>32341</v>
-      </c>
-      <c r="L8" s="13">
-        <f t="shared" si="1"/>
-        <v>3.1015401730057457E-2</v>
+        <v>3.0986631375031104E-2</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" ref="M8:M38" si="6">_xlfn.RANK.EQ(K8,$K$7:$K$38)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N8" s="14">
         <f t="shared" ref="N8:N38" si="7">_xlfn.RANK.EQ(L8,$L$7:$L$38)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O8" s="15">
         <f t="shared" ref="O8:O37" si="8">F8-D8</f>
-        <v>40065</v>
+        <v>39007</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" ref="P8:P37" si="9">F8/D8-1</f>
-        <v>3.8709546519087645E-2</v>
+        <v>3.76499453691157E-2</v>
       </c>
       <c r="Q8" s="16">
         <f t="shared" ref="Q8:Q38" si="10">_xlfn.RANK.EQ(O8,$O$7:$O$38)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R8" s="17">
         <f t="shared" ref="R8:R38" si="11">_xlfn.RANK.EQ(P8,$P$7:$P$38)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1180,53 +1221,53 @@
         <v>210207</v>
       </c>
       <c r="D9" s="11">
-        <v>201108</v>
+        <v>205155</v>
       </c>
       <c r="E9" s="11">
-        <v>218251</v>
+        <v>218895</v>
       </c>
       <c r="F9" s="11">
-        <v>218895</v>
+        <v>222528</v>
       </c>
       <c r="G9" s="12">
+        <f t="shared" si="1"/>
+        <v>3633</v>
+      </c>
+      <c r="H9" s="13">
         <f t="shared" si="2"/>
-        <v>644</v>
-      </c>
-      <c r="H9" s="13">
+        <v>1.6596998560953979E-2</v>
+      </c>
+      <c r="I9" s="11">
         <f t="shared" si="3"/>
-        <v>2.9507310390330943E-3</v>
-      </c>
-      <c r="I9" s="11">
+        <v>7</v>
+      </c>
+      <c r="J9" s="14">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="J9" s="14">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="K9" s="12">
+        <v>12321</v>
+      </c>
+      <c r="L9" s="13">
         <f t="shared" si="0"/>
-        <v>8688</v>
-      </c>
-      <c r="L9" s="13">
-        <f t="shared" si="1"/>
-        <v>4.1330688321511655E-2</v>
+        <v>5.8613652257060833E-2</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N9" s="14">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" si="8"/>
-        <v>17787</v>
+        <v>17373</v>
       </c>
       <c r="P9" s="13">
         <f t="shared" si="9"/>
-        <v>8.8445014619010776E-2</v>
+        <v>8.4682313372815621E-2</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="10"/>
@@ -1234,10 +1275,10 @@
       </c>
       <c r="R9" s="17">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1248,53 +1289,53 @@
         <v>137105</v>
       </c>
       <c r="D10" s="11">
-        <v>133270</v>
+        <v>133768</v>
       </c>
       <c r="E10" s="11">
-        <v>139841</v>
+        <v>140182</v>
       </c>
       <c r="F10" s="11">
-        <v>140182</v>
+        <v>139905</v>
       </c>
       <c r="G10" s="12">
+        <f t="shared" si="1"/>
+        <v>-277</v>
+      </c>
+      <c r="H10" s="13">
         <f t="shared" si="2"/>
-        <v>341</v>
-      </c>
-      <c r="H10" s="13">
+        <v>-1.9760026251587348E-3</v>
+      </c>
+      <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>2.4384837064952425E-3</v>
-      </c>
-      <c r="I10" s="11">
+        <v>26</v>
+      </c>
+      <c r="J10" s="14">
         <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="J10" s="14">
+        <v>26</v>
+      </c>
+      <c r="K10" s="12">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="K10" s="12">
+        <v>2800</v>
+      </c>
+      <c r="L10" s="13">
         <f t="shared" si="0"/>
-        <v>3077</v>
-      </c>
-      <c r="L10" s="13">
-        <f t="shared" si="1"/>
-        <v>2.2442653440793547E-2</v>
+        <v>2.0422304073520303E-2</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N10" s="14">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" si="8"/>
-        <v>6912</v>
+        <v>6137</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" si="9"/>
-        <v>5.1864635701958539E-2</v>
+        <v>4.5877937922373047E-2</v>
       </c>
       <c r="Q10" s="16">
         <f t="shared" si="10"/>
@@ -1302,10 +1343,10 @@
       </c>
       <c r="R10" s="17">
         <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
@@ -1316,64 +1357,64 @@
         <v>241142</v>
       </c>
       <c r="D11" s="11">
-        <v>237801</v>
+        <v>237487</v>
       </c>
       <c r="E11" s="11">
-        <v>243734</v>
+        <v>245920</v>
       </c>
       <c r="F11" s="11">
-        <v>245920</v>
+        <v>243926</v>
       </c>
       <c r="G11" s="12">
         <f>F11-E11</f>
-        <v>2186</v>
+        <v>-1994</v>
       </c>
       <c r="H11" s="13">
+        <f t="shared" si="2"/>
+        <v>-8.1083279115159446E-3</v>
+      </c>
+      <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>8.9687938490321528E-3</v>
-      </c>
-      <c r="I11" s="11">
+        <v>29</v>
+      </c>
+      <c r="J11" s="14">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="J11" s="14">
+        <v>31</v>
+      </c>
+      <c r="K11" s="12">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="12">
+        <v>2784</v>
+      </c>
+      <c r="L11" s="13">
         <f t="shared" si="0"/>
-        <v>4778</v>
-      </c>
-      <c r="L11" s="13">
-        <f t="shared" si="1"/>
-        <v>1.9814051471746863E-2</v>
+        <v>1.1545064733642363E-2</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N11" s="14">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O11" s="15">
         <f t="shared" si="8"/>
-        <v>8119</v>
+        <v>6439</v>
       </c>
       <c r="P11" s="13">
         <f t="shared" si="9"/>
-        <v>3.4141992674547206E-2</v>
+        <v>2.7113063030818507E-2</v>
       </c>
       <c r="Q11" s="16">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R11" s="17">
         <f t="shared" si="11"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -1384,41 +1425,41 @@
         <v>962905</v>
       </c>
       <c r="D12" s="11">
-        <v>959575</v>
+        <v>958691</v>
       </c>
       <c r="E12" s="11">
-        <v>987450</v>
+        <v>986550</v>
       </c>
       <c r="F12" s="11">
-        <v>986550</v>
+        <v>988994</v>
       </c>
       <c r="G12" s="12">
+        <f t="shared" si="1"/>
+        <v>2444</v>
+      </c>
+      <c r="H12" s="13">
         <f t="shared" si="2"/>
-        <v>-900</v>
-      </c>
-      <c r="H12" s="13">
+        <v>2.4773199533729695E-3</v>
+      </c>
+      <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>-9.114385538507852E-4</v>
-      </c>
-      <c r="I12" s="11">
+        <v>9</v>
+      </c>
+      <c r="J12" s="14">
         <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="J12" s="14">
+        <v>16</v>
+      </c>
+      <c r="K12" s="12">
         <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="K12" s="12">
+        <v>26089</v>
+      </c>
+      <c r="L12" s="13">
         <f t="shared" si="0"/>
-        <v>23645</v>
-      </c>
-      <c r="L12" s="13">
-        <f t="shared" si="1"/>
-        <v>2.455590115328099E-2</v>
+        <v>2.7094053930553974E-2</v>
       </c>
       <c r="M12" s="11">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N12" s="14">
         <f t="shared" si="7"/>
@@ -1426,11 +1467,11 @@
       </c>
       <c r="O12" s="15">
         <f t="shared" si="8"/>
-        <v>26975</v>
+        <v>30303</v>
       </c>
       <c r="P12" s="13">
         <f t="shared" si="9"/>
-        <v>2.8111403485918229E-2</v>
+        <v>3.1608724813313227E-2</v>
       </c>
       <c r="Q12" s="16">
         <f t="shared" si="10"/>
@@ -1441,7 +1482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
@@ -1452,53 +1493,53 @@
         <v>3394982</v>
       </c>
       <c r="D13" s="11">
-        <v>3326256</v>
+        <v>3326061</v>
       </c>
       <c r="E13" s="11">
-        <v>3411513</v>
+        <v>3421435</v>
       </c>
       <c r="F13" s="11">
-        <v>3421435</v>
+        <v>3434727</v>
       </c>
       <c r="G13" s="12">
+        <f t="shared" si="1"/>
+        <v>13292</v>
+      </c>
+      <c r="H13" s="13">
         <f t="shared" si="2"/>
-        <v>9922</v>
-      </c>
-      <c r="H13" s="13">
+        <v>3.8849196316750323E-3</v>
+      </c>
+      <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>2.9083869825499153E-3</v>
-      </c>
-      <c r="I13" s="11">
+        <v>2</v>
+      </c>
+      <c r="J13" s="14">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="14">
+        <v>12</v>
+      </c>
+      <c r="K13" s="12">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="K13" s="12">
+        <v>39745</v>
+      </c>
+      <c r="L13" s="13">
         <f t="shared" si="0"/>
-        <v>26453</v>
-      </c>
-      <c r="L13" s="13">
-        <f t="shared" si="1"/>
-        <v>7.7917938887452909E-3</v>
+        <v>1.1706984013464483E-2</v>
       </c>
       <c r="M13" s="11">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" s="14">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O13" s="15">
         <f t="shared" si="8"/>
-        <v>95179</v>
+        <v>108666</v>
       </c>
       <c r="P13" s="13">
         <f t="shared" si="9"/>
-        <v>2.8614454209176854E-2</v>
+        <v>3.2671078491945948E-2</v>
       </c>
       <c r="Q13" s="16">
         <f t="shared" si="10"/>
@@ -1509,7 +1550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
@@ -1520,64 +1561,64 @@
         <v>825159</v>
       </c>
       <c r="D14" s="11">
-        <v>814500</v>
+        <v>814132</v>
       </c>
       <c r="E14" s="11">
-        <v>846629</v>
+        <v>850911</v>
       </c>
       <c r="F14" s="11">
-        <v>850911</v>
+        <v>854521</v>
       </c>
       <c r="G14" s="12">
+        <f t="shared" si="1"/>
+        <v>3610</v>
+      </c>
+      <c r="H14" s="13">
         <f t="shared" si="2"/>
-        <v>4282</v>
-      </c>
-      <c r="H14" s="13">
+        <v>4.2425118490652114E-3</v>
+      </c>
+      <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>5.0577053231108948E-3</v>
-      </c>
-      <c r="I14" s="11">
+        <v>8</v>
+      </c>
+      <c r="J14" s="14">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J14" s="14">
+        <v>10</v>
+      </c>
+      <c r="K14" s="12">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="K14" s="12">
+        <v>29362</v>
+      </c>
+      <c r="L14" s="13">
         <f t="shared" si="0"/>
-        <v>25752</v>
-      </c>
-      <c r="L14" s="13">
-        <f t="shared" si="1"/>
-        <v>3.1208530719534E-2</v>
+        <v>3.5583445129968805E-2</v>
       </c>
       <c r="M14" s="11">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O14" s="15">
         <f t="shared" si="8"/>
-        <v>36411</v>
+        <v>40389</v>
       </c>
       <c r="P14" s="13">
         <f t="shared" si="9"/>
-        <v>4.470349907918969E-2</v>
+        <v>4.9609891270703033E-2</v>
       </c>
       <c r="Q14" s="16">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R14" s="17">
         <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -1588,64 +1629,64 @@
         <v>147281</v>
       </c>
       <c r="D15" s="11">
-        <v>142884</v>
+        <v>141632</v>
       </c>
       <c r="E15" s="11">
-        <v>149432</v>
+        <v>149935</v>
       </c>
       <c r="F15" s="11">
-        <v>149935</v>
+        <v>149841</v>
       </c>
       <c r="G15" s="12">
+        <f t="shared" si="1"/>
+        <v>-94</v>
+      </c>
+      <c r="H15" s="13">
         <f t="shared" si="2"/>
-        <v>503</v>
-      </c>
-      <c r="H15" s="13">
+        <v>-6.2693833994731385E-4</v>
+      </c>
+      <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>3.3660795545800148E-3</v>
-      </c>
-      <c r="I15" s="11">
+        <v>24</v>
+      </c>
+      <c r="J15" s="14">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="J15" s="14">
+        <v>25</v>
+      </c>
+      <c r="K15" s="12">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="K15" s="12">
+        <v>2560</v>
+      </c>
+      <c r="L15" s="13">
         <f t="shared" si="0"/>
-        <v>2654</v>
-      </c>
-      <c r="L15" s="13">
-        <f t="shared" si="1"/>
-        <v>1.8019975421133649E-2</v>
+        <v>1.7381739667710061E-2</v>
       </c>
       <c r="M15" s="11">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N15" s="14">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O15" s="15">
         <f t="shared" si="8"/>
-        <v>7051</v>
+        <v>8209</v>
       </c>
       <c r="P15" s="13">
         <f t="shared" si="9"/>
-        <v>4.9347722628146018E-2</v>
+        <v>5.7960065521915904E-2</v>
       </c>
       <c r="Q15" s="16">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R15" s="17">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
@@ -1656,64 +1697,64 @@
         <v>256778</v>
       </c>
       <c r="D16" s="11">
-        <v>258662</v>
+        <v>258276</v>
       </c>
       <c r="E16" s="11">
-        <v>260331</v>
+        <v>260824</v>
       </c>
       <c r="F16" s="11">
-        <v>260824</v>
+        <v>261209</v>
       </c>
       <c r="G16" s="12">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
+      <c r="H16" s="13">
         <f t="shared" si="2"/>
-        <v>493</v>
-      </c>
-      <c r="H16" s="13">
+        <v>1.4760911572555546E-3</v>
+      </c>
+      <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>1.8937429656860072E-3</v>
-      </c>
-      <c r="I16" s="11">
+        <v>20</v>
+      </c>
+      <c r="J16" s="14">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="J16" s="14">
+        <v>19</v>
+      </c>
+      <c r="K16" s="12">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="K16" s="12">
+        <v>4431</v>
+      </c>
+      <c r="L16" s="13">
         <f t="shared" si="0"/>
-        <v>4046</v>
-      </c>
-      <c r="L16" s="13">
-        <f t="shared" si="1"/>
-        <v>1.5756801595152137E-2</v>
+        <v>1.7256151227909022E-2</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16" s="14">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O16" s="15">
         <f t="shared" si="8"/>
-        <v>2162</v>
+        <v>2933</v>
       </c>
       <c r="P16" s="13">
         <f t="shared" si="9"/>
-        <v>8.3583982185244654E-3</v>
+        <v>1.1356068701698918E-2</v>
       </c>
       <c r="Q16" s="16">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R16" s="17">
         <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
@@ -1724,53 +1765,53 @@
         <v>1732700</v>
       </c>
       <c r="D17" s="11">
-        <v>1679022</v>
+        <v>1686619</v>
       </c>
       <c r="E17" s="11">
-        <v>1751101</v>
+        <v>1755514</v>
       </c>
       <c r="F17" s="11">
-        <v>1755514</v>
+        <v>1770513</v>
       </c>
       <c r="G17" s="12">
+        <f t="shared" si="1"/>
+        <v>14999</v>
+      </c>
+      <c r="H17" s="13">
         <f t="shared" si="2"/>
-        <v>4413</v>
-      </c>
-      <c r="H17" s="13">
+        <v>8.5439364197608114E-3</v>
+      </c>
+      <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>2.520128764702978E-3</v>
-      </c>
-      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+      <c r="J17" s="14">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J17" s="14">
+      <c r="K17" s="12">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="K17" s="12">
+        <v>37813</v>
+      </c>
+      <c r="L17" s="13">
         <f t="shared" si="0"/>
-        <v>22814</v>
-      </c>
-      <c r="L17" s="13">
-        <f t="shared" si="1"/>
-        <v>1.3166733998961178E-2</v>
+        <v>2.1823166156865081E-2</v>
       </c>
       <c r="M17" s="11">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N17" s="14">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="O17" s="15">
         <f t="shared" si="8"/>
-        <v>76492</v>
+        <v>83894</v>
       </c>
       <c r="P17" s="13">
         <f t="shared" si="9"/>
-        <v>4.5557473338645904E-2</v>
+        <v>4.9740931413674305E-2</v>
       </c>
       <c r="Q17" s="16">
         <f t="shared" si="10"/>
@@ -1778,10 +1819,10 @@
       </c>
       <c r="R17" s="17">
         <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
@@ -1792,64 +1833,64 @@
         <v>1041993</v>
       </c>
       <c r="D18" s="11">
-        <v>1035474</v>
+        <v>1035758</v>
       </c>
       <c r="E18" s="11">
-        <v>1069292</v>
+        <v>1072930</v>
       </c>
       <c r="F18" s="11">
-        <v>1072930</v>
+        <v>1078852</v>
       </c>
       <c r="G18" s="12">
+        <f t="shared" si="1"/>
+        <v>5922</v>
+      </c>
+      <c r="H18" s="13">
         <f t="shared" si="2"/>
-        <v>3638</v>
-      </c>
-      <c r="H18" s="13">
+        <v>5.5194653891679213E-3</v>
+      </c>
+      <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>3.4022512092113377E-3</v>
-      </c>
-      <c r="I18" s="11">
+        <v>4</v>
+      </c>
+      <c r="J18" s="14">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J18" s="14">
+        <v>6</v>
+      </c>
+      <c r="K18" s="12">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="K18" s="12">
+        <v>36859</v>
+      </c>
+      <c r="L18" s="13">
         <f t="shared" si="0"/>
-        <v>30937</v>
-      </c>
-      <c r="L18" s="13">
-        <f t="shared" si="1"/>
-        <v>2.9690218648301903E-2</v>
+        <v>3.5373558171696073E-2</v>
       </c>
       <c r="M18" s="11">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" s="14">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O18" s="15">
         <f t="shared" si="8"/>
-        <v>37456</v>
+        <v>43094</v>
       </c>
       <c r="P18" s="13">
         <f t="shared" si="9"/>
-        <v>3.617280588406846E-2</v>
+        <v>4.1606243929566578E-2</v>
       </c>
       <c r="Q18" s="16">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R18" s="17">
         <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
@@ -1860,41 +1901,41 @@
         <v>159520</v>
       </c>
       <c r="D19" s="11">
-        <v>150848</v>
+        <v>150869</v>
       </c>
       <c r="E19" s="11">
-        <v>158225</v>
+        <v>158324</v>
       </c>
       <c r="F19" s="11">
-        <v>158324</v>
+        <v>157429</v>
       </c>
       <c r="G19" s="12">
+        <f t="shared" si="1"/>
+        <v>-895</v>
+      </c>
+      <c r="H19" s="13">
         <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="H19" s="13">
+        <v>-5.6529648063464721E-3</v>
+      </c>
+      <c r="I19" s="11">
         <f t="shared" si="3"/>
-        <v>6.25691262442718E-4</v>
-      </c>
-      <c r="I19" s="11">
+        <v>28</v>
+      </c>
+      <c r="J19" s="14">
         <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="J19" s="14">
+        <v>30</v>
+      </c>
+      <c r="K19" s="12">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="K19" s="12">
+        <v>-2091</v>
+      </c>
+      <c r="L19" s="13">
         <f t="shared" si="0"/>
-        <v>-1196</v>
-      </c>
-      <c r="L19" s="13">
-        <f t="shared" si="1"/>
-        <v>-7.4974924774322549E-3</v>
+        <v>-1.310807422266802E-2</v>
       </c>
       <c r="M19" s="11">
         <f>_xlfn.RANK.EQ(K19,$K$7:$K$38)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N19" s="14">
         <f t="shared" si="7"/>
@@ -1902,11 +1943,11 @@
       </c>
       <c r="O19" s="15">
         <f t="shared" si="8"/>
-        <v>7476</v>
+        <v>6560</v>
       </c>
       <c r="P19" s="13">
         <f t="shared" si="9"/>
-        <v>4.9559821807382276E-2</v>
+        <v>4.34814309102598E-2</v>
       </c>
       <c r="Q19" s="16">
         <f t="shared" si="10"/>
@@ -1914,10 +1955,10 @@
       </c>
       <c r="R19" s="17">
         <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
@@ -1928,132 +1969,132 @@
         <v>256643</v>
       </c>
       <c r="D20" s="11">
-        <v>249917</v>
+        <v>250837</v>
       </c>
       <c r="E20" s="11">
-        <v>261584</v>
+        <v>263144</v>
       </c>
       <c r="F20" s="11">
-        <v>263144</v>
+        <v>264145</v>
       </c>
       <c r="G20" s="12">
+        <f t="shared" si="1"/>
+        <v>1001</v>
+      </c>
+      <c r="H20" s="13">
         <f t="shared" si="2"/>
-        <v>1560</v>
-      </c>
-      <c r="H20" s="13">
+        <v>3.804000851244993E-3</v>
+      </c>
+      <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>5.9636675025995789E-3</v>
-      </c>
-      <c r="I20" s="11">
+        <v>16</v>
+      </c>
+      <c r="J20" s="14">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J20" s="14">
+        <v>13</v>
+      </c>
+      <c r="K20" s="12">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="K20" s="12">
+        <v>7502</v>
+      </c>
+      <c r="L20" s="13">
         <f t="shared" si="0"/>
-        <v>6501</v>
-      </c>
-      <c r="L20" s="13">
-        <f t="shared" si="1"/>
-        <v>2.5330907135592939E-2</v>
+        <v>2.923126677914456E-2</v>
       </c>
       <c r="M20" s="11">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N20" s="14">
         <f t="shared" si="7"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O20" s="15">
         <f t="shared" si="8"/>
-        <v>13227</v>
+        <v>13308</v>
       </c>
       <c r="P20" s="13">
         <f t="shared" si="9"/>
-        <v>5.2925571289668127E-2</v>
+        <v>5.3054373955995437E-2</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R20" s="17">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <v>1849999</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <v>1932962</v>
       </c>
-      <c r="D21" s="20">
-        <v>1884715</v>
-      </c>
-      <c r="E21" s="20">
-        <v>1972715</v>
-      </c>
-      <c r="F21" s="20">
+      <c r="D21" s="19">
+        <v>1888232</v>
+      </c>
+      <c r="E21" s="19">
         <v>1973202</v>
       </c>
-      <c r="G21" s="21">
+      <c r="F21" s="19">
+        <v>1974565</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="1"/>
+        <v>1363</v>
+      </c>
+      <c r="H21" s="21">
         <f t="shared" si="2"/>
-        <v>487</v>
-      </c>
-      <c r="H21" s="22">
-        <f t="shared" si="3"/>
-        <v>2.4686789526118247E-4</v>
-      </c>
-      <c r="I21" s="20">
+        <v>6.90755432033896E-4</v>
+      </c>
+      <c r="I21" s="19">
         <f>_xlfn.RANK.EQ(G21,$G$7:$G$38)</f>
-        <v>17</v>
-      </c>
-      <c r="J21" s="23">
+        <v>13</v>
+      </c>
+      <c r="J21" s="22">
         <f>_xlfn.RANK.EQ(H21,$H$7:$H$38)</f>
-        <v>22</v>
-      </c>
-      <c r="K21" s="21">
+        <v>20</v>
+      </c>
+      <c r="K21" s="20">
+        <f t="shared" si="5"/>
+        <v>41603</v>
+      </c>
+      <c r="L21" s="21">
         <f t="shared" si="0"/>
-        <v>40240</v>
-      </c>
-      <c r="L21" s="22">
-        <f t="shared" si="1"/>
-        <v>2.0817791555136633E-2</v>
-      </c>
-      <c r="M21" s="20">
+        <v>2.1522926989770097E-2</v>
+      </c>
+      <c r="M21" s="19">
         <f>_xlfn.RANK.EQ(K21,$K$7:$K$38)</f>
         <v>2</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="22">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="23">
         <f>F21-D21</f>
-        <v>88487</v>
-      </c>
-      <c r="P21" s="22">
+        <v>86333</v>
+      </c>
+      <c r="P21" s="21">
         <f t="shared" si="9"/>
-        <v>4.6949804081784174E-2</v>
-      </c>
-      <c r="Q21" s="25">
+        <v>4.5721606243300572E-2</v>
+      </c>
+      <c r="Q21" s="24">
         <f>_xlfn.RANK.EQ(O21,$O$7:$O$38)</f>
         <v>3</v>
       </c>
-      <c r="R21" s="26">
+      <c r="R21" s="25">
         <f>_xlfn.RANK.EQ(P21,$P$7:$P$38)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>31</v>
       </c>
@@ -2064,37 +2105,37 @@
         <v>474615</v>
       </c>
       <c r="D22" s="11">
-        <v>466191</v>
+        <v>464925</v>
       </c>
       <c r="E22" s="11">
-        <v>482835</v>
+        <v>481144</v>
       </c>
       <c r="F22" s="11">
-        <v>481144</v>
+        <v>480918</v>
       </c>
       <c r="G22" s="12">
+        <f t="shared" si="1"/>
+        <v>-226</v>
+      </c>
+      <c r="H22" s="13">
         <f t="shared" si="2"/>
-        <v>-1691</v>
-      </c>
-      <c r="H22" s="13">
+        <v>-4.6971384866068E-4</v>
+      </c>
+      <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>-3.5022316112129914E-3</v>
-      </c>
-      <c r="I22" s="11">
+        <v>25</v>
+      </c>
+      <c r="J22" s="14">
         <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="J22" s="14">
+        <v>24</v>
+      </c>
+      <c r="K22" s="12">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="K22" s="12">
+        <v>6303</v>
+      </c>
+      <c r="L22" s="13">
         <f t="shared" si="0"/>
-        <v>6529</v>
-      </c>
-      <c r="L22" s="13">
-        <f t="shared" si="1"/>
-        <v>1.3756413092717246E-2</v>
+        <v>1.3280237666319028E-2</v>
       </c>
       <c r="M22" s="11">
         <f t="shared" si="6"/>
@@ -2102,26 +2143,26 @@
       </c>
       <c r="N22" s="14">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O22" s="15">
         <f t="shared" si="8"/>
-        <v>14953</v>
+        <v>15993</v>
       </c>
       <c r="P22" s="13">
         <f t="shared" si="9"/>
-        <v>3.2074836279550656E-2</v>
+        <v>3.439909662848839E-2</v>
       </c>
       <c r="Q22" s="16">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R22" s="17">
         <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>32</v>
       </c>
@@ -2132,64 +2173,64 @@
         <v>215779</v>
       </c>
       <c r="D23" s="11">
-        <v>214838</v>
+        <v>212927</v>
       </c>
       <c r="E23" s="11">
-        <v>217395</v>
+        <v>216611</v>
       </c>
       <c r="F23" s="11">
-        <v>216611</v>
+        <v>216522</v>
       </c>
       <c r="G23" s="12">
+        <f t="shared" si="1"/>
+        <v>-89</v>
+      </c>
+      <c r="H23" s="13">
         <f t="shared" si="2"/>
-        <v>-784</v>
-      </c>
-      <c r="H23" s="13">
+        <v>-4.1087479398549398E-4</v>
+      </c>
+      <c r="I23" s="11">
         <f t="shared" si="3"/>
-        <v>-3.6063386922422502E-3</v>
-      </c>
-      <c r="I23" s="11">
+        <v>23</v>
+      </c>
+      <c r="J23" s="14">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="J23" s="14">
+        <v>23</v>
+      </c>
+      <c r="K23" s="12">
         <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="K23" s="12">
+        <v>743</v>
+      </c>
+      <c r="L23" s="13">
         <f t="shared" si="0"/>
-        <v>832</v>
-      </c>
-      <c r="L23" s="13">
-        <f t="shared" si="1"/>
-        <v>3.8557969033130579E-3</v>
+        <v>3.4433378595692954E-3</v>
       </c>
       <c r="M23" s="11">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N23" s="14">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O23" s="15">
         <f t="shared" si="8"/>
-        <v>1773</v>
+        <v>3595</v>
       </c>
       <c r="P23" s="13">
         <f t="shared" si="9"/>
-        <v>8.2527299639727492E-3</v>
+        <v>1.6883720711793337E-2</v>
       </c>
       <c r="Q23" s="16">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R23" s="17">
         <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>33</v>
       </c>
@@ -2200,37 +2241,37 @@
         <v>172495</v>
       </c>
       <c r="D24" s="11">
-        <v>168519</v>
+        <v>168876</v>
       </c>
       <c r="E24" s="11">
-        <v>178378</v>
+        <v>179172</v>
       </c>
       <c r="F24" s="11">
-        <v>179172</v>
+        <v>179978</v>
       </c>
       <c r="G24" s="12">
+        <f t="shared" si="1"/>
+        <v>806</v>
+      </c>
+      <c r="H24" s="13">
         <f t="shared" si="2"/>
-        <v>794</v>
-      </c>
-      <c r="H24" s="13">
+        <v>4.4984707431965365E-3</v>
+      </c>
+      <c r="I24" s="11">
         <f t="shared" si="3"/>
-        <v>4.4512215631973273E-3</v>
-      </c>
-      <c r="I24" s="11">
+        <v>17</v>
+      </c>
+      <c r="J24" s="14">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="14">
+        <v>8</v>
+      </c>
+      <c r="K24" s="12">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="K24" s="12">
+        <v>7483</v>
+      </c>
+      <c r="L24" s="13">
         <f t="shared" si="0"/>
-        <v>6677</v>
-      </c>
-      <c r="L24" s="13">
-        <f t="shared" si="1"/>
-        <v>3.870836835850322E-2</v>
+        <v>4.3380967564277118E-2</v>
       </c>
       <c r="M24" s="11">
         <f t="shared" si="6"/>
@@ -2238,26 +2279,26 @@
       </c>
       <c r="N24" s="14">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O24" s="15">
         <f t="shared" si="8"/>
-        <v>10653</v>
+        <v>11102</v>
       </c>
       <c r="P24" s="13">
         <f t="shared" si="9"/>
-        <v>6.3215423780107916E-2</v>
+        <v>6.5740543357256209E-2</v>
       </c>
       <c r="Q24" s="16">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R24" s="17">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
@@ -2268,37 +2309,37 @@
         <v>1773136</v>
       </c>
       <c r="D25" s="11">
-        <v>1735354</v>
+        <v>1742394</v>
       </c>
       <c r="E25" s="11">
-        <v>1820676</v>
+        <v>1826292</v>
       </c>
       <c r="F25" s="11">
-        <v>1826292</v>
+        <v>1832028</v>
       </c>
       <c r="G25" s="12">
+        <f t="shared" si="1"/>
+        <v>5736</v>
+      </c>
+      <c r="H25" s="13">
         <f t="shared" si="2"/>
-        <v>5616</v>
-      </c>
-      <c r="H25" s="13">
+        <v>3.1407901912727798E-3</v>
+      </c>
+      <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>3.0845685888098995E-3</v>
-      </c>
-      <c r="I25" s="11">
+        <v>5</v>
+      </c>
+      <c r="J25" s="14">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J25" s="14">
+        <v>15</v>
+      </c>
+      <c r="K25" s="12">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="K25" s="12">
+        <v>58892</v>
+      </c>
+      <c r="L25" s="13">
         <f t="shared" si="0"/>
-        <v>53156</v>
-      </c>
-      <c r="L25" s="13">
-        <f t="shared" si="1"/>
-        <v>2.9978523925970668E-2</v>
+        <v>3.3213470371139087E-2</v>
       </c>
       <c r="M25" s="11">
         <f t="shared" si="6"/>
@@ -2310,11 +2351,11 @@
       </c>
       <c r="O25" s="15">
         <f t="shared" si="8"/>
-        <v>90938</v>
+        <v>89634</v>
       </c>
       <c r="P25" s="13">
         <f t="shared" si="9"/>
-        <v>5.2403140800090453E-2</v>
+        <v>5.1443014610931925E-2</v>
       </c>
       <c r="Q25" s="16">
         <f t="shared" si="10"/>
@@ -2322,10 +2363,10 @@
       </c>
       <c r="R25" s="17">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
@@ -2336,64 +2377,64 @@
         <v>218200</v>
       </c>
       <c r="D26" s="11">
-        <v>212798</v>
+        <v>212844</v>
       </c>
       <c r="E26" s="11">
-        <v>222998</v>
+        <v>221299</v>
       </c>
       <c r="F26" s="11">
-        <v>221299</v>
+        <v>220674</v>
       </c>
       <c r="G26" s="12">
+        <f t="shared" si="1"/>
+        <v>-625</v>
+      </c>
+      <c r="H26" s="13">
         <f t="shared" si="2"/>
-        <v>-1699</v>
-      </c>
-      <c r="H26" s="13">
+        <v>-2.8242332771498679E-3</v>
+      </c>
+      <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>-7.618902411680839E-3</v>
-      </c>
-      <c r="I26" s="11">
+        <v>27</v>
+      </c>
+      <c r="J26" s="14">
         <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="J26" s="14">
+        <v>27</v>
+      </c>
+      <c r="K26" s="12">
         <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="K26" s="12">
+        <v>2474</v>
+      </c>
+      <c r="L26" s="13">
         <f t="shared" si="0"/>
-        <v>3099</v>
-      </c>
-      <c r="L26" s="13">
-        <f t="shared" si="1"/>
-        <v>1.4202566452795606E-2</v>
+        <v>1.1338221814848781E-2</v>
       </c>
       <c r="M26" s="11">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N26" s="14">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O26" s="15">
         <f t="shared" si="8"/>
-        <v>8501</v>
+        <v>7830</v>
       </c>
       <c r="P26" s="13">
         <f t="shared" si="9"/>
-        <v>3.9948683728230572E-2</v>
+        <v>3.6787506342673471E-2</v>
       </c>
       <c r="Q26" s="16">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R26" s="17">
         <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>36</v>
       </c>
@@ -2404,64 +2445,64 @@
         <v>628792</v>
       </c>
       <c r="D27" s="11">
-        <v>616226</v>
+        <v>616137</v>
       </c>
       <c r="E27" s="11">
-        <v>637925</v>
+        <v>637791</v>
       </c>
       <c r="F27" s="11">
-        <v>637791</v>
+        <v>637794</v>
       </c>
       <c r="G27" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H27" s="13">
         <f t="shared" si="2"/>
-        <v>-134</v>
-      </c>
-      <c r="H27" s="13">
+        <v>4.7037352362000462E-6</v>
+      </c>
+      <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>-2.1005604107060538E-4</v>
-      </c>
-      <c r="I27" s="11">
+        <v>21</v>
+      </c>
+      <c r="J27" s="14">
         <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="J27" s="14">
+        <v>21</v>
+      </c>
+      <c r="K27" s="12">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="K27" s="12">
+        <v>9002</v>
+      </c>
+      <c r="L27" s="13">
         <f t="shared" si="0"/>
-        <v>8999</v>
-      </c>
-      <c r="L27" s="13">
-        <f t="shared" si="1"/>
-        <v>1.4311568849476375E-2</v>
+        <v>1.4316339902543218E-2</v>
       </c>
       <c r="M27" s="11">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N27" s="14">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O27" s="15">
         <f t="shared" si="8"/>
-        <v>21565</v>
+        <v>21657</v>
       </c>
       <c r="P27" s="13">
         <f t="shared" si="9"/>
-        <v>3.4995277706555639E-2</v>
+        <v>3.514965015897431E-2</v>
       </c>
       <c r="Q27" s="16">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R27" s="17">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>37</v>
       </c>
@@ -2472,53 +2513,53 @@
         <v>662609</v>
       </c>
       <c r="D28" s="11">
-        <v>646893</v>
+        <v>651828</v>
       </c>
       <c r="E28" s="11">
-        <v>681441</v>
+        <v>682969</v>
       </c>
       <c r="F28" s="11">
-        <v>682969</v>
+        <v>687827</v>
       </c>
       <c r="G28" s="12">
+        <f t="shared" si="1"/>
+        <v>4858</v>
+      </c>
+      <c r="H28" s="13">
         <f t="shared" si="2"/>
-        <v>1528</v>
-      </c>
-      <c r="H28" s="13">
+        <v>7.1130607684974922E-3</v>
+      </c>
+      <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>2.2423071109605175E-3</v>
-      </c>
-      <c r="I28" s="11">
+        <v>6</v>
+      </c>
+      <c r="J28" s="14">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="J28" s="14">
+        <v>4</v>
+      </c>
+      <c r="K28" s="12">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="K28" s="12">
+        <v>25218</v>
+      </c>
+      <c r="L28" s="13">
         <f t="shared" si="0"/>
-        <v>20360</v>
-      </c>
-      <c r="L28" s="13">
-        <f t="shared" si="1"/>
-        <v>3.0727020007274231E-2</v>
+        <v>3.8058643936318415E-2</v>
       </c>
       <c r="M28" s="11">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N28" s="14">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O28" s="15">
         <f t="shared" si="8"/>
-        <v>36076</v>
+        <v>35999</v>
       </c>
       <c r="P28" s="13">
         <f t="shared" si="9"/>
-        <v>5.5768110027469842E-2</v>
+        <v>5.5227759470289683E-2</v>
       </c>
       <c r="Q28" s="16">
         <f t="shared" si="10"/>
@@ -2526,10 +2567,10 @@
       </c>
       <c r="R28" s="17">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>38</v>
       </c>
@@ -2540,41 +2581,41 @@
         <v>468732</v>
       </c>
       <c r="D29" s="11">
-        <v>453929</v>
+        <v>457405</v>
       </c>
       <c r="E29" s="11">
-        <v>490183</v>
+        <v>491986</v>
       </c>
       <c r="F29" s="11">
-        <v>491986</v>
+        <v>498653</v>
       </c>
       <c r="G29" s="12">
+        <f t="shared" si="1"/>
+        <v>6667</v>
+      </c>
+      <c r="H29" s="13">
         <f t="shared" si="2"/>
-        <v>1803</v>
-      </c>
-      <c r="H29" s="13">
+        <v>1.3551198611342574E-2</v>
+      </c>
+      <c r="I29" s="11">
         <f t="shared" si="3"/>
-        <v>3.6782181348598009E-3</v>
-      </c>
-      <c r="I29" s="11">
+        <v>3</v>
+      </c>
+      <c r="J29" s="14">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="J29" s="14">
+        <v>2</v>
+      </c>
+      <c r="K29" s="12">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="K29" s="12">
+        <v>29921</v>
+      </c>
+      <c r="L29" s="13">
         <f t="shared" si="0"/>
-        <v>23254</v>
-      </c>
-      <c r="L29" s="13">
-        <f t="shared" si="1"/>
-        <v>4.9610438374166899E-2</v>
+        <v>6.3833917889113634E-2</v>
       </c>
       <c r="M29" s="11">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N29" s="14">
         <f t="shared" si="7"/>
@@ -2582,11 +2623,11 @@
       </c>
       <c r="O29" s="15">
         <f t="shared" si="8"/>
-        <v>38057</v>
+        <v>41248</v>
       </c>
       <c r="P29" s="13">
         <f t="shared" si="9"/>
-        <v>8.3839102590933745E-2</v>
+        <v>9.0178288387752659E-2</v>
       </c>
       <c r="Q29" s="16">
         <f t="shared" si="10"/>
@@ -2594,10 +2635,10 @@
       </c>
       <c r="R29" s="17">
         <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>39</v>
       </c>
@@ -2608,37 +2649,37 @@
         <v>461059</v>
       </c>
       <c r="D30" s="11">
-        <v>458772</v>
+        <v>458088</v>
       </c>
       <c r="E30" s="11">
-        <v>471834</v>
+        <v>472317</v>
       </c>
       <c r="F30" s="11">
-        <v>472317</v>
+        <v>473349</v>
       </c>
       <c r="G30" s="12">
+        <f t="shared" si="1"/>
+        <v>1032</v>
+      </c>
+      <c r="H30" s="13">
         <f t="shared" si="2"/>
-        <v>483</v>
-      </c>
-      <c r="H30" s="13">
+        <v>2.1849732277263723E-3</v>
+      </c>
+      <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>1.0236651025572474E-3</v>
-      </c>
-      <c r="I30" s="11">
+        <v>15</v>
+      </c>
+      <c r="J30" s="14">
         <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="J30" s="14">
+        <v>17</v>
+      </c>
+      <c r="K30" s="12">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="K30" s="12">
+        <v>12290</v>
+      </c>
+      <c r="L30" s="13">
         <f t="shared" si="0"/>
-        <v>11258</v>
-      </c>
-      <c r="L30" s="13">
-        <f t="shared" si="1"/>
-        <v>2.4417699253240999E-2</v>
+        <v>2.6656024500118169E-2</v>
       </c>
       <c r="M30" s="11">
         <f t="shared" si="6"/>
@@ -2650,22 +2691,22 @@
       </c>
       <c r="O30" s="15">
         <f t="shared" si="8"/>
-        <v>13545</v>
+        <v>15261</v>
       </c>
       <c r="P30" s="13">
         <f t="shared" si="9"/>
-        <v>2.9524469671209141E-2</v>
+        <v>3.3314559647927844E-2</v>
       </c>
       <c r="Q30" s="16">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R30" s="17">
         <f t="shared" si="11"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>40</v>
       </c>
@@ -2676,64 +2717,64 @@
         <v>598307</v>
       </c>
       <c r="D31" s="11">
-        <v>593724</v>
+        <v>573993</v>
       </c>
       <c r="E31" s="11">
-        <v>619013</v>
+        <v>615722</v>
       </c>
       <c r="F31" s="11">
-        <v>615722</v>
+        <v>595370</v>
       </c>
       <c r="G31" s="12">
+        <f t="shared" si="1"/>
+        <v>-20352</v>
+      </c>
+      <c r="H31" s="13">
         <f t="shared" si="2"/>
-        <v>-3291</v>
-      </c>
-      <c r="H31" s="13">
+        <v>-3.3053878211270704E-2</v>
+      </c>
+      <c r="I31" s="11">
         <f t="shared" si="3"/>
-        <v>-5.3165280858398223E-3</v>
-      </c>
-      <c r="I31" s="11">
+        <v>32</v>
+      </c>
+      <c r="J31" s="14">
         <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="J31" s="14">
+        <v>32</v>
+      </c>
+      <c r="K31" s="12">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="K31" s="12">
+        <v>-2937</v>
+      </c>
+      <c r="L31" s="13">
         <f t="shared" si="0"/>
-        <v>17415</v>
-      </c>
-      <c r="L31" s="13">
-        <f t="shared" si="1"/>
-        <v>2.9107130620233512E-2</v>
+        <v>-4.908851141637971E-3</v>
       </c>
       <c r="M31" s="11">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="N31" s="14">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="O31" s="15">
         <f t="shared" si="8"/>
-        <v>21998</v>
+        <v>21377</v>
       </c>
       <c r="P31" s="13">
         <f t="shared" si="9"/>
-        <v>3.7050885596674465E-2</v>
+        <v>3.7242614456970635E-2</v>
       </c>
       <c r="Q31" s="16">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R31" s="17">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>41</v>
       </c>
@@ -2744,64 +2785,64 @@
         <v>607801</v>
       </c>
       <c r="D32" s="11">
-        <v>622731</v>
+        <v>617199</v>
       </c>
       <c r="E32" s="11">
-        <v>634084</v>
+        <v>633871</v>
       </c>
       <c r="F32" s="11">
-        <v>633871</v>
+        <v>631780</v>
       </c>
       <c r="G32" s="12">
+        <f t="shared" si="1"/>
+        <v>-2091</v>
+      </c>
+      <c r="H32" s="13">
         <f t="shared" si="2"/>
-        <v>-213</v>
-      </c>
-      <c r="H32" s="13">
+        <v>-3.2987784580774671E-3</v>
+      </c>
+      <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>-3.3591763867246716E-4</v>
-      </c>
-      <c r="I32" s="11">
+        <v>30</v>
+      </c>
+      <c r="J32" s="14">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="J32" s="14">
+        <v>28</v>
+      </c>
+      <c r="K32" s="12">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="K32" s="12">
+        <v>23979</v>
+      </c>
+      <c r="L32" s="13">
         <f t="shared" si="0"/>
-        <v>26070</v>
-      </c>
-      <c r="L32" s="13">
-        <f t="shared" si="1"/>
-        <v>4.2892328245593525E-2</v>
+        <v>3.9452057499082649E-2</v>
       </c>
       <c r="M32" s="11">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N32" s="14">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O32" s="15">
         <f t="shared" si="8"/>
-        <v>11140</v>
+        <v>14581</v>
       </c>
       <c r="P32" s="13">
         <f t="shared" si="9"/>
-        <v>1.7888944022378839E-2</v>
+        <v>2.3624471199726438E-2</v>
       </c>
       <c r="Q32" s="16">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R32" s="17">
         <f t="shared" si="11"/>
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>42</v>
       </c>
@@ -2812,37 +2853,37 @@
         <v>236579</v>
       </c>
       <c r="D33" s="11">
-        <v>220036</v>
+        <v>224698</v>
       </c>
       <c r="E33" s="11">
-        <v>243760</v>
+        <v>244054</v>
       </c>
       <c r="F33" s="11">
-        <v>244054</v>
+        <v>245443</v>
       </c>
       <c r="G33" s="12">
+        <f t="shared" si="1"/>
+        <v>1389</v>
+      </c>
+      <c r="H33" s="13">
         <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="H33" s="13">
+        <v>5.6913633867914371E-3</v>
+      </c>
+      <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>1.2061043649491676E-3</v>
-      </c>
-      <c r="I33" s="11">
+        <v>12</v>
+      </c>
+      <c r="J33" s="14">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="J33" s="14">
+        <v>5</v>
+      </c>
+      <c r="K33" s="12">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="K33" s="12">
+        <v>8864</v>
+      </c>
+      <c r="L33" s="13">
         <f t="shared" si="0"/>
-        <v>7475</v>
-      </c>
-      <c r="L33" s="13">
-        <f t="shared" si="1"/>
-        <v>3.1596210990831874E-2</v>
+        <v>3.7467399896017772E-2</v>
       </c>
       <c r="M33" s="11">
         <f t="shared" si="6"/>
@@ -2850,26 +2891,26 @@
       </c>
       <c r="N33" s="14">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O33" s="15">
         <f t="shared" si="8"/>
-        <v>24018</v>
+        <v>20745</v>
       </c>
       <c r="P33" s="13">
         <f t="shared" si="9"/>
-        <v>0.10915486556745257</v>
+        <v>9.232391921601435E-2</v>
       </c>
       <c r="Q33" s="16">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R33" s="17">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>43</v>
       </c>
@@ -2880,37 +2921,37 @@
         <v>700924</v>
       </c>
       <c r="D34" s="11">
-        <v>711335</v>
+        <v>710335</v>
       </c>
       <c r="E34" s="11">
-        <v>714071</v>
+        <v>711835</v>
       </c>
       <c r="F34" s="11">
-        <v>711835</v>
+        <v>712999</v>
       </c>
       <c r="G34" s="12">
+        <f t="shared" si="1"/>
+        <v>1164</v>
+      </c>
+      <c r="H34" s="13">
         <f t="shared" si="2"/>
-        <v>-2236</v>
-      </c>
-      <c r="H34" s="13">
+        <v>1.6352104069061735E-3</v>
+      </c>
+      <c r="I34" s="11">
         <f t="shared" si="3"/>
-        <v>-3.1313412811890817E-3</v>
-      </c>
-      <c r="I34" s="11">
+        <v>14</v>
+      </c>
+      <c r="J34" s="14">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="J34" s="14">
+        <v>18</v>
+      </c>
+      <c r="K34" s="12">
         <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="K34" s="12">
+        <v>12075</v>
+      </c>
+      <c r="L34" s="13">
         <f t="shared" si="0"/>
-        <v>10911</v>
-      </c>
-      <c r="L34" s="13">
-        <f t="shared" si="1"/>
-        <v>1.5566594951806456E-2</v>
+        <v>1.7227260016777768E-2</v>
       </c>
       <c r="M34" s="11">
         <f t="shared" si="6"/>
@@ -2918,15 +2959,15 @@
       </c>
       <c r="N34" s="14">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O34" s="15">
         <f t="shared" si="8"/>
-        <v>500</v>
+        <v>2664</v>
       </c>
       <c r="P34" s="13">
         <f t="shared" si="9"/>
-        <v>7.0290369516468054E-4</v>
+        <v>3.7503431479513072E-3</v>
       </c>
       <c r="Q34" s="16">
         <f t="shared" si="10"/>
@@ -2937,7 +2978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>44</v>
       </c>
@@ -2948,53 +2989,53 @@
         <v>109884</v>
       </c>
       <c r="D35" s="11">
-        <v>105946</v>
+        <v>106877</v>
       </c>
       <c r="E35" s="11">
-        <v>113139</v>
+        <v>113760</v>
       </c>
       <c r="F35" s="11">
-        <v>113760</v>
+        <v>114356</v>
       </c>
       <c r="G35" s="12">
+        <f t="shared" si="1"/>
+        <v>596</v>
+      </c>
+      <c r="H35" s="13">
         <f t="shared" si="2"/>
-        <v>621</v>
-      </c>
-      <c r="H35" s="13">
+        <v>5.2390998593530025E-3</v>
+      </c>
+      <c r="I35" s="11">
         <f t="shared" si="3"/>
-        <v>5.4888234826186988E-3</v>
-      </c>
-      <c r="I35" s="11">
+        <v>19</v>
+      </c>
+      <c r="J35" s="14">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="J35" s="14">
+        <v>7</v>
+      </c>
+      <c r="K35" s="12">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="K35" s="12">
+        <v>4472</v>
+      </c>
+      <c r="L35" s="13">
         <f t="shared" si="0"/>
-        <v>3876</v>
-      </c>
-      <c r="L35" s="13">
-        <f t="shared" si="1"/>
-        <v>3.5273561210003246E-2</v>
+        <v>4.0697462778930493E-2</v>
       </c>
       <c r="M35" s="11">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N35" s="14">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O35" s="15">
         <f t="shared" si="8"/>
-        <v>7814</v>
+        <v>7479</v>
       </c>
       <c r="P35" s="13">
         <f t="shared" si="9"/>
-        <v>7.3754554206860057E-2</v>
+        <v>6.9977637845373586E-2</v>
       </c>
       <c r="Q35" s="16">
         <f t="shared" si="10"/>
@@ -3005,7 +3046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>45</v>
       </c>
@@ -3016,37 +3057,37 @@
         <v>750470</v>
       </c>
       <c r="D36" s="11">
-        <v>735652</v>
+        <v>728027</v>
       </c>
       <c r="E36" s="11">
-        <v>753205</v>
+        <v>748704</v>
       </c>
       <c r="F36" s="11">
-        <v>748704</v>
+        <v>745117</v>
       </c>
       <c r="G36" s="12">
+        <f t="shared" si="1"/>
+        <v>-3587</v>
+      </c>
+      <c r="H36" s="13">
         <f t="shared" si="2"/>
-        <v>-4501</v>
-      </c>
-      <c r="H36" s="13">
+        <v>-4.7909454203530766E-3</v>
+      </c>
+      <c r="I36" s="11">
         <f t="shared" si="3"/>
-        <v>-5.9757967618377927E-3</v>
-      </c>
-      <c r="I36" s="11">
+        <v>31</v>
+      </c>
+      <c r="J36" s="14">
         <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="J36" s="14">
+        <v>29</v>
+      </c>
+      <c r="K36" s="12">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="K36" s="12">
+        <v>-5353</v>
+      </c>
+      <c r="L36" s="13">
         <f t="shared" si="0"/>
-        <v>-1766</v>
-      </c>
-      <c r="L36" s="13">
-        <f t="shared" si="1"/>
-        <v>-2.3531919996802042E-3</v>
+        <v>-7.1328634055991547E-3</v>
       </c>
       <c r="M36" s="11">
         <f t="shared" si="6"/>
@@ -3058,22 +3099,22 @@
       </c>
       <c r="O36" s="15">
         <f t="shared" si="8"/>
-        <v>13052</v>
+        <v>17090</v>
       </c>
       <c r="P36" s="13">
         <f t="shared" si="9"/>
-        <v>1.774208457259685E-2</v>
+        <v>2.3474404108638769E-2</v>
       </c>
       <c r="Q36" s="16">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R36" s="17">
         <f t="shared" si="11"/>
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>46</v>
       </c>
@@ -3084,64 +3125,64 @@
         <v>414439</v>
       </c>
       <c r="D37" s="11">
-        <v>401534</v>
+        <v>402221</v>
       </c>
       <c r="E37" s="11">
-        <v>421696</v>
+        <v>421816</v>
       </c>
       <c r="F37" s="11">
-        <v>421816</v>
+        <v>423677</v>
       </c>
       <c r="G37" s="12">
+        <f t="shared" si="1"/>
+        <v>1861</v>
+      </c>
+      <c r="H37" s="13">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="H37" s="13">
+        <v>4.4118762683256207E-3</v>
+      </c>
+      <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>2.8456518439834433E-4</v>
-      </c>
-      <c r="I37" s="11">
+        <v>10</v>
+      </c>
+      <c r="J37" s="14">
         <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="J37" s="14">
+        <v>9</v>
+      </c>
+      <c r="K37" s="12">
         <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="K37" s="12">
+        <v>9238</v>
+      </c>
+      <c r="L37" s="13">
         <f t="shared" si="0"/>
-        <v>7377</v>
-      </c>
-      <c r="L37" s="13">
-        <f t="shared" si="1"/>
-        <v>1.7799965736815304E-2</v>
+        <v>2.2290373251552031E-2</v>
       </c>
       <c r="M37" s="11">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N37" s="14">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O37" s="15">
         <f t="shared" si="8"/>
-        <v>20282</v>
+        <v>21456</v>
       </c>
       <c r="P37" s="13">
         <f t="shared" si="9"/>
-        <v>5.0511289205895427E-2</v>
+        <v>5.3343808503285572E-2</v>
       </c>
       <c r="Q37" s="16">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R37" s="17">
         <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>47</v>
       </c>
@@ -3152,156 +3193,156 @@
         <v>194743</v>
       </c>
       <c r="D38" s="11">
-        <v>196069</v>
+        <v>195805</v>
       </c>
       <c r="E38" s="11">
-        <v>197131</v>
+        <v>197853</v>
       </c>
       <c r="F38" s="11">
-        <v>197853</v>
+        <v>198536</v>
       </c>
       <c r="G38" s="12">
+        <f t="shared" si="1"/>
+        <v>683</v>
+      </c>
+      <c r="H38" s="13">
         <f t="shared" si="2"/>
-        <v>722</v>
-      </c>
-      <c r="H38" s="13">
+        <v>3.4520578409222846E-3</v>
+      </c>
+      <c r="I38" s="11">
         <f t="shared" si="3"/>
-        <v>3.6625391237299354E-3</v>
-      </c>
-      <c r="I38" s="11">
+        <v>18</v>
+      </c>
+      <c r="J38" s="14">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="J38" s="14">
+        <v>14</v>
+      </c>
+      <c r="K38" s="12">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="K38" s="12">
+        <v>3793</v>
+      </c>
+      <c r="L38" s="13">
         <f t="shared" si="0"/>
-        <v>3110</v>
-      </c>
-      <c r="L38" s="13">
-        <f t="shared" si="1"/>
-        <v>1.5969765280395176E-2</v>
+        <v>1.9476951674771259E-2</v>
       </c>
       <c r="M38" s="11">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N38" s="14">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O38" s="15">
         <f>F38-D38</f>
-        <v>1784</v>
+        <v>2731</v>
       </c>
       <c r="P38" s="13">
         <f>F38/D38-1</f>
-        <v>9.0988376540912519E-3</v>
+        <v>1.3947549858277286E-2</v>
       </c>
       <c r="Q38" s="16">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R38" s="17">
         <f t="shared" si="11"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="28">
         <f>SUM(B7:B38)</f>
         <v>20620148</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="28">
         <f>SUM(C7:C38)</f>
         <v>21372896</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="28">
         <f>SUM(D7:D38)</f>
-        <v>21011342</v>
-      </c>
-      <c r="E39" s="29">
+        <v>21008487</v>
+      </c>
+      <c r="E39" s="28">
         <f>SUM(E7:E38)</f>
-        <v>21796280</v>
-      </c>
-      <c r="F39" s="29">
+        <v>21820291</v>
+      </c>
+      <c r="F39" s="28">
         <f>SUM(F7:F38)</f>
-        <v>21820291</v>
-      </c>
-      <c r="G39" s="30">
+        <v>21862909</v>
+      </c>
+      <c r="G39" s="29">
+        <f t="shared" si="1"/>
+        <v>42618</v>
+      </c>
+      <c r="H39" s="30">
         <f t="shared" si="2"/>
-        <v>24011</v>
-      </c>
-      <c r="H39" s="31">
-        <f t="shared" si="3"/>
-        <v>1.1016099995044826E-3</v>
-      </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="30">
+        <v>1.9531361886970799E-3</v>
+      </c>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="29">
+        <f t="shared" si="5"/>
+        <v>490013</v>
+      </c>
+      <c r="L39" s="30">
         <f t="shared" si="0"/>
-        <v>447395</v>
-      </c>
-      <c r="L39" s="31">
-        <f t="shared" si="1"/>
-        <v>2.0932820708995159E-2</v>
-      </c>
-      <c r="M39" s="32"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="34">
+        <v>2.2926841547350474E-2</v>
+      </c>
+      <c r="M39" s="31"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="33">
         <f>F39-D39</f>
-        <v>808949</v>
-      </c>
-      <c r="P39" s="31">
+        <v>854422</v>
+      </c>
+      <c r="P39" s="30">
         <f>F39/D39-1</f>
-        <v>3.8500586968695183E-2</v>
-      </c>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="36"/>
-    </row>
-    <row r="40" spans="1:18" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="40"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="42"/>
-    </row>
-    <row r="41" spans="1:18" ht="48.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+        <v>4.0670325283300945E-2</v>
+      </c>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="35"/>
+    </row>
+    <row r="40" spans="1:18" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="38"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="40"/>
+    </row>
+    <row r="41" spans="1:18" ht="48.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R42" s="44"/>
+      <c r="R42" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Tabulados/TAentidadrank_delegacion.xlsx
+++ b/Tabulados/TAentidadrank_delegacion.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F398B61-A7A8-4893-9E7C-7C889D9797BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A470EEC5-C1CB-49C7-99F3-AA0DDA738257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="8520" xr2:uid="{47DF7B05-4717-40F8-8C0D-8FC4D7D67CE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{617C9870-FE0B-417C-8DEE-7EDC5C0D8B08}"/>
   </bookViews>
   <sheets>
-    <sheet name="ta_mayo" sheetId="1" r:id="rId1"/>
+    <sheet name="ta_junio" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,24 +57,24 @@
   </si>
   <si>
     <t>2022
-Mayo</t>
-  </si>
-  <si>
-    <t>2023
-Abril</t>
+Junio</t>
   </si>
   <si>
     <t>2023
 Mayo</t>
   </si>
   <si>
-    <t>Mayo 2023 respecto a Abril 2023</t>
-  </si>
-  <si>
-    <t>Mayo 2023 respecto a Diciembre 2022</t>
-  </si>
-  <si>
-    <t>Mayo 2023 respecto a Mayo 2022</t>
+    <t>2023
+Junio</t>
+  </si>
+  <si>
+    <t>Junio 2023 respecto a Mayo 2023</t>
+  </si>
+  <si>
+    <t>Junio 2023 respecto a Diciembre 2022</t>
+  </si>
+  <si>
+    <t>Junio 2023 respecto a Junio 2022</t>
   </si>
   <si>
     <t>Variación Absoluta</t>
@@ -568,7 +568,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{017573E4-DB52-44F5-A140-85942021D26F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{DC40CBFB-C2E3-4665-B9C9-F6D46EE2CAAC}"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -880,33 +880,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2C411D-B800-4C78-83F4-72375986C668}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260231C6-CCAB-400A-991B-0599B208CA88}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" customWidth="1"/>
-    <col min="17" max="18" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="15" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +926,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -950,7 +948,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -972,7 +970,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -992,7 +990,7 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
         <v>3</v>
       </c>
@@ -1030,7 +1028,7 @@
       <c r="Q5" s="42"/>
       <c r="R5" s="42"/>
     </row>
-    <row r="6" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
@@ -1074,7 +1072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -1085,25 +1083,25 @@
         <v>342215</v>
       </c>
       <c r="D7" s="11">
-        <v>340347</v>
+        <v>341163</v>
       </c>
       <c r="E7" s="11">
-        <v>350248</v>
+        <v>351682</v>
       </c>
       <c r="F7" s="11">
-        <v>351682</v>
+        <v>352869</v>
       </c>
       <c r="G7" s="12">
         <f>F7-E7</f>
-        <v>1434</v>
+        <v>1187</v>
       </c>
       <c r="H7" s="13">
         <f>F7/E7-1</f>
-        <v>4.0942417943856668E-3</v>
+        <v>3.3752082847573472E-3</v>
       </c>
       <c r="I7" s="11">
         <f>_xlfn.RANK.EQ(G7,$G$7:$G$38)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" s="14">
         <f>_xlfn.RANK.EQ(H7,$H$7:$H$38)</f>
@@ -1111,11 +1109,11 @@
       </c>
       <c r="K7" s="12">
         <f>F7-C7</f>
-        <v>9467</v>
+        <v>10654</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" ref="L7:L39" si="0">F7/C7-1</f>
-        <v>2.7663895504288272E-2</v>
+        <v>3.113247519834017E-2</v>
       </c>
       <c r="M7" s="11">
         <f>_xlfn.RANK.EQ(K7,$K$7:$K$38)</f>
@@ -1127,22 +1125,22 @@
       </c>
       <c r="O7" s="15">
         <f>F7-D7</f>
-        <v>11335</v>
+        <v>11706</v>
       </c>
       <c r="P7" s="13">
         <f>F7/D7-1</f>
-        <v>3.3304245373104502E-2</v>
+        <v>3.4312044389338769E-2</v>
       </c>
       <c r="Q7" s="16">
         <f>_xlfn.RANK.EQ(O7,$O$7:$O$38)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R7" s="17">
         <f>_xlfn.RANK.EQ(P7,$P$7:$P$38)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1153,64 +1151,64 @@
         <v>1042740</v>
       </c>
       <c r="D8" s="11">
-        <v>1036044</v>
+        <v>1044677</v>
       </c>
       <c r="E8" s="11">
-        <v>1075081</v>
+        <v>1075051</v>
       </c>
       <c r="F8" s="11">
-        <v>1075051</v>
+        <v>1075896</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ref="G8:G39" si="1">F8-E8</f>
-        <v>-30</v>
+        <v>845</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" ref="H8:H39" si="2">F8/E8-1</f>
-        <v>-2.7904874144391023E-5</v>
+        <v>7.8600922188809541E-4</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" ref="I8:I38" si="3">_xlfn.RANK.EQ(G8,$G$7:$G$38)</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" ref="J8:J38" si="4">_xlfn.RANK.EQ(H8,$H$7:$H$38)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" ref="K8:K39" si="5">F8-C8</f>
-        <v>32311</v>
+        <v>33156</v>
       </c>
       <c r="L8" s="13">
         <f t="shared" si="0"/>
-        <v>3.0986631375031104E-2</v>
+        <v>3.179699637493516E-2</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" ref="M8:M38" si="6">_xlfn.RANK.EQ(K8,$K$7:$K$38)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N8" s="14">
         <f t="shared" ref="N8:N38" si="7">_xlfn.RANK.EQ(L8,$L$7:$L$38)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O8" s="15">
         <f t="shared" ref="O8:O37" si="8">F8-D8</f>
-        <v>39007</v>
+        <v>31219</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" ref="P8:P37" si="9">F8/D8-1</f>
-        <v>3.76499453691157E-2</v>
+        <v>2.9883877983338358E-2</v>
       </c>
       <c r="Q8" s="16">
         <f t="shared" ref="Q8:Q38" si="10">_xlfn.RANK.EQ(O8,$O$7:$O$38)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R8" s="17">
         <f t="shared" ref="R8:R38" si="11">_xlfn.RANK.EQ(P8,$P$7:$P$38)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
@@ -1221,21 +1219,21 @@
         <v>210207</v>
       </c>
       <c r="D9" s="11">
-        <v>205155</v>
+        <v>208042</v>
       </c>
       <c r="E9" s="11">
-        <v>218895</v>
+        <v>222528</v>
       </c>
       <c r="F9" s="11">
-        <v>222528</v>
+        <v>225288</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="1"/>
-        <v>3633</v>
+        <v>2760</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" si="2"/>
-        <v>1.6596998560953979E-2</v>
+        <v>1.2402933563416818E-2</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="3"/>
@@ -1247,11 +1245,11 @@
       </c>
       <c r="K9" s="12">
         <f t="shared" si="5"/>
-        <v>12321</v>
+        <v>15081</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="0"/>
-        <v>5.8613652257060833E-2</v>
+        <v>7.1743567055331248E-2</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="6"/>
@@ -1263,11 +1261,11 @@
       </c>
       <c r="O9" s="15">
         <f t="shared" si="8"/>
-        <v>17373</v>
+        <v>17246</v>
       </c>
       <c r="P9" s="13">
         <f t="shared" si="9"/>
-        <v>8.4682313372815621E-2</v>
+        <v>8.289672277713156E-2</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="10"/>
@@ -1278,7 +1276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1289,64 +1287,64 @@
         <v>137105</v>
       </c>
       <c r="D10" s="11">
-        <v>133768</v>
+        <v>133445</v>
       </c>
       <c r="E10" s="11">
-        <v>140182</v>
+        <v>139905</v>
       </c>
       <c r="F10" s="11">
-        <v>139905</v>
+        <v>141245</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="1"/>
-        <v>-277</v>
+        <v>1340</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" si="2"/>
-        <v>-1.9760026251587348E-3</v>
+        <v>9.5779278796326306E-3</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="5"/>
-        <v>2800</v>
+        <v>4140</v>
       </c>
       <c r="L10" s="13">
         <f t="shared" si="0"/>
-        <v>2.0422304073520303E-2</v>
+        <v>3.0195835308705066E-2</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N10" s="14">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" si="8"/>
-        <v>6137</v>
+        <v>7800</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" si="9"/>
-        <v>4.5877937922373047E-2</v>
+        <v>5.8451047247929822E-2</v>
       </c>
       <c r="Q10" s="16">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R10" s="17">
         <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
@@ -1357,64 +1355,64 @@
         <v>241142</v>
       </c>
       <c r="D11" s="11">
-        <v>237487</v>
+        <v>237565</v>
       </c>
       <c r="E11" s="11">
-        <v>245920</v>
+        <v>243926</v>
       </c>
       <c r="F11" s="11">
-        <v>243926</v>
+        <v>245769</v>
       </c>
       <c r="G11" s="12">
         <f>F11-E11</f>
-        <v>-1994</v>
+        <v>1843</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" si="2"/>
-        <v>-8.1083279115159446E-3</v>
+        <v>7.5555701319252044E-3</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="K11" s="12">
         <f t="shared" si="5"/>
-        <v>2784</v>
+        <v>4627</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
-        <v>1.1545064733642363E-2</v>
+        <v>1.9187864411840394E-2</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N11" s="14">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O11" s="15">
         <f t="shared" si="8"/>
-        <v>6439</v>
+        <v>8204</v>
       </c>
       <c r="P11" s="13">
         <f t="shared" si="9"/>
-        <v>2.7113063030818507E-2</v>
+        <v>3.4533706564519262E-2</v>
       </c>
       <c r="Q11" s="16">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R11" s="17">
         <f t="shared" si="11"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -1425,37 +1423,37 @@
         <v>962905</v>
       </c>
       <c r="D12" s="11">
-        <v>958691</v>
+        <v>960072</v>
       </c>
       <c r="E12" s="11">
-        <v>986550</v>
+        <v>988994</v>
       </c>
       <c r="F12" s="11">
-        <v>988994</v>
+        <v>989243</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="1"/>
-        <v>2444</v>
+        <v>249</v>
       </c>
       <c r="H12" s="13">
         <f t="shared" si="2"/>
-        <v>2.4773199533729695E-3</v>
+        <v>2.5177099153284033E-4</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="5"/>
-        <v>26089</v>
+        <v>26338</v>
       </c>
       <c r="L12" s="13">
         <f t="shared" si="0"/>
-        <v>2.7094053930553974E-2</v>
+        <v>2.7352646418909554E-2</v>
       </c>
       <c r="M12" s="11">
         <f t="shared" si="6"/>
@@ -1463,15 +1461,15 @@
       </c>
       <c r="N12" s="14">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O12" s="15">
         <f t="shared" si="8"/>
-        <v>30303</v>
+        <v>29171</v>
       </c>
       <c r="P12" s="13">
         <f t="shared" si="9"/>
-        <v>3.1608724813313227E-2</v>
+        <v>3.0384179519869381E-2</v>
       </c>
       <c r="Q12" s="16">
         <f t="shared" si="10"/>
@@ -1479,10 +1477,10 @@
       </c>
       <c r="R12" s="17">
         <f t="shared" si="11"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
@@ -1493,41 +1491,41 @@
         <v>3394982</v>
       </c>
       <c r="D13" s="11">
-        <v>3326061</v>
+        <v>3337399</v>
       </c>
       <c r="E13" s="11">
-        <v>3421435</v>
+        <v>3434727</v>
       </c>
       <c r="F13" s="11">
-        <v>3434727</v>
+        <v>3435501</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="1"/>
-        <v>13292</v>
+        <v>774</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="2"/>
-        <v>3.8849196316750323E-3</v>
+        <v>2.2534542046570571E-4</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J13" s="14">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" si="5"/>
-        <v>39745</v>
+        <v>40519</v>
       </c>
       <c r="L13" s="13">
         <f t="shared" si="0"/>
-        <v>1.1706984013464483E-2</v>
+        <v>1.1934967549165121E-2</v>
       </c>
       <c r="M13" s="11">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" s="14">
         <f t="shared" si="7"/>
@@ -1535,11 +1533,11 @@
       </c>
       <c r="O13" s="15">
         <f t="shared" si="8"/>
-        <v>108666</v>
+        <v>98102</v>
       </c>
       <c r="P13" s="13">
         <f t="shared" si="9"/>
-        <v>3.2671078491945948E-2</v>
+        <v>2.9394747226807461E-2</v>
       </c>
       <c r="Q13" s="16">
         <f t="shared" si="10"/>
@@ -1547,10 +1545,10 @@
       </c>
       <c r="R13" s="17">
         <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
@@ -1561,37 +1559,37 @@
         <v>825159</v>
       </c>
       <c r="D14" s="11">
-        <v>814132</v>
+        <v>814614</v>
       </c>
       <c r="E14" s="11">
-        <v>850911</v>
+        <v>854521</v>
       </c>
       <c r="F14" s="11">
-        <v>854521</v>
+        <v>856157</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="1"/>
-        <v>3610</v>
+        <v>1636</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" si="2"/>
-        <v>4.2425118490652114E-3</v>
+        <v>1.9145228730481634E-3</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K14" s="12">
         <f t="shared" si="5"/>
-        <v>29362</v>
+        <v>30998</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="0"/>
-        <v>3.5583445129968805E-2</v>
+        <v>3.7566093322620286E-2</v>
       </c>
       <c r="M14" s="11">
         <f t="shared" si="6"/>
@@ -1599,26 +1597,26 @@
       </c>
       <c r="N14" s="14">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O14" s="15">
         <f t="shared" si="8"/>
-        <v>40389</v>
+        <v>41543</v>
       </c>
       <c r="P14" s="13">
         <f t="shared" si="9"/>
-        <v>4.9609891270703033E-2</v>
+        <v>5.0997159390828051E-2</v>
       </c>
       <c r="Q14" s="16">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R14" s="17">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -1629,64 +1627,64 @@
         <v>147281</v>
       </c>
       <c r="D15" s="11">
-        <v>141632</v>
+        <v>142704</v>
       </c>
       <c r="E15" s="11">
-        <v>149935</v>
+        <v>149841</v>
       </c>
       <c r="F15" s="11">
-        <v>149841</v>
+        <v>148334</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>-94</v>
+        <v>-1507</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" si="2"/>
-        <v>-6.2693833994731385E-4</v>
+        <v>-1.0057327433746432E-2</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" si="5"/>
-        <v>2560</v>
+        <v>1053</v>
       </c>
       <c r="L15" s="13">
         <f t="shared" si="0"/>
-        <v>1.7381739667710061E-2</v>
+        <v>7.1495983867573276E-3</v>
       </c>
       <c r="M15" s="11">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N15" s="14">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="O15" s="15">
         <f t="shared" si="8"/>
-        <v>8209</v>
+        <v>5630</v>
       </c>
       <c r="P15" s="13">
         <f t="shared" si="9"/>
-        <v>5.7960065521915904E-2</v>
+        <v>3.9452292857943716E-2</v>
       </c>
       <c r="Q15" s="16">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R15" s="17">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
@@ -1697,53 +1695,53 @@
         <v>256778</v>
       </c>
       <c r="D16" s="11">
-        <v>258276</v>
+        <v>257638</v>
       </c>
       <c r="E16" s="11">
-        <v>260824</v>
+        <v>261209</v>
       </c>
       <c r="F16" s="11">
-        <v>261209</v>
+        <v>260828</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="1"/>
-        <v>385</v>
+        <v>-381</v>
       </c>
       <c r="H16" s="13">
         <f t="shared" si="2"/>
-        <v>1.4760911572555546E-3</v>
+        <v>-1.4586021155472695E-3</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="5"/>
-        <v>4431</v>
+        <v>4050</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="0"/>
-        <v>1.7256151227909022E-2</v>
+        <v>1.5772379253674362E-2</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N16" s="14">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O16" s="15">
         <f t="shared" si="8"/>
-        <v>2933</v>
+        <v>3190</v>
       </c>
       <c r="P16" s="13">
         <f t="shared" si="9"/>
-        <v>1.1356068701698918E-2</v>
+        <v>1.2381713877611222E-2</v>
       </c>
       <c r="Q16" s="16">
         <f t="shared" si="10"/>
@@ -1754,7 +1752,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
@@ -1765,37 +1763,37 @@
         <v>1732700</v>
       </c>
       <c r="D17" s="11">
-        <v>1686619</v>
+        <v>1693231</v>
       </c>
       <c r="E17" s="11">
-        <v>1755514</v>
+        <v>1770513</v>
       </c>
       <c r="F17" s="11">
-        <v>1770513</v>
+        <v>1774815</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="1"/>
-        <v>14999</v>
+        <v>4302</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="2"/>
-        <v>8.5439364197608114E-3</v>
+        <v>2.4298042431769584E-3</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="5"/>
-        <v>37813</v>
+        <v>42115</v>
       </c>
       <c r="L17" s="13">
         <f t="shared" si="0"/>
-        <v>2.1823166156865081E-2</v>
+        <v>2.430599642176956E-2</v>
       </c>
       <c r="M17" s="11">
         <f t="shared" si="6"/>
@@ -1803,15 +1801,15 @@
       </c>
       <c r="N17" s="14">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O17" s="15">
         <f t="shared" si="8"/>
-        <v>83894</v>
+        <v>81584</v>
       </c>
       <c r="P17" s="13">
         <f t="shared" si="9"/>
-        <v>4.9740931413674305E-2</v>
+        <v>4.8182439371828201E-2</v>
       </c>
       <c r="Q17" s="16">
         <f t="shared" si="10"/>
@@ -1819,10 +1817,10 @@
       </c>
       <c r="R17" s="17">
         <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
@@ -1833,53 +1831,53 @@
         <v>1041993</v>
       </c>
       <c r="D18" s="11">
-        <v>1035758</v>
+        <v>1039974</v>
       </c>
       <c r="E18" s="11">
-        <v>1072930</v>
+        <v>1078852</v>
       </c>
       <c r="F18" s="11">
-        <v>1078852</v>
+        <v>1085242</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="1"/>
-        <v>5922</v>
+        <v>6390</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="2"/>
-        <v>5.5194653891679213E-3</v>
+        <v>5.9229625564951593E-3</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" si="5"/>
-        <v>36859</v>
+        <v>43249</v>
       </c>
       <c r="L18" s="13">
         <f t="shared" si="0"/>
-        <v>3.5373558171696073E-2</v>
+        <v>4.150603698873212E-2</v>
       </c>
       <c r="M18" s="11">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" s="14">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O18" s="15">
         <f t="shared" si="8"/>
-        <v>43094</v>
+        <v>45268</v>
       </c>
       <c r="P18" s="13">
         <f t="shared" si="9"/>
-        <v>4.1606243929566578E-2</v>
+        <v>4.3528011277204959E-2</v>
       </c>
       <c r="Q18" s="16">
         <f t="shared" si="10"/>
@@ -1887,10 +1885,10 @@
       </c>
       <c r="R18" s="17">
         <f t="shared" si="11"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>28</v>
       </c>
@@ -1901,37 +1899,37 @@
         <v>159520</v>
       </c>
       <c r="D19" s="11">
-        <v>150869</v>
+        <v>151181</v>
       </c>
       <c r="E19" s="11">
-        <v>158324</v>
+        <v>157429</v>
       </c>
       <c r="F19" s="11">
-        <v>157429</v>
+        <v>158647</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="1"/>
-        <v>-895</v>
+        <v>1218</v>
       </c>
       <c r="H19" s="13">
         <f t="shared" si="2"/>
-        <v>-5.6529648063464721E-3</v>
+        <v>7.7368210431369988E-3</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="K19" s="12">
         <f t="shared" si="5"/>
-        <v>-2091</v>
+        <v>-873</v>
       </c>
       <c r="L19" s="13">
         <f t="shared" si="0"/>
-        <v>-1.310807422266802E-2</v>
+        <v>-5.4726680040120268E-3</v>
       </c>
       <c r="M19" s="11">
         <f>_xlfn.RANK.EQ(K19,$K$7:$K$38)</f>
@@ -1939,26 +1937,26 @@
       </c>
       <c r="N19" s="14">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O19" s="15">
         <f t="shared" si="8"/>
-        <v>6560</v>
+        <v>7466</v>
       </c>
       <c r="P19" s="13">
         <f t="shared" si="9"/>
-        <v>4.34814309102598E-2</v>
+        <v>4.9384512604097042E-2</v>
       </c>
       <c r="Q19" s="16">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R19" s="17">
         <f t="shared" si="11"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
@@ -1969,53 +1967,53 @@
         <v>256643</v>
       </c>
       <c r="D20" s="11">
-        <v>250837</v>
+        <v>253120</v>
       </c>
       <c r="E20" s="11">
-        <v>263144</v>
+        <v>264145</v>
       </c>
       <c r="F20" s="11">
-        <v>264145</v>
+        <v>265857</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" si="1"/>
-        <v>1001</v>
+        <v>1712</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="2"/>
-        <v>3.804000851244993E-3</v>
+        <v>6.4812886861382868E-3</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J20" s="14">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K20" s="12">
         <f t="shared" si="5"/>
-        <v>7502</v>
+        <v>9214</v>
       </c>
       <c r="L20" s="13">
         <f t="shared" si="0"/>
-        <v>2.923126677914456E-2</v>
+        <v>3.5902011743939921E-2</v>
       </c>
       <c r="M20" s="11">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N20" s="14">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O20" s="15">
         <f t="shared" si="8"/>
-        <v>13308</v>
+        <v>12737</v>
       </c>
       <c r="P20" s="13">
         <f t="shared" si="9"/>
-        <v>5.3054373955995437E-2</v>
+        <v>5.0320006321112443E-2</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="10"/>
@@ -2026,7 +2024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>30</v>
       </c>
@@ -2037,37 +2035,37 @@
         <v>1932962</v>
       </c>
       <c r="D21" s="19">
-        <v>1888232</v>
+        <v>1896755</v>
       </c>
       <c r="E21" s="19">
-        <v>1973202</v>
+        <v>1974565</v>
       </c>
       <c r="F21" s="19">
-        <v>1974565</v>
+        <v>1980790</v>
       </c>
       <c r="G21" s="20">
         <f t="shared" si="1"/>
-        <v>1363</v>
+        <v>6225</v>
       </c>
       <c r="H21" s="21">
         <f t="shared" si="2"/>
-        <v>6.90755432033896E-4</v>
+        <v>3.1525931027847065E-3</v>
       </c>
       <c r="I21" s="19">
         <f>_xlfn.RANK.EQ(G21,$G$7:$G$38)</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J21" s="22">
         <f>_xlfn.RANK.EQ(H21,$H$7:$H$38)</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" si="5"/>
-        <v>41603</v>
+        <v>47828</v>
       </c>
       <c r="L21" s="21">
         <f t="shared" si="0"/>
-        <v>2.1522926989770097E-2</v>
+        <v>2.4743373123734536E-2</v>
       </c>
       <c r="M21" s="19">
         <f>_xlfn.RANK.EQ(K21,$K$7:$K$38)</f>
@@ -2079,22 +2077,22 @@
       </c>
       <c r="O21" s="23">
         <f>F21-D21</f>
-        <v>86333</v>
+        <v>84035</v>
       </c>
       <c r="P21" s="21">
         <f t="shared" si="9"/>
-        <v>4.5721606243300572E-2</v>
+        <v>4.4304614987175528E-2</v>
       </c>
       <c r="Q21" s="24">
         <f>_xlfn.RANK.EQ(O21,$O$7:$O$38)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R21" s="25">
         <f>_xlfn.RANK.EQ(P21,$P$7:$P$38)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>31</v>
       </c>
@@ -2105,64 +2103,64 @@
         <v>474615</v>
       </c>
       <c r="D22" s="11">
-        <v>464925</v>
+        <v>464051</v>
       </c>
       <c r="E22" s="11">
-        <v>481144</v>
+        <v>480918</v>
       </c>
       <c r="F22" s="11">
-        <v>480918</v>
+        <v>478147</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="1"/>
-        <v>-226</v>
+        <v>-2771</v>
       </c>
       <c r="H22" s="13">
         <f t="shared" si="2"/>
-        <v>-4.6971384866068E-4</v>
+        <v>-5.7618970385804325E-3</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K22" s="12">
         <f t="shared" si="5"/>
-        <v>6303</v>
+        <v>3532</v>
       </c>
       <c r="L22" s="13">
         <f t="shared" si="0"/>
-        <v>1.3280237666319028E-2</v>
+        <v>7.4418212656575111E-3</v>
       </c>
       <c r="M22" s="11">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N22" s="14">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O22" s="15">
         <f t="shared" si="8"/>
-        <v>15993</v>
+        <v>14096</v>
       </c>
       <c r="P22" s="13">
         <f t="shared" si="9"/>
-        <v>3.439909662848839E-2</v>
+        <v>3.0375971606569019E-2</v>
       </c>
       <c r="Q22" s="16">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R22" s="17">
         <f t="shared" si="11"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>32</v>
       </c>
@@ -2173,21 +2171,21 @@
         <v>215779</v>
       </c>
       <c r="D23" s="11">
-        <v>212927</v>
+        <v>213611</v>
       </c>
       <c r="E23" s="11">
-        <v>216611</v>
+        <v>216522</v>
       </c>
       <c r="F23" s="11">
-        <v>216522</v>
+        <v>216297</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="1"/>
-        <v>-89</v>
+        <v>-225</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="2"/>
-        <v>-4.1087479398549398E-4</v>
+        <v>-1.0391553745116022E-3</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="3"/>
@@ -2195,15 +2193,15 @@
       </c>
       <c r="J23" s="14">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K23" s="12">
         <f t="shared" si="5"/>
-        <v>743</v>
+        <v>518</v>
       </c>
       <c r="L23" s="13">
         <f t="shared" si="0"/>
-        <v>3.4433378595692954E-3</v>
+        <v>2.40060432201461E-3</v>
       </c>
       <c r="M23" s="11">
         <f t="shared" si="6"/>
@@ -2215,22 +2213,22 @@
       </c>
       <c r="O23" s="15">
         <f t="shared" si="8"/>
-        <v>3595</v>
+        <v>2686</v>
       </c>
       <c r="P23" s="13">
         <f t="shared" si="9"/>
-        <v>1.6883720711793337E-2</v>
+        <v>1.2574258816259398E-2</v>
       </c>
       <c r="Q23" s="16">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R23" s="17">
         <f t="shared" si="11"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>33</v>
       </c>
@@ -2241,21 +2239,21 @@
         <v>172495</v>
       </c>
       <c r="D24" s="11">
-        <v>168876</v>
+        <v>168878</v>
       </c>
       <c r="E24" s="11">
-        <v>179172</v>
+        <v>179978</v>
       </c>
       <c r="F24" s="11">
-        <v>179978</v>
+        <v>180779</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="1"/>
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="H24" s="13">
         <f t="shared" si="2"/>
-        <v>4.4984707431965365E-3</v>
+        <v>4.4505439553723658E-3</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="3"/>
@@ -2263,19 +2261,19 @@
       </c>
       <c r="J24" s="14">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K24" s="12">
         <f t="shared" si="5"/>
-        <v>7483</v>
+        <v>8284</v>
       </c>
       <c r="L24" s="13">
         <f t="shared" si="0"/>
-        <v>4.3380967564277118E-2</v>
+        <v>4.8024580422620922E-2</v>
       </c>
       <c r="M24" s="11">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N24" s="14">
         <f t="shared" si="7"/>
@@ -2283,22 +2281,22 @@
       </c>
       <c r="O24" s="15">
         <f t="shared" si="8"/>
-        <v>11102</v>
+        <v>11901</v>
       </c>
       <c r="P24" s="13">
         <f t="shared" si="9"/>
-        <v>6.5740543357256209E-2</v>
+        <v>7.0470990892833818E-2</v>
       </c>
       <c r="Q24" s="16">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R24" s="17">
         <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
@@ -2309,37 +2307,37 @@
         <v>1773136</v>
       </c>
       <c r="D25" s="11">
-        <v>1742394</v>
+        <v>1752958</v>
       </c>
       <c r="E25" s="11">
-        <v>1826292</v>
+        <v>1832028</v>
       </c>
       <c r="F25" s="11">
-        <v>1832028</v>
+        <v>1836478</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="1"/>
-        <v>5736</v>
+        <v>4450</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" si="2"/>
-        <v>3.1407901912727798E-3</v>
+        <v>2.4290021768225145E-3</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K25" s="12">
         <f t="shared" si="5"/>
-        <v>58892</v>
+        <v>63342</v>
       </c>
       <c r="L25" s="13">
         <f t="shared" si="0"/>
-        <v>3.3213470371139087E-2</v>
+        <v>3.5723148139793048E-2</v>
       </c>
       <c r="M25" s="11">
         <f t="shared" si="6"/>
@@ -2351,22 +2349,22 @@
       </c>
       <c r="O25" s="15">
         <f t="shared" si="8"/>
-        <v>89634</v>
+        <v>83520</v>
       </c>
       <c r="P25" s="13">
         <f t="shared" si="9"/>
-        <v>5.1443014610931925E-2</v>
+        <v>4.7645180318068192E-2</v>
       </c>
       <c r="Q25" s="16">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R25" s="17">
         <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
@@ -2377,64 +2375,64 @@
         <v>218200</v>
       </c>
       <c r="D26" s="11">
-        <v>212844</v>
+        <v>214206</v>
       </c>
       <c r="E26" s="11">
-        <v>221299</v>
+        <v>220674</v>
       </c>
       <c r="F26" s="11">
-        <v>220674</v>
+        <v>221353</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="1"/>
-        <v>-625</v>
+        <v>679</v>
       </c>
       <c r="H26" s="13">
         <f t="shared" si="2"/>
-        <v>-2.8242332771498679E-3</v>
+        <v>3.0769370202199386E-3</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="K26" s="12">
         <f t="shared" si="5"/>
-        <v>2474</v>
+        <v>3153</v>
       </c>
       <c r="L26" s="13">
         <f t="shared" si="0"/>
-        <v>1.1338221814848781E-2</v>
+        <v>1.4450045829514258E-2</v>
       </c>
       <c r="M26" s="11">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N26" s="14">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O26" s="15">
         <f t="shared" si="8"/>
-        <v>7830</v>
+        <v>7147</v>
       </c>
       <c r="P26" s="13">
         <f t="shared" si="9"/>
-        <v>3.6787506342673471E-2</v>
+        <v>3.3365078475859677E-2</v>
       </c>
       <c r="Q26" s="16">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R26" s="17">
         <f t="shared" si="11"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>36</v>
       </c>
@@ -2445,64 +2443,64 @@
         <v>628792</v>
       </c>
       <c r="D27" s="11">
-        <v>616137</v>
+        <v>619282</v>
       </c>
       <c r="E27" s="11">
-        <v>637791</v>
+        <v>637794</v>
       </c>
       <c r="F27" s="11">
-        <v>637794</v>
+        <v>641125</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3331</v>
       </c>
       <c r="H27" s="13">
         <f t="shared" si="2"/>
-        <v>4.7037352362000462E-6</v>
+        <v>5.2226894577245275E-3</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K27" s="12">
         <f t="shared" si="5"/>
-        <v>9002</v>
+        <v>12333</v>
       </c>
       <c r="L27" s="13">
         <f t="shared" si="0"/>
-        <v>1.4316339902543218E-2</v>
+        <v>1.9613799157750078E-2</v>
       </c>
       <c r="M27" s="11">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N27" s="14">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O27" s="15">
         <f t="shared" si="8"/>
-        <v>21657</v>
+        <v>21843</v>
       </c>
       <c r="P27" s="13">
         <f t="shared" si="9"/>
-        <v>3.514965015897431E-2</v>
+        <v>3.5271491824403034E-2</v>
       </c>
       <c r="Q27" s="16">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R27" s="17">
         <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>37</v>
       </c>
@@ -2513,37 +2511,37 @@
         <v>662609</v>
       </c>
       <c r="D28" s="11">
-        <v>651828</v>
+        <v>655295</v>
       </c>
       <c r="E28" s="11">
-        <v>682969</v>
+        <v>687827</v>
       </c>
       <c r="F28" s="11">
-        <v>687827</v>
+        <v>688819</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="1"/>
-        <v>4858</v>
+        <v>992</v>
       </c>
       <c r="H28" s="13">
         <f t="shared" si="2"/>
-        <v>7.1130607684974922E-3</v>
+        <v>1.4422231171500322E-3</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="K28" s="12">
         <f t="shared" si="5"/>
-        <v>25218</v>
+        <v>26210</v>
       </c>
       <c r="L28" s="13">
         <f t="shared" si="0"/>
-        <v>3.8058643936318415E-2</v>
+        <v>3.9555756109560747E-2</v>
       </c>
       <c r="M28" s="11">
         <f t="shared" si="6"/>
@@ -2555,22 +2553,22 @@
       </c>
       <c r="O28" s="15">
         <f t="shared" si="8"/>
-        <v>35999</v>
+        <v>33524</v>
       </c>
       <c r="P28" s="13">
         <f t="shared" si="9"/>
-        <v>5.5227759470289683E-2</v>
+        <v>5.1158638475800933E-2</v>
       </c>
       <c r="Q28" s="16">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R28" s="17">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>38</v>
       </c>
@@ -2581,21 +2579,21 @@
         <v>468732</v>
       </c>
       <c r="D29" s="11">
-        <v>457405</v>
+        <v>462635</v>
       </c>
       <c r="E29" s="11">
-        <v>491986</v>
+        <v>498653</v>
       </c>
       <c r="F29" s="11">
-        <v>498653</v>
+        <v>503626</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="1"/>
-        <v>6667</v>
+        <v>4973</v>
       </c>
       <c r="H29" s="13">
         <f t="shared" si="2"/>
-        <v>1.3551198611342574E-2</v>
+        <v>9.9728669034377937E-3</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
@@ -2607,15 +2605,15 @@
       </c>
       <c r="K29" s="12">
         <f t="shared" si="5"/>
-        <v>29921</v>
+        <v>34894</v>
       </c>
       <c r="L29" s="13">
         <f t="shared" si="0"/>
-        <v>6.3833917889113634E-2</v>
+        <v>7.4443391959584604E-2</v>
       </c>
       <c r="M29" s="11">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N29" s="14">
         <f t="shared" si="7"/>
@@ -2623,22 +2621,22 @@
       </c>
       <c r="O29" s="15">
         <f t="shared" si="8"/>
-        <v>41248</v>
+        <v>40991</v>
       </c>
       <c r="P29" s="13">
         <f t="shared" si="9"/>
-        <v>9.0178288387752659E-2</v>
+        <v>8.8603326596560894E-2</v>
       </c>
       <c r="Q29" s="16">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R29" s="17">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>39</v>
       </c>
@@ -2649,64 +2647,64 @@
         <v>461059</v>
       </c>
       <c r="D30" s="11">
-        <v>458088</v>
+        <v>457458</v>
       </c>
       <c r="E30" s="11">
-        <v>472317</v>
+        <v>473349</v>
       </c>
       <c r="F30" s="11">
-        <v>473349</v>
+        <v>472947</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="1"/>
-        <v>1032</v>
+        <v>-402</v>
       </c>
       <c r="H30" s="13">
         <f t="shared" si="2"/>
-        <v>2.1849732277263723E-3</v>
+        <v>-8.4926766508430784E-4</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J30" s="14">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K30" s="12">
         <f t="shared" si="5"/>
-        <v>12290</v>
+        <v>11888</v>
       </c>
       <c r="L30" s="13">
         <f t="shared" si="0"/>
-        <v>2.6656024500118169E-2</v>
+        <v>2.5784118735346251E-2</v>
       </c>
       <c r="M30" s="11">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N30" s="14">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O30" s="15">
         <f t="shared" si="8"/>
-        <v>15261</v>
+        <v>15489</v>
       </c>
       <c r="P30" s="13">
         <f t="shared" si="9"/>
-        <v>3.3314559647927844E-2</v>
+        <v>3.3858846057998715E-2</v>
       </c>
       <c r="Q30" s="16">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R30" s="17">
         <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>40</v>
       </c>
@@ -2717,21 +2715,21 @@
         <v>598307</v>
       </c>
       <c r="D31" s="11">
-        <v>573993</v>
+        <v>566170</v>
       </c>
       <c r="E31" s="11">
-        <v>615722</v>
+        <v>595370</v>
       </c>
       <c r="F31" s="11">
-        <v>595370</v>
+        <v>582043</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="1"/>
-        <v>-20352</v>
+        <v>-13327</v>
       </c>
       <c r="H31" s="13">
         <f t="shared" si="2"/>
-        <v>-3.3053878211270704E-2</v>
+        <v>-2.2384399617044859E-2</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" si="3"/>
@@ -2743,38 +2741,38 @@
       </c>
       <c r="K31" s="12">
         <f t="shared" si="5"/>
-        <v>-2937</v>
+        <v>-16264</v>
       </c>
       <c r="L31" s="13">
         <f t="shared" si="0"/>
-        <v>-4.908851141637971E-3</v>
+        <v>-2.7183369073067842E-2</v>
       </c>
       <c r="M31" s="11">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N31" s="14">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O31" s="15">
         <f t="shared" si="8"/>
-        <v>21377</v>
+        <v>15873</v>
       </c>
       <c r="P31" s="13">
         <f t="shared" si="9"/>
-        <v>3.7242614456970635E-2</v>
+        <v>2.8035748979988284E-2</v>
       </c>
       <c r="Q31" s="16">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R31" s="17">
         <f t="shared" si="11"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>41</v>
       </c>
@@ -2785,37 +2783,37 @@
         <v>607801</v>
       </c>
       <c r="D32" s="11">
-        <v>617199</v>
+        <v>616196</v>
       </c>
       <c r="E32" s="11">
-        <v>633871</v>
+        <v>631780</v>
       </c>
       <c r="F32" s="11">
-        <v>631780</v>
+        <v>630323</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="1"/>
-        <v>-2091</v>
+        <v>-1457</v>
       </c>
       <c r="H32" s="13">
         <f t="shared" si="2"/>
-        <v>-3.2987784580774671E-3</v>
+        <v>-2.3061825318939633E-3</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J32" s="14">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K32" s="12">
         <f t="shared" si="5"/>
-        <v>23979</v>
+        <v>22522</v>
       </c>
       <c r="L32" s="13">
         <f t="shared" si="0"/>
-        <v>3.9452057499082649E-2</v>
+        <v>3.7054891321337102E-2</v>
       </c>
       <c r="M32" s="11">
         <f t="shared" si="6"/>
@@ -2823,26 +2821,26 @@
       </c>
       <c r="N32" s="14">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O32" s="15">
         <f t="shared" si="8"/>
-        <v>14581</v>
+        <v>14127</v>
       </c>
       <c r="P32" s="13">
         <f t="shared" si="9"/>
-        <v>2.3624471199726438E-2</v>
+        <v>2.2926146875344777E-2</v>
       </c>
       <c r="Q32" s="16">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R32" s="17">
         <f t="shared" si="11"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>42</v>
       </c>
@@ -2853,53 +2851,53 @@
         <v>236579</v>
       </c>
       <c r="D33" s="11">
-        <v>224698</v>
+        <v>225937</v>
       </c>
       <c r="E33" s="11">
-        <v>244054</v>
+        <v>245443</v>
       </c>
       <c r="F33" s="11">
-        <v>245443</v>
+        <v>244679</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="1"/>
-        <v>1389</v>
+        <v>-764</v>
       </c>
       <c r="H33" s="13">
         <f t="shared" si="2"/>
-        <v>5.6913633867914371E-3</v>
+        <v>-3.1127390066125749E-3</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J33" s="14">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="K33" s="12">
         <f t="shared" si="5"/>
-        <v>8864</v>
+        <v>8100</v>
       </c>
       <c r="L33" s="13">
         <f t="shared" si="0"/>
-        <v>3.7467399896017772E-2</v>
+        <v>3.4238034652272598E-2</v>
       </c>
       <c r="M33" s="11">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N33" s="14">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O33" s="15">
         <f t="shared" si="8"/>
-        <v>20745</v>
+        <v>18742</v>
       </c>
       <c r="P33" s="13">
         <f t="shared" si="9"/>
-        <v>9.232391921601435E-2</v>
+        <v>8.2952327418705174E-2</v>
       </c>
       <c r="Q33" s="16">
         <f t="shared" si="10"/>
@@ -2907,10 +2905,10 @@
       </c>
       <c r="R33" s="17">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>43</v>
       </c>
@@ -2921,53 +2919,53 @@
         <v>700924</v>
       </c>
       <c r="D34" s="11">
-        <v>710335</v>
+        <v>710126</v>
       </c>
       <c r="E34" s="11">
-        <v>711835</v>
+        <v>712999</v>
       </c>
       <c r="F34" s="11">
-        <v>712999</v>
+        <v>711238</v>
       </c>
       <c r="G34" s="12">
         <f t="shared" si="1"/>
-        <v>1164</v>
+        <v>-1761</v>
       </c>
       <c r="H34" s="13">
         <f t="shared" si="2"/>
-        <v>1.6352104069061735E-3</v>
+        <v>-2.4698491863242023E-3</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J34" s="14">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K34" s="12">
         <f t="shared" si="5"/>
-        <v>12075</v>
+        <v>10314</v>
       </c>
       <c r="L34" s="13">
         <f t="shared" si="0"/>
-        <v>1.7227260016777768E-2</v>
+        <v>1.471486209631867E-2</v>
       </c>
       <c r="M34" s="11">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N34" s="14">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O34" s="15">
         <f t="shared" si="8"/>
-        <v>2664</v>
+        <v>1112</v>
       </c>
       <c r="P34" s="13">
         <f t="shared" si="9"/>
-        <v>3.7503431479513072E-3</v>
+        <v>1.5659192875630001E-3</v>
       </c>
       <c r="Q34" s="16">
         <f t="shared" si="10"/>
@@ -2978,7 +2976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>44</v>
       </c>
@@ -2989,41 +2987,41 @@
         <v>109884</v>
       </c>
       <c r="D35" s="11">
-        <v>106877</v>
+        <v>108344</v>
       </c>
       <c r="E35" s="11">
-        <v>113760</v>
+        <v>114356</v>
       </c>
       <c r="F35" s="11">
-        <v>114356</v>
+        <v>114739</v>
       </c>
       <c r="G35" s="12">
         <f t="shared" si="1"/>
-        <v>596</v>
+        <v>383</v>
       </c>
       <c r="H35" s="13">
         <f t="shared" si="2"/>
-        <v>5.2390998593530025E-3</v>
+        <v>3.3491902479974023E-3</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J35" s="14">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K35" s="12">
         <f t="shared" si="5"/>
-        <v>4472</v>
+        <v>4855</v>
       </c>
       <c r="L35" s="13">
         <f t="shared" si="0"/>
-        <v>4.0697462778930493E-2</v>
+        <v>4.4182956572385468E-2</v>
       </c>
       <c r="M35" s="11">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N35" s="14">
         <f t="shared" si="7"/>
@@ -3031,22 +3029,22 @@
       </c>
       <c r="O35" s="15">
         <f t="shared" si="8"/>
-        <v>7479</v>
+        <v>6395</v>
       </c>
       <c r="P35" s="13">
         <f t="shared" si="9"/>
-        <v>6.9977637845373586E-2</v>
+        <v>5.9024957542642031E-2</v>
       </c>
       <c r="Q35" s="16">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R35" s="17">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>45</v>
       </c>
@@ -3057,41 +3055,41 @@
         <v>750470</v>
       </c>
       <c r="D36" s="11">
-        <v>728027</v>
+        <v>722269</v>
       </c>
       <c r="E36" s="11">
-        <v>748704</v>
+        <v>745117</v>
       </c>
       <c r="F36" s="11">
-        <v>745117</v>
+        <v>744249</v>
       </c>
       <c r="G36" s="12">
         <f t="shared" si="1"/>
-        <v>-3587</v>
+        <v>-868</v>
       </c>
       <c r="H36" s="13">
         <f t="shared" si="2"/>
-        <v>-4.7909454203530766E-3</v>
+        <v>-1.164917724330583E-3</v>
       </c>
       <c r="I36" s="11">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J36" s="14">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K36" s="12">
         <f t="shared" si="5"/>
-        <v>-5353</v>
+        <v>-6221</v>
       </c>
       <c r="L36" s="13">
         <f t="shared" si="0"/>
-        <v>-7.1328634055991547E-3</v>
+        <v>-8.2894719309233311E-3</v>
       </c>
       <c r="M36" s="11">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N36" s="14">
         <f t="shared" si="7"/>
@@ -3099,22 +3097,22 @@
       </c>
       <c r="O36" s="15">
         <f t="shared" si="8"/>
-        <v>17090</v>
+        <v>21980</v>
       </c>
       <c r="P36" s="13">
         <f t="shared" si="9"/>
-        <v>2.3474404108638769E-2</v>
+        <v>3.0431875104704798E-2</v>
       </c>
       <c r="Q36" s="16">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="R36" s="17">
         <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>46</v>
       </c>
@@ -3125,64 +3123,64 @@
         <v>414439</v>
       </c>
       <c r="D37" s="11">
-        <v>402221</v>
+        <v>404191</v>
       </c>
       <c r="E37" s="11">
-        <v>421816</v>
+        <v>423677</v>
       </c>
       <c r="F37" s="11">
-        <v>423677</v>
+        <v>424406</v>
       </c>
       <c r="G37" s="12">
         <f t="shared" si="1"/>
-        <v>1861</v>
+        <v>729</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" si="2"/>
-        <v>4.4118762683256207E-3</v>
+        <v>1.7206504011311186E-3</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J37" s="14">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K37" s="12">
         <f t="shared" si="5"/>
-        <v>9238</v>
+        <v>9967</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="0"/>
-        <v>2.2290373251552031E-2</v>
+        <v>2.4049377592359811E-2</v>
       </c>
       <c r="M37" s="11">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N37" s="14">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O37" s="15">
         <f t="shared" si="8"/>
-        <v>21456</v>
+        <v>20215</v>
       </c>
       <c r="P37" s="13">
         <f t="shared" si="9"/>
-        <v>5.3343808503285572E-2</v>
+        <v>5.001348372427894E-2</v>
       </c>
       <c r="Q37" s="16">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R37" s="17">
         <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>47</v>
       </c>
@@ -3193,64 +3191,64 @@
         <v>194743</v>
       </c>
       <c r="D38" s="11">
-        <v>195805</v>
+        <v>195521</v>
       </c>
       <c r="E38" s="11">
-        <v>197853</v>
+        <v>198536</v>
       </c>
       <c r="F38" s="11">
-        <v>198536</v>
+        <v>199578</v>
       </c>
       <c r="G38" s="12">
         <f t="shared" si="1"/>
-        <v>683</v>
+        <v>1042</v>
       </c>
       <c r="H38" s="13">
         <f t="shared" si="2"/>
-        <v>3.4520578409222846E-3</v>
+        <v>5.2484184228553943E-3</v>
       </c>
       <c r="I38" s="11">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J38" s="14">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K38" s="12">
         <f t="shared" si="5"/>
-        <v>3793</v>
+        <v>4835</v>
       </c>
       <c r="L38" s="13">
         <f t="shared" si="0"/>
-        <v>1.9476951674771259E-2</v>
+        <v>2.4827593289617589E-2</v>
       </c>
       <c r="M38" s="11">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N38" s="14">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O38" s="15">
         <f>F38-D38</f>
-        <v>2731</v>
+        <v>4057</v>
       </c>
       <c r="P38" s="13">
         <f>F38/D38-1</f>
-        <v>1.3947549858277286E-2</v>
+        <v>2.0749689291687412E-2</v>
       </c>
       <c r="Q38" s="16">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R38" s="17">
         <f t="shared" si="11"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
         <v>48</v>
       </c>
@@ -3264,48 +3262,48 @@
       </c>
       <c r="D39" s="28">
         <f>SUM(D7:D38)</f>
-        <v>21008487</v>
+        <v>21068708</v>
       </c>
       <c r="E39" s="28">
         <f>SUM(E7:E38)</f>
-        <v>21820291</v>
+        <v>21862909</v>
       </c>
       <c r="F39" s="28">
         <f>SUM(F7:F38)</f>
-        <v>21862909</v>
+        <v>21887307</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="1"/>
-        <v>42618</v>
+        <v>24398</v>
       </c>
       <c r="H39" s="30">
         <f t="shared" si="2"/>
-        <v>1.9531361886970799E-3</v>
+        <v>1.1159539656868667E-3</v>
       </c>
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
       <c r="K39" s="29">
         <f t="shared" si="5"/>
-        <v>490013</v>
+        <v>514411</v>
       </c>
       <c r="L39" s="30">
         <f t="shared" si="0"/>
-        <v>2.2926841547350474E-2</v>
+        <v>2.4068380812782619E-2</v>
       </c>
       <c r="M39" s="31"/>
       <c r="N39" s="32"/>
       <c r="O39" s="33">
         <f>F39-D39</f>
-        <v>854422</v>
+        <v>818599</v>
       </c>
       <c r="P39" s="30">
         <f>F39/D39-1</f>
-        <v>4.0670325283300945E-2</v>
+        <v>3.8853782586003804E-2</v>
       </c>
       <c r="Q39" s="34"/>
       <c r="R39" s="35"/>
     </row>
-    <row r="40" spans="1:18" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -3316,7 +3314,7 @@
       <c r="O40" s="39"/>
       <c r="P40" s="40"/>
     </row>
-    <row r="41" spans="1:18" ht="48.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="48.3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>49</v>
       </c>
@@ -3338,7 +3336,7 @@
       <c r="Q41" s="44"/>
       <c r="R41" s="44"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>

--- a/Tabulados/TAentidadrank_delegacion.xlsx
+++ b/Tabulados/TAentidadrank_delegacion.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A470EEC5-C1CB-49C7-99F3-AA0DDA738257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB50956-A9B1-40AC-9A6D-35619E22511C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{617C9870-FE0B-417C-8DEE-7EDC5C0D8B08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9ADD1AC3-7CD2-44F3-8EDD-DC1FEEEDFF46}"/>
   </bookViews>
   <sheets>
-    <sheet name="ta_junio" sheetId="1" r:id="rId1"/>
+    <sheet name="ta_julio" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Trabajadores asegurados</t>
   </si>
@@ -57,24 +57,24 @@
   </si>
   <si>
     <t>2022
-Junio</t>
-  </si>
-  <si>
-    <t>2023
-Mayo</t>
+Julio</t>
   </si>
   <si>
     <t>2023
 Junio</t>
   </si>
   <si>
-    <t>Junio 2023 respecto a Mayo 2023</t>
-  </si>
-  <si>
-    <t>Junio 2023 respecto a Diciembre 2022</t>
-  </si>
-  <si>
-    <t>Junio 2023 respecto a Junio 2022</t>
+    <t>2023
+Julio</t>
+  </si>
+  <si>
+    <t>Julio 2023 respecto a Junio 2023</t>
+  </si>
+  <si>
+    <t>Julio 2023 respecto a Diciembre 2022</t>
+  </si>
+  <si>
+    <t>Julio 2023 respecto a Julio 2022</t>
   </si>
   <si>
     <t>Variación Absoluta</t>
@@ -186,25 +186,6 @@
   </si>
   <si>
     <t>Total nacional</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nota:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> La información presentada es con base en la información por delegaciones del IMSS que publica en su plataforma, la cual difiere para algunos estados con la que posteriormente envía al IIEG por entidad federativa. Para Baja California, Baja California Sur, Coahuila, Colima, Guanajuato, Michoacán, Nuevo León, Oaxaca, Sonora, Tamaulipas y Veracruz, las cifras por delegación y entidad tienen pequeñas diferencias debido a que las cifras por delegación contienen trabajadores de otras entidades, ya que una clínica que se encuentre en el límite estatal registra y atiende a comunidades de entidades colindantes. Estas diferencias se corrigen cuando el IMSS envía la base de datos por entidad federativa al IIEG días después de liberar la cifra por delegación en su cubo interactivo</t>
-    </r>
   </si>
   <si>
     <r>
@@ -224,7 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -269,18 +250,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF404041"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -447,7 +416,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -538,20 +507,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -568,7 +529,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{DC40CBFB-C2E3-4665-B9C9-F6D46EE2CAAC}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6DBF24DF-06C6-4716-B8D3-C9879E3BE14C}"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -880,28 +841,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260231C6-CCAB-400A-991B-0599B208CA88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA91C94C-4D98-428E-8D01-DD346A17041A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
     <col min="2" max="2" width="9.21875" customWidth="1"/>
     <col min="3" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="11" max="12" width="11.77734375" customWidth="1"/>
+    <col min="13" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" customWidth="1"/>
+    <col min="17" max="18" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -991,50 +954,50 @@
       <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="43" t="s">
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-    </row>
-    <row r="6" spans="1:18" ht="40.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+    </row>
+    <row r="6" spans="1:18" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1083,37 +1046,37 @@
         <v>342215</v>
       </c>
       <c r="D7" s="11">
-        <v>341163</v>
+        <v>340196</v>
       </c>
       <c r="E7" s="11">
-        <v>351682</v>
+        <v>352869</v>
       </c>
       <c r="F7" s="11">
-        <v>352869</v>
+        <v>353314</v>
       </c>
       <c r="G7" s="12">
         <f>F7-E7</f>
-        <v>1187</v>
+        <v>445</v>
       </c>
       <c r="H7" s="13">
         <f>F7/E7-1</f>
-        <v>3.3752082847573472E-3</v>
+        <v>1.2610912264892082E-3</v>
       </c>
       <c r="I7" s="11">
         <f>_xlfn.RANK.EQ(G7,$G$7:$G$38)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="14">
         <f>_xlfn.RANK.EQ(H7,$H$7:$H$38)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" s="12">
         <f>F7-C7</f>
-        <v>10654</v>
+        <v>11099</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" ref="L7:L39" si="0">F7/C7-1</f>
-        <v>3.113247519834017E-2</v>
+        <v>3.2432827316160928E-2</v>
       </c>
       <c r="M7" s="11">
         <f>_xlfn.RANK.EQ(K7,$K$7:$K$38)</f>
@@ -1121,19 +1084,19 @@
       </c>
       <c r="N7" s="14">
         <f>_xlfn.RANK.EQ(L7,$L$7:$L$38)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" s="15">
         <f>F7-D7</f>
-        <v>11706</v>
+        <v>13118</v>
       </c>
       <c r="P7" s="13">
         <f>F7/D7-1</f>
-        <v>3.4312044389338769E-2</v>
+        <v>3.8560124163717457E-2</v>
       </c>
       <c r="Q7" s="16">
         <f>_xlfn.RANK.EQ(O7,$O$7:$O$38)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R7" s="17">
         <f>_xlfn.RANK.EQ(P7,$P$7:$P$38)</f>
@@ -1151,41 +1114,41 @@
         <v>1042740</v>
       </c>
       <c r="D8" s="11">
-        <v>1044677</v>
+        <v>1044894</v>
       </c>
       <c r="E8" s="11">
-        <v>1075051</v>
+        <v>1075896</v>
       </c>
       <c r="F8" s="11">
-        <v>1075896</v>
+        <v>1074988</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ref="G8:G39" si="1">F8-E8</f>
-        <v>845</v>
+        <v>-908</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" ref="H8:H39" si="2">F8/E8-1</f>
-        <v>7.8600922188809541E-4</v>
+        <v>-8.4394774216089985E-4</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" ref="I8:I38" si="3">_xlfn.RANK.EQ(G8,$G$7:$G$38)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" ref="J8:J38" si="4">_xlfn.RANK.EQ(H8,$H$7:$H$38)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" ref="K8:K39" si="5">F8-C8</f>
-        <v>33156</v>
+        <v>32248</v>
       </c>
       <c r="L8" s="13">
         <f t="shared" si="0"/>
-        <v>3.179699637493516E-2</v>
+        <v>3.0926213629476118E-2</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" ref="M8:M38" si="6">_xlfn.RANK.EQ(K8,$K$7:$K$38)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N8" s="14">
         <f t="shared" ref="N8:N38" si="7">_xlfn.RANK.EQ(L8,$L$7:$L$38)</f>
@@ -1193,11 +1156,11 @@
       </c>
       <c r="O8" s="15">
         <f t="shared" ref="O8:O37" si="8">F8-D8</f>
-        <v>31219</v>
+        <v>30094</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" ref="P8:P37" si="9">F8/D8-1</f>
-        <v>2.9883877983338358E-2</v>
+        <v>2.8801007566317649E-2</v>
       </c>
       <c r="Q8" s="16">
         <f t="shared" ref="Q8:Q38" si="10">_xlfn.RANK.EQ(O8,$O$7:$O$38)</f>
@@ -1219,37 +1182,37 @@
         <v>210207</v>
       </c>
       <c r="D9" s="11">
-        <v>208042</v>
+        <v>206475</v>
       </c>
       <c r="E9" s="11">
-        <v>222528</v>
+        <v>225288</v>
       </c>
       <c r="F9" s="11">
-        <v>225288</v>
+        <v>222882</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="1"/>
-        <v>2760</v>
+        <v>-2406</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" si="2"/>
-        <v>1.2402933563416818E-2</v>
+        <v>-1.0679663364227099E-2</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="5"/>
-        <v>15081</v>
+        <v>12675</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="0"/>
-        <v>7.1743567055331248E-2</v>
+        <v>6.0297706546404317E-2</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="6"/>
@@ -1261,15 +1224,15 @@
       </c>
       <c r="O9" s="15">
         <f t="shared" si="8"/>
-        <v>17246</v>
+        <v>16407</v>
       </c>
       <c r="P9" s="13">
         <f t="shared" si="9"/>
-        <v>8.289672277713156E-2</v>
+        <v>7.9462404649473406E-2</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R9" s="17">
         <f t="shared" si="11"/>
@@ -1287,57 +1250,57 @@
         <v>137105</v>
       </c>
       <c r="D10" s="11">
-        <v>133445</v>
+        <v>133997</v>
       </c>
       <c r="E10" s="11">
-        <v>139905</v>
+        <v>141245</v>
       </c>
       <c r="F10" s="11">
-        <v>141245</v>
+        <v>141252</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="1"/>
-        <v>1340</v>
+        <v>7</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" si="2"/>
-        <v>9.5779278796326306E-3</v>
+        <v>4.9559276434463229E-5</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="5"/>
-        <v>4140</v>
+        <v>4147</v>
       </c>
       <c r="L10" s="13">
         <f t="shared" si="0"/>
-        <v>3.0195835308705066E-2</v>
+        <v>3.0246891068888893E-2</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N10" s="14">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" si="8"/>
-        <v>7800</v>
+        <v>7255</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" si="9"/>
-        <v>5.8451047247929822E-2</v>
+        <v>5.4143003201564177E-2</v>
       </c>
       <c r="Q10" s="16">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R10" s="17">
         <f t="shared" si="11"/>
@@ -1355,61 +1318,61 @@
         <v>241142</v>
       </c>
       <c r="D11" s="11">
-        <v>237565</v>
+        <v>235689</v>
       </c>
       <c r="E11" s="11">
-        <v>243926</v>
+        <v>245769</v>
       </c>
       <c r="F11" s="11">
-        <v>245769</v>
+        <v>246191</v>
       </c>
       <c r="G11" s="12">
         <f>F11-E11</f>
-        <v>1843</v>
+        <v>422</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" si="2"/>
-        <v>7.5555701319252044E-3</v>
+        <v>1.7170595152358192E-3</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K11" s="12">
         <f t="shared" si="5"/>
-        <v>4627</v>
+        <v>5049</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
-        <v>1.9187864411840394E-2</v>
+        <v>2.0937870632241617E-2</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N11" s="14">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O11" s="15">
         <f t="shared" si="8"/>
-        <v>8204</v>
+        <v>10502</v>
       </c>
       <c r="P11" s="13">
         <f t="shared" si="9"/>
-        <v>3.4533706564519262E-2</v>
+        <v>4.4558719329285568E-2</v>
       </c>
       <c r="Q11" s="16">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R11" s="17">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1423,53 +1386,53 @@
         <v>962905</v>
       </c>
       <c r="D12" s="11">
-        <v>960072</v>
+        <v>959639</v>
       </c>
       <c r="E12" s="11">
-        <v>988994</v>
+        <v>989243</v>
       </c>
       <c r="F12" s="11">
-        <v>989243</v>
+        <v>985556</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>-3687</v>
       </c>
       <c r="H12" s="13">
         <f t="shared" si="2"/>
-        <v>2.5177099153284033E-4</v>
+        <v>-3.7270923322176852E-3</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="5"/>
-        <v>26338</v>
+        <v>22651</v>
       </c>
       <c r="L12" s="13">
         <f t="shared" si="0"/>
-        <v>2.7352646418909554E-2</v>
+        <v>2.3523608247957961E-2</v>
       </c>
       <c r="M12" s="11">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N12" s="14">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O12" s="15">
         <f t="shared" si="8"/>
-        <v>29171</v>
+        <v>25917</v>
       </c>
       <c r="P12" s="13">
         <f t="shared" si="9"/>
-        <v>3.0384179519869381E-2</v>
+        <v>2.7007030768862128E-2</v>
       </c>
       <c r="Q12" s="16">
         <f t="shared" si="10"/>
@@ -1477,7 +1440,7 @@
       </c>
       <c r="R12" s="17">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1491,37 +1454,37 @@
         <v>3394982</v>
       </c>
       <c r="D13" s="11">
-        <v>3337399</v>
+        <v>3347891</v>
       </c>
       <c r="E13" s="11">
-        <v>3434727</v>
+        <v>3435501</v>
       </c>
       <c r="F13" s="11">
-        <v>3435501</v>
+        <v>3437595</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="1"/>
-        <v>774</v>
+        <v>2094</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="2"/>
-        <v>2.2534542046570571E-4</v>
+        <v>6.09518087754779E-4</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J13" s="14">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" si="5"/>
-        <v>40519</v>
+        <v>42613</v>
       </c>
       <c r="L13" s="13">
         <f t="shared" si="0"/>
-        <v>1.1934967549165121E-2</v>
+        <v>1.2551760215518071E-2</v>
       </c>
       <c r="M13" s="11">
         <f t="shared" si="6"/>
@@ -1529,15 +1492,15 @@
       </c>
       <c r="N13" s="14">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O13" s="15">
         <f t="shared" si="8"/>
-        <v>98102</v>
+        <v>89704</v>
       </c>
       <c r="P13" s="13">
         <f t="shared" si="9"/>
-        <v>2.9394747226807461E-2</v>
+        <v>2.679418176995596E-2</v>
       </c>
       <c r="Q13" s="16">
         <f t="shared" si="10"/>
@@ -1545,7 +1508,7 @@
       </c>
       <c r="R13" s="17">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1559,41 +1522,41 @@
         <v>825159</v>
       </c>
       <c r="D14" s="11">
-        <v>814614</v>
+        <v>817847</v>
       </c>
       <c r="E14" s="11">
-        <v>854521</v>
+        <v>856157</v>
       </c>
       <c r="F14" s="11">
-        <v>856157</v>
+        <v>858042</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="1"/>
-        <v>1636</v>
+        <v>1885</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" si="2"/>
-        <v>1.9145228730481634E-3</v>
+        <v>2.2016989874520387E-3</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K14" s="12">
         <f t="shared" si="5"/>
-        <v>30998</v>
+        <v>32883</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="0"/>
-        <v>3.7566093322620286E-2</v>
+        <v>3.9850501539703265E-2</v>
       </c>
       <c r="M14" s="11">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" si="7"/>
@@ -1601,11 +1564,11 @@
       </c>
       <c r="O14" s="15">
         <f t="shared" si="8"/>
-        <v>41543</v>
+        <v>40195</v>
       </c>
       <c r="P14" s="13">
         <f t="shared" si="9"/>
-        <v>5.0997159390828051E-2</v>
+        <v>4.9147334403623066E-2</v>
       </c>
       <c r="Q14" s="16">
         <f t="shared" si="10"/>
@@ -1613,7 +1576,7 @@
       </c>
       <c r="R14" s="17">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1627,41 +1590,41 @@
         <v>147281</v>
       </c>
       <c r="D15" s="11">
-        <v>142704</v>
+        <v>142839</v>
       </c>
       <c r="E15" s="11">
-        <v>149841</v>
+        <v>148334</v>
       </c>
       <c r="F15" s="11">
-        <v>148334</v>
+        <v>148588</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>-1507</v>
+        <v>254</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" si="2"/>
-        <v>-1.0057327433746432E-2</v>
+        <v>1.7123518545985039E-3</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" si="5"/>
-        <v>1053</v>
+        <v>1307</v>
       </c>
       <c r="L15" s="13">
         <f t="shared" si="0"/>
-        <v>7.1495983867573276E-3</v>
+        <v>8.8741928694129335E-3</v>
       </c>
       <c r="M15" s="11">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N15" s="14">
         <f t="shared" si="7"/>
@@ -1669,19 +1632,19 @@
       </c>
       <c r="O15" s="15">
         <f t="shared" si="8"/>
-        <v>5630</v>
+        <v>5749</v>
       </c>
       <c r="P15" s="13">
         <f t="shared" si="9"/>
-        <v>3.9452292857943716E-2</v>
+        <v>4.0248111510161833E-2</v>
       </c>
       <c r="Q15" s="16">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R15" s="17">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1695,57 +1658,57 @@
         <v>256778</v>
       </c>
       <c r="D16" s="11">
-        <v>257638</v>
+        <v>256989</v>
       </c>
       <c r="E16" s="11">
-        <v>261209</v>
+        <v>260828</v>
       </c>
       <c r="F16" s="11">
-        <v>260828</v>
+        <v>259414</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="1"/>
-        <v>-381</v>
+        <v>-1414</v>
       </c>
       <c r="H16" s="13">
         <f t="shared" si="2"/>
-        <v>-1.4586021155472695E-3</v>
+        <v>-5.4211971107396284E-3</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="5"/>
-        <v>4050</v>
+        <v>2636</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="0"/>
-        <v>1.5772379253674362E-2</v>
+        <v>1.026567696609515E-2</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N16" s="14">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O16" s="15">
         <f t="shared" si="8"/>
-        <v>3190</v>
+        <v>2425</v>
       </c>
       <c r="P16" s="13">
         <f t="shared" si="9"/>
-        <v>1.2381713877611222E-2</v>
+        <v>9.436201549482659E-3</v>
       </c>
       <c r="Q16" s="16">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R16" s="17">
         <f t="shared" si="11"/>
@@ -1763,53 +1726,53 @@
         <v>1732700</v>
       </c>
       <c r="D17" s="11">
-        <v>1693231</v>
+        <v>1701100</v>
       </c>
       <c r="E17" s="11">
-        <v>1770513</v>
+        <v>1774815</v>
       </c>
       <c r="F17" s="11">
-        <v>1774815</v>
+        <v>1778037</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="1"/>
-        <v>4302</v>
+        <v>3222</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="2"/>
-        <v>2.4298042431769584E-3</v>
+        <v>1.8154004783597077E-3</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="5"/>
-        <v>42115</v>
+        <v>45337</v>
       </c>
       <c r="L17" s="13">
         <f t="shared" si="0"/>
-        <v>2.430599642176956E-2</v>
+        <v>2.6165522017660203E-2</v>
       </c>
       <c r="M17" s="11">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17" s="14">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O17" s="15">
         <f t="shared" si="8"/>
-        <v>81584</v>
+        <v>76937</v>
       </c>
       <c r="P17" s="13">
         <f t="shared" si="9"/>
-        <v>4.8182439371828201E-2</v>
+        <v>4.5227793780495018E-2</v>
       </c>
       <c r="Q17" s="16">
         <f t="shared" si="10"/>
@@ -1831,53 +1794,53 @@
         <v>1041993</v>
       </c>
       <c r="D18" s="11">
-        <v>1039974</v>
+        <v>1041159</v>
       </c>
       <c r="E18" s="11">
-        <v>1078852</v>
+        <v>1085242</v>
       </c>
       <c r="F18" s="11">
-        <v>1085242</v>
+        <v>1084730</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="1"/>
-        <v>6390</v>
+        <v>-512</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="2"/>
-        <v>5.9229625564951593E-3</v>
+        <v>-4.7178417348392454E-4</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" si="5"/>
-        <v>43249</v>
+        <v>42737</v>
       </c>
       <c r="L18" s="13">
         <f t="shared" si="0"/>
-        <v>4.150603698873212E-2</v>
+        <v>4.1014670923892993E-2</v>
       </c>
       <c r="M18" s="11">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" s="14">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O18" s="15">
         <f t="shared" si="8"/>
-        <v>45268</v>
+        <v>43571</v>
       </c>
       <c r="P18" s="13">
         <f t="shared" si="9"/>
-        <v>4.3528011277204959E-2</v>
+        <v>4.184855531191678E-2</v>
       </c>
       <c r="Q18" s="16">
         <f t="shared" si="10"/>
@@ -1885,7 +1848,7 @@
       </c>
       <c r="R18" s="17">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1899,61 +1862,61 @@
         <v>159520</v>
       </c>
       <c r="D19" s="11">
-        <v>151181</v>
+        <v>152967</v>
       </c>
       <c r="E19" s="11">
-        <v>157429</v>
+        <v>158647</v>
       </c>
       <c r="F19" s="11">
-        <v>158647</v>
+        <v>161654</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="1"/>
-        <v>1218</v>
+        <v>3007</v>
       </c>
       <c r="H19" s="13">
         <f t="shared" si="2"/>
-        <v>7.7368210431369988E-3</v>
+        <v>1.8954030016325563E-2</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K19" s="12">
         <f t="shared" si="5"/>
-        <v>-873</v>
+        <v>2134</v>
       </c>
       <c r="L19" s="13">
         <f t="shared" si="0"/>
-        <v>-5.4726680040120268E-3</v>
+        <v>1.337763289869609E-2</v>
       </c>
       <c r="M19" s="11">
         <f>_xlfn.RANK.EQ(K19,$K$7:$K$38)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N19" s="14">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O19" s="15">
         <f t="shared" si="8"/>
-        <v>7466</v>
+        <v>8687</v>
       </c>
       <c r="P19" s="13">
         <f t="shared" si="9"/>
-        <v>4.9384512604097042E-2</v>
+        <v>5.6790026607046018E-2</v>
       </c>
       <c r="Q19" s="16">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R19" s="17">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1967,61 +1930,61 @@
         <v>256643</v>
       </c>
       <c r="D20" s="11">
-        <v>253120</v>
+        <v>254315</v>
       </c>
       <c r="E20" s="11">
-        <v>264145</v>
+        <v>265857</v>
       </c>
       <c r="F20" s="11">
-        <v>265857</v>
+        <v>265391</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" si="1"/>
-        <v>1712</v>
+        <v>-466</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="2"/>
-        <v>6.4812886861382868E-3</v>
+        <v>-1.7528220058151689E-3</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J20" s="14">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K20" s="12">
         <f t="shared" si="5"/>
-        <v>9214</v>
+        <v>8748</v>
       </c>
       <c r="L20" s="13">
         <f t="shared" si="0"/>
-        <v>3.5902011743939921E-2</v>
+        <v>3.4086259901886962E-2</v>
       </c>
       <c r="M20" s="11">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N20" s="14">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O20" s="15">
         <f t="shared" si="8"/>
-        <v>12737</v>
+        <v>11076</v>
       </c>
       <c r="P20" s="13">
         <f t="shared" si="9"/>
-        <v>5.0320006321112443E-2</v>
+        <v>4.3552287517448773E-2</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R20" s="17">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -2035,37 +1998,37 @@
         <v>1932962</v>
       </c>
       <c r="D21" s="19">
-        <v>1896755</v>
+        <v>1896517</v>
       </c>
       <c r="E21" s="19">
-        <v>1974565</v>
+        <v>1980790</v>
       </c>
       <c r="F21" s="19">
-        <v>1980790</v>
+        <v>1981146</v>
       </c>
       <c r="G21" s="20">
         <f t="shared" si="1"/>
-        <v>6225</v>
+        <v>356</v>
       </c>
       <c r="H21" s="21">
         <f t="shared" si="2"/>
-        <v>3.1525931027847065E-3</v>
+        <v>1.7972627083140402E-4</v>
       </c>
       <c r="I21" s="19">
         <f>_xlfn.RANK.EQ(G21,$G$7:$G$38)</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J21" s="22">
         <f>_xlfn.RANK.EQ(H21,$H$7:$H$38)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" si="5"/>
-        <v>47828</v>
+        <v>48184</v>
       </c>
       <c r="L21" s="21">
         <f t="shared" si="0"/>
-        <v>2.4743373123734536E-2</v>
+        <v>2.4927546428745062E-2</v>
       </c>
       <c r="M21" s="19">
         <f>_xlfn.RANK.EQ(K21,$K$7:$K$38)</f>
@@ -2073,23 +2036,23 @@
       </c>
       <c r="N21" s="22">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O21" s="23">
         <f>F21-D21</f>
-        <v>84035</v>
+        <v>84629</v>
       </c>
       <c r="P21" s="21">
         <f t="shared" si="9"/>
-        <v>4.4304614987175528E-2</v>
+        <v>4.4623380649896571E-2</v>
       </c>
       <c r="Q21" s="24">
         <f>_xlfn.RANK.EQ(O21,$O$7:$O$38)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R21" s="25">
         <f>_xlfn.RANK.EQ(P21,$P$7:$P$38)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2103,37 +2066,37 @@
         <v>474615</v>
       </c>
       <c r="D22" s="11">
-        <v>464051</v>
+        <v>462669</v>
       </c>
       <c r="E22" s="11">
-        <v>480918</v>
+        <v>478147</v>
       </c>
       <c r="F22" s="11">
-        <v>478147</v>
+        <v>477574</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="1"/>
-        <v>-2771</v>
+        <v>-573</v>
       </c>
       <c r="H22" s="13">
         <f t="shared" si="2"/>
-        <v>-5.7618970385804325E-3</v>
+        <v>-1.1983762315773694E-3</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K22" s="12">
         <f t="shared" si="5"/>
-        <v>3532</v>
+        <v>2959</v>
       </c>
       <c r="L22" s="13">
         <f t="shared" si="0"/>
-        <v>7.4418212656575111E-3</v>
+        <v>6.2345269323555996E-3</v>
       </c>
       <c r="M22" s="11">
         <f t="shared" si="6"/>
@@ -2141,23 +2104,23 @@
       </c>
       <c r="N22" s="14">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O22" s="15">
         <f t="shared" si="8"/>
-        <v>14096</v>
+        <v>14905</v>
       </c>
       <c r="P22" s="13">
         <f t="shared" si="9"/>
-        <v>3.0375971606569019E-2</v>
+        <v>3.2215255398567955E-2</v>
       </c>
       <c r="Q22" s="16">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R22" s="17">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2171,37 +2134,37 @@
         <v>215779</v>
       </c>
       <c r="D23" s="11">
-        <v>213611</v>
+        <v>213012</v>
       </c>
       <c r="E23" s="11">
-        <v>216522</v>
+        <v>216297</v>
       </c>
       <c r="F23" s="11">
-        <v>216297</v>
+        <v>217388</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="1"/>
-        <v>-225</v>
+        <v>1091</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="2"/>
-        <v>-1.0391553745116022E-3</v>
+        <v>5.0439904390722212E-3</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J23" s="14">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K23" s="12">
         <f t="shared" si="5"/>
-        <v>518</v>
+        <v>1609</v>
       </c>
       <c r="L23" s="13">
         <f t="shared" si="0"/>
-        <v>2.40060432201461E-3</v>
+        <v>7.456703386335084E-3</v>
       </c>
       <c r="M23" s="11">
         <f t="shared" si="6"/>
@@ -2213,19 +2176,19 @@
       </c>
       <c r="O23" s="15">
         <f t="shared" si="8"/>
-        <v>2686</v>
+        <v>4376</v>
       </c>
       <c r="P23" s="13">
         <f t="shared" si="9"/>
-        <v>1.2574258816259398E-2</v>
+        <v>2.0543443561864994E-2</v>
       </c>
       <c r="Q23" s="16">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R23" s="17">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2239,57 +2202,57 @@
         <v>172495</v>
       </c>
       <c r="D24" s="11">
-        <v>168878</v>
+        <v>168161</v>
       </c>
       <c r="E24" s="11">
-        <v>179978</v>
+        <v>180779</v>
       </c>
       <c r="F24" s="11">
-        <v>180779</v>
+        <v>179570</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="1"/>
-        <v>801</v>
+        <v>-1209</v>
       </c>
       <c r="H24" s="13">
         <f t="shared" si="2"/>
-        <v>4.4505439553723658E-3</v>
+        <v>-6.6877236847200372E-3</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K24" s="12">
         <f t="shared" si="5"/>
-        <v>8284</v>
+        <v>7075</v>
       </c>
       <c r="L24" s="13">
         <f t="shared" si="0"/>
-        <v>4.8024580422620922E-2</v>
+        <v>4.1015681613959742E-2</v>
       </c>
       <c r="M24" s="11">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N24" s="14">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O24" s="15">
         <f t="shared" si="8"/>
-        <v>11901</v>
+        <v>11409</v>
       </c>
       <c r="P24" s="13">
         <f t="shared" si="9"/>
-        <v>7.0470990892833818E-2</v>
+        <v>6.7845695494199054E-2</v>
       </c>
       <c r="Q24" s="16">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R24" s="17">
         <f t="shared" si="11"/>
@@ -2307,37 +2270,37 @@
         <v>1773136</v>
       </c>
       <c r="D25" s="11">
-        <v>1752958</v>
+        <v>1753892</v>
       </c>
       <c r="E25" s="11">
-        <v>1832028</v>
+        <v>1836478</v>
       </c>
       <c r="F25" s="11">
-        <v>1836478</v>
+        <v>1843428</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="1"/>
-        <v>4450</v>
+        <v>6950</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" si="2"/>
-        <v>2.4290021768225145E-3</v>
+        <v>3.7844177822985436E-3</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K25" s="12">
         <f t="shared" si="5"/>
-        <v>63342</v>
+        <v>70292</v>
       </c>
       <c r="L25" s="13">
         <f t="shared" si="0"/>
-        <v>3.5723148139793048E-2</v>
+        <v>3.9642757239151338E-2</v>
       </c>
       <c r="M25" s="11">
         <f t="shared" si="6"/>
@@ -2345,23 +2308,23 @@
       </c>
       <c r="N25" s="14">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O25" s="15">
         <f t="shared" si="8"/>
-        <v>83520</v>
+        <v>89536</v>
       </c>
       <c r="P25" s="13">
         <f t="shared" si="9"/>
-        <v>4.7645180318068192E-2</v>
+        <v>5.104989360804435E-2</v>
       </c>
       <c r="Q25" s="16">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" s="17">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2375,61 +2338,61 @@
         <v>218200</v>
       </c>
       <c r="D26" s="11">
-        <v>214206</v>
+        <v>213887</v>
       </c>
       <c r="E26" s="11">
-        <v>220674</v>
+        <v>221353</v>
       </c>
       <c r="F26" s="11">
-        <v>221353</v>
+        <v>222187</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="1"/>
-        <v>679</v>
+        <v>834</v>
       </c>
       <c r="H26" s="13">
         <f t="shared" si="2"/>
-        <v>3.0769370202199386E-3</v>
+        <v>3.7677375052518336E-3</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K26" s="12">
         <f t="shared" si="5"/>
-        <v>3153</v>
+        <v>3987</v>
       </c>
       <c r="L26" s="13">
         <f t="shared" si="0"/>
-        <v>1.4450045829514258E-2</v>
+        <v>1.8272227314390488E-2</v>
       </c>
       <c r="M26" s="11">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N26" s="14">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O26" s="15">
         <f t="shared" si="8"/>
-        <v>7147</v>
+        <v>8300</v>
       </c>
       <c r="P26" s="13">
         <f t="shared" si="9"/>
-        <v>3.3365078475859677E-2</v>
+        <v>3.8805537503448173E-2</v>
       </c>
       <c r="Q26" s="16">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R26" s="17">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2443,61 +2406,61 @@
         <v>628792</v>
       </c>
       <c r="D27" s="11">
-        <v>619282</v>
+        <v>621244</v>
       </c>
       <c r="E27" s="11">
-        <v>637794</v>
+        <v>641125</v>
       </c>
       <c r="F27" s="11">
-        <v>641125</v>
+        <v>644088</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="1"/>
-        <v>3331</v>
+        <v>2963</v>
       </c>
       <c r="H27" s="13">
         <f t="shared" si="2"/>
-        <v>5.2226894577245275E-3</v>
+        <v>4.6215636576329988E-3</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K27" s="12">
         <f t="shared" si="5"/>
-        <v>12333</v>
+        <v>15296</v>
       </c>
       <c r="L27" s="13">
         <f t="shared" si="0"/>
-        <v>1.9613799157750078E-2</v>
+        <v>2.4326009236758761E-2</v>
       </c>
       <c r="M27" s="11">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N27" s="14">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O27" s="15">
         <f t="shared" si="8"/>
-        <v>21843</v>
+        <v>22844</v>
       </c>
       <c r="P27" s="13">
         <f t="shared" si="9"/>
-        <v>3.5271491824403034E-2</v>
+        <v>3.6771381293018601E-2</v>
       </c>
       <c r="Q27" s="16">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R27" s="17">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2511,53 +2474,53 @@
         <v>662609</v>
       </c>
       <c r="D28" s="11">
-        <v>655295</v>
+        <v>655196</v>
       </c>
       <c r="E28" s="11">
-        <v>687827</v>
+        <v>688819</v>
       </c>
       <c r="F28" s="11">
-        <v>688819</v>
+        <v>690086</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="1"/>
-        <v>992</v>
+        <v>1267</v>
       </c>
       <c r="H28" s="13">
         <f t="shared" si="2"/>
-        <v>1.4422231171500322E-3</v>
+        <v>1.8393801564706713E-3</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="K28" s="12">
         <f t="shared" si="5"/>
-        <v>26210</v>
+        <v>27477</v>
       </c>
       <c r="L28" s="13">
         <f t="shared" si="0"/>
-        <v>3.9555756109560747E-2</v>
+        <v>4.1467894338893752E-2</v>
       </c>
       <c r="M28" s="11">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N28" s="14">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O28" s="15">
         <f t="shared" si="8"/>
-        <v>33524</v>
+        <v>34890</v>
       </c>
       <c r="P28" s="13">
         <f t="shared" si="9"/>
-        <v>5.1158638475800933E-2</v>
+        <v>5.3251240850066273E-2</v>
       </c>
       <c r="Q28" s="16">
         <f t="shared" si="10"/>
@@ -2565,7 +2528,7 @@
       </c>
       <c r="R28" s="17">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2579,37 +2542,37 @@
         <v>468732</v>
       </c>
       <c r="D29" s="11">
-        <v>462635</v>
+        <v>463704</v>
       </c>
       <c r="E29" s="11">
-        <v>498653</v>
+        <v>503626</v>
       </c>
       <c r="F29" s="11">
-        <v>503626</v>
+        <v>502969</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="1"/>
-        <v>4973</v>
+        <v>-657</v>
       </c>
       <c r="H29" s="13">
         <f t="shared" si="2"/>
-        <v>9.9728669034377937E-3</v>
+        <v>-1.304539479693223E-3</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="K29" s="12">
         <f t="shared" si="5"/>
-        <v>34894</v>
+        <v>34237</v>
       </c>
       <c r="L29" s="13">
         <f t="shared" si="0"/>
-        <v>7.4443391959584604E-2</v>
+        <v>7.3041738136077727E-2</v>
       </c>
       <c r="M29" s="11">
         <f t="shared" si="6"/>
@@ -2621,11 +2584,11 @@
       </c>
       <c r="O29" s="15">
         <f t="shared" si="8"/>
-        <v>40991</v>
+        <v>39265</v>
       </c>
       <c r="P29" s="13">
         <f t="shared" si="9"/>
-        <v>8.8603326596560894E-2</v>
+        <v>8.4676862826285726E-2</v>
       </c>
       <c r="Q29" s="16">
         <f t="shared" si="10"/>
@@ -2647,53 +2610,53 @@
         <v>461059</v>
       </c>
       <c r="D30" s="11">
-        <v>457458</v>
+        <v>457802</v>
       </c>
       <c r="E30" s="11">
-        <v>473349</v>
+        <v>472947</v>
       </c>
       <c r="F30" s="11">
-        <v>472947</v>
+        <v>473609</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="1"/>
-        <v>-402</v>
+        <v>662</v>
       </c>
       <c r="H30" s="13">
         <f t="shared" si="2"/>
-        <v>-8.4926766508430784E-4</v>
+        <v>1.3997340082503307E-3</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J30" s="14">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K30" s="12">
         <f t="shared" si="5"/>
-        <v>11888</v>
+        <v>12550</v>
       </c>
       <c r="L30" s="13">
         <f t="shared" si="0"/>
-        <v>2.5784118735346251E-2</v>
+        <v>2.7219943651463296E-2</v>
       </c>
       <c r="M30" s="11">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N30" s="14">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O30" s="15">
         <f t="shared" si="8"/>
-        <v>15489</v>
+        <v>15807</v>
       </c>
       <c r="P30" s="13">
         <f t="shared" si="9"/>
-        <v>3.3858846057998715E-2</v>
+        <v>3.452802740049199E-2</v>
       </c>
       <c r="Q30" s="16">
         <f t="shared" si="10"/>
@@ -2701,7 +2664,7 @@
       </c>
       <c r="R30" s="17">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2715,37 +2678,37 @@
         <v>598307</v>
       </c>
       <c r="D31" s="11">
-        <v>566170</v>
+        <v>563344</v>
       </c>
       <c r="E31" s="11">
-        <v>595370</v>
+        <v>582043</v>
       </c>
       <c r="F31" s="11">
-        <v>582043</v>
+        <v>582080</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="1"/>
-        <v>-13327</v>
+        <v>37</v>
       </c>
       <c r="H31" s="13">
         <f t="shared" si="2"/>
-        <v>-2.2384399617044859E-2</v>
+        <v>6.3569186468992456E-5</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J31" s="14">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K31" s="12">
         <f t="shared" si="5"/>
-        <v>-16264</v>
+        <v>-16227</v>
       </c>
       <c r="L31" s="13">
         <f t="shared" si="0"/>
-        <v>-2.7183369073067842E-2</v>
+        <v>-2.7121527911256216E-2</v>
       </c>
       <c r="M31" s="11">
         <f t="shared" si="6"/>
@@ -2757,19 +2720,19 @@
       </c>
       <c r="O31" s="15">
         <f t="shared" si="8"/>
-        <v>15873</v>
+        <v>18736</v>
       </c>
       <c r="P31" s="13">
         <f t="shared" si="9"/>
-        <v>2.8035748979988284E-2</v>
+        <v>3.3258541850095247E-2</v>
       </c>
       <c r="Q31" s="16">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R31" s="17">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2783,61 +2746,61 @@
         <v>607801</v>
       </c>
       <c r="D32" s="11">
-        <v>616196</v>
+        <v>612140</v>
       </c>
       <c r="E32" s="11">
-        <v>631780</v>
+        <v>630323</v>
       </c>
       <c r="F32" s="11">
-        <v>630323</v>
+        <v>619463</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="1"/>
-        <v>-1457</v>
+        <v>-10860</v>
       </c>
       <c r="H32" s="13">
         <f t="shared" si="2"/>
-        <v>-2.3061825318939633E-3</v>
+        <v>-1.7229261822906627E-2</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J32" s="14">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K32" s="12">
         <f t="shared" si="5"/>
-        <v>22522</v>
+        <v>11662</v>
       </c>
       <c r="L32" s="13">
         <f t="shared" si="0"/>
-        <v>3.7054891321337102E-2</v>
+        <v>1.9187201074035709E-2</v>
       </c>
       <c r="M32" s="11">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N32" s="14">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="O32" s="15">
         <f t="shared" si="8"/>
-        <v>14127</v>
+        <v>7323</v>
       </c>
       <c r="P32" s="13">
         <f t="shared" si="9"/>
-        <v>2.2926146875344777E-2</v>
+        <v>1.1962949652040367E-2</v>
       </c>
       <c r="Q32" s="16">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R32" s="17">
         <f t="shared" si="11"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2851,57 +2814,57 @@
         <v>236579</v>
       </c>
       <c r="D33" s="11">
-        <v>225937</v>
+        <v>226845</v>
       </c>
       <c r="E33" s="11">
-        <v>245443</v>
+        <v>244679</v>
       </c>
       <c r="F33" s="11">
-        <v>244679</v>
+        <v>245459</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="1"/>
-        <v>-764</v>
+        <v>780</v>
       </c>
       <c r="H33" s="13">
         <f t="shared" si="2"/>
-        <v>-3.1127390066125749E-3</v>
+        <v>3.1878502037363532E-3</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J33" s="14">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="K33" s="12">
         <f t="shared" si="5"/>
-        <v>8100</v>
+        <v>8880</v>
       </c>
       <c r="L33" s="13">
         <f t="shared" si="0"/>
-        <v>3.4238034652272598E-2</v>
+        <v>3.7535030581750783E-2</v>
       </c>
       <c r="M33" s="11">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N33" s="14">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O33" s="15">
         <f t="shared" si="8"/>
-        <v>18742</v>
+        <v>18614</v>
       </c>
       <c r="P33" s="13">
         <f t="shared" si="9"/>
-        <v>8.2952327418705174E-2</v>
+        <v>8.2056029447419965E-2</v>
       </c>
       <c r="Q33" s="16">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R33" s="17">
         <f t="shared" si="11"/>
@@ -2919,53 +2882,53 @@
         <v>700924</v>
       </c>
       <c r="D34" s="11">
-        <v>710126</v>
+        <v>707767</v>
       </c>
       <c r="E34" s="11">
-        <v>712999</v>
+        <v>711238</v>
       </c>
       <c r="F34" s="11">
-        <v>711238</v>
+        <v>709610</v>
       </c>
       <c r="G34" s="12">
         <f t="shared" si="1"/>
-        <v>-1761</v>
+        <v>-1628</v>
       </c>
       <c r="H34" s="13">
         <f t="shared" si="2"/>
-        <v>-2.4698491863242023E-3</v>
+        <v>-2.2889665625289712E-3</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J34" s="14">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K34" s="12">
         <f t="shared" si="5"/>
-        <v>10314</v>
+        <v>8686</v>
       </c>
       <c r="L34" s="13">
         <f t="shared" si="0"/>
-        <v>1.471486209631867E-2</v>
+        <v>1.2392213706478916E-2</v>
       </c>
       <c r="M34" s="11">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N34" s="14">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O34" s="15">
         <f t="shared" si="8"/>
-        <v>1112</v>
+        <v>1843</v>
       </c>
       <c r="P34" s="13">
         <f t="shared" si="9"/>
-        <v>1.5659192875630001E-3</v>
+        <v>2.6039642989854617E-3</v>
       </c>
       <c r="Q34" s="16">
         <f t="shared" si="10"/>
@@ -2987,61 +2950,61 @@
         <v>109884</v>
       </c>
       <c r="D35" s="11">
-        <v>108344</v>
+        <v>109130</v>
       </c>
       <c r="E35" s="11">
-        <v>114356</v>
+        <v>114739</v>
       </c>
       <c r="F35" s="11">
-        <v>114739</v>
+        <v>114464</v>
       </c>
       <c r="G35" s="12">
         <f t="shared" si="1"/>
-        <v>383</v>
+        <v>-275</v>
       </c>
       <c r="H35" s="13">
         <f t="shared" si="2"/>
-        <v>3.3491902479974023E-3</v>
+        <v>-2.3967439144493285E-3</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J35" s="14">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K35" s="12">
         <f t="shared" si="5"/>
-        <v>4855</v>
+        <v>4580</v>
       </c>
       <c r="L35" s="13">
         <f t="shared" si="0"/>
-        <v>4.4182956572385468E-2</v>
+        <v>4.1680317425648816E-2</v>
       </c>
       <c r="M35" s="11">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N35" s="14">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O35" s="15">
         <f t="shared" si="8"/>
-        <v>6395</v>
+        <v>5334</v>
       </c>
       <c r="P35" s="13">
         <f t="shared" si="9"/>
-        <v>5.9024957542642031E-2</v>
+        <v>4.8877485567671686E-2</v>
       </c>
       <c r="Q35" s="16">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R35" s="17">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -3055,37 +3018,37 @@
         <v>750470</v>
       </c>
       <c r="D36" s="11">
-        <v>722269</v>
+        <v>722437</v>
       </c>
       <c r="E36" s="11">
-        <v>745117</v>
+        <v>744249</v>
       </c>
       <c r="F36" s="11">
-        <v>744249</v>
+        <v>743406</v>
       </c>
       <c r="G36" s="12">
         <f t="shared" si="1"/>
-        <v>-868</v>
+        <v>-843</v>
       </c>
       <c r="H36" s="13">
         <f t="shared" si="2"/>
-        <v>-1.164917724330583E-3</v>
+        <v>-1.1326854318917112E-3</v>
       </c>
       <c r="I36" s="11">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J36" s="14">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K36" s="12">
         <f t="shared" si="5"/>
-        <v>-6221</v>
+        <v>-7064</v>
       </c>
       <c r="L36" s="13">
         <f t="shared" si="0"/>
-        <v>-8.2894719309233311E-3</v>
+        <v>-9.4127679987208168E-3</v>
       </c>
       <c r="M36" s="11">
         <f t="shared" si="6"/>
@@ -3097,19 +3060,19 @@
       </c>
       <c r="O36" s="15">
         <f t="shared" si="8"/>
-        <v>21980</v>
+        <v>20969</v>
       </c>
       <c r="P36" s="13">
         <f t="shared" si="9"/>
-        <v>3.0431875104704798E-2</v>
+        <v>2.902536830201119E-2</v>
       </c>
       <c r="Q36" s="16">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R36" s="17">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -3123,41 +3086,41 @@
         <v>414439</v>
       </c>
       <c r="D37" s="11">
-        <v>404191</v>
+        <v>401249</v>
       </c>
       <c r="E37" s="11">
-        <v>423677</v>
+        <v>424406</v>
       </c>
       <c r="F37" s="11">
-        <v>424406</v>
+        <v>422665</v>
       </c>
       <c r="G37" s="12">
         <f t="shared" si="1"/>
-        <v>729</v>
+        <v>-1741</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" si="2"/>
-        <v>1.7206504011311186E-3</v>
+        <v>-4.1022040216207589E-3</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J37" s="14">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K37" s="12">
         <f t="shared" si="5"/>
-        <v>9967</v>
+        <v>8226</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="0"/>
-        <v>2.4049377592359811E-2</v>
+        <v>1.9848518117262071E-2</v>
       </c>
       <c r="M37" s="11">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N37" s="14">
         <f t="shared" si="7"/>
@@ -3165,19 +3128,19 @@
       </c>
       <c r="O37" s="15">
         <f t="shared" si="8"/>
-        <v>20215</v>
+        <v>21416</v>
       </c>
       <c r="P37" s="13">
         <f t="shared" si="9"/>
-        <v>5.001348372427894E-2</v>
+        <v>5.3373341740415636E-2</v>
       </c>
       <c r="Q37" s="16">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R37" s="17">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -3191,57 +3154,57 @@
         <v>194743</v>
       </c>
       <c r="D38" s="11">
-        <v>195521</v>
+        <v>194441</v>
       </c>
       <c r="E38" s="11">
-        <v>198536</v>
+        <v>199578</v>
       </c>
       <c r="F38" s="11">
-        <v>199578</v>
+        <v>198313</v>
       </c>
       <c r="G38" s="12">
         <f t="shared" si="1"/>
-        <v>1042</v>
+        <v>-1265</v>
       </c>
       <c r="H38" s="13">
         <f t="shared" si="2"/>
-        <v>5.2484184228553943E-3</v>
+        <v>-6.3383739690747731E-3</v>
       </c>
       <c r="I38" s="11">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J38" s="14">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="K38" s="12">
         <f t="shared" si="5"/>
-        <v>4835</v>
+        <v>3570</v>
       </c>
       <c r="L38" s="13">
         <f t="shared" si="0"/>
-        <v>2.4827593289617589E-2</v>
+        <v>1.8331852749521094E-2</v>
       </c>
       <c r="M38" s="11">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N38" s="14">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O38" s="15">
         <f>F38-D38</f>
-        <v>4057</v>
+        <v>3872</v>
       </c>
       <c r="P38" s="13">
         <f>F38/D38-1</f>
-        <v>2.0749689291687412E-2</v>
+        <v>1.9913495610493603E-2</v>
       </c>
       <c r="Q38" s="16">
         <f t="shared" si="10"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R38" s="17">
         <f t="shared" si="11"/>
@@ -3262,92 +3225,58 @@
       </c>
       <c r="D39" s="28">
         <f>SUM(D7:D38)</f>
-        <v>21068708</v>
+        <v>21079434</v>
       </c>
       <c r="E39" s="28">
         <f>SUM(E7:E38)</f>
-        <v>21862909</v>
+        <v>21887307</v>
       </c>
       <c r="F39" s="28">
         <f>SUM(F7:F38)</f>
-        <v>21887307</v>
+        <v>21885139</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="1"/>
-        <v>24398</v>
+        <v>-2168</v>
       </c>
       <c r="H39" s="30">
         <f t="shared" si="2"/>
-        <v>1.1159539656868667E-3</v>
+        <v>-9.9052843732683193E-5</v>
       </c>
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
       <c r="K39" s="29">
         <f t="shared" si="5"/>
-        <v>514411</v>
+        <v>512243</v>
       </c>
       <c r="L39" s="30">
         <f t="shared" si="0"/>
-        <v>2.4068380812782619E-2</v>
+        <v>2.396694392748655E-2</v>
       </c>
       <c r="M39" s="31"/>
       <c r="N39" s="32"/>
       <c r="O39" s="33">
         <f>F39-D39</f>
-        <v>818599</v>
+        <v>805705</v>
       </c>
       <c r="P39" s="30">
         <f>F39/D39-1</f>
-        <v>3.8853782586003804E-2</v>
+        <v>3.8222326083328317E-2</v>
       </c>
       <c r="Q39" s="34"/>
       <c r="R39" s="35"/>
     </row>
-    <row r="40" spans="1:18" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="38"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="40"/>
-    </row>
-    <row r="41" spans="1:18" ht="48.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R42" s="41"/>
+      <c r="R40" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="O5:R5"/>
-    <mergeCell ref="A41:R41"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>

--- a/Tabulados/TAentidadrank_delegacion.xlsx
+++ b/Tabulados/TAentidadrank_delegacion.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EBC062-EEEF-423C-839D-86E5AB97B5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D1F5FF-10BC-4457-89D7-2AC10059DBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{79D6AB5B-4594-486A-822C-790F1F642C41}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F645770B-8740-4407-BC01-2C75AFAD62C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="ta_octubre" sheetId="1" r:id="rId1"/>
+    <sheet name="ta_noviembre" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,20 +57,24 @@
   </si>
   <si>
     <t>2022
+Noviembre</t>
+  </si>
+  <si>
+    <t>2023
 Octubre</t>
   </si>
   <si>
     <t>2023
-Septiembre</t>
-  </si>
-  <si>
-    <t>Octubre 2023 respecto a Septiembre 2023</t>
-  </si>
-  <si>
-    <t>Octubre 2023 respecto a Diciembre 2022</t>
-  </si>
-  <si>
-    <t>Octubre 2023 respecto a Octubre 2022</t>
+Noviembre</t>
+  </si>
+  <si>
+    <t>Noviembre 2023 respecto a Octubre 2023</t>
+  </si>
+  <si>
+    <t>Noviembre 2023 respecto a Diciembre 2022</t>
+  </si>
+  <si>
+    <t>Noviembre 2023 respecto a Noviembre 2022</t>
   </si>
   <si>
     <t>Variación Absoluta</t>
@@ -195,10 +199,6 @@
       </rPr>
       <t>Instituto de Información Estadística y Geográfica; en base a datos proporcionados por el IMSS.</t>
     </r>
-  </si>
-  <si>
-    <t>2023
-Octubre</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{97153440-49F4-4505-852A-C2C35DF1857B}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{42598616-DA58-4AB4-AFE1-9BBD6B767F07}"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -858,21 +858,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18BF3FB-C702-498E-864F-278AF549E750}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AE7FFD-51D6-4B07-AA08-459F4DF23DBD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="6" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
@@ -984,22 +986,22 @@
         <v>7</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L5" s="42"/>
       <c r="M5" s="42"/>
       <c r="N5" s="42"/>
       <c r="O5" s="43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P5" s="42"/>
       <c r="Q5" s="42"/>
@@ -1013,45 +1015,45 @@
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="M6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="8" t="s">
+      <c r="N6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="Q6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="R6" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="11">
         <v>335529</v>
@@ -1060,53 +1062,53 @@
         <v>342215</v>
       </c>
       <c r="D7" s="11">
-        <v>345189</v>
+        <v>347069</v>
       </c>
       <c r="E7" s="11">
-        <v>356983</v>
+        <v>359855</v>
       </c>
       <c r="F7" s="11">
-        <v>359855</v>
+        <v>361685</v>
       </c>
       <c r="G7" s="12">
         <f>F7-E7</f>
-        <v>2872</v>
+        <v>1830</v>
       </c>
       <c r="H7" s="13">
         <f>F7/E7-1</f>
-        <v>8.0452010319818079E-3</v>
+        <v>5.0853816120381978E-3</v>
       </c>
       <c r="I7" s="11">
         <f>_xlfn.RANK.EQ(G7,$G$7:$G$38)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J7" s="14">
         <f>_xlfn.RANK.EQ(H7,$H$7:$H$38)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="12">
         <f>F7-C7</f>
-        <v>17640</v>
+        <v>19470</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" ref="L7:L39" si="0">F7/C7-1</f>
-        <v>5.1546542378329452E-2</v>
+        <v>5.6894057829142586E-2</v>
       </c>
       <c r="M7" s="11">
         <f>_xlfn.RANK.EQ(K7,$K$7:$K$38)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N7" s="14">
         <f>_xlfn.RANK.EQ(L7,$L$7:$L$38)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O7" s="15">
         <f>F7-D7</f>
-        <v>14666</v>
+        <v>14616</v>
       </c>
       <c r="P7" s="13">
         <f>F7/D7-1</f>
-        <v>4.2486869512064374E-2</v>
+        <v>4.2112663476138845E-2</v>
       </c>
       <c r="Q7" s="16">
         <f>_xlfn.RANK.EQ(O7,$O$7:$O$38)</f>
@@ -1114,12 +1116,12 @@
       </c>
       <c r="R7" s="17">
         <f>_xlfn.RANK.EQ(P7,$P$7:$P$38)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="11">
         <v>1004354</v>
@@ -1128,37 +1130,37 @@
         <v>1042740</v>
       </c>
       <c r="D8" s="11">
-        <v>1069522</v>
+        <v>1071648</v>
       </c>
       <c r="E8" s="11">
-        <v>1084408</v>
+        <v>1085282</v>
       </c>
       <c r="F8" s="11">
-        <v>1085282</v>
+        <v>1084742</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ref="G8:G39" si="1">F8-E8</f>
-        <v>874</v>
+        <v>-540</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" ref="H8:H39" si="2">F8/E8-1</f>
-        <v>8.0596970881807728E-4</v>
+        <v>-4.9756653109511717E-4</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" ref="I8:I38" si="3">_xlfn.RANK.EQ(G8,$G$7:$G$38)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" ref="J8:J38" si="4">_xlfn.RANK.EQ(H8,$H$7:$H$38)</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" ref="K8:K39" si="5">F8-C8</f>
-        <v>42542</v>
+        <v>42002</v>
       </c>
       <c r="L8" s="13">
         <f t="shared" si="0"/>
-        <v>4.0798281450793006E-2</v>
+        <v>4.0280415060321761E-2</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" ref="M8:M38" si="6">_xlfn.RANK.EQ(K8,$K$7:$K$38)</f>
@@ -1166,28 +1168,28 @@
       </c>
       <c r="N8" s="14">
         <f t="shared" ref="N8:N38" si="7">_xlfn.RANK.EQ(L8,$L$7:$L$38)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O8" s="15">
         <f t="shared" ref="O8:O37" si="8">F8-D8</f>
-        <v>15760</v>
+        <v>13094</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" ref="P8:P37" si="9">F8/D8-1</f>
-        <v>1.4735554761846847E-2</v>
+        <v>1.2218564304697033E-2</v>
       </c>
       <c r="Q8" s="16">
         <f t="shared" ref="Q8:Q38" si="10">_xlfn.RANK.EQ(O8,$O$7:$O$38)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="R8" s="17">
         <f t="shared" ref="R8:R38" si="11">_xlfn.RANK.EQ(P8,$P$7:$P$38)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="11">
         <v>190885</v>
@@ -1196,41 +1198,41 @@
         <v>210207</v>
       </c>
       <c r="D9" s="11">
-        <v>219019</v>
+        <v>220382</v>
       </c>
       <c r="E9" s="11">
-        <v>225620</v>
+        <v>227600</v>
       </c>
       <c r="F9" s="11">
-        <v>227600</v>
+        <v>228831</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="1"/>
-        <v>1980</v>
+        <v>1231</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" si="2"/>
-        <v>8.7758177466537024E-3</v>
+        <v>5.408611599297064E-3</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="5"/>
-        <v>17393</v>
+        <v>18624</v>
       </c>
       <c r="L9" s="13">
         <f t="shared" si="0"/>
-        <v>8.2742249306635873E-2</v>
+        <v>8.8598381595284659E-2</v>
       </c>
       <c r="M9" s="11">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N9" s="14">
         <f t="shared" si="7"/>
@@ -1238,15 +1240,15 @@
       </c>
       <c r="O9" s="15">
         <f t="shared" si="8"/>
-        <v>8581</v>
+        <v>8449</v>
       </c>
       <c r="P9" s="13">
         <f t="shared" si="9"/>
-        <v>3.9179249288874507E-2</v>
+        <v>3.8337976785763006E-2</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R9" s="17">
         <f t="shared" si="11"/>
@@ -1255,7 +1257,7 @@
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="11">
         <v>131218</v>
@@ -1264,41 +1266,41 @@
         <v>137105</v>
       </c>
       <c r="D10" s="11">
-        <v>138094</v>
+        <v>139994</v>
       </c>
       <c r="E10" s="11">
-        <v>143390</v>
+        <v>144679</v>
       </c>
       <c r="F10" s="11">
-        <v>144679</v>
+        <v>145539</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="1"/>
-        <v>1289</v>
+        <v>860</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" si="2"/>
-        <v>8.9894692795871034E-3</v>
+        <v>5.9441936977722154E-3</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="5"/>
-        <v>7574</v>
+        <v>8434</v>
       </c>
       <c r="L10" s="13">
         <f t="shared" si="0"/>
-        <v>5.524233251887245E-2</v>
+        <v>6.1514897341453656E-2</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N10" s="14">
         <f t="shared" si="7"/>
@@ -1306,24 +1308,24 @@
       </c>
       <c r="O10" s="15">
         <f t="shared" si="8"/>
-        <v>6585</v>
+        <v>5545</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" si="9"/>
-        <v>4.7684910278505965E-2</v>
+        <v>3.9608840378873467E-2</v>
       </c>
       <c r="Q10" s="16">
         <f t="shared" si="10"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R10" s="17">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="11">
         <v>235059</v>
@@ -1332,57 +1334,57 @@
         <v>241142</v>
       </c>
       <c r="D11" s="11">
-        <v>240323</v>
+        <v>242308</v>
       </c>
       <c r="E11" s="11">
-        <v>249706</v>
+        <v>253480</v>
       </c>
       <c r="F11" s="11">
-        <v>253480</v>
+        <v>257279</v>
       </c>
       <c r="G11" s="12">
         <f>F11-E11</f>
-        <v>3774</v>
+        <v>3799</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" si="2"/>
-        <v>1.5113773797986507E-2</v>
+        <v>1.4987375729840657E-2</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="12">
         <f t="shared" si="5"/>
-        <v>12338</v>
+        <v>16137</v>
       </c>
       <c r="L11" s="13">
         <f t="shared" si="0"/>
-        <v>5.1164873808793088E-2</v>
+        <v>6.6919076726575932E-2</v>
       </c>
       <c r="M11" s="11">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" s="14">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O11" s="15">
         <f t="shared" si="8"/>
-        <v>13157</v>
+        <v>14971</v>
       </c>
       <c r="P11" s="13">
         <f t="shared" si="9"/>
-        <v>5.4747152790203257E-2</v>
+        <v>6.1785000907935261E-2</v>
       </c>
       <c r="Q11" s="16">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R11" s="17">
         <f t="shared" si="11"/>
@@ -1391,7 +1393,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="11">
         <v>930477</v>
@@ -1400,37 +1402,37 @@
         <v>962905</v>
       </c>
       <c r="D12" s="11">
-        <v>980619</v>
+        <v>982033</v>
       </c>
       <c r="E12" s="11">
-        <v>988753</v>
+        <v>993563</v>
       </c>
       <c r="F12" s="11">
-        <v>993563</v>
+        <v>993266</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="1"/>
-        <v>4810</v>
+        <v>-297</v>
       </c>
       <c r="H12" s="13">
         <f t="shared" si="2"/>
-        <v>4.8647134319692587E-3</v>
+        <v>-2.989241749139504E-4</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="5"/>
-        <v>30658</v>
+        <v>30361</v>
       </c>
       <c r="L12" s="13">
         <f t="shared" si="0"/>
-        <v>3.1839070313270712E-2</v>
+        <v>3.1530628670533467E-2</v>
       </c>
       <c r="M12" s="11">
         <f t="shared" si="6"/>
@@ -1438,28 +1440,28 @@
       </c>
       <c r="N12" s="14">
         <f t="shared" si="7"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O12" s="15">
         <f t="shared" si="8"/>
-        <v>12944</v>
+        <v>11233</v>
       </c>
       <c r="P12" s="13">
         <f t="shared" si="9"/>
-        <v>1.3199825824300682E-2</v>
+        <v>1.1438515813623429E-2</v>
       </c>
       <c r="Q12" s="16">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R12" s="17">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="11">
         <v>3312592</v>
@@ -1468,21 +1470,21 @@
         <v>3394982</v>
       </c>
       <c r="D13" s="11">
-        <v>3427062</v>
+        <v>3441069</v>
       </c>
       <c r="E13" s="11">
-        <v>3481313</v>
+        <v>3510190</v>
       </c>
       <c r="F13" s="11">
-        <v>3510190</v>
+        <v>3525039</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="1"/>
-        <v>28877</v>
+        <v>14849</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="2"/>
-        <v>8.2948588650315624E-3</v>
+        <v>4.2302553423034794E-3</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
@@ -1490,15 +1492,15 @@
       </c>
       <c r="J13" s="14">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" si="5"/>
-        <v>115208</v>
+        <v>130057</v>
       </c>
       <c r="L13" s="13">
         <f t="shared" si="0"/>
-        <v>3.3934789639532781E-2</v>
+        <v>3.8308597806998579E-2</v>
       </c>
       <c r="M13" s="11">
         <f t="shared" si="6"/>
@@ -1510,11 +1512,11 @@
       </c>
       <c r="O13" s="15">
         <f t="shared" si="8"/>
-        <v>83128</v>
+        <v>83970</v>
       </c>
       <c r="P13" s="13">
         <f t="shared" si="9"/>
-        <v>2.4256345522783107E-2</v>
+        <v>2.4402300564156043E-2</v>
       </c>
       <c r="Q13" s="16">
         <f t="shared" si="10"/>
@@ -1522,12 +1524,12 @@
       </c>
       <c r="R13" s="17">
         <f t="shared" si="11"/>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="11">
         <v>789468</v>
@@ -1536,53 +1538,53 @@
         <v>825159</v>
       </c>
       <c r="D14" s="11">
-        <v>839890</v>
+        <v>841521</v>
       </c>
       <c r="E14" s="11">
-        <v>867192</v>
+        <v>872419</v>
       </c>
       <c r="F14" s="11">
-        <v>872419</v>
+        <v>871683</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="1"/>
-        <v>5227</v>
+        <v>-736</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" si="2"/>
-        <v>6.0275002536924749E-3</v>
+        <v>-8.4363132852449674E-4</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K14" s="12">
         <f t="shared" si="5"/>
-        <v>47260</v>
+        <v>46524</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="0"/>
-        <v>5.7273810259598434E-2</v>
+        <v>5.6381860950434959E-2</v>
       </c>
       <c r="M14" s="11">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O14" s="15">
         <f t="shared" si="8"/>
-        <v>32529</v>
+        <v>30162</v>
       </c>
       <c r="P14" s="13">
         <f t="shared" si="9"/>
-        <v>3.8730071795116006E-2</v>
+        <v>3.5842242796080059E-2</v>
       </c>
       <c r="Q14" s="16">
         <f t="shared" si="10"/>
@@ -1590,12 +1592,12 @@
       </c>
       <c r="R14" s="17">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="11">
         <v>140370</v>
@@ -1604,66 +1606,66 @@
         <v>147281</v>
       </c>
       <c r="D15" s="11">
-        <v>146515</v>
+        <v>147733</v>
       </c>
       <c r="E15" s="11">
-        <v>150547</v>
+        <v>151778</v>
       </c>
       <c r="F15" s="11">
-        <v>151778</v>
+        <v>152031</v>
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>1231</v>
+        <v>253</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" si="2"/>
-        <v>8.1768484260729135E-3</v>
+        <v>1.6669082475722075E-3</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" si="5"/>
-        <v>4497</v>
+        <v>4750</v>
       </c>
       <c r="L15" s="13">
         <f t="shared" si="0"/>
-        <v>3.0533470033473398E-2</v>
+        <v>3.2251274774071303E-2</v>
       </c>
       <c r="M15" s="11">
         <f t="shared" si="6"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N15" s="14">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O15" s="15">
         <f t="shared" si="8"/>
-        <v>5263</v>
+        <v>4298</v>
       </c>
       <c r="P15" s="13">
         <f t="shared" si="9"/>
-        <v>3.5921236733440276E-2</v>
+        <v>2.909302593191776E-2</v>
       </c>
       <c r="Q15" s="16">
         <f t="shared" si="10"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R15" s="17">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="11">
         <v>254204</v>
@@ -1672,66 +1674,66 @@
         <v>256778</v>
       </c>
       <c r="D16" s="11">
-        <v>261238</v>
+        <v>262234</v>
       </c>
       <c r="E16" s="11">
-        <v>261590</v>
+        <v>262051</v>
       </c>
       <c r="F16" s="11">
-        <v>262051</v>
+        <v>261715</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="1"/>
-        <v>461</v>
+        <v>-336</v>
       </c>
       <c r="H16" s="13">
         <f t="shared" si="2"/>
-        <v>1.7622997821018505E-3</v>
+        <v>-1.2821931608733017E-3</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="5"/>
-        <v>5273</v>
+        <v>4937</v>
       </c>
       <c r="L16" s="13">
         <f t="shared" si="0"/>
-        <v>2.0535248346821078E-2</v>
+        <v>1.9226725030960568E-2</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N16" s="14">
         <f t="shared" si="7"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O16" s="15">
         <f t="shared" si="8"/>
-        <v>813</v>
+        <v>-519</v>
       </c>
       <c r="P16" s="13">
         <f t="shared" si="9"/>
-        <v>3.1121046708364464E-3</v>
+        <v>-1.9791483941823396E-3</v>
       </c>
       <c r="Q16" s="16">
         <f t="shared" si="10"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R16" s="17">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="11">
         <v>1650381</v>
@@ -1740,37 +1742,37 @@
         <v>1732700</v>
       </c>
       <c r="D17" s="11">
-        <v>1747660</v>
+        <v>1760793</v>
       </c>
       <c r="E17" s="11">
-        <v>1797453</v>
+        <v>1814390</v>
       </c>
       <c r="F17" s="11">
-        <v>1814390</v>
+        <v>1827708</v>
       </c>
       <c r="G17" s="12">
         <f t="shared" si="1"/>
-        <v>16937</v>
+        <v>13318</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="2"/>
-        <v>9.4227776748543324E-3</v>
+        <v>7.3402080037918704E-3</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="5"/>
-        <v>81690</v>
+        <v>95008</v>
       </c>
       <c r="L17" s="13">
         <f t="shared" si="0"/>
-        <v>4.7146072603451161E-2</v>
+        <v>5.4832342586714322E-2</v>
       </c>
       <c r="M17" s="11">
         <f t="shared" si="6"/>
@@ -1778,15 +1780,15 @@
       </c>
       <c r="N17" s="14">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O17" s="15">
         <f t="shared" si="8"/>
-        <v>66730</v>
+        <v>66915</v>
       </c>
       <c r="P17" s="13">
         <f t="shared" si="9"/>
-        <v>3.8182484007186712E-2</v>
+        <v>3.8002763527569705E-2</v>
       </c>
       <c r="Q17" s="16">
         <f t="shared" si="10"/>
@@ -1794,12 +1796,12 @@
       </c>
       <c r="R17" s="17">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="11">
         <v>1014873</v>
@@ -1808,37 +1810,37 @@
         <v>1041993</v>
       </c>
       <c r="D18" s="11">
-        <v>1057217</v>
+        <v>1062318</v>
       </c>
       <c r="E18" s="11">
-        <v>1092891</v>
+        <v>1102278</v>
       </c>
       <c r="F18" s="11">
-        <v>1102278</v>
+        <v>1105795</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="1"/>
-        <v>9387</v>
+        <v>3517</v>
       </c>
       <c r="H18" s="13">
         <f t="shared" si="2"/>
-        <v>8.5891456696047808E-3</v>
+        <v>3.1906651498079253E-3</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" si="5"/>
-        <v>60285</v>
+        <v>63802</v>
       </c>
       <c r="L18" s="13">
         <f t="shared" si="0"/>
-        <v>5.7855475036780568E-2</v>
+        <v>6.123073763451381E-2</v>
       </c>
       <c r="M18" s="11">
         <f t="shared" si="6"/>
@@ -1846,15 +1848,15 @@
       </c>
       <c r="N18" s="14">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O18" s="15">
         <f t="shared" si="8"/>
-        <v>45061</v>
+        <v>43477</v>
       </c>
       <c r="P18" s="13">
         <f t="shared" si="9"/>
-        <v>4.2622280950836089E-2</v>
+        <v>4.0926539887303104E-2</v>
       </c>
       <c r="Q18" s="16">
         <f t="shared" si="10"/>
@@ -1867,7 +1869,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="11">
         <v>153546</v>
@@ -1876,66 +1878,66 @@
         <v>159520</v>
       </c>
       <c r="D19" s="11">
-        <v>156353</v>
+        <v>158615</v>
       </c>
       <c r="E19" s="11">
-        <v>161035</v>
+        <v>163257</v>
       </c>
       <c r="F19" s="11">
-        <v>163257</v>
+        <v>158855</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="1"/>
-        <v>2222</v>
+        <v>-4402</v>
       </c>
       <c r="H19" s="13">
         <f t="shared" si="2"/>
-        <v>1.3798242618064505E-2</v>
+        <v>-2.6963621774257818E-2</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="K19" s="12">
         <f t="shared" si="5"/>
-        <v>3737</v>
+        <v>-665</v>
       </c>
       <c r="L19" s="13">
         <f t="shared" si="0"/>
-        <v>2.3426529588766343E-2</v>
+        <v>-4.1687562688064173E-3</v>
       </c>
       <c r="M19" s="11">
         <f>_xlfn.RANK.EQ(K19,$K$7:$K$38)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N19" s="14">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O19" s="15">
         <f t="shared" si="8"/>
-        <v>6904</v>
+        <v>240</v>
       </c>
       <c r="P19" s="13">
         <f t="shared" si="9"/>
-        <v>4.4156492040446915E-2</v>
+        <v>1.5130977524193678E-3</v>
       </c>
       <c r="Q19" s="16">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R19" s="17">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="11">
         <v>240431</v>
@@ -1944,37 +1946,37 @@
         <v>256643</v>
       </c>
       <c r="D20" s="11">
-        <v>260883</v>
+        <v>261803</v>
       </c>
       <c r="E20" s="11">
-        <v>269495</v>
+        <v>273338</v>
       </c>
       <c r="F20" s="11">
-        <v>273338</v>
+        <v>275077</v>
       </c>
       <c r="G20" s="12">
         <f t="shared" si="1"/>
-        <v>3843</v>
+        <v>1739</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="2"/>
-        <v>1.4260004823837269E-2</v>
+        <v>6.3620865009621497E-3</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J20" s="14">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K20" s="12">
         <f t="shared" si="5"/>
-        <v>16695</v>
+        <v>18434</v>
       </c>
       <c r="L20" s="13">
         <f t="shared" si="0"/>
-        <v>6.5051452796296871E-2</v>
+        <v>7.182740226696227E-2</v>
       </c>
       <c r="M20" s="11">
         <f t="shared" si="6"/>
@@ -1982,28 +1984,28 @@
       </c>
       <c r="N20" s="14">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O20" s="15">
         <f t="shared" si="8"/>
-        <v>12455</v>
+        <v>13274</v>
       </c>
       <c r="P20" s="13">
         <f t="shared" si="9"/>
-        <v>4.7741707968706359E-2</v>
+        <v>5.0702245581601524E-2</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R20" s="17">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="19">
         <v>1849999</v>
@@ -2012,37 +2014,37 @@
         <v>1932962</v>
       </c>
       <c r="D21" s="19">
-        <v>1950941</v>
+        <v>1960510</v>
       </c>
       <c r="E21" s="19">
-        <v>1999360</v>
+        <v>2013431</v>
       </c>
       <c r="F21" s="19">
-        <v>2013431</v>
+        <v>2026935</v>
       </c>
       <c r="G21" s="20">
         <f t="shared" si="1"/>
-        <v>14071</v>
+        <v>13504</v>
       </c>
       <c r="H21" s="21">
         <f t="shared" si="2"/>
-        <v>7.0377520806657046E-3</v>
+        <v>6.7069594140549693E-3</v>
       </c>
       <c r="I21" s="19">
         <f>_xlfn.RANK.EQ(G21,$G$7:$G$38)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" s="22">
         <f>_xlfn.RANK.EQ(H21,$H$7:$H$38)</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K21" s="20">
         <f t="shared" si="5"/>
-        <v>80469</v>
+        <v>93973</v>
       </c>
       <c r="L21" s="21">
         <f t="shared" si="0"/>
-        <v>4.1629892362084808E-2</v>
+        <v>4.8616061774623631E-2</v>
       </c>
       <c r="M21" s="19">
         <f>_xlfn.RANK.EQ(K21,$K$7:$K$38)</f>
@@ -2050,15 +2052,15 @@
       </c>
       <c r="N21" s="22">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O21" s="23">
         <f>F21-D21</f>
-        <v>62490</v>
+        <v>66425</v>
       </c>
       <c r="P21" s="21">
         <f t="shared" si="9"/>
-        <v>3.2030696981610429E-2</v>
+        <v>3.3881490020453819E-2</v>
       </c>
       <c r="Q21" s="24">
         <f>_xlfn.RANK.EQ(O21,$O$7:$O$38)</f>
@@ -2066,12 +2068,12 @@
       </c>
       <c r="R21" s="25">
         <f>_xlfn.RANK.EQ(P21,$P$7:$P$38)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="11">
         <v>465270</v>
@@ -2080,66 +2082,66 @@
         <v>474615</v>
       </c>
       <c r="D22" s="11">
-        <v>477361</v>
+        <v>479689</v>
       </c>
       <c r="E22" s="11">
-        <v>481809</v>
+        <v>488069</v>
       </c>
       <c r="F22" s="11">
-        <v>488069</v>
+        <v>490970</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="1"/>
-        <v>6260</v>
+        <v>2901</v>
       </c>
       <c r="H22" s="13">
         <f t="shared" si="2"/>
-        <v>1.2992700426932569E-2</v>
+        <v>5.9438317123192697E-3</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K22" s="12">
         <f t="shared" si="5"/>
-        <v>13454</v>
+        <v>16355</v>
       </c>
       <c r="L22" s="13">
         <f t="shared" si="0"/>
-        <v>2.8347186667088131E-2</v>
+        <v>3.4459509286474344E-2</v>
       </c>
       <c r="M22" s="11">
         <f t="shared" si="6"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N22" s="14">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O22" s="15">
         <f t="shared" si="8"/>
-        <v>10708</v>
+        <v>11281</v>
       </c>
       <c r="P22" s="13">
         <f t="shared" si="9"/>
-        <v>2.2431660734747894E-2</v>
+        <v>2.3517320597303604E-2</v>
       </c>
       <c r="Q22" s="16">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R22" s="17">
         <f t="shared" si="11"/>
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="11">
         <v>213192</v>
@@ -2148,66 +2150,66 @@
         <v>215779</v>
       </c>
       <c r="D23" s="11">
-        <v>215111</v>
+        <v>217207</v>
       </c>
       <c r="E23" s="11">
-        <v>219447</v>
+        <v>221441</v>
       </c>
       <c r="F23" s="11">
-        <v>221441</v>
+        <v>224260</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="1"/>
-        <v>1994</v>
+        <v>2819</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="2"/>
-        <v>9.0864764612867965E-3</v>
+        <v>1.2730253205142761E-2</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J23" s="14">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K23" s="12">
         <f t="shared" si="5"/>
-        <v>5662</v>
+        <v>8481</v>
       </c>
       <c r="L23" s="13">
         <f t="shared" si="0"/>
-        <v>2.6239810176152512E-2</v>
+        <v>3.9304102808892516E-2</v>
       </c>
       <c r="M23" s="11">
         <f t="shared" si="6"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N23" s="14">
         <f t="shared" si="7"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O23" s="15">
         <f t="shared" si="8"/>
-        <v>6330</v>
+        <v>7053</v>
       </c>
       <c r="P23" s="13">
         <f t="shared" si="9"/>
-        <v>2.9426668092287223E-2</v>
+        <v>3.2471329192889753E-2</v>
       </c>
       <c r="Q23" s="16">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="R23" s="17">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="11">
         <v>160665</v>
@@ -2216,41 +2218,41 @@
         <v>172495</v>
       </c>
       <c r="D24" s="11">
-        <v>173150</v>
+        <v>175959</v>
       </c>
       <c r="E24" s="11">
-        <v>183262</v>
+        <v>185925</v>
       </c>
       <c r="F24" s="11">
-        <v>185925</v>
+        <v>187459</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="1"/>
-        <v>2663</v>
+        <v>1534</v>
       </c>
       <c r="H24" s="13">
         <f t="shared" si="2"/>
-        <v>1.453110846765826E-2</v>
+        <v>8.2506386983998148E-3</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K24" s="12">
         <f t="shared" si="5"/>
-        <v>13430</v>
+        <v>14964</v>
       </c>
       <c r="L24" s="13">
         <f t="shared" si="0"/>
-        <v>7.7857329197947855E-2</v>
+        <v>8.6750340589582198E-2</v>
       </c>
       <c r="M24" s="11">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N24" s="14">
         <f t="shared" si="7"/>
@@ -2258,11 +2260,11 @@
       </c>
       <c r="O24" s="15">
         <f t="shared" si="8"/>
-        <v>12775</v>
+        <v>11500</v>
       </c>
       <c r="P24" s="13">
         <f t="shared" si="9"/>
-        <v>7.3779959572624954E-2</v>
+        <v>6.5356134099420871E-2</v>
       </c>
       <c r="Q24" s="16">
         <f t="shared" si="10"/>
@@ -2270,12 +2272,12 @@
       </c>
       <c r="R24" s="17">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="11">
         <v>1696729</v>
@@ -2284,37 +2286,37 @@
         <v>1773136</v>
       </c>
       <c r="D25" s="11">
-        <v>1800347</v>
+        <v>1806827</v>
       </c>
       <c r="E25" s="11">
-        <v>1863118</v>
+        <v>1878938</v>
       </c>
       <c r="F25" s="11">
-        <v>1878938</v>
+        <v>1887296</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="1"/>
-        <v>15820</v>
+        <v>8358</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" si="2"/>
-        <v>8.4911422679616599E-3</v>
+        <v>4.4482574731044E-3</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K25" s="12">
         <f t="shared" si="5"/>
-        <v>105802</v>
+        <v>114160</v>
       </c>
       <c r="L25" s="13">
         <f t="shared" si="0"/>
-        <v>5.9669421860477634E-2</v>
+        <v>6.4383104285288928E-2</v>
       </c>
       <c r="M25" s="11">
         <f t="shared" si="6"/>
@@ -2322,15 +2324,15 @@
       </c>
       <c r="N25" s="14">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O25" s="15">
         <f t="shared" si="8"/>
-        <v>78591</v>
+        <v>80469</v>
       </c>
       <c r="P25" s="13">
         <f t="shared" si="9"/>
-        <v>4.3653251289890171E-2</v>
+        <v>4.4536084528291831E-2</v>
       </c>
       <c r="Q25" s="16">
         <f t="shared" si="10"/>
@@ -2338,12 +2340,12 @@
       </c>
       <c r="R25" s="17">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="11">
         <v>211048</v>
@@ -2352,37 +2354,37 @@
         <v>218200</v>
       </c>
       <c r="D26" s="11">
-        <v>219178</v>
+        <v>221168</v>
       </c>
       <c r="E26" s="11">
-        <v>222701</v>
+        <v>226322</v>
       </c>
       <c r="F26" s="11">
-        <v>226322</v>
+        <v>228964</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="1"/>
-        <v>3621</v>
+        <v>2642</v>
       </c>
       <c r="H26" s="13">
         <f t="shared" si="2"/>
-        <v>1.6259468974095359E-2</v>
+        <v>1.16736331421603E-2</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K26" s="12">
         <f t="shared" si="5"/>
-        <v>8122</v>
+        <v>10764</v>
       </c>
       <c r="L26" s="13">
         <f t="shared" si="0"/>
-        <v>3.7222731439046752E-2</v>
+        <v>4.9330889092575658E-2</v>
       </c>
       <c r="M26" s="11">
         <f t="shared" si="6"/>
@@ -2390,28 +2392,28 @@
       </c>
       <c r="N26" s="14">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O26" s="15">
         <f t="shared" si="8"/>
-        <v>7144</v>
+        <v>7796</v>
       </c>
       <c r="P26" s="13">
         <f t="shared" si="9"/>
-        <v>3.2594512222942074E-2</v>
+        <v>3.5249222310641759E-2</v>
       </c>
       <c r="Q26" s="16">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="R26" s="17">
         <f t="shared" si="11"/>
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" s="11">
         <v>611779</v>
@@ -2420,37 +2422,37 @@
         <v>628792</v>
       </c>
       <c r="D27" s="11">
-        <v>631105</v>
+        <v>632568</v>
       </c>
       <c r="E27" s="11">
-        <v>648509</v>
+        <v>652910</v>
       </c>
       <c r="F27" s="11">
-        <v>652910</v>
+        <v>657749</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="1"/>
-        <v>4401</v>
+        <v>4839</v>
       </c>
       <c r="H27" s="13">
         <f t="shared" si="2"/>
-        <v>6.786336041596952E-3</v>
+        <v>7.4114349604079699E-3</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K27" s="12">
         <f t="shared" si="5"/>
-        <v>24118</v>
+        <v>28957</v>
       </c>
       <c r="L27" s="13">
         <f t="shared" si="0"/>
-        <v>3.8356085955292052E-2</v>
+        <v>4.6051794552093517E-2</v>
       </c>
       <c r="M27" s="11">
         <f t="shared" si="6"/>
@@ -2462,11 +2464,11 @@
       </c>
       <c r="O27" s="15">
         <f t="shared" si="8"/>
-        <v>21805</v>
+        <v>25181</v>
       </c>
       <c r="P27" s="13">
         <f t="shared" si="9"/>
-        <v>3.4550510612338714E-2</v>
+        <v>3.9807577999519506E-2</v>
       </c>
       <c r="Q27" s="16">
         <f t="shared" si="10"/>
@@ -2474,12 +2476,12 @@
       </c>
       <c r="R27" s="17">
         <f t="shared" si="11"/>
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="11">
         <v>628676</v>
@@ -2488,37 +2490,37 @@
         <v>662609</v>
       </c>
       <c r="D28" s="11">
-        <v>673467</v>
+        <v>675067</v>
       </c>
       <c r="E28" s="11">
-        <v>701522</v>
+        <v>706727</v>
       </c>
       <c r="F28" s="11">
-        <v>706727</v>
+        <v>708309</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="1"/>
-        <v>5205</v>
+        <v>1582</v>
       </c>
       <c r="H28" s="13">
         <f t="shared" si="2"/>
-        <v>7.4195819945774844E-3</v>
+        <v>2.2384881290795633E-3</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J28" s="14">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K28" s="12">
         <f t="shared" si="5"/>
-        <v>44118</v>
+        <v>45700</v>
       </c>
       <c r="L28" s="13">
         <f t="shared" si="0"/>
-        <v>6.6582252882167348E-2</v>
+        <v>6.8969784593930994E-2</v>
       </c>
       <c r="M28" s="11">
         <f t="shared" si="6"/>
@@ -2526,15 +2528,15 @@
       </c>
       <c r="N28" s="14">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O28" s="15">
         <f t="shared" si="8"/>
-        <v>33260</v>
+        <v>33242</v>
       </c>
       <c r="P28" s="13">
         <f t="shared" si="9"/>
-        <v>4.9386235702714387E-2</v>
+        <v>4.9242519631384818E-2</v>
       </c>
       <c r="Q28" s="16">
         <f t="shared" si="10"/>
@@ -2542,12 +2544,12 @@
       </c>
       <c r="R28" s="17">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" s="11">
         <v>432986</v>
@@ -2556,41 +2558,41 @@
         <v>468732</v>
       </c>
       <c r="D29" s="11">
-        <v>480149</v>
+        <v>484025</v>
       </c>
       <c r="E29" s="11">
-        <v>507616</v>
+        <v>514901</v>
       </c>
       <c r="F29" s="11">
-        <v>514901</v>
+        <v>520551</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="1"/>
-        <v>7285</v>
+        <v>5650</v>
       </c>
       <c r="H29" s="13">
         <f t="shared" si="2"/>
-        <v>1.4351399483073735E-2</v>
+        <v>1.0972983155985272E-2</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J29" s="14">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K29" s="12">
         <f t="shared" si="5"/>
-        <v>46169</v>
+        <v>51819</v>
       </c>
       <c r="L29" s="13">
         <f t="shared" si="0"/>
-        <v>9.8497648976387353E-2</v>
+        <v>0.11055144517549476</v>
       </c>
       <c r="M29" s="11">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N29" s="14">
         <f t="shared" si="7"/>
@@ -2598,11 +2600,11 @@
       </c>
       <c r="O29" s="15">
         <f t="shared" si="8"/>
-        <v>34752</v>
+        <v>36526</v>
       </c>
       <c r="P29" s="13">
         <f t="shared" si="9"/>
-        <v>7.2377532807524236E-2</v>
+        <v>7.5463044264242551E-2</v>
       </c>
       <c r="Q29" s="16">
         <f t="shared" si="10"/>
@@ -2610,12 +2612,12 @@
       </c>
       <c r="R29" s="17">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="11">
         <v>451010</v>
@@ -2624,41 +2626,41 @@
         <v>461059</v>
       </c>
       <c r="D30" s="11">
-        <v>465172</v>
+        <v>465586</v>
       </c>
       <c r="E30" s="11">
-        <v>482754</v>
+        <v>484206</v>
       </c>
       <c r="F30" s="11">
-        <v>484206</v>
+        <v>486209</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="1"/>
-        <v>1452</v>
+        <v>2003</v>
       </c>
       <c r="H30" s="13">
         <f t="shared" si="2"/>
-        <v>3.0077430741122235E-3</v>
+        <v>4.1366691036459624E-3</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J30" s="14">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K30" s="12">
         <f t="shared" si="5"/>
-        <v>23147</v>
+        <v>25150</v>
       </c>
       <c r="L30" s="13">
         <f t="shared" si="0"/>
-        <v>5.0203986908400111E-2</v>
+        <v>5.4548333293569895E-2</v>
       </c>
       <c r="M30" s="11">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N30" s="14">
         <f t="shared" si="7"/>
@@ -2666,11 +2668,11 @@
       </c>
       <c r="O30" s="15">
         <f t="shared" si="8"/>
-        <v>19034</v>
+        <v>20623</v>
       </c>
       <c r="P30" s="13">
         <f t="shared" si="9"/>
-        <v>4.0918197999879613E-2</v>
+        <v>4.4294716765538533E-2</v>
       </c>
       <c r="Q30" s="16">
         <f t="shared" si="10"/>
@@ -2678,12 +2680,12 @@
       </c>
       <c r="R30" s="17">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" s="11">
         <v>586281</v>
@@ -2692,66 +2694,66 @@
         <v>598307</v>
       </c>
       <c r="D31" s="11">
-        <v>589565</v>
+        <v>602189</v>
       </c>
       <c r="E31" s="11">
-        <v>595946</v>
+        <v>599784</v>
       </c>
       <c r="F31" s="11">
-        <v>599784</v>
+        <v>609833</v>
       </c>
       <c r="G31" s="12">
         <f t="shared" si="1"/>
-        <v>3838</v>
+        <v>10049</v>
       </c>
       <c r="H31" s="13">
         <f t="shared" si="2"/>
-        <v>6.4401808217522394E-3</v>
+        <v>1.6754364904699059E-2</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J31" s="14">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="K31" s="12">
         <f t="shared" si="5"/>
-        <v>1477</v>
+        <v>11526</v>
       </c>
       <c r="L31" s="13">
         <f t="shared" si="0"/>
-        <v>2.468632324208242E-3</v>
+        <v>1.9264357595682569E-2</v>
       </c>
       <c r="M31" s="11">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N31" s="14">
         <f t="shared" si="7"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O31" s="15">
         <f t="shared" si="8"/>
-        <v>10219</v>
+        <v>7644</v>
       </c>
       <c r="P31" s="13">
         <f t="shared" si="9"/>
-        <v>1.7333118485663102E-2</v>
+        <v>1.2693689190602875E-2</v>
       </c>
       <c r="Q31" s="16">
         <f t="shared" si="10"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R31" s="17">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" s="11">
         <v>596602</v>
@@ -2760,37 +2762,37 @@
         <v>607801</v>
       </c>
       <c r="D32" s="11">
-        <v>625182</v>
+        <v>620455</v>
       </c>
       <c r="E32" s="11">
-        <v>635287</v>
+        <v>639944</v>
       </c>
       <c r="F32" s="11">
-        <v>639944</v>
+        <v>638712</v>
       </c>
       <c r="G32" s="12">
         <f t="shared" si="1"/>
-        <v>4657</v>
+        <v>-1232</v>
       </c>
       <c r="H32" s="13">
         <f t="shared" si="2"/>
-        <v>7.3305450922180881E-3</v>
+        <v>-1.9251684522395562E-3</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J32" s="14">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K32" s="12">
         <f t="shared" si="5"/>
-        <v>32143</v>
+        <v>30911</v>
       </c>
       <c r="L32" s="13">
         <f t="shared" si="0"/>
-        <v>5.2884085416114779E-2</v>
+        <v>5.0857106191006585E-2</v>
       </c>
       <c r="M32" s="11">
         <f t="shared" si="6"/>
@@ -2798,28 +2800,28 @@
       </c>
       <c r="N32" s="14">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O32" s="15">
         <f t="shared" si="8"/>
-        <v>14762</v>
+        <v>18257</v>
       </c>
       <c r="P32" s="13">
         <f t="shared" si="9"/>
-        <v>2.3612324091224712E-2</v>
+        <v>2.9425179908293186E-2</v>
       </c>
       <c r="Q32" s="16">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R32" s="17">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="11">
         <v>209338</v>
@@ -2828,66 +2830,66 @@
         <v>236579</v>
       </c>
       <c r="D33" s="11">
-        <v>236883</v>
+        <v>240519</v>
       </c>
       <c r="E33" s="11">
-        <v>243501</v>
+        <v>245178</v>
       </c>
       <c r="F33" s="11">
-        <v>245178</v>
+        <v>244267</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="1"/>
-        <v>1677</v>
+        <v>-911</v>
       </c>
       <c r="H33" s="13">
         <f t="shared" si="2"/>
-        <v>6.8870353715180244E-3</v>
+        <v>-3.7156678005367816E-3</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J33" s="14">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K33" s="12">
         <f t="shared" si="5"/>
-        <v>8599</v>
+        <v>7688</v>
       </c>
       <c r="L33" s="13">
         <f t="shared" si="0"/>
-        <v>3.6347266663566913E-2</v>
+        <v>3.2496544494650781E-2</v>
       </c>
       <c r="M33" s="11">
         <f t="shared" si="6"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N33" s="14">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O33" s="15">
         <f t="shared" si="8"/>
-        <v>8295</v>
+        <v>3748</v>
       </c>
       <c r="P33" s="13">
         <f t="shared" si="9"/>
-        <v>3.5017287015108645E-2</v>
+        <v>1.5582968497291239E-2</v>
       </c>
       <c r="Q33" s="16">
         <f t="shared" si="10"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="R33" s="17">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="11">
         <v>696086</v>
@@ -2896,66 +2898,66 @@
         <v>700924</v>
       </c>
       <c r="D34" s="11">
-        <v>719585</v>
+        <v>715753</v>
       </c>
       <c r="E34" s="11">
-        <v>716139</v>
+        <v>718308</v>
       </c>
       <c r="F34" s="11">
-        <v>718308</v>
+        <v>719153</v>
       </c>
       <c r="G34" s="12">
         <f t="shared" si="1"/>
-        <v>2169</v>
+        <v>845</v>
       </c>
       <c r="H34" s="13">
         <f t="shared" si="2"/>
-        <v>3.0287416269747514E-3</v>
+        <v>1.1763755937563847E-3</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J34" s="14">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K34" s="12">
         <f t="shared" si="5"/>
-        <v>17384</v>
+        <v>18229</v>
       </c>
       <c r="L34" s="13">
         <f t="shared" si="0"/>
-        <v>2.4801547671359447E-2</v>
+        <v>2.6007099200483941E-2</v>
       </c>
       <c r="M34" s="11">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N34" s="14">
         <f t="shared" si="7"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O34" s="15">
         <f t="shared" si="8"/>
-        <v>-1277</v>
+        <v>3400</v>
       </c>
       <c r="P34" s="13">
         <f t="shared" si="9"/>
-        <v>-1.7746339904249897E-3</v>
+        <v>4.7502420527751887E-3</v>
       </c>
       <c r="Q34" s="16">
         <f t="shared" si="10"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R34" s="17">
         <f t="shared" si="11"/>
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="11">
         <v>103100</v>
@@ -2964,41 +2966,41 @@
         <v>109884</v>
       </c>
       <c r="D35" s="11">
-        <v>112637</v>
+        <v>113585</v>
       </c>
       <c r="E35" s="11">
-        <v>114896</v>
+        <v>115647</v>
       </c>
       <c r="F35" s="11">
-        <v>115647</v>
+        <v>116221</v>
       </c>
       <c r="G35" s="12">
         <f>F35-E35</f>
-        <v>751</v>
+        <v>574</v>
       </c>
       <c r="H35" s="13">
         <f t="shared" si="2"/>
-        <v>6.5363459128255919E-3</v>
+        <v>4.9633799406816337E-3</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J35" s="14">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K35" s="12">
         <f t="shared" si="5"/>
-        <v>5763</v>
+        <v>6337</v>
       </c>
       <c r="L35" s="13">
         <f t="shared" si="0"/>
-        <v>5.2446216009610191E-2</v>
+        <v>5.766990644679848E-2</v>
       </c>
       <c r="M35" s="11">
         <f t="shared" si="6"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N35" s="14">
         <f t="shared" si="7"/>
@@ -3006,11 +3008,11 @@
       </c>
       <c r="O35" s="15">
         <f t="shared" si="8"/>
-        <v>3010</v>
+        <v>2636</v>
       </c>
       <c r="P35" s="13">
         <f t="shared" si="9"/>
-        <v>2.6723012864334095E-2</v>
+        <v>2.3207289694942013E-2</v>
       </c>
       <c r="Q35" s="16">
         <f t="shared" si="10"/>
@@ -3018,12 +3020,12 @@
       </c>
       <c r="R35" s="17">
         <f t="shared" si="11"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="11">
         <v>734685</v>
@@ -3032,53 +3034,53 @@
         <v>750470</v>
       </c>
       <c r="D36" s="11">
-        <v>743311</v>
+        <v>749926</v>
       </c>
       <c r="E36" s="11">
-        <v>756247</v>
+        <v>762923</v>
       </c>
       <c r="F36" s="11">
-        <v>762923</v>
+        <v>772998</v>
       </c>
       <c r="G36" s="12">
         <f t="shared" si="1"/>
-        <v>6676</v>
+        <v>10075</v>
       </c>
       <c r="H36" s="13">
         <f t="shared" si="2"/>
-        <v>8.8278036144275873E-3</v>
+        <v>1.3205788788645867E-2</v>
       </c>
       <c r="I36" s="11">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J36" s="14">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K36" s="12">
         <f t="shared" si="5"/>
-        <v>12453</v>
+        <v>22528</v>
       </c>
       <c r="L36" s="13">
         <f t="shared" si="0"/>
-        <v>1.6593601343158237E-2</v>
+        <v>3.0018521726384861E-2</v>
       </c>
       <c r="M36" s="11">
         <f t="shared" si="6"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N36" s="14">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O36" s="15">
         <f t="shared" si="8"/>
-        <v>19612</v>
+        <v>23072</v>
       </c>
       <c r="P36" s="13">
         <f t="shared" si="9"/>
-        <v>2.6384649224886925E-2</v>
+        <v>3.0765702215951984E-2</v>
       </c>
       <c r="Q36" s="16">
         <f t="shared" si="10"/>
@@ -3086,12 +3088,12 @@
       </c>
       <c r="R36" s="17">
         <f t="shared" si="11"/>
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="11">
         <v>393339</v>
@@ -3100,53 +3102,53 @@
         <v>414439</v>
       </c>
       <c r="D37" s="11">
-        <v>418066</v>
+        <v>420862</v>
       </c>
       <c r="E37" s="11">
-        <v>428695</v>
+        <v>435910</v>
       </c>
       <c r="F37" s="11">
-        <v>435910</v>
+        <v>440985</v>
       </c>
       <c r="G37" s="12">
         <f t="shared" si="1"/>
-        <v>7215</v>
+        <v>5075</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" si="2"/>
-        <v>1.68301473075263E-2</v>
+        <v>1.1642311486316004E-2</v>
       </c>
       <c r="I37" s="11">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J37" s="14">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K37" s="12">
         <f t="shared" si="5"/>
-        <v>21471</v>
+        <v>26546</v>
       </c>
       <c r="L37" s="13">
         <f t="shared" si="0"/>
-        <v>5.1807382992430817E-2</v>
+        <v>6.4052852168835495E-2</v>
       </c>
       <c r="M37" s="11">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N37" s="14">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O37" s="15">
         <f t="shared" si="8"/>
-        <v>17844</v>
+        <v>20123</v>
       </c>
       <c r="P37" s="13">
         <f t="shared" si="9"/>
-        <v>4.2682255911745903E-2</v>
+        <v>4.78137726855834E-2</v>
       </c>
       <c r="Q37" s="16">
         <f t="shared" si="10"/>
@@ -3154,12 +3156,12 @@
       </c>
       <c r="R37" s="17">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="11">
         <v>195976</v>
@@ -3168,37 +3170,37 @@
         <v>194743</v>
       </c>
       <c r="D38" s="11">
-        <v>196532</v>
+        <v>197186</v>
       </c>
       <c r="E38" s="11">
-        <v>198248</v>
+        <v>197966</v>
       </c>
       <c r="F38" s="11">
-        <v>197966</v>
+        <v>199152</v>
       </c>
       <c r="G38" s="12">
         <f t="shared" si="1"/>
-        <v>-282</v>
+        <v>1186</v>
       </c>
       <c r="H38" s="13">
         <f t="shared" si="2"/>
-        <v>-1.4224607562245417E-3</v>
+        <v>5.9909277350655987E-3</v>
       </c>
       <c r="I38" s="11">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J38" s="14">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="K38" s="12">
         <f t="shared" si="5"/>
-        <v>3223</v>
+        <v>4409</v>
       </c>
       <c r="L38" s="13">
         <f t="shared" si="0"/>
-        <v>1.6550017202158651E-2</v>
+        <v>2.2640094894296636E-2</v>
       </c>
       <c r="M38" s="11">
         <f t="shared" si="6"/>
@@ -3206,15 +3208,15 @@
       </c>
       <c r="N38" s="14">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O38" s="15">
         <f>F38-D38</f>
-        <v>1434</v>
+        <v>1966</v>
       </c>
       <c r="P38" s="13">
         <f>F38/D38-1</f>
-        <v>7.296521686035895E-3</v>
+        <v>9.9702818658524706E-3</v>
       </c>
       <c r="Q38" s="16">
         <f t="shared" si="10"/>
@@ -3222,12 +3224,12 @@
       </c>
       <c r="R38" s="17">
         <f t="shared" si="11"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" s="28">
         <f>SUM(B7:B38)</f>
@@ -3239,43 +3241,43 @@
       </c>
       <c r="D39" s="28">
         <f>SUM(D7:D38)</f>
-        <v>21617326</v>
+        <v>21718601</v>
       </c>
       <c r="E39" s="28">
         <f>SUM(E7:E38)</f>
-        <v>22129433</v>
+        <v>22302690</v>
       </c>
       <c r="F39" s="28">
         <f>SUM(F7:F38)</f>
-        <v>22302690</v>
+        <v>22409268</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" si="1"/>
-        <v>173257</v>
+        <v>106578</v>
       </c>
       <c r="H39" s="30">
         <f t="shared" si="2"/>
-        <v>7.8292561766042379E-3</v>
+        <v>4.7787060663981862E-3</v>
       </c>
       <c r="I39" s="28"/>
       <c r="J39" s="28"/>
       <c r="K39" s="29">
         <f t="shared" si="5"/>
-        <v>929794</v>
+        <v>1036372</v>
       </c>
       <c r="L39" s="30">
         <f t="shared" si="0"/>
-        <v>4.350341666379709E-2</v>
+        <v>4.8490012771315705E-2</v>
       </c>
       <c r="M39" s="31"/>
       <c r="N39" s="32"/>
       <c r="O39" s="33">
         <f>F39-D39</f>
-        <v>685364</v>
+        <v>690667</v>
       </c>
       <c r="P39" s="30">
         <f>F39/D39-1</f>
-        <v>3.1704383789188384E-2</v>
+        <v>3.1800713130647695E-2</v>
       </c>
       <c r="Q39" s="34"/>
       <c r="R39" s="35"/>
@@ -3293,7 +3295,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R41" s="41"/>
     </row>
